--- a/MethodDemos/output/statistics/cermine-REFERENCES.xlsx
+++ b/MethodDemos/output/statistics/cermine-REFERENCES.xlsx
@@ -12,16 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
   <si>
     <t>TUW-137078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ACM
-Addison-Wesley
-ACM Press
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -31,11 +24,6 @@
     <t>TUW-138011</t>
   </si>
   <si>
-    <t>Aap. American Academy of Pediatrics Pediatrics
-National Academy Press
-Institute of Software Technology and Interactive Systems, Vienna University of Technology</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -44,13 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Calendor Press Oxford
-Chapman and Hall
-Addison Wesley
-N. Moroni Barcelona HP Res. Labs
-Center of Cognitive Science
-Cambrige University press
-Wadsworth &amp; Brooks/Cole
 </t>
   </si>
   <si>
@@ -61,12 +42,6 @@
   </si>
   <si>
     <t>TUW-138544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-University of Geneva
-Vienna University of Technology
-Apache project</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -76,24 +51,7 @@
     <t>TUW-138547</t>
   </si>
   <si>
-    <t xml:space="preserve">
-IEEE Press
-ACM Press
-SPIE Press
-ACM Press
-IEEE Press</t>
-  </si>
-  <si>
     <t>TUW-139299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-AHCPR Pub
-AI Communications
-Springer
-Vienna University of Technology, Institut of Software Technology &amp; Interactive Systems
-Society for Medical Decision Making
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -105,287 +63,149 @@
   <si>
     <t>[BBG97]
 [BCK92]
-[BFM97]|Oxford University Press
-[BNKF98]|Morgan Kaufmann
+[BFM97]
+[BNKF98]
 [Bol86]
 [BS73]
-[Dav02]|Statistics Research Associates Limited
-[DS95]|CIRANO Working Papers
+[Dav02]
+[DS95]
 [DS01]
 [Dua95]
 [Eng82]
-[Fra94]|University of Salford, Cybernetics Research Institute
+[Fra94]
 [G+04]
 [GS96]
 [Han97]
 [Han98]
-[Hol75]|University of Michigan Press
-[Hul02]|Prentice Hall International, Inc
-[K+03]|Kluwer Acadamic Publishers
-[KBAK99]|Morgan Kaufmann Publishers
+[Hol75]
+[Hul02]
+[K+03]
+[KBAK99]
 [Keb99]
-[Koz92]|The MIT Press
-[Koz94]|The MIT Press
-[Mic92]|Springer
-[Nef00]|Acadamic Press
+[Koz92]
+[Koz94]
+[Mic92]
+[Nef00]
 [Nol97]
-[Obj03]|Object Management Group, Inc
-[PL04]|Springer-Verlag
-[Rey92]|MIT Press
-[Sin94]|Addison Wesley Longman
-[Str98]|Addison Wesley Longman
-[Vie97]|Springer-Verlag
-[Wei97]|Institute for Mechatronics, Technical University of Darmstadt
+[Obj03]
+[PL04]
+[Rey92]
+[Sin94]
+[Str98]
+[Vie97]
+[Wei97]
 [Zol86]</t>
   </si>
   <si>
     <t>TUW-139769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer
-Springer
-Academic Press
-Kluwer Academic Publishers
-Kluwer Academic Publishers
-Kluwer Academic Publishers
-University of Copenhagen, Dept. of Computer Science
-John Wiley and Sons</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-139781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer
-Springer
-IEEE Press
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-139785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Freeman and Company
-Kluwer Academic Publishers
-Kluwer Academic Publishers|F. W. Glover and G. A. Kochenberger
-American Mathematical Society|P. M. Pardalos and H. Wolkowicz
-Kluwer Academic Publishers|F. W. Glover and G. A. Kochenberger
-Kluwer Academic Publishers|F. W. Glover and G. A. Kochenberger
-Institute of Computer Graphics and Algorithms, Vienna University of Technology
-Kluwer Academic Publishers|F. W. Glover and G. A. Kochenberger
-AT&amp;T Labs Research
-Department of Computer Science, University of Essex
-Springer-Verlag|J. G. Taylor
-Department of Computer Science, University of Essex
-Kluwer Academic Publishers|F. W. Glover and G. A. Kochenberger</t>
+    <t>TUW-139781</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-140047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer</t>
+    <t>TUW-139785</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-140048</t>
-  </si>
-  <si>
-    <t>[BEA03]|BEA, IBM, Microsoft, SAP AG and Siebel Systems
-[BJJW02]|Springer|Stefano Spaccapietra, Salvatore T. March, and Yahiko Kambayashi
-[HH04a]|M. Nüttgens and J. Mendling
-[HH04b]|Springer|Robert Meersman, Zahir Tari, and Angelo Corsaro
-[HHK05]
-[ISO95]|ISO
-[Obj00]|Object Management Group, Inc
-[Obj04]|Object Management Group, Inc
-[Ros02]|RosettaNet
-[UN/01]|UN/CEFACT Techniques and Methodologies Group
-[UN/03]|UN/CEFACT Techniques and Methodologies Group
-[Wor99]|Wide Web Consortium (W3C) Web
-[Wor04]|Wide Web Consortium (W3C) Web</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-140229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Elsevier
-Physica-Verlag|W. Uhr, W. Esswein and E. Schoop
-</t>
-  </si>
-  <si>
-    <t>TUW-140253</t>
-  </si>
-  <si>
-    <t>Springer-Verlag
-ACM
-IEEE Computer Press
-ACM
-Chapman &amp; Hall
-Chapman &amp; Hall
-Springer-Verlag
-ACM Press
-Springer-Verlag|Aksit,M. andMatsuoka, S.
-Der Andere Verlag
-Springer-Verlag
-The MIT Press
-ACM
-ACM Press
-Prentice Hall</t>
+    <t>TUW-140047</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-140308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer-Verlag|Mittermeir, R.T.
-</t>
-  </si>
-  <si>
-    <t>TUW-140533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer-Verlag
-Cambridge University Press
-Escher Technologies Ltd
-Escher Technologies Ltd
-Springer-Verlag|Redmill and Anderson
-Springer-Verlag
-Springer-Verlag
-Wiley
-International Specialized Book Service Inc
-Springer-Verlag
-Springer-Verlag|Jim Grundy and Malcolm Newey
-Cambridge University Press
-IEEE Computer Society
-OMG
-OMG
-Springer-Verlag|Deepak Kapur
-Springer-Verlag. URL http
-Institute of Computer Languages, Vienna University of Technology
-Sun Microsystems
-Springer-Verlag
-Institute of Computer Science, Friedrich-Schiller-University
-Institute of Computer Languages, Vienna University of Technology</t>
+    <t>TUW-140048</t>
+  </si>
+  <si>
+    <t>[BEA03]
+[BJJW02]
+[HH04a]
+[HH04b]
+[HHK05]
+[ISO95]
+[Obj00]
+[Obj04]
+[Ros02]
+[UN/01]
+[UN/03]
+[Wor99]
+[Wor04]</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-140867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MIT Press
-Prentice Hall
-Springer
-Cambridge University Press
-Springer-Verlag|Deepak Kapur
-Technische Universität Ilmenau</t>
+    <t>TUW-140229</t>
+  </si>
+  <si>
+    <t>TUW-140253</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-140895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Dipartimento di Elettronica, Politecnico di Milano
-Dipartimento die Elettronica, Politecnico di Milano
-Springer
-W.H. Freeman
-Institute of Computer Graphics and Algorithms, Vienna University of Technology
-L. Gouveia and C. Mour˜ao
-Kluwer Academic Publishers|S. Voss, S. Martello, I.H. Osman, and C. Roucairol
-A. Barry, F. Rothlauf, D. Thierens, et al.
-Springer|Kalyanmoy Deb et al.
-St. Cloud State University
-Dover Publications, Inc
-ACM Press|Gary Lamont et al.
-Springer Verlag
-IEEE Press
-Kluwer Academic Publishers</t>
-  </si>
-  <si>
-    <t>TUW-140983</t>
-  </si>
-  <si>
-    <t>Addison-Wesley
-McGraw-Hill
-Yahoo! Inc</t>
-  </si>
-  <si>
-    <t>TUW-141024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-National Academies Press
-Klaus Kuhn, Tze Yun Leong, and JimWarren
-Institute of Software Technology &amp; Interactive Systems, Vienna University of Technology
-</t>
-  </si>
-  <si>
-    <t>TUW-141065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Idea Group Inc
-ACTA Press
-Massey University
-</t>
+    <t>TUW-140308</t>
+  </si>
+  <si>
+    <t>TUW-140533</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>TUW-140867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>TUW-140895</t>
+  </si>
+  <si>
+    <t>TUW-140983</t>
+  </si>
+  <si>
+    <t>TUW-141024</t>
+  </si>
+  <si>
+    <t>TUW-141065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>TUW-141121</t>
   </si>
   <si>
-    <t xml:space="preserve">
-IEEE
-ACM Press
-</t>
-  </si>
-  <si>
     <t>TUW-141140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springer|Luis Olsina, Oscar Pastor, Gustavo Rossi and Daniel Schwabe
-Idea Group Publishing
-Springer|Luis Olsina, Oscar Pastor, Gustavo Rossi and Daniel Schwabe
-Morgan Kaufmann
-</t>
   </si>
   <si>
     <t>TUW-141336</t>
@@ -395,7 +215,7 @@
 (Cocco, Dubois, Mandler, Monasson, 2003)
 (Creignou, Daudé, 2003)
 (Creignou, Daudé, Dubois, 2003)
-(Creignou, Khanna, Sudan, 2001)|SIAM
+(Creignou, Khanna, Sudan, 2001)
 (Dubois, Boufkhad, Mandler, 2000)
 (Dubois, Mandler, 2002)
 (Dubois, Monasson, Selman, Zecchina, 2001)
@@ -403,54 +223,44 @@
 (Franz, Leone, Ricci-Tersenghi, Zecchina, 2001)
 (Gent, Walsh, 1999)
 (Janson, 1987)
-(Janson, Luczak, Rucinski, 2000)|John Wiley and sons
+(Janson, Luczak, Rucinski, 2000)
 (Takács, 1988)</t>
   </si>
   <si>
     <t>TUW-141618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBM Almaden Research Center
-Springer Verlag
-SIGMOD Record
-E. F. Codd and Associates
-John Wiley &amp; Sons, Inc
-Pergamon Press
-LNCS 3520
-Springer Verlag
-Physika-Verlag
-Physika-Verlag|J. Gordesch, P. Naeve
-</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>TUW-141758</t>
   </si>
   <si>
-    <t>[Aronow, Feng, 1997]|D-Lib Magazine
+    <t>[Aronow, Feng, 1997]
 [Aronson, 2001]
 [Atkins, Best, Briss, Eccles, Falck-Ytter, Flottorp, Guyatt, Harbour, Haugh, Henry, Hill, Jaeschke, Leng, Liberati, Magrini, Mason, Middleton, Mrukowicz, O’Connell, Oxman, Phillips, Schünemann, Edejer, Varonen, Vist, Williams, Zaza, The GRADE Working Group, 2004a]
 [Atkins, Briss, Eccles, Flottorp, Guyatt, Harbour, Hill, Jaeschke, Liberati, Magrini, Mason, O’Connell, Oxman, Phillips, Schünemann, Edejer, Vist, Williams Jr., The GRADE Working Group, 2005]
 [Atkins, Eccles, Flottorp, Guyatt, Henry, Hill, Liberati, O’Connell, Oxman, Phillips, Schünemann, Edejer, Vist, Williams Jr., The GRADE Working Group, 2004b]
 [Boytcheva, Strupchanska, Paskaleva, Tcharaktchiev, 2005]
-[Bruix, Sherman, Practice Guidelines Committee, American Association for the Study of Liver Diseases, 2005]|
+[Bruix, Sherman, Practice Guidelines Committee, American Association for the Study of Liver Diseases, 2005]
 [Chapman, Bridewell, Hanbury, Cooper, Buchanan, 2001]
 [Divita, 2005]
 [Elkin, Brown, Bauer, Husser, Carruth, Bergstrom, Wahner-Roedler, 2005]
 [Feder, Eccles, Grol, Griffiths, Grimshaw, 1999]
-[Field, Lohr, 1990]|National Academies Press
+[Field, Lohr, 1990]
 [Hahn, Wingard, Anderson, Bensinger, Berenson, Brozeit, Carver, Kyle, PL, 2003]
 [Hazlehurst, Frost, Sittig, Stevens, 2005]
-[Horn, 1989]|University of Chicago Press
+[Horn, 1989]
 [Hripcsak, Friedman, Alderson, DuMouchel, Johnson, Clayton, 1995]
 [Huang, Lowe, 2007]
-[Humphreys, Schuyler, 1993]|Meckler
-[Kaiser, 2007]|Vienna University of Technology, Institute of Software Technology and Interactive
-Systems
-[Kaiser, Martini, Miksch, Öztürk, 2007]|AMIA, IOS Press
+[Humphreys, Schuyler, 1993]
+[Kaiser, 2007]
+[Kaiser, Martini, Miksch, Öztürk, 2007]
 [Klein, Manning, 2003]
 [Kvale, 2006]
 [Kvale, Simoff, Prakash, 2003]
@@ -458,28 +268,28 @@
 [Lehnert, Cardie, Fisher, McCarthy, Riloff, Soderland, 1994]
 [Mccray, 1989]
 [Meystre, Haug, 2005]
-[Miaskkowski, Cleary, Burney, Coyne, Finley, Foster, Grossman, Janjan, Ray, Syrjala, Weisman, Pettit, Zahrbock, 2005]|American Pain Society (APS)
+[Miaskkowski, Cleary, Burney, Coyne, Finley, Foster, Grossman, Janjan, Ray, Syrjala, Weisman, Pettit, Zahrbock, 2005]
 [Mitchell, Becich, Berman, Chapman, Gilbertson, Gupta, Harrison, Legowski, Crowley, 2004]
 [Mutalik, Deshpande, Nadkarni, 2001]
-[National Collaborating Centre for Acute Care, 2005]|National Institute for Clinical Excellence (NICE)
+[National Collaborating Centre for Acute Care, 2005]
 [Otchy, Hyman, Simmang, Anthony, Buie, Cataldo, Church, Cohen, Dentsman, Ellis, 3rd, Ko, Moore, Orsay, Place, Rafferty, Rakinic, Savoca, Tjandra, Whiteford, 2004]
 [Patrick, Wang, Budd, 2006]
 [Rizzo, Lichtin, Woolf, Seidenfeld, Bennett, Cella, Djulbegovic, Goode, Jakubowski, Lee, Miller, Rarick, Regan, Browman, Gordon, 2002]
-[Scottish Intercollegiate Guidelines Network (SIGN), 2003a]|Scottish Intercollegiate Guidelines Network (SIGN)
-[Scottish Intercollegiate Guidelines Network (SIGN), 2003b]|Scottish Intercollegiate Guidelines Network (SIGN)
-[Scottish Intercollegiate Guidelines Network (SIGN), 2004]|Scottish Intercollegiate Guidelines Network (SIGN)
-[Scottish Intercollegiate Guidelines Network (SIGN), 2005a]|Scottish Intercollegiate Guidelines Network (SIGN)
-[Scottish Intercollegiate Guidelines Network (SIGN), 2005b]|Scottish Intercollegiate Guideline Network (SIGN)
+[Scottish Intercollegiate Guidelines Network (SIGN), 2003a]
+[Scottish Intercollegiate Guidelines Network (SIGN), 2003b]
+[Scottish Intercollegiate Guidelines Network (SIGN), 2004]
+[Scottish Intercollegiate Guidelines Network (SIGN), 2005a]
+[Scottish Intercollegiate Guidelines Network (SIGN), 2005b]
 [Shekelle, Woolf, Eccles, Grimshaw, 1999]
 [Simon, Wagner, 2003]
-[Singapore Ministry of Health, 2004a]|Singapore Ministry of Health
-[Singapore Ministry of Health, 2004b]|Singapore Ministry of Health
-[Singapore Ministry of Health, National Committee on Cancer Care, 2004]|Singapore Ministry of Health
+[Singapore Ministry of Health, 2004a]
+[Singapore Ministry of Health, 2004b]
+[Singapore Ministry of Health, National Committee on Cancer Care, 2004]
 [SNOMED International, 2006]
 [Socinsky, Morris, Masters, Lilenbaum, 2003]
 [Tolentino, Matters, Walop, Law, Tong, Liu, Fontelo, Kohl, Payne, 2006]
-[Winquist, Oliver, Gilbert, 2004]|Cancer Care Ontario (CCO)
-[Wolkov, Constine, Yahalom, Chauvenet, Hoppe, Abrams, Deming, Mendenhall, Morris, Ng, Hudson, Winter, Mauch, 2005]|American College of Radiology (ACR)</t>
+[Winquist, Oliver, Gilbert, 2004]
+[Wolkov, Constine, Yahalom, Chauvenet, Hoppe, Abrams, Deming, Mendenhall, Morris, Ng, Hudson, Winter, Mauch, 2005]</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -493,12 +303,12 @@
   </si>
   <si>
     <t>[Avr91]
-[BF99]|Springer-Verlag
-[CFM04]|Springer|Franz Baader and Andrei Voronkov
+[BF99]
+[CFM04]
 [Dum59]
 [EG01]
 [EGHM03]
-[Fer09]|Springer|Ondrej Majer, Ahti-Veikko Pietarinen, and Tero Tulenheimo
+[Fer09]
 [FK06]
 [FP03]
 [Gen69]
@@ -507,16 +317,16 @@
 [Göd32]
 [Gog69]
 [Háj02]
-[HGE95]|Morgan Kaufmann
+[HGE95]
 [HGE96]
-[Há02]|Springer
-[KMP00]|Springer
+[Há02]
+[KMP00]
 [Lor60]
 [Lor61]
 [Luk20]
 [MOG04]
 [MOG05]
-[RJM94]|IEEE Press
+[RJM94]
 [Sca62]
 [Zad96]</t>
   </si>
@@ -524,11 +334,6 @@
     <t>TUW-169511</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Centre de recherche sur les transports, Université de Montréal
-</t>
-  </si>
-  <si>
     <t>TUW-172697</t>
   </si>
   <si>
@@ -542,32 +347,32 @@
   <si>
     <t>[Bearman, 1999]|m
 [Becker et al., 2008a]
-[Becker et al., 2008b]|ACM|m
+[Becker et al., 2008b]|m
 [Beckerle and Westhead, 2004]|m
 [Brandl and Keller-Marxer, 2007]|m
-[Canfield and Xing, 2005]|ACM Press|m
-[Consultative Committee for Space Data Systems, 2002]|Consultative Committee for Space Data Systems|m
-[Díaz et al., 2002]|ACM Press
-[Digital Preservation Testbed Project, 2002]|Digital Preservation Testbed Project|m
+[Canfield and Xing, 2005]|m
+[Consultative Committee for Space Data Systems, 2002]|m
+[Díaz et al., 2002]
+[Digital Preservation Testbed Project, 2002]|m
 [Ferreira et al., 2007]
 [Fisher et al., 2006]
 [van der Hoeven and van Wijngaarden, 2005]
-[ISO, 2002]|ISO|m
-[ISO, 2004]|ISO|m
-[ISO, 2006]|ISO|m
-[ISO19005, 2004]|ISO|m
+[ISO, 2002]|m
+[ISO, 2004]|m
+[ISO, 2006]|m
+[ISO19005, 2004]|m
 [ISSN 1082-9873, 2000]|m
 [K.Fisher and Gruber, 2005]
 [Lawrence et al., 2000]|m
-[Mellor et al., 2002]|Springer|Agosti, M. ; Thanos, M.C.|m
+[Mellor et al., 2002]|m
 [Ramalho et al., 2007]
 [Rothenberg, 1999]|m
 [Rothenberg and Bikson, 1999]|m
 [Strodl et al., 2007]
 [Testbed, 2001]
-[The 100 Year Archive Task Force, 2007]|The 100 Year Archive Task Force|j
-[The Library of Congress, 2007]|The Library of Congress|j
-[UNESCO, 2003]|UNESCO|j</t>
+[The 100 Year Archive Task Force, 2007]|j
+[The Library of Congress, 2007]|j
+[UNESCO, 2003]|j</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -577,24 +382,24 @@
     <t>TUW-175428</t>
   </si>
   <si>
-    <t>Princeton University Press|m
-j
-Dover Publications, Incorporated|m
-j
-j
-j
-j
-m
-j
-j
-Les Cahiers du GERAD, HEC Montreal and GERAD|j
-Kluwer Academic Publisher|F. W. Glover and G. A. Kochenberger|m
-j
-C. Cotta, A. J. Fernandez, and J. E. Gallardo|m
-j
-m
-j
-SIAM|m
+    <t>m
+j
+m
+j
+j
+j
+j
+m
+j
+j
+j
+m
+j
+m
+j
+m
+j
+m
 m</t>
   </si>
   <si>
@@ -625,31 +430,24 @@
     <t>TUW-177140</t>
   </si>
   <si>
-    <t>IEEE Computer Society Press|m
-j
-j
-m
-Springer|m
-AAAI Press|m
-Springer|m
-Springer|m
-m
-Springer|m
-m
-Vienna University of Technology|m
-m
-Springer|m
-Springer|m</t>
+    <t>m
+j
+j
+m
+m
+m
+m
+m
+m
+m
+m
+m
+m
+m
+m</t>
   </si>
   <si>
     <t>TUW-179146</t>
-  </si>
-  <si>
-    <t>IEEE Computer Society
-Politecnico Di Milano
-Queens' College University of Cambridge
-University of Zaragoza
-Technischen Universitt Darmstadt</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -660,43 +458,28 @@
   </si>
   <si>
     <t xml:space="preserve">
-Google
-Morgan Kaufmann
-Morgan Kaufmann
 </t>
+  </si>
+  <si>
+    <t>TUW-181199</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-181199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge University Press
-Springer
-Springer
-Plenum Press
-Free Software Foundation Inc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>TUW-182414</t>
   </si>
   <si>
-    <t>[ASC05]|Turia + Kant
+    <t>[ASC05]
 [BRO06]
 [HBL08]
 [KAH97]
 [MAN00]
-[MAS06]|Springer
-[NEU08]|SUB Göttingen
+[MAS06]
+[NEU08]
 [RAU08]
-[SAN07]|Univ. of Brighton
+[SAN07]
 [STA00]
 [WEI08]</t>
   </si>
@@ -704,21 +487,21 @@
     <t>TUW-182899</t>
   </si>
   <si>
-    <t>(Boud, Keogh, 1985)|Kogan Page|D. Boud, R. Keogh and D. Walker
-(Cannings, Talley, 2003)|Australian Computer Society, Inc
+    <t>(Boud, Keogh, 1985)
+(Cannings, Talley, 2003)
 (Cherry, 2005)
 (Chuang, Rosenbusch, 2005)
-(Clark, Brennan, 1991)|American Psychological Association|L. Resnick, J. Levine and S. Teasley
+(Clark, Brennan, 1991)
 (Collier, 1999)
 (Conati, Carenini, 2001)
-(Crabtree, Rodden, al., 2004)|ACM Press
+(Crabtree, Rodden, al., 2004)
 (Davis, 2006)
-(Dillenbourg, 1999)|Elsevier|P. Dillenbourg
-(Fleck, 2008)|University of Sussex
+(Dillenbourg, 1999)
+(Fleck, 2008)
 (Fleck, Fitzpatrick, 2006)
-(Frohlich, 2004)|Kluwer academic publishers
-(Harper, Randall, al., 2008)|ACM
-(Harper, Randell, al., 2007)|British Computer Society
+(Frohlich, 2004)
+(Harper, Randall, al., 2008)
+(Harper, Randell, al., 2007)
 (Hatton, Smith, 1995)
 (Hutchinson, Bryson, 1997)
 (Jones, McNamara, 2004)
@@ -728,20 +511,20 @@
 (Leung, Kember, 2003)
 (Lindley, Harper, al., 2009)
 (Manouchehri, 2002)
-(Mcdonnell, Lloyd, al., 2002)|University College London
-(Moon, 1999)|Kogan Page Limited
+(Mcdonnell, Lloyd, al., 2002)
+(Moon, 1999)
 (Parry, null)
 (Parsons, Stephenson, 2005)
 (Reinman, 1999)
 (Schön, 1983)
-(Sellen, Fogg, al., 2007)|ACM Press
+(Sellen, Fogg, al., 2007)
 (Sharpe, Hu, al., 2003)
-(Sherin, van Es, 2002)|AACE
+(Sherin, van Es, 2002)
 (Thomson, MacDougall, al., 2005)
-(Thomson, Macdougall, al., 2005)|University of Glamorgan
+(Thomson, Macdougall, al., 2005)
 (Ward, McCotter, 2004)
 (Williams, Wood, 2004)
-(Zuber-Skerritt, 1984)|Billing &amp; Sons Limited</t>
+(Zuber-Skerritt, 1984)</t>
   </si>
   <si>
     <t>TUW-185321</t>
@@ -750,41 +533,13 @@
     <t>TUW-185441</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Springer
-Department of Computer Science, Christian-Albrechts-Universitt zu Kiel
-CRC Press
-TU Wien, Department of Computer Science</t>
-  </si>
-  <si>
     <t>TUW-186227</t>
   </si>
   <si>
-    <t>National Academies Press, Institute of Medicine
-Vienna University of Technology</t>
-  </si>
-  <si>
     <t>TUW-189842</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ACM Press
-</t>
-  </si>
-  <si>
     <t>TUW-191715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Academic Press
-Academic Press|C. Hansen
-ACM Press
-Vienna University of Technology
-IEEE Computer Society
-Microsoft Inc
-Academic Press
-Springer
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -798,94 +553,80 @@
   </si>
   <si>
     <t>[Dudycz, 2005]
-[Edvinsson, Malone, 1997]|HarperBusiness
-[Farlow, 1984]|Marcel Dekker Inc
+[Edvinsson, Malone, 1997]
+[Farlow, 1984]
 [Fitz-Enz, 2001]
-[Hill, Jones, 2000]|Houghton-Mifflin
-[Iwachnienko, 1982]|Naukowa Dumka
-[Johnson, Scholes, 2002]|Pearson Higher Education
+[Hill, Jones, 2000]
+[Iwachnienko, 1982]
+[Johnson, Scholes, 2002]
 [Kasiewicz, Rogowski, Kicińska, 2006]
 [Kasprzak, in. polish]
-[Klaus, Rosemann, Gable, Manufactured in The Netherlands]|Kluwer Academic Publishers
-[Krebs, Patalas-Maliszewska, 2009]|VGTU Press "Technika"|Grasserbauer, M.; Sakalauskas, L.; Zavadskas, E. K.
-[Mintzberg, Lampel, Quinn, Ghoshal, 2003]|Prentice-Hall
-[Nonaka, Takeuchi, 1995]|Oxford University Press
-[Patalas-Maliszewska, 2010]|Applied Computer Science
+[Klaus, Rosemann, Gable, Manufactured in The Netherlands]
+[Krebs, Patalas-Maliszewska, 2009]
+[Mintzberg, Lampel, Quinn, Ghoshal, 2003]
+[Nonaka, Takeuchi, 1995]
+[Patalas-Maliszewska, 2010]
 [Quinn, Anderson, Finkelstein, 1996]
-[Sokołowska, 2005]|PTE</t>
+[Sokołowska, 2005]</t>
   </si>
   <si>
     <t>TUW-194085</t>
   </si>
   <si>
-    <t>Alpern, Schneider [1985]|Cornell University
-Attiya, Welch [2004]|John Wiley &amp; Sons
-Bourbaki [1989]|Springer
-Charron-Bost, Toueg, Basu [2000]|Springer
+    <t>Alpern, Schneider [1985]
+Attiya, Welch [2004]
+Bourbaki [1989]
+Charron-Bost, Toueg, Basu [2000]
 Dolev, Dwork, Stockmeyer [1987]
 Fich, Ruppert [2003]
 Fischer, Lynch, Paterson [1985]
-Hatcher [2002]|Cambridge University Press
+Hatcher [2002]
 Herlihy, Rajsbaum [2000]
 Herlihy, Shavit [1993]
-Herrlich, Strecker [1973]|Allyn and Bacon
+Herrlich, Strecker [1973]
 Lamport [1977]
 Lubitch, Moran [1995]
-Lynch [1996]|Morgan Kaufmann
+Lynch [1996]
 Moses, Rajsbaum [2002]
 Saks, Zaharoglou [2000]
-Santoro, Widmayer [1989]|Springer
-Spanier [1966]|McGraw-Hill</t>
+Santoro, Widmayer [1989]
+Spanier [1966]</t>
   </si>
   <si>
     <t>TUW-194561</t>
   </si>
   <si>
-    <t>Springer|I. Cervesato, H. Veith and A. Voronkov
-Cambridge University Press
-Cambridge University Press
-Kirchner and H. Kirchner
-Springer|R. Treinen
-ACM Press
-Springer|U. Furbach and N. Shankar
-Springer|F. Pfenning
-ACM
-Springer
-Springer|R. Treinen
-A. Geser and J. Waldmann</t>
-  </si>
-  <si>
     <t>TUW-194660</t>
   </si>
   <si>
     <t>TUW-197422</t>
   </si>
   <si>
-    <t>[Byr03]|Lawrence Erlbaum Associates
-[CNM83]|Lawrence Erlbaum Associates
-[Dou01]|The MIT Press
+    <t>[Byr03]
+[CNM83]
+[Dou01]
 [DRC10]
 [GRF08]
 [HHN85]
-[Hut96]|The MIT Press
+[Hut96]
 [Kee10]
-[KN06]|The MIT Press
+[KN06]
 [Lam08]
 [LNS08]
 [LS10]
-[Nor88]|Basic Books
+[Nor88]
 [Nor93]
 [PSCO09]
 [Ric06]
 [SC06]
 [SNLD06]
-[Spe07]|Prentice Hall
+[Spe07]
 [Ste92]
 [Str04]
-[Suc87]|Cambridge University Press
-[TC05]|IEEE Press
-[Tha96]|The MIT Press
-[War04]|Morgan Kaufmann
+[Suc87]
+[TC05]
+[Tha96]
+[War04]
 [YKSJ07]</t>
   </si>
   <si>
@@ -893,9 +634,9 @@
   </si>
   <si>
     <t>[Abb83]
-[APL08]|IEEE Computer Society
-[BM06]|Springer
-[BSW+08]|Warsaw University of Technology
+[APL08]
+[BM06]
+[BSW+08]
 [FKM05]
 [SM04]
 [WKH08]</t>
@@ -908,35 +649,10 @@
     <t>TUW-198400</t>
   </si>
   <si>
-    <t>ACM
-The Economist
-Springer
-Iowa State University, Tech. Rep.
-ACM
-Prentice-Hall
-Educational Researcher
-IEEE Computer Society
-IEEE Computer Society
-Web Application Security Consortium, Tech. Rep.
-Springer Verlag
-Cambridge University Press The MIT Press
-The MIT Press</t>
-  </si>
-  <si>
     <t>TUW-198401</t>
   </si>
   <si>
-    <t>ACM Press
-CERT
-InsightConsulting
-McGraw-Hill</t>
-  </si>
-  <si>
     <t>TUW-198405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEEE Computer Society Press
-</t>
   </si>
   <si>
     <t>TUW-198408</t>
@@ -944,116 +660,72 @@
   <si>
     <t>[Alves2001]
 [Alves2003]
-[Andrews2005]|IEEE
-[Basili1987]|IEEE
+[Andrews2005]
+[Basili1987]
 [Basili1996]
-[Doerner2006]|Omega
+[Doerner2006]
 [Ehrgott2000]
 [Ehrgott2004]
-[Kontio1995]|Institute for Advanced Computer Studies and Department of Computer Science, University of Maryland
-[Kunda2003]|Springer
+[Kontio1995]
+[Kunda2003]
 [Lozanotello2002]
 [Maiden1998]
-[Maiden2002]|Springer
+[Maiden2002]
 [Martinsons1998]
 [Medaglia2006]
-[Morisio2002]|Springer
-[Navarrete2005]|IEEE
-[Ncube2002]|Springer
-[Neubauer2006]|IEEE
-[Ruhe2002]|Springer
-[Ruhe2003]|Springer
+[Morisio2002]
+[Navarrete2005]
+[Ncube2002]
+[Neubauer2006]
+[Ruhe2002]
+[Ruhe2003]
 [Ryan2004]
 [Torchiano2004]
-[Tran1997]|IEEE
+[Tran1997]
 [Stummer2003]
 [Stummer2005]
-[Wanyama2005]|IEEE</t>
+[Wanyama2005]</t>
   </si>
   <si>
     <t>TUW-200745</t>
   </si>
   <si>
-    <t>Universite Libre de Bruxelles
-Indian Institute of Management, Research and Publication Department
-HANSEN, P. (Hrsg.) ; MLADENOVIĆ, N. (Hrsg.) ; PÉREZ, J. A. M. (Hrsg.) ; BATISTA, B. M. (Hrsg.) ; MORENOVEGA, J. M. (Hrsg.)
-QUESADA-ARENCIBIA, A. (Hrsg.)
-ACM
-Technische Universität Wien
-Vieweg
-ACM|KRASNOGOR, Natalio (Hrsg.) ; LANZI, Pier L. (Hrsg.)
-University of Twente
-Springer
-Technische Universität Wien
-Technische Universität Wien
-Technische Universität Wien</t>
-  </si>
-  <si>
     <t>TUW-200748</t>
   </si>
   <si>
     <t xml:space="preserve">
-Plenum Press|R. Miller and J. Thatcher
-IEEE
-Springer|R. Schaefer et al.
-IEEE
-IEEE
-Springer
-IEEE
-Università del Salento
-Universita del Salento
-Springer|O. Günlük and G. Woeginger
-Springer|J. Pahl, T. Reiners, and S. Voß
-Citeseer
-Vienna University of Technology, Institute of Computer Graphics and Algorithms
-A. Quesada-Arencibia et al.
-Springer|R. Moreno-Díaz, F. Pichler, and A. Quesada-Arencibia
-Vienna University of Technology, Institute of Computer Graphics and Algorithms
-Prentice Hall
 </t>
   </si>
   <si>
     <t>TUW-200948</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Springer-Verlag
-Springer
-Ecole Polytech.
-Springer
-Springer Verlag
-ACM
-ACM
-Oxford University Press
-</t>
-  </si>
-  <si>
     <t>TUW-200950</t>
   </si>
   <si>
-    <t>[Al00]|Cambridge Univ. Press|K. Walker
+    <t>[Al00]
 [ALS91]
 [BF05]
-[BFLRRW06]|Springer-Verlag
+[BFLRRW06]
 [BPT92]
-[CFRRRS07]|Springer-Verlag
+[CFRRRS07]
 [Cou90]
-[DF99]|Springer-Verlag
+[DF99]
 [ERT80]
-[FG06]|Springer-Verlag
+[FG06]
 [FGKPRWY07]
 [FHR07]
 [JS97]
-[JT95]|Wiley Interscience
+[JT95]
 [KPW03]
-[KTV98]|AMS, Providence|R. Graham, et al.
-[Ma04]|Department of Computer Science and Information Theory, Budapest University of Technology and Economics
+[KTV98]
+[Ma04]
 [Mey73]
-[Nie06]|Oxford University Press
+[Nie06]
 [Th94]
 [Tu97]
 [Viz76]
-[Wo01]|Cambridge Univ. Press|J. W. P. Hirschfeld</t>
+[Wo01]</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1064,101 +736,61 @@
   </si>
   <si>
     <t xml:space="preserve">
-Springer
-Springer
-Springer-Verlag
-Simon Fraser University
-W. H. Freeman and Company
-Plenum Press
-Elsevier
-Springer
-Pennsylvania State University
 </t>
+  </si>
+  <si>
+    <t>TUW-201066</t>
+  </si>
+  <si>
+    <t>TUW-201160</t>
+  </si>
+  <si>
+    <t>TUW-201167</t>
+  </si>
+  <si>
+    <t>TUW-201821</t>
+  </si>
+  <si>
+    <t>j
+m
+m
+m
+m
+j
+m
+j
+m
+j
+j
+m
+j
+m
+j
+m
+j
+m
+j
+j
+j
+m
+m
+m</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-201066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer|Moreno-Díaz, R., Pichler, F., Quesada-Arencibia, A.
-Blum, C., Roli, A., Sampels, M.
-</t>
-  </si>
-  <si>
-    <t>TUW-201160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Vienna University of Technology
-</t>
-  </si>
-  <si>
-    <t>TUW-201167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Springer|Cowling, P., Merz, P.
-Springer|Moreno-Díaz, R., Pichler, F., Quesada-Arencibia, A.
-Springer|et al., R.S.
-Blum, C., Roli, A., Sampels, M.</t>
-  </si>
-  <si>
-    <t>TUW-201821</t>
-  </si>
-  <si>
-    <t>j
-m
-m
-m
-m
-j
-m
-j
-m
-j
-j
-KR|m
-j
-m
-j
-m
-j
-m
-j
-j
-j
-m
-m
-m</t>
+    <t>TUW-202034</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>TUW-202034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts Institute of Technology (MIT), Sloan School of Management
-Cambridge University Press
-Universite libre de Bruxelles
-Wiley
-Technical University of Denmark
-ACM
-</t>
-  </si>
-  <si>
     <t>TUW-202824</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Washington, D.C.: CIO Council</t>
-  </si>
-  <si>
     <t>TUW-203409</t>
   </si>
   <si>
@@ -1174,15 +806,15 @@
     <t>TUW-204724</t>
   </si>
   <si>
-    <t>(Król, Ludwiczyński, 2007)|PWN
+    <t>(Król, Ludwiczyński, 2007)
 (Barthelme, Ermine, Rosenthal-Sabroux, 1998)
 (Basu, 1998)
-(Carayannis, 1998)|Elsevier
+(Carayannis, 1998)
 (Drew, 1999)
 (Chen, Liang, 1999)
 (Senn, 1990)
 (Chrisman, Chua, Zahra, 2003)
-(McGrath, MacMillan, 2000)|Harvard Business School Press
+(McGrath, MacMillan, 2000)
 (Sirmon, Hitt, 2003)
 (Berio, Harzallah, 2005)
 (Patalas-Maliszewska, Republic, 2009)</t>
@@ -1198,10 +830,10 @@
     <t>TUW-205933</t>
   </si>
   <si>
-    <t>[Bateson, 1973]|Ballantine|m
+    <t>[Bateson, 1973]|m
 [Bishop, 2008]
-[Fenzl and Hofkirchner, 1997]|Gordon &amp; Breach|F. Schweitzer
-[Haken, 1988]|Springer
+[Fenzl and Hofkirchner, 1997]
+[Haken, 1988]
 [Halley and Winkler, 2008]
 [Hofkirchner, 2011]
 [Lenin, 1977]
@@ -1219,52 +851,107 @@
     <t>TUW-213513</t>
   </si>
   <si>
-    <t>University of Wisconsin|m
+    <t>TUW-216744</t>
+  </si>
+  <si>
+    <t>j
+j
+j
+j
+j
+j
+j
+j
+j
+j
+j
+j
+m
+m
+j
+m
+j
 m</t>
   </si>
   <si>
-    <t>TUW-216744</t>
+    <t>TUW-217690</t>
+  </si>
+  <si>
+    <t>TUW-217971</t>
+  </si>
+  <si>
+    <t>m
+m
+m
+m
+m
+m
+j
+m
+m
+m</t>
+  </si>
+  <si>
+    <t>TUW-221215</t>
   </si>
   <si>
     <t>j
 j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-Hall and Partners|m
-m
-j
+m
+j
+j
+j
+j
+m
+m
+j
+m
+m
+j
+j
+j
+j
+m
+j
+j
+j
+m
+m
+m
+m
+j
+j
+m
+m
+j
+j
+m
+j
+j
+m
+j
+j
+m
+m
+m
+j
+m
 m
 j
 m</t>
   </si>
   <si>
-    <t>TUW-217690</t>
-  </si>
-  <si>
-    <t>TUW-217971</t>
-  </si>
-  <si>
-    <t>Vienna University of Technology|m
-Springer-Verlag New York|m
-Morgan Kaufmann Publishers|m
-Hobart Press|m
-Springer|m
-m
-j
-IEEE|m
-Prentice-Hall, Inc|m
+    <t>TUW-223906</t>
+  </si>
+  <si>
+    <t>m
+m
+m
+m
 m</t>
   </si>
   <si>
-    <t>TUW-221215</t>
+    <t>TUW-223973</t>
   </si>
   <si>
     <t>j
@@ -1272,113 +959,52 @@
 m
 j
 j
-j
-j
-m
-m
-j
-Santa Fe Institute|m
-m
-j
-j
-j
-j
-George Washington University|m
-Morgan-Kaufmann
-j
-j
-j
-m
-m
-m
-m
-j
-j
-m
-m
-j
-j
-University of Bologna|m
-j
-j
-m
-j
-j
-Lulu|m
-m
-m
-j
-m
-m
-j
-Springer|m</t>
-  </si>
-  <si>
-    <t>TUW-223906</t>
+m
+j
+j
+j
+j
+j
+m
+m
+j
+j
+m
+m
+j
+m
+m
+j
+m</t>
+  </si>
+  <si>
+    <t>TUW-225252</t>
   </si>
   <si>
     <t>m
 m
 m
 m
+m
+j</t>
+  </si>
+  <si>
+    <t>TUW-226000</t>
+  </si>
+  <si>
+    <t>m
+m
+m
+m
+m
+m
+m
+m
+m
+m
+j
+m
 m</t>
-  </si>
-  <si>
-    <t>TUW-223973</t>
-  </si>
-  <si>
-    <t>j
-j
-m
-University of Sheffield Department of Computer Science|j
-j
-National Academies Press, Institute of Medicine|m
-j
-j
-j
-Springer Berlin Heidelberg|Riao, D., Teije, A., Miksch, S., Peleg, M.|j
-j
-MIT Press|m
-m
-Springer Berlin Heidelberg|Miksch, S., Hunter, J., Keravnou, E.|j
-j
-m
-Scottish Intercollegiate Guidelines Network (SIGN)|m
-j
-Springer Verlag|m
-IOS Press|Brewka, G., Coradeschi, S., Perini, A., Traverso, P.|m
-j
-Springer-Verlag|m</t>
-  </si>
-  <si>
-    <t>TUW-225252</t>
-  </si>
-  <si>
-    <t>ACM Press|m
-m
-ACM Press|m
-Springer Berlin Heidelberg|Cowling, P., Merz, P.|m
-Springer-Verlag|m
-j</t>
-  </si>
-  <si>
-    <t>TUW-226000</t>
-  </si>
-  <si>
-    <t>m
-Springer-Verlag|m
-m
-RedWhale Software|m
-W3C|m
-W3C|m
-W3C|m
-Springer Verlag|m
-Organization for the Advancement of Structured Information Standards (OASIS)|m
-Springer Verlag|m
-j
-W3C
-W3C|m
-W3C|m</t>
   </si>
   <si>
     <t>TUW-226016</t>
@@ -1396,7 +1022,7 @@
 [DL62]|m
 [dMB11]|m
 [DP60]|m
-[DW50]|Chelsea Publishing Company|m
+[DW50]|m
 [ES04]|m
 [FM10]|m
 [G.S83]|m
@@ -1406,7 +1032,7 @@
 [KVar]|m
 [LRCR13]|m
 [MMZ+11]|m
-[MP92]|Springer|m
+[MP92]|m
 [MSS99]|m
 [SS09]|m
 [TH06]|m
@@ -1416,255 +1042,247 @@
     <t>TUW-228620</t>
   </si>
   <si>
-    <t>(acatech 2011)|acatech|m
+    <t>(acatech 2011)|m
 (Accorsi 2011)|m
-(Asokan et al. 2013)|Morgan &amp; Claypool Publishers|m
-(Avizienis et al. 2004)|IEEE|j
+(Asokan et al. 2013)|m
+(Avizienis et al. 2004)|j
 (Biggio et al. 2012)|m
-(Bons et al. 2012)|Springer|j
-(BSI 2011)|BSI|Bundesamt für Sicherheit in der Informationstechnik (BSI)-Federal Office for Information Security|m
-(Buneman et al. 2001)|Springer|m
-(Camenisch and Lysanskaya 2001)|Springer|m
-(Chaum 1985)|ACM|j
+(Bons et al. 2012)|j
+(BSI 2011)|m
+(Buneman et al. 2001)|m
+(Camenisch and Lysanskaya 2001)|m
+(Chaum 1985)|j
 (Dekker et al. 2013)|j
-(DIVSI 2012)|Deutsches Institut für Vertrauen und Sicherheit im Internet (DIVSI)|m
-(Dolev and Yao 1983)|IEEE Computer Society|j
-(Domingos 2012)|ACM|j
-(European Commission 2009)|European Commission|j
-(European Commission 2010)|European Commission|j
-(Fischer et al. 1985)|ACM|j
-(Freire et al. 2013)|Springer|m
-(Furubotn and Richter 2005)|University of Michigan Press
-(Gärtner 1999)|ACM|j
-(Gilliot et al. 2009)|Springer|m
-(Haimes 2009)|Society for Risk Analysis|j
-(Hilty et al. 2005)|Springer|m
-(Holling 2001)|Springer|j
-(Huang et al. 2011)|ACM
-(IBM Corporation 2008)|IBM Corporation|j
-(Karjoth et al. 2002)|Springer|m
-(Naehrig et al. 2011)|ACM|m
-(Pfitzmann and Hansen 2010)|TU Dresden and ULD Schleswig-Holstein|m
-(Pfitzmann and Waidner 1992)|Springer|m
-(Pretschner et al. 2006)|ACM|j
-(Prime Minister of Japan and His Cabinet 2013)|Prime Minister of Japan and His Cabinet|m
-(Rannenberg et al. 1999)|Addison-Wesley-Longman|m
-(Riemer et al. 2009)|Springer|j
-(Ristenpart et al. 2009)|ACM|m
-(Sackmann et al. 2006)|ACM|j
-(Samarati and de Capitani di Vimercati 2001)|Springer|m
-(Sonehara et al. 2011)|Gabler|m
-(Van der Aalst 2012)|ACM
-(Wahlster and Müller 2013)|Springer|j
-(Wang and Ju 2006)|Springer|m
-(Weitzner et al. 2008)|ACM|j
+(DIVSI 2012)|m
+(Dolev and Yao 1983)|j
+(Domingos 2012)|j
+(European Commission 2009)|j
+(European Commission 2010)|j
+(Fischer et al. 1985)|j
+(Freire et al. 2013)|m
+(Furubotn and Richter 2005)
+(Gärtner 1999)|j
+(Gilliot et al. 2009)|m
+(Haimes 2009)|j
+(Hilty et al. 2005)|m
+(Holling 2001)|j
+(Huang et al. 2011)
+(IBM Corporation 2008)|j
+(Karjoth et al. 2002)|m
+(Naehrig et al. 2011)|m
+(Pfitzmann and Hansen 2010)|m
+(Pfitzmann and Waidner 1992)|m
+(Pretschner et al. 2006)|j
+(Prime Minister of Japan and His Cabinet 2013)|m
+(Rannenberg et al. 1999)|m
+(Riemer et al. 2009)|j
+(Ristenpart et al. 2009)|m
+(Sackmann et al. 2006)|j
+(Samarati and de Capitani di Vimercati 2001)|m
+(Sonehara et al. 2011)|m
+(Van der Aalst 2012)
+(Wahlster and Müller 2013)|j
+(Wang and Ju 2006)|m
+(Weitzner et al. 2008)|j
 (Whitten and Tygar 1999)|m
-(Wohlgemuth and Müller 2006)|Springer|m
+(Wohlgemuth and Müller 2006)|m
 (Wohlgemuth et al. 2010)|j</t>
   </si>
   <si>
+    <t>TUW-231707</t>
+  </si>
+  <si>
+    <t>TUW-233317</t>
+  </si>
+  <si>
+    <t>m
+m
+m
+j
+m
+m
+j
+m
+m
+m
+j
+m
+m
+j</t>
+  </si>
+  <si>
+    <t>TUW-233657</t>
+  </si>
+  <si>
+    <t>m
+m
+m
+m
+m
+m
+j
+j
+j
+j
+j
+m
+m</t>
+  </si>
+  <si>
+    <t>TUW-236063</t>
+  </si>
+  <si>
+    <t>m
+m
+m</t>
+  </si>
+  <si>
+    <t>TUW-236120</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>TUW-231707</t>
-  </si>
-  <si>
-    <t>TUW-233317</t>
-  </si>
-  <si>
-    <t>Eurographics Association|J. Kohlhammer and D. Keim|m
-Springer Verlag New York, Inc.|m
-Springer|J. V. d. Bussche and V. Vianu|m
-j
-J. Freire, P. Missier, and S. S. Sahoo|m
-ACM|m
-j
-ACM|m
-Springer Berlin Heidelberg|J. Freire, D. Koop, and L. Moreau|m
-m
-j
-Springer Verlag|S. Sadiq|m
-ACM|m
+m
+m
+m
+m
+j
+j
+m
+m
+j
+m
+m
+j
+m
+m</t>
+  </si>
+  <si>
+    <t>TUW-237297</t>
+  </si>
+  <si>
+    <t>m
+m
+m
+m
+m
+j
+m
+m</t>
+  </si>
+  <si>
+    <t>TUW-240858</t>
+  </si>
+  <si>
+    <t>m
+j
+j
+m
+j
+m
+m
+m
+m
+j
+m
+m
 j</t>
   </si>
   <si>
-    <t>TUW-233657</t>
-  </si>
-  <si>
-    <t>Danube University Krems|m
-ACM|m
-ACM|m
-|m
-m
-Springer|m
-j
-j
-j
-j
-j
-Graphics Press|m
-Graphics Press Cheshire|m</t>
-  </si>
-  <si>
-    <t>TUW-236063</t>
-  </si>
-  <si>
-    <t>PublicAffairs, a Member of the Perseus Book Group|m
-m
-Novinka/Nova Science|m</t>
-  </si>
-  <si>
-    <t>TUW-236120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Manchester Metropolitan University|m
-m
-Hofgrefe &amp; Huber|Rychen, D., Sal-ganik, L.|m
-Library and Publishing Centre Comenius University|Bezakova, D., Kalas, I.|m
-Reich, K.|j
-j
-bm:ukk|m
-Allyn &amp; Bacon|Anderson, L. W., David R., Krathwohl, D. R., et al|m
-j
-m
-m
-UNESCO|j
-m
-Vienna University of Technology|m</t>
-  </si>
-  <si>
-    <t>TUW-237297</t>
-  </si>
-  <si>
-    <t>National Academic Press|m
-Vienna University of Technology|m
-Free Press|m
-Duffy, T. M. and Jonassen, D. H.|m
-m
-j
-Stabstelle Studienbezogene Daten, Vizerektorat für Lehre, Technische Universität Wien|m
-ACM|m</t>
-  </si>
-  <si>
-    <t>TUW-240858</t>
+    <t>TUW-245336</t>
+  </si>
+  <si>
+    <t>j
+m
+m
+j
+j
+j
+j
+m
+m
+m
+j
+m
+m
+m
+j
+m
+m
+m
+m
+j
+j
+j
+m</t>
+  </si>
+  <si>
+    <t>TUW-245799</t>
   </si>
   <si>
     <t>m
 j
-j
-m
-j
-m
-m
-m
-Morgan &amp; Claypool Publishers|m
-j
-m
-m
+m
+m
+m
+m
+m</t>
+  </si>
+  <si>
+    <t>TUW-247301</t>
+  </si>
+  <si>
+    <t>j
+j
+m
+j
+m
+j
 j</t>
   </si>
   <si>
-    <t>TUW-245336</t>
-  </si>
-  <si>
-    <t>j
-m
-m
-j
-j
-j
-j
-m
-m
-Vienna University of Technology|m
-j
-m
-m
-United Nations Food and Agriculture Organisation|m
-j
-m
-m
-m
-m
-j
-j
-j
-m</t>
-  </si>
-  <si>
-    <t>TUW-245799</t>
+    <t>TUW-247741</t>
   </si>
   <si>
     <t>m
-Elsevier BV|j
-m
-m
-Sajja &amp; Akerkar|m
-Publishing house Polytechnica|m
-m</t>
-  </si>
-  <si>
-    <t>TUW-247301</t>
-  </si>
-  <si>
-    <t>j
-j
-m
-j
-KR|m
-j
+m
+m
+m
+j
+j
+m
+m
+m
+m
+m
+j
+j
+j
+m
+j
+m
+m
+m
 j</t>
   </si>
   <si>
-    <t>TUW-247741</t>
-  </si>
-  <si>
-    <t>Springer|m
-m
-m
-m
-ACM|j
-j
-ACM|m
-m
-m
-Yahoo! Research|m
-ACM|m
-j
-j
-j
-m
-j
-m
-ACM|m
-ACM|m
-Vienna University of Technology|j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>TUW-247743</t>
   </si>
   <si>
     <t>[AJ99]
-[AS92]|ACM Press
-[Aup03]|Dside publications
+[AS92]
+[Aup03]
 [Dev98]
-[For86]|ACM Press
+[For86]
 [For97]
 [Kas97]
-[Koh97]|IEEE Service Center
+[Koh97]
 [LR06]
 [PDR]
 [PRM02]
 [RPM03]
 [Sam69]
 [SC02]
-[Sof]|Softsurfer.com
+[Sof]
 [Ult03a]
 [Ult03b]
 [Ult05]
@@ -1676,11 +1294,11 @@
     <t>TUW-251544</t>
   </si>
   <si>
-    <t>[BLS11]|ZfL-Verlag|m
+    <t>[BLS11]|m
 [CSU15]|j
 [CTO16]
-[DF08]|Springer Berlin Heidelberg|m
-[Eu16]|Europäische Kommission
+[DF08]|m
+[Eu16]
 [FM10]|m
 [Ga16a]|m
 [Ga16b]|m
@@ -1707,7 +1325,7 @@
 j
 j
 m
-ACM|m
+m
 j
 m</t>
   </si>
@@ -1718,69 +1336,69 @@
     <t>(Amgoud and Vesic 2011)|j
 (Atkinson, Bench-Capon, and McBurney 2006)|j
 (Baroni et al. 2011)|j
-(Bench-Capon, Prakken, and Sartor 2009)|Springer|Simari, G., and Rahwan, I.|j
+(Bench-Capon, Prakken, and Sartor 2009)|j
 (Bench-Capon 2003)|j
-(Brewka and Woltran 2010)|AAAI Press|Lin, F.; Sattler, U.; and Truszczynski, M.|m
-(Brewka et al. 2013)|AAAI Press / IJCAI|Rossi, F.|m
+(Brewka and Woltran 2010)|m
+(Brewka et al. 2013)|m
 (Brewka, Polberg, and Woltran 2014)|m
-(Cayrol and Lagasquie-Schiex 2009)|Springer|Simari, G., and Rahwan, I.|m
+(Cayrol and Lagasquie-Schiex 2009)|m
 (Cayrol and Lagasquie-Schiex 2013)|j
 (Dung 1995)|j
 (Dunne et al. 2015)|j
 (Dyrkolbotn 2014)|m
 (Egly, Gaggl, and Woltran 2010)|m
-(Ellmauthaler and Strass 2014)|IOS Press|Parsons, S.; Oren, N.; Reed, C.; and Cerutti, F.|m
+(Ellmauthaler and Strass 2014)|m
 (Fox et al. 2010)|j
 (Hunter and Williams 2012)|j
-(McBurney and Parsons 2009)|Springer|Simari, G., and Rahwan, I.|m
+(McBurney and Parsons 2009)|m
 (Modgil and Bench-Capon 2011)|j
 (Modgil 2009)|j
-(Nielsen and Parsons 2007)|Springer Berlin Heidelberg|m
-(Nouioua 2013)|Springer Berlin Heidelberg|m
-(Oren, Reed, and Luck 2010)|IOS Press|m
-(Polberg and Oren 2014)|IOS Press|Parsons, S.; Oren, N.; Reed, C.; and Cerutti, F.|m
-(Prakken 2009)|Springer|Simari, G., and Rahwan, I.|m</t>
+(Nielsen and Parsons 2007)|m
+(Nouioua 2013)|m
+(Oren, Reed, and Luck 2010)|m
+(Polberg and Oren 2014)|m
+(Prakken 2009)|m</t>
   </si>
   <si>
     <t>TUW-256654</t>
   </si>
   <si>
     <t>[Ert16]
-[Lev00]|Morgan Kaufmann</t>
+[Lev00]</t>
   </si>
   <si>
     <t>TUW-257397</t>
   </si>
   <si>
     <t>j
-ACM|m
-ACM|j
-Springer|D. Lightfoot, C. Szyperski|m
-ACM|m
-Springer|F. Shull, J. Singer, D. Sjøberg|m
-j
-j
-IEEE|m
-ACM|m
-m
-j
-ACM|m
-ACM|m
-m
-ACM|m
-j
-Vienna University of Technology|m
-m
-Vienna University of Technology, Complang Group|m
-ACM|m
-IEEE|m
-m
-j
-j
-ACM|m
-ACM|m
-ACM|m
-IEEE Press|m</t>
+m
+j
+m
+m
+m
+j
+j
+m
+m
+m
+j
+m
+m
+m
+m
+j
+m
+m
+m
+m
+m
+m
+j
+j
+m
+m
+m
+m</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -4570,21 +4188,21 @@
         <v>1</v>
       </c>
       <c r="F1" t="s" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="n" s="7">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H1" t="n" s="8">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="I1" t="n" s="9">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="11">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138011.pdf")</f>
@@ -4596,24 +4214,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138011-xstream.xml")</f>
       </c>
       <c r="E2" t="s" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n" s="16">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n" s="17">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n" s="18">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="20">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138447.pdf")</f>
@@ -4625,13 +4243,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138447-xstream.xml")</f>
       </c>
       <c r="E3" t="s" s="23">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s" s="24">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s" s="25">
         <v>7</v>
-      </c>
-      <c r="F3" t="s" s="24">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="25">
-        <v>9</v>
       </c>
       <c r="H3" t="n" s="26">
         <v>0.0</v>
@@ -4642,7 +4260,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="29">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138544.pdf")</f>
@@ -4654,24 +4272,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138544-xstream.xml")</f>
       </c>
       <c r="E4" t="s" s="32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n" s="34">
-        <v>0.57</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n" s="35">
-        <v>0.57</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n" s="36">
-        <v>0.57</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="38">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138547.pdf")</f>
@@ -4683,24 +4301,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138547-xstream.xml")</f>
       </c>
       <c r="E5" t="s" s="41">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s" s="42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n" s="43">
-        <v>0.29</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n" s="44">
-        <v>0.29</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n" s="45">
-        <v>0.29</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="46">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="47">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139299.pdf")</f>
@@ -4712,24 +4330,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139299-xstream.xml")</f>
       </c>
       <c r="E6" t="s" s="50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s" s="51">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n" s="52">
-        <v>0.55</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n" s="53">
-        <v>0.55</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n" s="54">
-        <v>0.55</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="55">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="56">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139761.pdf")</f>
@@ -4741,10 +4359,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139761-xstream.xml")</f>
       </c>
       <c r="E7" t="s" s="59">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n" s="61">
         <v>0.0</v>
@@ -4758,7 +4376,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="65">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139769.pdf")</f>
@@ -4770,10 +4388,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139769-xstream.xml")</f>
       </c>
       <c r="E8" t="s" s="68">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s" s="69">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n" s="70">
         <v>1.0</v>
@@ -4787,7 +4405,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="73">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="74">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139781.pdf")</f>
@@ -4799,24 +4417,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139781-xstream.xml")</f>
       </c>
       <c r="E9" t="s" s="77">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s" s="78">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n" s="79">
-        <v>0.63</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n" s="80">
-        <v>0.63</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n" s="81">
-        <v>0.63</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="82">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="83">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139785.pdf")</f>
@@ -4828,10 +4446,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139785-xstream.xml")</f>
       </c>
       <c r="E10" t="s" s="86">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s" s="87">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n" s="88">
         <v>1.0</v>
@@ -4845,7 +4463,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="91">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="92">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140047.pdf")</f>
@@ -4857,24 +4475,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140047-xstream.xml")</f>
       </c>
       <c r="E11" t="s" s="95">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s" s="96">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n" s="97">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n" s="98">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="n" s="99">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="100">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="101">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140048.pdf")</f>
@@ -4886,10 +4504,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140048-xstream.xml")</f>
       </c>
       <c r="E12" t="s" s="104">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s" s="105">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n" s="106">
         <v>0.0</v>
@@ -4903,7 +4521,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="109">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="110">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140229.pdf")</f>
@@ -4915,24 +4533,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140229-xstream.xml")</f>
       </c>
       <c r="E13" t="s" s="113">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s" s="114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n" s="115">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n" s="116">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="I13" t="n" s="117">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="118">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B14" s="119">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140253.pdf")</f>
@@ -4944,24 +4562,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140253-xstream.xml")</f>
       </c>
       <c r="E14" t="s" s="122">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s" s="123">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n" s="124">
-        <v>0.57</v>
+        <v>1.0</v>
       </c>
       <c r="H14" t="n" s="125">
-        <v>0.57</v>
+        <v>1.0</v>
       </c>
       <c r="I14" t="n" s="126">
-        <v>0.57</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="127">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" s="128">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140308.pdf")</f>
@@ -4973,24 +4591,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140308-xstream.xml")</f>
       </c>
       <c r="E15" t="s" s="131">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s" s="132">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n" s="133">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n" s="134">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n" s="135">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="136">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B16" s="137">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140533.pdf")</f>
@@ -5002,10 +4620,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140533-xstream.xml")</f>
       </c>
       <c r="E16" t="s" s="140">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s" s="141">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n" s="142">
         <v>1.0</v>
@@ -5019,7 +4637,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="145">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B17" s="146">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140867.pdf")</f>
@@ -5031,24 +4649,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140867-xstream.xml")</f>
       </c>
       <c r="E17" t="s" s="149">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s" s="150">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n" s="151">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n" s="152">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n" s="153">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="154">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B18" s="155">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140895.pdf")</f>
@@ -5060,10 +4678,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140895-xstream.xml")</f>
       </c>
       <c r="E18" t="s" s="158">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s" s="159">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n" s="160">
         <v>1.0</v>
@@ -5077,7 +4695,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="163">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B19" s="164">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140983.pdf")</f>
@@ -5089,24 +4707,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140983-xstream.xml")</f>
       </c>
       <c r="E19" t="s" s="167">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s" s="168">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n" s="169">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n" s="170">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n" s="171">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="172">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B20" s="173">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141024.pdf")</f>
@@ -5118,24 +4736,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141024-xstream.xml")</f>
       </c>
       <c r="E20" t="s" s="176">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s" s="177">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n" s="178">
-        <v>0.73</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n" s="179">
-        <v>0.73</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n" s="180">
-        <v>0.73</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="181">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B21" s="182">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141065.pdf")</f>
@@ -5147,24 +4765,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141065-xstream.xml")</f>
       </c>
       <c r="E21" t="s" s="185">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="186">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n" s="187">
-        <v>0.79</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n" s="188">
-        <v>0.79</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n" s="189">
-        <v>0.79</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="190">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B22" s="191">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141121.pdf")</f>
@@ -5176,24 +4794,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141121-xstream.xml")</f>
       </c>
       <c r="E22" t="s" s="194">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s" s="195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n" s="196">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n" s="197">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n" s="198">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="199">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B23" s="200">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141140.pdf")</f>
@@ -5205,24 +4823,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141140-xstream.xml")</f>
       </c>
       <c r="E23" t="s" s="203">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s" s="204">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n" s="205">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n" s="206">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n" s="207">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="208">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B24" s="209">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141336.pdf")</f>
@@ -5234,10 +4852,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141336-xstream.xml")</f>
       </c>
       <c r="E24" t="s" s="212">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="213">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n" s="214">
         <v>0.0</v>
@@ -5251,7 +4869,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="217">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B25" s="218">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141618.pdf")</f>
@@ -5263,10 +4881,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141618-xstream.xml")</f>
       </c>
       <c r="E25" t="s" s="221">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s" s="222">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n" s="223">
         <v>1.0</v>
@@ -5280,7 +4898,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="226">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B26" s="227">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141758.pdf")</f>
@@ -5292,10 +4910,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141758-xstream.xml")</f>
       </c>
       <c r="E26" t="s" s="230">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="231">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G26" t="n" s="232">
         <v>0.0</v>
@@ -5309,7 +4927,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="235">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B27" s="236">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168222.pdf")</f>
@@ -5321,10 +4939,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168222-xstream.xml")</f>
       </c>
       <c r="E27" t="s" s="239">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s" s="240">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n" s="241">
         <v>1.0</v>
@@ -5338,7 +4956,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="244">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B28" s="245">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168482.pdf")</f>
@@ -5350,13 +4968,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168482-xstream.xml")</f>
       </c>
       <c r="E28" t="s" s="248">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s" s="249">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s" s="250">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n" s="251">
         <v>0.0</v>
@@ -5367,7 +4985,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="253">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B29" s="254">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-169511.pdf")</f>
@@ -5379,24 +4997,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-169511-xstream.xml")</f>
       </c>
       <c r="E29" t="s" s="257">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s" s="258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n" s="259">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="n" s="260">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="I29" t="n" s="261">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="262">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B30" s="263">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-172697.pdf")</f>
@@ -5408,13 +5026,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-172697-xstream.xml")</f>
       </c>
       <c r="E30" t="s" s="266">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s" s="267">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s" s="268">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n" s="269">
         <v>0.0</v>
@@ -5425,7 +5043,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="271">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B31" s="272">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-174216.pdf")</f>
@@ -5437,10 +5055,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-174216-xstream.xml")</f>
       </c>
       <c r="E31" t="s" s="275">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s" s="276">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n" s="277">
         <v>0.0</v>
@@ -5454,7 +5072,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="280">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B32" s="281">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-175428.pdf")</f>
@@ -5466,10 +5084,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-175428-xstream.xml")</f>
       </c>
       <c r="E32" t="s" s="284">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s" s="285">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G32" t="n" s="286">
         <v>0.0</v>
@@ -5483,7 +5101,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="289">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B33" s="290">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-176087.pdf")</f>
@@ -5495,10 +5113,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-176087-xstream.xml")</f>
       </c>
       <c r="E33" t="s" s="293">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s" s="294">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n" s="295">
         <v>0.08</v>
@@ -5512,7 +5130,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="298">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B34" s="299">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-177140.pdf")</f>
@@ -5524,10 +5142,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-177140-xstream.xml")</f>
       </c>
       <c r="E34" t="s" s="302">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s" s="303">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G34" t="n" s="304">
         <v>0.0</v>
@@ -5541,7 +5159,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="307">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B35" s="308">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-179146.pdf")</f>
@@ -5553,24 +5171,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-179146-xstream.xml")</f>
       </c>
       <c r="E35" t="s" s="311">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s" s="312">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G35" t="n" s="313">
-        <v>0.72</v>
+        <v>1.0</v>
       </c>
       <c r="H35" t="n" s="314">
-        <v>0.72</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n" s="315">
-        <v>0.72</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="316">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B36" s="317">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-180162.pdf")</f>
@@ -5582,24 +5200,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-180162-xstream.xml")</f>
       </c>
       <c r="E36" t="s" s="320">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s" s="321">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G36" t="n" s="322">
-        <v>0.86</v>
+        <v>1.0</v>
       </c>
       <c r="H36" t="n" s="323">
-        <v>0.86</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n" s="324">
-        <v>0.86</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="325">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B37" s="326">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
@@ -5611,24 +5229,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s" s="329">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="330">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G37" t="n" s="331">
-        <v>0.69</v>
+        <v>1.0</v>
       </c>
       <c r="H37" t="n" s="332">
-        <v>0.69</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n" s="333">
-        <v>0.69</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="334">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B38" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
@@ -5640,10 +5258,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s" s="338">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="339">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G38" t="n" s="340">
         <v>0.0</v>
@@ -5657,7 +5275,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="343">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B39" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
@@ -5669,10 +5287,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s" s="347">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="348">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n" s="349">
         <v>0.0</v>
@@ -5686,7 +5304,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="352">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B40" s="353">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
@@ -5698,10 +5316,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-185321-xstream.xml")</f>
       </c>
       <c r="E40" t="s" s="356">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s" s="357">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n" s="358">
         <v>1.0</v>
@@ -5715,7 +5333,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="361">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B41" s="362">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
@@ -5727,24 +5345,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-185441-xstream.xml")</f>
       </c>
       <c r="E41" t="s" s="365">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s" s="366">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G41" t="n" s="367">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n" s="368">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="I41" t="n" s="369">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="370">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B42" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
@@ -5756,24 +5374,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-186227-xstream.xml")</f>
       </c>
       <c r="E42" t="s" s="374">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s" s="375">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G42" t="n" s="376">
-        <v>0.71</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n" s="377">
-        <v>0.71</v>
+        <v>1.0</v>
       </c>
       <c r="I42" t="n" s="378">
-        <v>0.71</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="379">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B43" s="380">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
@@ -5785,10 +5403,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s" s="383">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s" s="384">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n" s="385">
         <v>1.0</v>
@@ -5802,7 +5420,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="388">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B44" s="389">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
@@ -5814,24 +5432,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191715-xstream.xml")</f>
       </c>
       <c r="E44" t="s" s="392">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s" s="393">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n" s="394">
-        <v>0.76</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n" s="395">
-        <v>0.76</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n" s="396">
-        <v>0.76</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="397">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B45" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
@@ -5843,10 +5461,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s" s="401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s" s="402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n" s="403">
         <v>1.0</v>
@@ -5860,7 +5478,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="406">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B46" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
@@ -5872,10 +5490,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s" s="410">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="411">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G46" t="n" s="412">
         <v>0.0</v>
@@ -5889,7 +5507,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="415">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B47" s="416">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
@@ -5901,10 +5519,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194085-xstream.xml")</f>
       </c>
       <c r="E47" t="s" s="419">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="420">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n" s="421">
         <v>0.0</v>
@@ -5918,7 +5536,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="424">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B48" s="425">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
@@ -5930,24 +5548,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194561-xstream.xml")</f>
       </c>
       <c r="E48" t="s" s="428">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s" s="429">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G48" t="n" s="430">
-        <v>0.45</v>
+        <v>1.0</v>
       </c>
       <c r="H48" t="n" s="431">
-        <v>0.45</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n" s="432">
-        <v>0.45</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="433">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B49" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
@@ -5959,10 +5577,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194660-xstream.xml")</f>
       </c>
       <c r="E49" t="s" s="437">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s" s="438">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G49" t="n" s="439">
         <v>1.0</v>
@@ -5976,7 +5594,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="442">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B50" s="443">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
@@ -5988,10 +5606,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-197422-xstream.xml")</f>
       </c>
       <c r="E50" t="s" s="446">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s" s="447">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G50" t="n" s="448">
         <v>0.0</v>
@@ -6005,7 +5623,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="451">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B51" s="452">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
@@ -6017,10 +5635,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-197852-xstream.xml")</f>
       </c>
       <c r="E51" t="s" s="455">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s" s="456">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n" s="457">
         <v>0.0</v>
@@ -6034,7 +5652,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="460">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B52" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
@@ -6046,10 +5664,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s" s="464">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s" s="465">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n" s="466">
         <v>1.0</v>
@@ -6063,7 +5681,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="469">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B53" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
@@ -6075,10 +5693,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s" s="473">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s" s="474">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G53" t="n" s="475">
         <v>1.0</v>
@@ -6092,7 +5710,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="478">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B54" s="479">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
@@ -6104,24 +5722,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s" s="482">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s" s="483">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n" s="484">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="n" s="485">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
       <c r="I54" t="n" s="486">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="487">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B55" s="488">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
@@ -6133,13 +5751,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s" s="491">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s" s="492">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s" s="493">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H55" t="n" s="494">
         <v>0.0</v>
@@ -6150,7 +5768,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="496">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B56" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
@@ -6162,24 +5780,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200745-xstream.xml")</f>
       </c>
       <c r="E56" t="s" s="500">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s" s="501">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G56" t="n" s="502">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="H56" t="n" s="503">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I56" t="n" s="504">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="505">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B57" s="506">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
@@ -6191,10 +5809,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200748-xstream.xml")</f>
       </c>
       <c r="E57" t="s" s="509">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s" s="510">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n" s="511">
         <v>1.0</v>
@@ -6208,7 +5826,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="514">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B58" s="515">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
@@ -6220,24 +5838,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s" s="518">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s" s="519">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G58" t="n" s="520">
-        <v>0.53</v>
+        <v>1.0</v>
       </c>
       <c r="H58" t="n" s="521">
-        <v>0.53</v>
+        <v>1.0</v>
       </c>
       <c r="I58" t="n" s="522">
-        <v>0.53</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="523">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B59" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
@@ -6249,10 +5867,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s" s="527">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s" s="528">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G59" t="n" s="529">
         <v>0.0</v>
@@ -6266,7 +5884,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="532">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B60" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
@@ -6278,24 +5896,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200959-xstream.xml")</f>
       </c>
       <c r="E60" t="s" s="536">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s" s="537">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="G60" t="n" s="538">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="n" s="539">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="I60" t="n" s="540">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="541">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B61" s="542">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
@@ -6307,24 +5925,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201066-xstream.xml")</f>
       </c>
       <c r="E61" t="s" s="545">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s" s="546">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G61" t="n" s="547">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H61" t="n" s="548">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="I61" t="n" s="549">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="550">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B62" s="551">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
@@ -6336,24 +5954,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201160-xstream.xml")</f>
       </c>
       <c r="E62" t="s" s="554">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s" s="555">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G62" t="n" s="556">
-        <v>0.86</v>
+        <v>1.0</v>
       </c>
       <c r="H62" t="n" s="557">
-        <v>0.86</v>
+        <v>1.0</v>
       </c>
       <c r="I62" t="n" s="558">
-        <v>0.86</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="559">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B63" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
@@ -6365,24 +5983,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201167-xstream.xml")</f>
       </c>
       <c r="E63" t="s" s="563">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s" s="564">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n" s="565">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="H63" t="n" s="566">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="I63" t="n" s="567">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="568">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B64" s="569">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
@@ -6394,10 +6012,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s" s="572">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s" s="573">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G64" t="n" s="574">
         <v>0.0</v>
@@ -6411,7 +6029,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="577">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B65" s="578">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
@@ -6423,10 +6041,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202034-xstream.xml")</f>
       </c>
       <c r="E65" t="s" s="581">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s" s="582">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G65" t="n" s="583">
         <v>1.0</v>
@@ -6440,7 +6058,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="586">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B66" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
@@ -6452,13 +6070,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s" s="590">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G66" t="s" s="592">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H66" t="n" s="593">
         <v>0.0</v>
@@ -6469,7 +6087,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -6481,24 +6099,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-203409-xstream.xml")</f>
       </c>
       <c r="E67" t="s" s="599">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s" s="600">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s" s="601">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H67" t="s" s="602">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="I67" t="s" s="603">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -6510,10 +6128,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-203924-xstream.xml")</f>
       </c>
       <c r="E68" t="s" s="608">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s" s="609">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G68" t="n" s="610">
         <v>1.0</v>
@@ -6527,7 +6145,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -6539,10 +6157,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s" s="618">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G69" t="n" s="619">
         <v>0.0</v>
@@ -6556,7 +6174,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -6568,10 +6186,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-205557-xstream.xml")</f>
       </c>
       <c r="E70" t="s" s="626">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s" s="627">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G70" t="n" s="628">
         <v>0.0</v>
@@ -6585,7 +6203,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -6597,10 +6215,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-205933-xstream.xml")</f>
       </c>
       <c r="E71" t="s" s="635">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s" s="636">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n" s="637">
         <v>0.0</v>
@@ -6614,7 +6232,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -6626,10 +6244,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G72" t="n" s="646">
         <v>0.0</v>
@@ -6643,7 +6261,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -6655,10 +6273,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-216744-xstream.xml")</f>
       </c>
       <c r="E73" t="s" s="653">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s" s="654">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G73" t="n" s="655">
         <v>0.0</v>
@@ -6672,7 +6290,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -6684,10 +6302,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-217690-xstream.xml")</f>
       </c>
       <c r="E74" t="s" s="662">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s" s="663">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G74" t="n" s="664">
         <v>0.0</v>
@@ -6701,7 +6319,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -6713,10 +6331,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-217971-xstream.xml")</f>
       </c>
       <c r="E75" t="s" s="671">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s" s="672">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n" s="673">
         <v>0.0</v>
@@ -6730,7 +6348,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -6742,24 +6360,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-221215-xstream.xml")</f>
       </c>
       <c r="E76" t="s" s="680">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s" s="681">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G76" t="n" s="682">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
       <c r="H76" t="n" s="683">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="I76" t="n" s="684">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -6771,10 +6389,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G77" t="n" s="691">
         <v>0.0</v>
@@ -6788,7 +6406,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -6800,10 +6418,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223973-xstream.xml")</f>
       </c>
       <c r="E78" t="s" s="698">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s" s="699">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G78" t="n" s="700">
         <v>0.04</v>
@@ -6817,7 +6435,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -6829,10 +6447,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-225252-xstream.xml")</f>
       </c>
       <c r="E79" t="s" s="707">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s" s="708">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n" s="709">
         <v>0.0</v>
@@ -6846,7 +6464,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -6858,24 +6476,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-226000-xstream.xml")</f>
       </c>
       <c r="E80" t="s" s="716">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s" s="717">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G80" t="n" s="718">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
       <c r="H80" t="n" s="719">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
       <c r="I80" t="n" s="720">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -6887,10 +6505,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-226016-xstream.xml")</f>
       </c>
       <c r="E81" t="s" s="725">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s" s="726">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G81" t="n" s="727">
         <v>0.0</v>
@@ -6904,7 +6522,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -6916,10 +6534,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s" s="735">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G82" t="n" s="736">
         <v>0.0</v>
@@ -6933,7 +6551,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -6945,13 +6563,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-231707-xstream.xml")</f>
       </c>
       <c r="E83" t="s" s="743">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s" s="744">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s" s="745">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n" s="746">
         <v>0.0</v>
@@ -6962,7 +6580,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -6974,10 +6592,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s" s="753">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G84" t="n" s="754">
         <v>0.0</v>
@@ -6991,7 +6609,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -7003,10 +6621,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s" s="762">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G85" t="n" s="763">
         <v>0.0</v>
@@ -7020,7 +6638,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -7032,10 +6650,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236063-xstream.xml")</f>
       </c>
       <c r="E86" t="s" s="770">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s" s="771">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G86" t="n" s="772">
         <v>0.0</v>
@@ -7049,7 +6667,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -7061,10 +6679,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -7078,7 +6696,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -7090,10 +6708,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-237297-xstream.xml")</f>
       </c>
       <c r="E88" t="s" s="788">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s" s="789">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G88" t="n" s="790">
         <v>0.11</v>
@@ -7107,7 +6725,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -7119,10 +6737,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G89" t="n" s="799">
         <v>0.0</v>
@@ -7136,7 +6754,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -7148,10 +6766,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245336-xstream.xml")</f>
       </c>
       <c r="E90" t="s" s="806">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s" s="807">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G90" t="n" s="808">
         <v>0.0</v>
@@ -7165,7 +6783,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -7177,10 +6795,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s" s="816">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G91" t="n" s="817">
         <v>0.0</v>
@@ -7194,7 +6812,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -7206,10 +6824,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G92" t="n" s="826">
         <v>0.0</v>
@@ -7223,7 +6841,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -7235,10 +6853,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247741-xstream.xml")</f>
       </c>
       <c r="E93" t="s" s="833">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s" s="834">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n" s="835">
         <v>0.0</v>
@@ -7252,7 +6870,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -7264,10 +6882,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247743-xstream.xml")</f>
       </c>
       <c r="E94" t="s" s="842">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s" s="843">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G94" t="n" s="844">
         <v>0.0</v>
@@ -7281,7 +6899,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -7293,13 +6911,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s" s="852">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s" s="853">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n" s="854">
         <v>0.0</v>
@@ -7310,7 +6928,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -7322,10 +6940,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s" s="861">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G96" t="n" s="862">
         <v>0.0</v>
@@ -7339,7 +6957,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -7351,10 +6969,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-255712-xstream.xml")</f>
       </c>
       <c r="E97" t="s" s="869">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s" s="870">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G97" t="n" s="871">
         <v>0.0</v>
@@ -7368,7 +6986,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -7380,10 +6998,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s" s="879">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G98" t="n" s="880">
         <v>0.0</v>
@@ -7397,7 +7015,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -7409,10 +7027,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s" s="888">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n" s="889">
         <v>0.0</v>
@@ -7426,7 +7044,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -7438,10 +7056,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s" s="897">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G100" t="n" s="898">
         <v>0.14</v>

--- a/MethodDemos/output/statistics/cermine-REFERENCES.xlsx
+++ b/MethodDemos/output/statistics/cermine-REFERENCES.xlsx
@@ -12,27 +12,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="295">
   <si>
     <t>TUW-137078</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Cognitive Flexibility, Constructivism, and Hypertext: Random Access Instruction for Advanced Knowledge Acquisition in Ill-Structured Domains,Constructivism and the Technology of Instruction. A Conversation.,R J Spiro,P J Feltovich,M J Jacobson,R L Coulson,Hillsdale, N.J.,57,76,1992,1992
+ref2,Visualizing and Assessing Navigation in Hypertext,Proceedings of the Hypertext '99 conference,ACM,J E McEneaney,Darmstadt, Germany,61,70,1999,1999
+ref3,Human-Computer Interaction,Addison-Wesley,J Preece,Wokingham, England, Reading, Mass., Menlo Park, Cal.,1994,1994
+ref4,A Pragmatic of Links,Hypertext'00 Proceedings,ACM Press,S P Tosca,77,84,2000,2000
+ref5,The element of surprise: Stories from the qualitative evaluation of educational technology,Proceedings of the ED-Media'99,M Barrit,D J Scott,1584,1885
+ref6,Instructional Hypertext: Attentional Strategies and Text Representations Developed for Different Types of Learning Goals,Proceedings of the ED-Media'98,D Dee-Lucas,245,250</t>
+  </si>
+  <si>
+    <t>ref1,: Constructivism and the Technology of Instruction. A Conversation,R.J. Spiro,P.J. Feltovich,M.J. Jacobson,R.L. Coulson,Flexibility Cognitive,D.H. Duffy,Jonassen,57,76,1992
+ref2,in Proceedings of the Hypertext '99 conference (Darmstadt, Germany) ACM:,J.E. McEneaney,Visualizing,61,70,1999
+ref3,Human-Computer Interaction,J Preece,Addison-Wesley 1994
+ref4,A Pragmatic of Links,S.P. Tosca,77,84,2000
+ref5,The element of surprise: Stories from the qualitative evaluation of educational technology in,Proceedings of the ED-Media'99,M. Barrit,D.J., Scott,1584,1885
+ref6,Instructional Hypertext: Attentional Strategies and Text Representations Developed for Different Types of Learning Goals in,D. Dee-Lucas,98,245,250</t>
   </si>
   <si>
     <t>TUW-138011</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Provisional Committee for Quality Improvement and Subcommittee on Hyperbilirubinemia. Practice parameter: management of hyperbilirubinemia in the healthy term newborn,Pediatrics,Aap. American Academy of Pediatrics Pediatrics,94,558,565,1994,1994
+ref2,Clinical Practice Guidelines: Directions for a New Program,National Academy Press,M Field,K Lohr,Washington D.C.,1990,1990
+ref3,PROforma: a general technology for clinical decision support systems,Computer Methods and Programs in Biomedicine,J Fox,N Johns,C Lyons,A Rahmanzadeh,R Thomson,P Wilson,54,59,67,1997,1997
+ref4,The concept and implementation of skeletal plans,Journal of automated reasoning,P Friedland,Y Iwasaki,1,2,161,208,1985,1985
+ref5,The formalisation of medical protocols: easier said than done,M Geldof,2003,2003
+ref6,Improving medical protocols through formalization: a case study,Proc. of the 6th Int. Conf. on Integrated Design and Process Technology (IDPT-02),M Marcos,H Roomans,A Ten Teije,F Van Harmelen,2002,2002
+ref7,Guideline Interchange Format: a model for representing guidelines,J. of the American Medical Informatics Ass,L Ohno-Machado,J Gennari,S Murphy,N Jain,S Tu,D Oliver,E Pattison-Gordon,R Greenes,E Shortliffe,G Octo Barnett,5,4,357,372,1998,1998
+ref8,NHG-Standaard Diabetes Mellitus Type 2 (eerste herziening),Huisarts en Wetenschap,G Rutten,S Verhoeven,R Heine,W de Grauw,P Cromme,K Reenders,E van Ballegooie,T Wiersma,42,2,First revision,67,84,1999,1999
+ref9,The asgaard project: a task-specific framework for the application and critiquing of time-oriented clinical guidelines,AIM,Y Shahar,S Miksch,P Johnson,14,29,51,1998,1998
+ref10,Structured knowledge acquisition for asbru,Master's thesis,Institute of Software Technology and Interactive Systems, Vienna University of Technology,P Votruba,Vienna, Austria,2003,2003</t>
+  </si>
+  <si>
+    <t>ref1,American Academy of Pediatrics, Provisional Committee for Quality Improvement and Subcommittee on Hyperbilirubinemia. Practice parameter: management of hyperbilirubinemia in the healthy term newborn,Pediatrics,,94,558,565,1994
+ref2,Clinical Practice Guidelines: Directions for a New Program,M. Field,K. Lohr,1990
+ref3,a general technology for clinical decision support systems,Computer Methods,J. Fox,N. Johns,C. Lyons,A. Rahmanzadeh,R. Thomson,P. Wilson. PROforma:,54,59,67,1997
+ref4,The concept and implementation of skeletal plans,Journal of automated reasoning,P. Friedland,Y. Iwasaki,1,2,161,208,1985
+ref5,The formalisation of medical protocols: easier said than done,Master's thesis,M. Geldof,2003
+ref6,Improving medical protocols through formalization: a case study,In Proc. of the 6th Int. Conf. on Integrated Design and Process Technology (IDPT-02),M. Marcos,H. Roomans,F. van Harmelen Teije,2002
+ref7,Guideline Interchange Format: a model for representing guidelines,J. of the American Medical Informatics Ass.,J. Ohno-Machado,S. Gennari,N. Murphy,S. Jain,D. Tu,E. Oliver,R. Pattison-Gordon,G. Octo Greenes,Barnett,5,4,357,372,1998
+ref8,NHG-Standaard Diabetes Mellitus Type 2 (eerste herziening),Huisarts en Wetenschap,G. Rutten,S. Verhoeven,R. Heine,P. Cromme,K. Reenders,E. van Ballegooie,T. Wiersma,42,2,67,84,1999
+ref9,The asgaard project: a task-specific framework for the application and critiquing of time-oriented clinical guidelines,AIM,Y. Shahar,S. Miksch,P. Johnson,14,29,51,1998
+ref10,Structured knowledge acquisition for asbru,Institute of Software Technology and Interactive Systems,P. Votruba,2003</t>
   </si>
   <si>
     <t>TUW-138447</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Applicazione di algoritmi di apprendimento alla caratterizzazione colorimetrica di stampanti a colori,A Artusi,Univ. Degli studi di Milano, A.A,1996
+ref2,Boosting learning Algorithms for the Colorimetric Characterization of Color Printers,Proc. WIRN'98,A Artusi,P Campadelli,R Schettini,Vietri, Giugn,283,289,1998,1998
+ref3,Inkjet color printer caliration by back-propagation,Communication at the Workshop on Envaluation Criteria of Neural Net Efficiency in Industrial Applications,S Albanese,P Campadelli,R Schettini,Vietri,1995-11,1995,11
+ref4,Neural Networks for Pattern Recognition,Calendor Press Oxford,C M Bishop,1996,1996
+ref5,Application of Neural Networks to the Computer Recipe Prediction,Color research and application,J M Bishop,M J Bushnell,S Westland,16,1,3,9,1991-02,1991,2
+ref6,Function approximation from noisy data by an incremental RBF network,Pattern Recognition,M Carozza,S Rampone,32,12,2081,2083,1999,1999
+ref7,An Introduction to the Bootstrap,Chapman and Hall,B Efron,R J Tibshirani,1993,1993
+ref8,Color Appearance Models,Addison Wesley,Mark D Fairchild,1998,1998
+ref9,Generalised croos-validation as a method for choosing a good ridge parameters,Technometrics,G H Golub,M Heat,G Wahba,21,2,215,223,1979,1979
+ref10,Robust radial basis function neural networks". ,IEEE trans, on systems, man and cybernetics,Lee,29,674,685,1999,1999
+ref11,Some comments on Cp,Technometrics,C Mallows,15,661,675,1973,1973
+ref12,Matlab Function reference,Mathworks,2000,2000
+ref13,Personal Communication,N. Moroni Barcelona HP Res. Labs,,1996,1996
+ref14,Regularisation in the selection of radial basis function centres,Neural Computation,M J L Orr,7,3,606,623,1995,1995
+ref15,Introduction to Radial Basis Function Networks,Center of Cognitive Science,M J L Orr,University of Edinburgh,1996,1996
+ref16,Neural network application to the color scanner and printer calibrations,Journal of Electronic Imaging,H R Kang,P G Anderson,1,25,135,1992,1992
+ref17,Numerical Recipes in C The Art of Scentific Computing. Second Edition,Cambrige University press,W H Press,S A Teukolsky,W T Vetterling,B P Flannery,1992,1992
+ref18,Applied Regression Analysis,Wadsworth &amp; Brooks/Cole,J O Rawlings,Pacific Grove, CA,1988,1988
+ref19,Estimating the dimension of a model,Annals of Statistics,G Schwarz,6,461,464,1978,1978
+ref20,A color mapping method for CMYK Printers,Proc. 4th IS&amp;T&amp;SID's Color Imaging Conference: Color Science, Systems and Applications,S Tominaga,1996,1996</t>
   </si>
   <si>
     <t/>
@@ -44,753 +94,2214 @@
     <t>TUW-138544</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Overview of the MPEG-7 standard,IEEE Transactions on Circuits and Systems for Video Technology,S F Chang,T Sikora,A Puri,11,6,688,695,2001-06,2001,6
+ref2,VizIR – A Framework for Visual Information Retrieval,Journal of Visual Languages and Computing,H Eidenberger,C Breiteneder,14,443,469,2003-09,2003,9
+ref3,Media Handling for Visual Information Retrieval in VizIR,Proc. SPIE Visual Communications and Image Processing Conference 2003,H Eidenberger,5150,1078,1088,2003-07,2003,7
+ref4,Color and texture descriptors,IEEE Transactions on Circuits and Systems for Video Technology,B S Manjunath,J R Ohm,V V Vasudevan,A Yamada,11,6,703,715,2001-06,2001,6
+ref5,Multimedia Retrieval Markup Language website,University of Geneva,,http://www.mrml.net/
+ref6,VizIR project website,Vienna University of Technology,,http://vizir.ims.tuwien.ac.at/
+ref7,Cocoon framework website,Apache project,,http://cocoon.apache.org/</t>
+  </si>
+  <si>
+    <t>ref1,"Overview of the MPEG-7 standard",IEEE Transactions on Circuits and Systems for Video Technology,S.F. Chang,T. Sikora,A. Puri,11,6,688,695,June 2001
+ref2,"VizIR - A Framework for Visual Information Retrieval",Journal of Visual Languages and Computing,H. Eidenberger,C. Breiteneder,14,443,469,September 2003
+ref3,"Media Handling for Visual Information Retrieval in VizIR",in Proc. SPIE Visual Communications and Image Processing Conference,H. Eidenberger,5150,1078,1088,July 2003
+ref4,"Color and texture descriptors",IEEE Transactions on Circuits and Systems for Video Technology,B.S. Manjunath,J.R. Ohm,V.V. Vasudevan,A. Yamada,11,6,703,715,June 2001
+ref5,Multimedia Retrieval Markup Language website,,01
+ref6,VizIR project website,,01
+ref7,last visited 2004-01-07,project Apache</t>
   </si>
   <si>
     <t>TUW-138547</t>
   </si>
   <si>
+    <t>ref1,Minimum Overhead Data Partitioning Algorithms for Parallel Video Processing,Proceedings Domain Decomposition Methods Conference,D T Altilar,Y Paker,Chiba Japan,251,258,2001-10,2001,10
+ref2,Supporting Real-Time and Multimedia Applications on the Mercuri Testbed,IEEE Journal on Selected Areas in Communications,IEEE Press,A Guha,A Pavan,J Liu,A Rastogi,T Steeves,13,4,749,763,1995-05,1995,5
+ref3,Java Media Framework Website,SUN Microsystems,http://java.sun.com/ products/java-media/jmf/
+ref4,A Multicast Control Scheme for Parallel Software-only Video Effects Processing,Proceedings ACM Multimedia Conference,ACM Press,K Mayer-Patel,L A Rowe,Orlando FL,409,418,1999-11,1999,11
+ref5,Exploiting Spatial Parallelism for Software-only Video Effects Processing,Proceedings SPIE Multimedia Computing and Networking Conference,SPIE Press,K Mayer-Patel,L A Rowe,San Jose CA,28,39,1998-01,1998,1
+ref6,Exploiting Temporal Parallelism for Software-only Video Effects Processing,Proceedings ACM Multimedia Conference,ACM Press,K Mayer-Patel,L A Rowe,Bristol UK,161,169,1998-09,1998,9
+ref7,Conclusions and future work We present a system for parallel video processing that is based on of-the-shelf hardware (PC-like workstations and Gigabit Ethernet) and free software. The principle is not new: the PSVP systemPipeline-Based Approach for Scheduling Video Processing Algorithms on NOW,IEEE Transactions on Parallel and Distributed Systems,IEEE Press,M T Yang,R Kasturi,A A Sivasubramaniam,14,2,119,130,2003-02,2003,2</t>
+  </si>
+  <si>
+    <t>ref1,"Minimum Overhead Data Partitioning Algorithms for Parallel Video Processing,",Proceedings Domain Decomposition Methods Conference,D.T. Altilar,Y. Paker,251,258,2001
+ref2,"Supporting Real-Time and Multimedia Applications on the Mercuri Testbed,",IEEE Journal on Selected Areas in Communications,A. Guha,A. Pavan,J. Liu,A. Rastogi,T. Steeves,13,4,749,763,May 1995
+ref3,SUN Microsystems,2004
+ref4,"A Multicast Control Scheme for Parallel Software-only Video Effects Processing,",Proceedings ACM Multimedia Conference,K. Mayer-Patel,L.A. Rowe,FL Orlando,409,418,1999
+ref5,"Exploiting Spatial Parallelism for Software-only Video Effects Processing,",Proceedings SPIE Multimedia Computing and Networking Conference,K. Mayer-Patel,L.A. Rowe,28,39,1998
+ref6,"Exploiting Temporal Parallelism for Software-only Video Effects Processing,",Proceedings ACM Multimedia Conference,K. Mayer-Patel,L.A. Rowe,UK Bristol,161,169,1998
+ref7,"Pipeline-Based Approach for Scheduling Video Processing Algorithms on NOW," IEEE Transactions on Parallel and Distributed Systems,M.T. Yang,R. Kasturi,A.A. Sivasubramaniam,Feb,14,2,119,130,2003</t>
+  </si>
+  <si>
     <t>TUW-139299</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Design and Implementation of the JGraph Swing Component,Technical Report 1.0.6.,G Alder,2002,2002
+ref2,The Home Page of JGraph,G Alder,2002,2002,http://jgraph.sourceforge.net
+ref3,Use of Algorithms in Clinical Practice Guideline Development: Methodology Perspectives,AHCPR Pub,D C Hadorn,95,0009,93,104,1995,1995
+ref4,Plan Management in the Medical Domain,AI Communications,S Miksch,12,4,209,235,1999,1999
+ref5,Time-Oriented Skeletal Plans: Support to Design and Execution,Fourth European Conference on Planning (ECP'97,Springer,S Miksch,Y Shahar,W Horn,C Popow,F Paky,P Johnson,1997,1997
+ref6,Comparing Computer-Interpretable Guideline Models: A Case-Study Approach,The Journal of the American Medical Informatics Association (JAMIA),M Peleg,S Tu,J Bury,P Ciccarese,J Fox,R Greenes,R Hall,P Johnson,N Jones,A Kumar,S Miksch,s Quaglini,A Seyfang,E Shortliffe,Stefanelli,10,1,52,68,2003,2003
+ref7,LifeLines: Using Visualization to Enhance Navigation and Analysis of Patient Records,Proceedings of the 1998 American Medical Informatic Association Annual Fall Symposium,C Plaisant,R Mushlin,A Snyder,J Li,D Heller,B Shneiderman,76,80,1998,1998
+ref8,Asbru 7.3 Reference Manual,Technical Report Asgaard-TR-2002-1,Vienna University of Technology, Institut of Software Technology &amp; Interactive Systems,A Seyfang,R Kosara,S Miksch,Vienna, Austria, Europe,2002,2002
+ref9,Proposal for Clinical Algorithm Standards,Medical Decision Making,Society for Medical Decision Making,,12,02,149,154,1992,1992
+ref10,Representation of Clinical Practice Guidelines for Computer-Based Implementations,MedInfo,D Wang,M Peleg,S Tu,E Shortliffe,R Greenes,10,1,285,9,2001,2001
+ref11,Open Clinical - Knowledge Management for
+Medical Care,,2003,2003,http://www.openclinical.org</t>
+  </si>
+  <si>
+    <t>ref1,Design and Implementation of the JGraph Swing Component,Technical Report 1.0.6.,G.,2002a
+ref2,The Home Page of JGraph,G.,2002b
+ref3,Use of Algorithms in Clinical Practice Guideline Development: Methodology Perspectives,[Hadorn,D. C.,93,104,1995
+ref4,Plan Management in the Medical Domain,AI Communications,S.,12,4,209,235,1999
+ref5,Time-Oriented Skeletal Plans: Support to Design and Execution,In Fourth European Conference on Planning (ECP'97),S. Shahar,Y. Horn,W. Popow,C. Paky,F.,P.,1997
+ref6,Comparing Computer-Interpretable Guideline Models: A Case-Study Approach,The Journal of the American Medical Informatics Association (JAMIA),M. Tu,S. Bury,J. Ciccarese,P. Fox,J. Greenes,R.,R.,P. Jones,N. Kumar,A. Miksch,S. Quaglini,S. Seyfang,A. Shortliffe,E. Stefanelli,10,1,52,68,2003
+ref7,LifeLines: Using Visualization to Enhance Navigation and Analysis of Patient Records,In Proceedings of the 1998 American Medical Informatic Association Annual Fall Symposium,C. Mushlin,R. Snyder,A. Li,J. Heller,D. Shneiderman,B.,76,80,1998
+ref8,Asbru 7.3 Reference Manual,Institut of Software Technology &amp; Interactive Systems,A. Kosara,R. Miksch,S.,2002
+ref9,Proposal for Clinical Algorithm Standards,Medical Decision Making,,12,02,149,154,1992
+ref10,Representation of Clinical Practice Guidelines for Computer-Based Implementations,MedInfo,[Wang,D. Wang,M. Peleg,S. Tu,E. Shortliffe,R. Greenes,10,285,9,2001
+ref11,Open Clinical - Knowledge Management for Medical Care,[www.openclinical.org,,2003</t>
   </si>
   <si>
     <t>TUW-139761</t>
   </si>
   <si>
-    <t>[BBG97]
-[BCK92]
-[BFM97]
-[BNKF98]
-[Bol86]
-[BS73]
-[Dav02]
-[DS95]
-[DS01]
-[Dua95]
-[Eng82]
-[Fra94]
-[G+04]
-[GS96]
-[Han97]
-[Han98]
-[Hol75]
-[Hul02]
-[K+03]
-[KBAK99]
-[Keb99]
-[Koz92]
-[Koz94]
-[Mic92]
-[Nef00]
-[Nol97]
-[Obj03]
-[PL04]
-[Rey92]
-[Sin94]
-[Str98]
-[Vie97]
-[Wei97]
-[Zol86]</t>
+    <t>ref1,[BBG97],Monte carlo methods for security pricing,Journal of Economic Dynamics and Control,Phelim Boyle,Mark Broadie,Paul Glasserman,1267,1321,1997,1997
+ref2,[BCK92],ARCH modeling in finance: a review of the theory and empirical evidence,Journal of Econometrics,Tim Bollerslev,Ray Y Chou,Kenneth F Kroner,52,5,95,1992,1992
+ref3,[BFM97],Handbook of Evolutionary Computation,Oxford University Press,Thomas Bäck,David B Fogel,Zbigniew Michalewicz,New York,1997,1997
+ref4,[BNKF98],Genetic Programming-An Introduction,Morgan Kaufmann,Wolfgang Banzhaf,Peter Nordin,Robert E Keller,Frank D Francone,San Francisco, California, USA,1998,1998
+ref5,[Bol86],Generalized autoregressive conditional heteroskedasticity,Journal of Econometrics,Tim Bollerslev,31,1986,1986
+ref6,[BS73],The pricing of options and corporate liabilities,Journal of Political Economy,Fischer Black,Myron Scholes,81,637,659,1973,1973
+ref7,[Dav02],Newran02b-a random number generator library,Technical report,Statistics Research Associates Limited,Robert B Davis,Wellington, NewZealand,2002,2002
+ref8,[DS95],Empirical Martingale Simulation for Asset Prices,CIRANO Working Papers,Jin-Chuan Duan,Jean-Guy Simonato,95-43,1995,1995
+ref9,[DS01],American option pricing under GARCH by a markov chain approximation,Journal of Economic Dynamics &amp; Control,Jin-Chuan Duan,Jean-Guy Simonato,25,1689,1718,2001,2001
+ref10,[Dua95],The GARCH option pricing model,Mathematical Finance,Jin-Chuan Duan,5,1,13,32,1995,1995
+ref11,[Eng82],Autoregressive conditional heteroskedasticity with estimates of the variance of u.k. inflation,Econometrica,Robert F Engle,50,987,1008,1982,1982
+ref12,[Fra94],Genetic Programming in C++,Technical Report 040,University of Salford, Cybernetics Research Institute,P Adam,Fraser,1994,1994
+ref13,[G+04],GNU Scientific Library Reference Manual,Network Theorie Ltd,M Galassi,2,Bristol, United Kingdom,2004,2004
+ref14,[GS96],GARCH Effekte in der Optionsbewertung,Zeitschrift für Betriebswirtschaft,L J Alois,Walter S A Geyer,Schwaiger,65,5,534,540,1996,1996
+ref15,[Han97],Neural Network Approximation of Option Pricing Formulas for Analytically Intractable Option Pricing Models,Journal of Computational Intelligence in Finance,Michael Hanke,5,5,20,27,1997-09,1997,9
+ref16,[Han98],Optionsbewertung mit neuronalen Netzen,Dissertation, Wirtschaftsuniversität Wien,Michael Hanke,1998,1998
+ref17,[Hol75],Adaption in Natural and Artificial Systems,University of Michigan Press,John H Holland,1975,1975
+ref18,[Hul02],Options, futures, and other derivatives,Prentice Hall International, Inc,John C Hull,5,Upper Saddle River, New Jersey, USA,2002,2002
+ref19,[K+03],Genetic Programming IV: Routine Human-Competitive Machine Intelligence,Kluwer Acadamic Publishers,John R Koza,2003,2003
+ref20,[KBAK99],Genetic Programming III, Darwinian Invention and Problem Solving,Morgan Kaufmann Publishers,John R Koza,Forrest H Bennett III,David Andre,Martin A Keane,San Francisco, California, USA,1999,1999
+ref21,[Keb99],Option Pricing with the Genetic Programming Approach,Journal of Computational Intelligence in Finance,Christian Keber,7,6,26,36,1999,1999
+ref22,[Koz92],Genetic Programming,The MIT Press,John R Koza,Cambridge, Massachusetts, USA,1992,1992
+ref23,[Koz94],Genetic Programming II Automatic Discovery of Reuseable Programs,The MIT Press,John R Koza,Cambridge, Massachusetts, USA,1994,1994
+ref24,[Mic92],Genetic Algorithms + Data Structures = Evolution Programs,Springer,Zbigniew Michalewicz,Berlin, Germany,1992,1992
+ref25,[Nef00],An Introduction to the Mathematics of Financial Derivatives,Acadamic Press,Salih N Neftci,2,San Diego, California, USA,2000,2000
+ref26,[Nol97],Numerical calculation of stable densities and distribution functions,Commun. Statist. - Stochastic Models,John P Nolan,13,4,759,774,1997,1997
+ref27,[Obj03],OMG Unified Modeling Language Specification, Ver. 1.5,Object Management Group, Inc,,2003-03,2004,3
+ref28,[PL04],Alternative Bloat Control Methods,Lecture Nodes in Computer Science 3103,Springer-Verlag,Liviu Panait,Sean Luke,630,641,2004,2004
+ref29,[Rey92],An evolved, vision-based behavioral model of coordinated group motion,From Animals to Animats (Proceedings of Simulation of Adaptive Behaviour,MIT Press,Craig W Reynolds,1992,1992
+ref30,[Sin94],Genetic Programming with C++,BYTE Magazin,Addison Wesley Longman,Andy Singleton,1994-02,1994,2
+ref31,[Str98],The C++ Programming Language,Addison Wesley Longman,Bjarne Stroustrup,Reading Mass, USA,1998,1998
+ref32,[Vie97],Einführung in die Stochastick,Springer-Verlag,Reinhard K Viertl,2,Wien,1997,1997
+ref33,[Wei97],The Genetic Programming Kernel,Technical report,Institute for Mechatronics, Technical University of Darmstadt,Thomas Weinbrenner,Wien,1997,1997
+ref34,[Zol86],One-dimensional Stable Distributions,Amer. Math. Soc. Transl. of Math. Monographs,V M Zolotarev,Wien,65,1986,1986</t>
+  </si>
+  <si>
+    <t>ref1,58 8.2 Summary of the result,Ver. 1,approaches . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . . . 58,issues . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 59 Object Management,Group,March,2003</t>
   </si>
   <si>
     <t>TUW-139769</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Gomory cuts revisited,Operations Research Letters,E Balas,S Ceria,G Cornuéjols,N Natraj,19,1,9,1996,1996
+ref2,Operation research library,J E Beasley,http://www.brunel.ac.uk/depts/ma/research/jeb/info.html
+ref3,An approximate dynamic programming approach to multidimensional knapsack problems,Management Science,D Bertsimas,R Demir,48,4,550,565,2002,2002
+ref4,Approximation algorithms for knapsack problems with cardinality constraints,European Journal of Operational Research,A Caprara,H Kellerer,U Pferschy,D Pisinger,123,333,345,2000,2000
+ref5,Combining and strengthening gomory cuts,Integer Programming and Combinatorial Optimization: Proc. of the 4th International IPCO Conference,Springer,S Ceria,G Cornuejols,M Dawande,Berlin, Heidelberg,438,451,1995,1995
+ref6,A genetic algorithm for the multidimensional knapsack problem,Journal of Heuristics,P C Chu,J E Beasley,4,1,63,86,1998,1998
+ref7,Edmonds polytopes and a hierarchy of combinatorial problems,Discrete Mathematics,V Chvátal,4,305,337,1973,1973
+ref8,Exploring relaxation induced neighborhoods to improve mip solutions,Mathematical Programming,E Danna,E Rothberg,C L Pape,2004,2004
+ref9,A genetic algorithm tutorial,Handbook of Genetic Algorithms,L Davis,1,101,1991,1991
+ref10,On the chvátal rank of polytopes in the 0/1 cube,Discrete Applied Mathematics,F Eisenbrand,98,21,27,1999,1999
+ref11,Gomory-Chvátal cutting planes and the elementary closure of polyhedra,PhD thesis,F Eisenbrand,2000,2000
+ref12,Fully parallel generic branch-andcut,Proceedings of the Eighth SIAM Conference on Parallel Processing for Scientific Computing,M Esö,L Ladányi,T K Ralphs,L Trotter,1997,1997
+ref13,Local branching,Mathematical Programming,M Fischetti,A Lodi,98,23,47,2002,2002
+ref14,Benchmarks for the multiple knapsack problem,H C for Enterprise,http://hces.bus.olemiss.edu/tools.html
+ref15,Outline of an algorithm for integer solutions to linear programs,Bulleting of theAmerican Mathematical Society,R E Gomory,64,275,278,1958,1958
+ref16,An algorithm for integer solutions to linear programs,Recent Advances in Mathematical Programming,R E Gomory,269,302,1963,1963
+ref17,Permutation-based evolutionary algorithms for multidimensional knapsack problems,Proceedings of 2000 ACM Symposium on Applied Computing,J Gottlieb,2000,2000
+ref18,Mapping, order-independent genes and the knapsack problem,Proceedings of the 1st IEEE International Conference on Evolutionary Computation,R Hinterding,13,17,1994,1994
+ref19,Fast approximation algorithms for the knapsack and sum of subset problems,J. ACM,O H Ibarra,C E Kim,22,4,463,468,1975,1975
+ref20,A new polynomial-time algorithm for linear programming,Combinatorica,N Karmarkar,4,373,395,1984,1984
+ref21,Knapsack Problems,Springer,H Kellerer,U Pferschy,D Pisinger,2004,2004
+ref22,A polynomial algorithm for linear programming,Doklady Akad. Nauk USSR,L G Khachian,224,1093,1096,1979,1979
+ref23,A branch and bound algorithm for the knapsack problem,Management Science,P Kolesar,13,723,735,1967,1967
+ref24,On the existence of fast approximation schemes,Nonlinear Programming 4,Academic Press,B Korte,R Schrader,415,437,1981,1981
+ref25,An automatic method for solving discrete programming problems,Econometrica,A H Land,A G Doig,28,497,520,1960,1960
+ref26,Branch-and-bound methods for integer programming,Encyclopedia of Optimization,Kluwer Academic Publishers,E K Lee,J E Mitchell,2,509,519,2001,2001
+ref27,An approximate algorithm for multidimensional zero-one knapsack problems,Management Science,J S Lee,M Guignard,34,3,402,410,1988,1988
+ref28,The common optimization interface for operations research,IBM Journal of Research and Development,R Lougee-Heimer,47,57,66,2003,2003
+ref29,Branch-and-cut algorithms for integer programming,Encyclopedia of Optimization,Kluwer Academic Publishers,J E Mitchell,2,519,525,2001,2001
+ref30,Cutting plane algorithms for integer programming,Encyclopedia of Optimization,Kluwer Academic Publishers,J E Mitchell,2,525,533,2001,2001
+ref31,A branch-and-cut algorithm for the resolution of large-scale symmetric traveling salesman problems,SIAM Rev,M Padberg,G Rinaldi,33,1,60,100,1991,1991
+ref32,Algorithms for Knapsack Problems,PhD thesis,University of Copenhagen, Dept. of Computer Science,D Pisinger,1995-02,1995,2
+ref33,An improved genetic algorithm for the multiconstrainted 0-1 knapsack problem,Proceedings of the 5th IEEE International Conference on Evolutionary Computation,G Raidl,207,211,1998,1998
+ref34,Weight-codings in a genetic algorithm for the multiconstraint knapsack problem,Proceedings of the 1999 IEEE Congress on Evolutionary Computation,G R Raidl,596,603,1999,1999
+ref35,Empirical analysis of locality, heritability and heuristic bias in evolutionary algorithms: A case study for the multidimensional knapsack problem,Accepted for publication in the Evolutionary Computation Journal,G R Raidl,J Gottlieb,2004,2004
+ref36,COIN/BCP User's Manual,T K Ralphs,L Ladányi,2001,2001,http://www.coin-or.org/Presentations/bcp-man.pdf
+ref37,A heuristic with tie breaking for certain 0-1 integer programming models,Naval Research Logistics Quarterly,G D Scudder,G Fox,32,613,623,1985,1985
+ref38,An approach to linear programming with 0-1 variables,Management Science,S Senju,Y Toyoda,11,196,207,1967,1967
+ref39,Some experiences on solving multiconstraint zero-one knapsack problems with genetic algorithms,INFOR 32,J Thiel,S Voss,226,242,1994,1994
+ref40,A simplified algorithm for obtaining approximate solution to zero-one programming problems,Management Science,Y Toyoda,21,1417,1427,1975,1975
+ref41,A hybrid approach for the 0-1 multidimensional knapsack problem,Proceedings of IJCAI 01,M Vasquez,J.-K Hao,2001,2001
+ref42,Integer Programming,John Wiley and Sons,L A Wolsey,1998,1998</t>
+  </si>
+  <si>
+    <t>ref1,A branch-and-cut algorithm for the resolution of large-scale symmetric traveling salesman problems,SIAM Rev,M. Padberg,G. Rinaldi,33,1,60,100,1991
+ref2,Algorithms for Knapsack Problems,PhD thesis,D. Pisinger,1995
+ref3,An improved genetic algorithm for the multiconstrainted 0-1 knapsack problem,Proceedings of the 5th IEEE International Conference on Evolutionary Computation,G. Raidl,207,211,1998
+ref4,Weight-codings in a genetic algorithm for the multiconstraint knapsack problem,Proceedings of the 1999 IEEE Congress on Evolutionary Computation,G. R. Raidl,596,603,1999</t>
   </si>
   <si>
     <t>TUW-139781</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,A genetic algorithm for the multiconstrained knapsack problem,Journal of Heuristics,P C Chu,J Beasley,4,63,86,1998,1998
+ref2,Local Branching,Mathematical Programming Series B,M Fischetti,A Lodi,98,23,47,2003,2003
+ref3,On the effectivity of evolutionary algorithms for multidimensional knapsack problems,Proceedings of Artificial Evolution: Fourth European Conference,Springer,J Gottlieb,1829,22,37,1999,1999
+ref4,Knapsack Problems,Springer,H Kellerer,U Pferschy,D Pisinger,2004,2004
+ref5,An improved genetic algorithm for the multiconstrained 0–1 knapsack problem,Proceedings of the 5th IEEE International Conference on Evolutionary Computation,IEEE Press,G R ,207,211,1998,1998
+ref6,Empirical analysis of locality, heritability and heuristic bias in evolutionary algorithms: A case study for the multidimensional knapsack problem,Evolutionary Computation Journal,G R Raidl,J Gottlieb,13,4,2005,2005
+ref7,A hybrid approach for the 0–1 multidimensional knapsack problem,Proceedings of the International Joint Conference on Artificial Intelligence,M Vasquez,J.-K Hao,328,333,2001,2001
+ref8,Improved results on the 0-1 multidimensional knapsack problem,European Journal of Operational Research,M Vasquez,Y Vimont,165,70,81,2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,A genetic algorithm for the multiconstrained knapsack problem,Journal of Heuristics,P. C. Chu,J. Beasley,4,86,1998
+ref2,Local Branching. Mathematical Programming Series B,M. Fischetti,A. Lodi,98,47,2003
+ref3,On the e®ectivity of evolutionary algorithms for multidimensional knapsack problems,of LNCS,J. Gottlieb,22,37,1999
+ref4,H. Kellerer,U. Pferschy,D. Pisinger,2004
+ref5,An improved genetic algorithm for the multiconstrained 0{1 knapsack problem,Proceedings of the 5th IEEE International Conference on Evolutionary Computation,G. R. Raidl,207,211,1998
+ref6,Empirical analysis of locality, heritability and heuristic bias in evolutionary algorithms: A case study for the multidimensional knapsack problem,Evolutionary Computation Journal,G. R. Raidl,J. Gottlieb,13,4,2005
+ref7,A hybrid approach for the 0{1 multidimensional knapsack problem,In Proceedings of the International Joint Conference on Arti¯cial Intelligence,M. Vasquez,J.-K. Hao,333,2001
+ref8,Improved results on the 0-1 multidimensional knapsack problem,European Journal of Operational Research,M. Vasquez,Y. Vimont,165,81,2005</t>
   </si>
   <si>
     <t>TUW-139785</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,A New Bound for the Quadratic Assignment Problem Based on Convex Quadratic Programming,Mathematical Programming,K M Anstreicher,N W Brixius,89,3,341,357,2001,2001
+ref2,Solving large quadratic assignment problems on computational grids,Mathematical Programming,K M Anstreicher,N W Brixius,J.-P Goux,J Linderoth,91,3,563,588,2002-02,2002,2
+ref3,The reactive tabu search,ORSA Journal on Computing,R Battiti,G Tecchiolli,6,2,126,140,1994,1994
+ref4,Metaheuristics in combinatorial optimization: Overview and conceptual comparison,ACM Computing Surveys,C Blum,A Roli,35,3,268,308,2003,2003
+ref5,Solving quadratic assignment problems using convex quadratic programming relaxations,Optimization Methods and Software,N W Brixius,K M Anstreicher,16,49,68,2001,2001
+ref6,The Steinberg Wiring Problem,In The Sharpest Cut: The Impact of Manfred Padberg and His Work,N W Brixius,K M Anstreicher,2004-06,2004,6
+ref7,QAPLIB-A Quadratic Assignment Problem Library,Journal of Global Optimization,R Burkard,S Karisch,F Rendl,10,391,403,1997,1997,http://www.seas.upenn.edu/qaplib/
+ref8,Thermodynamical Approach to the Traveling Salesman Problem: An Efficient Simulation Algorithm,Journal of Optimization Theory and Applications,V Cerny,45,1,41,51,1985,1985
+ref9,A Survey of the Quadratic Assignment Problem, with Applications,The Moreahead Electronic Journal of Applicable Mathematics,C W Commander,P M Pardalos,2003-04,2003,4
+ref10,The derivation of a greedy approximator for the Koopmans– Beckmann quadratic assigment problem,Proceedings of the 77-th Combinatorial Programming Conference (CP77),C Edwards,55,86,1977,1977
+ref11,A probabilistic heuristic for a computationally difficult set covering problem,Operations Research Letters,T A Feo,M G C Resende,8,67,71,1989-04,1989,4
+ref12,Greedy Randomized Adaptive Search Procedures,Journal of Global Optimization,T A Feo,M G C Resende,6,2,109,133,1995-03,1995,3
+ref13,Exact Solution of the Quadratic Assignment Problem,M Frazer,1997-04,1997,4
+ref14,Computers and Intractability; A Guide to the Theory of NP-Completeness. A series of books in the mathematical sciences,Freeman and Company,M R Garey,D S Johnson,New York, NY,1979,1979
+ref15,Optimal and Suboptimal Algorithms for the Quadratic Assignment Problem,SIAM Journal on Applied Mathematics,P C Gilmore,10,305,313,1962,1962
+ref16,Future paths for integer programming and links to artificial intelligence,Computers and Operations Research,F W Glover,13,5,533,549,1986-05,1986,5
+ref17,Tabu Search — Part I,ORSA Journal on Computing,F W Glover,1,3,190,206,1989,1989
+ref18,Tabu Search — Part II,ORSA Journal on Computing,F W Glover,2,1,4,32,1990,1990
+ref19,Handbook of Metaheuristics,International series in operations research and management science,Kluwer Academic Publishers,F W Glover,G A Kochenberger,Boston Hardbound,57,2003,2003
+ref20,Polynomial approximation algorithms for the TSP and the QAP with a factorial domination number,Discrete Applied Mathematics,G Gutin,A Yeo,119,1,2,2002-06,2002,6
+ref21,The Theory and Practice of Simulated Annealing,Handbook of Metaheuristics,Kluwer Academic Publishers,F. W. Glover and G. A. Kochenberger,D Henderson,S H Jacobson,Boston Hardbound,10,287,319,2003,2003
+ref22,Optimization by Simulated Annealing,Science,S Kirkpatrick,C D Gelatt,M P Vecchi,220,4598,671,680,1983-05,1983,5
+ref23,Assignment Problems and the Location of Economic Activities,Economethica Journal of the Econometric Society,T C Koopmans,M Beckmann,25,1,53,76,1957-01,1957,1
+ref24,The Hungarian method for the assignment problem,Naval Research Logistics Quarterly,H W Kuhn,2,83,97,1955,1955
+ref25,The Quadratic Assignment Problem,Management Science,E L Lawler,9,586,599,1963,1963
+ref26,A Greedy Randomized Adaptive Search Procedure for the Quadratic Assignment Problem,Quadratic assignment and related problems,American Mathematical Society,P. M. Pardalos and H. Wolkowicz,Y Li,P M Pardalos,M Resende,16,237,261,1994,1994
+ref27,An analytical Survey for the Quadratic Assignment Problem,E M Loiola,N M M De Abreu,P O Boaventura-Netto,P Hahn,T Querido,2004,2004
+ref28,A Beginner's Introduction to Iterated Local Search,Proceedings of MIC'2001—Meta–heuristics International Conference,H R Lourenço,O C Martin,T Stützle,Porto, Portugal,1,1,6,2001-07,2001,7
+ref29,Iterated Local Search,Handbook of Metaheuristics,Kluwer Academic Publishers,F. W. Glover and G. A. Kochenberger,H R Lourenço,O C Martin,T Stützle,Boston Hardbound,11,321,353,2003,2003
+ref30,Multi-Start,Handbook of Metaheuristics,Kluwer Academic Publishers,F. W. Glover and G. A. Kochenberger,R Martí,Boston Hardbound,12,355,368,2003,2003
+ref31,Equation of State Calculations by Fast Computing Machines,Journal of Chemical Physics,N Metropolis,A Rosenbluth,M N Rosenbluth,A H Teller,E Teller,21,6,1088,1092,1953-06,1953,6
+ref32,Applying an extended Guided Local Search to the Quadratic Assignment Problem,Annals of Operations Research,P Mills,E P K Tsang,J Ford,118,1,121,135,2003,2003
+ref33,Aerospace Applications of Integer and Combinatorial Optimization,NASA Technical Memorandum,S L Padula,R K Kincaid,NASA, Langley Research Center ; Hampton, Virginia,23681,23682,1995-10,1995,10
+ref34,An Algorithm for Construction of Test Cases for the Quadratic Assigmnet Problem,Informatica,G Palubeckis,11,3,281,296,2000,2000
+ref35,EAlib 1.1 – A Generic Library for Metaheuristics,Institute of Computer Graphics and Algorithms, Vienna University of Technology,G Raidl,2004,2004
+ref36,Bounds for the Quadratic Assignment Problem Using the Bundle Method,F Rendl,R Sotirov,2003-08,2003,8
+ref37,Greedy Randomized Adaptive Search Procedures,Handbook of Metaheuristics,Kluwer Academic Publishers,F. W. Glover and G. A. Kochenberger,M G G Resende,Boston Hardbound,8,219,249,2003,2003
+ref38,Parallel Greedy Randomized Adaptive Search Procedures,Tech. Rep. TD-67EKXH,AT&amp;T Labs Research,M G C Resende,C C Ribeiro,2004-12,2004,12
+ref39,P-Complete Approximation Problems,Journal of the ACM,S Sahni,T Gonzales,23,3,555,565,1976-07,1976,7
+ref40,The Backboard Wiring Problem: A Placement Algorithm,SIAM Review,L Steinberg,3,1,37,50,1961,1961
+ref41,Robust taboo search for the quadratic assignment problem,Parallel Computing,E D Taillard,17,4,5,1991-07,1991,7
+ref42,Fast Local Search and Guided Local Search and Their Application to British Telecom's Workforce Scheduling Problem,Tech. Rep. CSM-246,Department of Computer Science, University of Essex,E P K Tsang,C Voudouris,Colchester CO4 3SQ,1995-08,1995,8
+ref43,A Generic Neural Network Approach for Constraint Satisfaction Problems,Neural Network Applications,Springer-Verlag,J. G. Taylor,E P K Tsang,Wang ,C J ,12,22,1992,1992
+ref44,Guided Local Search,Department of Computer Science, University of Essex,Department of Computer Science, University of Essex,C Voudouris,E P K Tsang,Colchester, C04 3SQ, UK,1995-08,1995,8
+ref45,Guided Local Search,Handbook of Metaheuristics,Kluwer Academic Publishers,F. W. Glover and G. A. Kochenberger,C Voudouris,E P K Tsang,Boston Hardbound,7,185,217,2003,2003</t>
+  </si>
+  <si>
+    <t>ref1,Greedy Randomized Adaptive Search Procedures,Journal of Global Optimization,T. A. Feo,Resende,M. G. C.,6,2,109,133,1995
+ref2,Exact Solution of the Quadratic Assignment Problem,M. Frazer,April 1997
+ref3,Computers and Intractability; A Guide to the Theory of NP-Completeness. A series of books in the mathematical sciences,M. R. Garey,Johnson,1979
+ref4,Optimal and Suboptimal Algorithms for the Quadratic Assignment Problem,SIAM Journal on Applied Mathematics,P. C. Gilmore,10,305,313,1962
+ref5,Future paths for integer programming and links to artificial intelligence,Computers and Operations Research,F. W. Glover,13,5,533,549,1986
+ref6,ORSA Journal on Computing 1,F. W. Glover,I Tabu Search - Part,3,190,206,1989
+ref7,An analytical Survey for the Quadratic Assignment Problem,E. M. Loiola,N. M. M. de Abreu,P. O. Boaventura-Netto,P. Hahn,T. Querido,2004
+ref8,A Beginner's Introduction to Iterated Local Search,In Proceedings of MIC'2001-Meta-heuristics International Conference (July,H. R. Martin,O. C.,T.,1,1,6,2001
+ref9,H. R. Martin,O. C.,F. W. Glover,G. A. Kochenberger,57,321,353,2003
+ref10,´ı, R. Multi-Start Methods,Mart,F. W. Glover,G. A. Kochenberger,57,355,368,2003
+ref11,Equation of State Calculations by Fast Computing Machines,Journal of Chemical Physics,N. Metropolis,A. Rosenbluth,M. N. Rosenbluth,A. H. Teller,E. Teller,21,6,1088,1092,June 1953
+ref12,an extended Guided Local Search to the Quadratic Assignment Problem,Annals of Operations Research,P. Mills,E. P. K. Tsang,J. Applying Ford,118,1,121,135,2003
+ref13,Robust taboo search for the quadratic assignment problem,Parallel Computing,E. D. Taillard,17,443,455,July 1991
+ref14,Fast Local Search and Guided Local Search and Their Application to British Telecom's Workforce Scheduling Problem,Colchester CO4 3SQ,E. P. K. Tsang,C. Voudouris,August 1995
+ref15,Network Approach for Constraint Satisfaction Problems,E. P. K. Tsang,C. J. A Generic Wang,Neural,J. G,12,22,1992
+ref16,Search,Tech. Rep. CSM-247,C. Voudouris,E. P. K. Tsang,Guided Local,August 1995
+ref17,Search,C. Voudouris,E. P. K. Tsang,Guided Local,F. W. Glover,G. A. Kochenberger,57,185,217,2003</t>
   </si>
   <si>
     <t>TUW-140047</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Playsom and pocketsomplayer, alternative interfaces to large music collections,Proceedings of the Sixth International Conference on Music Information Retrieval,R Neumayer,,M Dittenbach,A Rauber,London, UK,618,623,2005,2005
+ref2,Evaluation of feature extractors and psycho-acoustic transformations for music genre classification,Proceedings of the Sixth International Conference on Music Information Retrieval,T Lidy,A Rauber,London, UK,34,41,2005,2005
+ref3,Music Information Retrieval Evaluation eXchange-audio genre classification,Website,,2005,2005,http://www.music-ir.org/evaluation/mirex-results/audio-genre/index.html
+ref4,Mirex 2005: Combined fluctuation features for music genre classification,T Lidy,A Rauber,2005-09,2005,9,http://www.music-ir.org/evaluation/mirex-results/articles/audio_genre/lidy.pdf
+ref5,Psychoacoustics-Facts and Models,Springer Series of Information Sciences,Springer,E Zwicker,H Fastl,Berlin,22,1999,1999</t>
+  </si>
+  <si>
+    <t>ref1,Playsom and pocketsomplayer, alternative interfaces to large music collections,in Proceedings of the Sixth International Conference on Music Information Retrieval,R. Neumayer,M. Dittenbach,A. Rauber,11,618,623,2005
+ref2,Evaluation of feature extractors and psycho-acoustic transformations for music genre classification,in Proceedings of the Sixth International Conference on Music Information Retrieval,T. Lidy,A. Rauber,11,34,41,2005
+ref3,-ir. org/evaluation/mirex-results/audio-genre/index,“Music Information Retrieval Evaluation,2005
+ref4,Mirex 2005: Combined fluctuation features for music genre classification,T. Lidy,A. Rauber,September 2005
+ref5,E. Zwicker,H. Fastl,22,1999</t>
   </si>
   <si>
     <t>TUW-140048</t>
   </si>
   <si>
-    <t>[BEA03]
-[BJJW02]
-[HH04a]
-[HH04b]
-[HHK05]
-[ISO95]
-[Obj00]
-[Obj04]
-[Ros02]
-[UN/01]
-[UN/03]
-[Wor99]
-[Wor04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,[BEA03],Business Process Execution Language for Web Services,BEA, IBM, Microsoft, SAP AG and Siebel Systems,,Version. 1.1,2003-05,2003,5
+ref2,[BJJW02],Process Models and Business Models-A Unified Framework,Lecture Notes in Computer Science,Springer,Stefano Spaccapietra, Salvatore T. March, and Yahiko Kambayashi,Maria Bergholtz,Prasad Jayaweera,Paul Johannesson,Petia Wohed,2503,364,377,2002,2002
+ref3,[HH04a],ebXML Business Processes-Defined both in UMM and BPSS,Proceedings of the 1st GI Workshop XML4BPM – XML Interchange Formats for Business Process Management at 7th GI Conference Modellierung,M. Nüttgens and J. Mendling,Birgit Hofreiter,Christian Huemer,81,102,2004-03,2004,3
+ref4,[HH04b],Transforming UMM Business Collaboration Models to BPEL,OTM Workshops,Springer,Robert Meersman, Zahir Tari, and Angelo Corsaro,Birgit Hofreiter,Christian Huemer,3292,507,519,2004,2004
+ref5,[HHK05],Choreography of ebXML business collaborations,Information Systems and e-Business Management (ISeB),Birgit Hofreiter,Christian Huemer,Ja-Hee Kim,2005,2005
+ref6,[ISO95],Open-edi Reference Model,ISO/IEC JTC 1/SC30 ISO Standard 14662,ISO,,1995,1995
+ref7,[Obj00],OMG XML Metadata Interchange (XMI) Specification,Object Management Group, Inc,,Version 1.1 (formal/00-11-02),2000-11,2000,11
+ref8,[Obj04],Unified Modeling Language (UML) Specification,Object Management Group, Inc,Rosettanet,Version 1.1 (formal/04-07-02),2004-07,2004,7
+ref9,[Ros02],RosettaNet Implementation Framework: Core Specification,RosettaNet,,V02. .00.01,2002-12,2002,12
+ref10,[UN/01],UN/CEFACT's Modeling Methodology-Meta Model,UN/CEFACT Techniques and Methodologies Group,,Revision. 12,2001-11,2001,11
+ref11,[UN/03],UN/CEFACT ebXML Business Process Specification Schema,Consortium (W3C). XSL Transformations (XSLT),UN/CEFACT Techniques and Methodologies Group,,Version. 1.10,2003-10,2003,10
+ref12,[Wor99],XSL Transformations (XSLT),Wide Web Consortium (W3C) Web,,Version. 1.0,1999-11,1999,11
+ref13,[Wor04],Web Services Choreography Description Language,Wide Web Consortium (W3C) Web,,Working. Draft Version 1.0,2004-12,2004,12</t>
+  </si>
+  <si>
+    <t>ref1,SAP AG and Siebel Systems. Business Process Execution Language for Web Services, May 2003. Version 1,IBM
+ref2,Process Models and Business Models - A Unified Framework,ER (Workshops),Maria Bergholtz,Petia Wohed,2503,364,377,2002
+ref3,Defined both in UMM and BPSS,XML4BPM 2004, Proceedings of the 1st GI Workshop XML4BPM - XML Interchange Formats for Business Process Management at 7th GI Conference Modellierung,Birgit Hofreiter,Christian Huemer,81,102,March 2004
+ref4,Transforming UMM Business Collaboration Models to BPEL,OTM Workshops,Birgit Hofreiter,Christian Huemer,3292,507,519
+ref5,Springer,2004
+ref6,Choreography of ebXML business collaborations,Information Systems and e-Business Management (ISeB),Birgit Hofreiter,Christian Huemer,Ja-Hee Kim,2005
+ref7,ISO/IEC JTC 1/SC30 ISO Standard 14662,ISO. Open-edi Reference,Model,1995
+ref8,Interchange (XMI) Specification,November 2000. Version 1,Object Management,Group Inc. OMG XML Metadata,formal
+ref9,July 2004. Version 1,Object Management,Group Language (UML) Specification,formal
+ref10,RosettaNet. RosettaNet Implementation Framework: Core Specification,00,V02
+ref11,UN Model,November 2001
+ref12,UN,10,October 2003
+ref13,Transformations (XSLT),World Wide Web Consortium (W3C). XSL,November 1999
+ref14,,Version 1
+ref15,Working Draft Version 1,World Wide Web Consortium (W3C). Web Services Choreography Description Language,December 2004</t>
   </si>
   <si>
     <t>TUW-140229</t>
   </si>
   <si>
+    <t>ref1,An Evaluation of Open Source ELearning Platforms Stressing Adaptation Issues,Proceedings of the International Conference on Advanced Learning Technologies,S Graf,B List,163,165,2005,2005
+ref2,Intelligent Agents in a Teaching and Learning Environment on the Web,Proceedings of the International Conference on Advanced Learning Technologies,C Peña,J Narzo,J de La Rosa,2002,2002
+ref3,Addressing different learning styles through course hypermedia,IEEE Transactions on Education,C A Carver,R A Howard,W D Lane,42,1,33,38,1999,1999
+ref4,Evaluating Bayesian Networks' Precision for Detecting Students' Learning Styles,Computers &amp; Education,Elsevier,P García,A Amandi,S Schiaffino,M Campo,in. press
+ref5,Learning and Teaching Styles in Engineering Education Engineering Education,Engineering Education,R M Felder,L K Silverman,78,7,674,681,1988,1988,http://www.ncsu.edu/felderpublic/ Papers/LS-1988.pdf
+ref6,The Learn@WU Learning Environment,Wirtschaftsinformatik,Physica-Verlag,W. Uhr, W. Esswein and E. Schoop,G Alberer,P Alberer,T Enzi,G Ernst,K Mayrhofer,G Neumann,R Rieder,B Simon,Dresden, Germany,593,612,2003,2003
+ref7,Design and Use of a Rubric to Assess and Encourage Interactive Qualities in Distance Courses,The American Journal of Distance Education,M D Roblyer,W Wiencke,17,2,77,98,2003,2003
+ref8,On-line course effectiveness: an analysis of student interactions and perceptions of learning,Journal of Distance Education,A P Rovai,K T Barnum,18,1,57,73,2003,2003
+ref9,Correlational analysis of student visibility and learning outcomes online,Journal of Asynchronous Learning Network,M J Wang,8,4,71,82,2004,2004
+ref10,Index of Learning Styles Questionnaire,R M Felder,B A Soloman,2006-02-06,2006,2,6,http://www.engr.ncsu.edu/learningstyles/ ilsweb.html</t>
+  </si>
+  <si>
+    <t>ref1,An Evaluation of Open Source ELearning Platforms Stressing Adaptation Issues,Proceedings of the International Conference on Advanced Learning Technologies,S. Graf,B. List,163,165,2005
+ref2,Intelligent Agents in a Teaching and Learning Environment on the Web,Proceedings of the International Conference on Advanced Learning Technologies,C. Peña,J. Narzo,de la Rosa,2002
+ref3,Addressing different learning styles through course hypermedia,IEEE Transactions on Education,C.A. Carver,R.A. Howard,W.D. Lane,42,1,33,38,1999
+ref4,Precision for Detecting Students' Learning Styles,P. García,A. Amandi,S. Schiaffino,M. Campo
+ref5,Preceded by a preface in 2002: http,R.M. Felder,L.K. Silverman,78,7,674,681,1988
+ref6,WU Learning Environment,G. Alberer,P. Alberer,T. Enzi,K. Mayrhofer,R. Rieder,B. Simon,W. Esswein,593,612,2003
+ref7,Design and Use of a Rubric to Assess and Encourage Interactive Qualities in Distance Courses,The American Journal of Distance Education,M.D. Roblyer,W. Wiencke,17,2,77,98,2003
+ref8,On-line course effectiveness: an analysis of student interactions and perceptions of learning,Journal of Distance Education,A.P. Rovai,K.T. Barnum,18,1,57,73,2003
+ref9,Correlational analysis of student visibility and learning outcomes online,Journal of Asynchronous Learning Network,M.J. Wang,8,4,71,82,2004
+ref10,Index of Learning Styles Questionnaire. Retrieved 6 February,R.M. Felder,B.A. Soloman,2006</t>
+  </si>
+  <si>
     <t>TUW-140253</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Towards a theory of actor computation,Proceedings CONCUR'92, number 630 in Lecture Notes in Computer Science,Springer-Verlag,G Agha,I A Mason,S Smith,C Talcott,565,579,1992,1992
+ref2,Abstract behavior types: A foundation model for components and their composition,Science of Computer Programming,F Arbab,55,1-3,3,33,2005,2005
+ref3,Guava: A dialect of Java without data races,OOPSLA,D F Bacon,R E Strom,A Tarafdar,2000,2000
+ref4,A parameterized type system for race-free Java programs,OOPSLA 2001,ACM,C Boyapati,M Rinard,2001,2001
+ref5,The grand challenge of trusted components,ICSE-25 (International Conference on Software Engineering),IEEE Computer Press,B Meyer,Protland, Oregon,2003,2003
+ref6,The programming language Concurrent Pascal,IEEE Transactions on Software Engineering,P Brinch-Hansen,1,2,199,207,1975,1975
+ref7,Integrating independent components with on-demand remodularization,OOPSLA 2002 Conference Proceedings,ACM,M Mezini,K Ostermann,Seattle, Washington,52,67,2002,2002
+ref8,Toward a method of object-oriented concurrent programming,Communications of the ACM,D Caromel,36,9,90,101,1993,1993
+ref9,A calculus of mobile processes (parts I and II),Information and Computation,R Milner,J Parrow,D Walker,100,1,77,1992,1992
+ref10,Escape analysis for Java,OOPSLA'99,J.-D Choi,M Gupta,M Serrano,V C Sreedhar,S Midkiff,Denver, Colorado,1999,1999
+ref11,A calculus of object bindings,Proceedings FMOODS'97,Chapman &amp; Hall,E Najm,A Nimour,Canterbury, United Kingdom,1997,1997
+ref12,A setconstraint-based analysis of actors,Proceedings FMOODS'97,Chapman &amp; Hall,J.-L Colaco,M Pantel,P Salle,Canterbury, United Kingdom,1997,1997
+ref13,From CML to process algebras,Proceedings CONCUR'93, number 715 in Lecture Notes in Computer Science,Springer-Verlag,F Nielson,H R Nielson,493,508,1993,1993
+ref14,Interface automata,Proceedings of the Ninth Annual Symposium on Foundations of Software Engineering (FSE),ACM Press,L De Alfaro,T A Henzinger,109,120,2001,2001
+ref15,Regular types for active objects,Proceedings OOPSLA'93,O Nierstrasz,28,10,1,15,1993,1993
+ref16,Types for safe locking,Proceedings ESOP'99,F Flanagan,M Abadi,Amsterdam, The Netherlands,1999,1999
+ref17,Behavioral protocols for software components,IEEE Transactions on Software Engineering,F Plasil,S Visnovsky,28,11,1056,1076,2002,2002
+ref18,Meta-protocol and type system for the dynamic coupling of binary components,OORASE'99: OOSPLA'99 Workshop on Reflection and Software Engineering,D Heuzeroth,R Reussner,Bicocca, Italy,1999,1999
+ref19,Flexible types for a concurrent model,Proceedings of the Workshop on Object-Oriented Programming and Models of Concurrency,F Puntigam,Torino,1995,1995
+ref20,A design pattern based approach to generating synchronization adaptors from annotated IDL,IEEE International Conference on Automated Software Engineering (ASE'98),H.-A Jacobsen,B J Krämer,Honolulu, Hawaii, USA,63,72,1998,1998
+ref21,Coordination requirements expressed in types for active objects,Proceedings ECOOP'97, number 1241 in Lecture Notes in Computer Science,Springer-Verlag,Aksit,M. andMatsuoka, S.,F Puntigam,Jyväskylä, Finland,367,388,1997,1997
+ref22,Linearity and the pi-calculus,ACM Transactions on Programming Languages and Systems,N Kobayashi,B Pierce,D Turner,21,5,914,947,1999,1999
+ref23,Concurrent Object-Oriented Programming with Process Types,Der Andere Verlag,F Puntigam,Osnabrück, Germany,2000,2000
+ref24,Type-theoretic foundations for concurrent object-oriented programming,Proceedings OOPSLA'94,N Kobayashi,A Yonezawa,29,10,31,45,1994,1994
+ref25,State information in statically checked interfaces,Eighth International Workshop on Component-Oriented Programming,F Puntigam,Darmstadt, Germany,2003,2003
+ref26,A behavioral type system and its application in Ptolemy II,Formal Aspects of Computing,E A Lee,Y Xiong,16,3,210,237,2004,2004
+ref27,Behavioural types for a calculus of concurrent objects,Proceedings Euro-Par'97, number 1300 in Lecture Notes in Computer Science,Springer-Verlag,A Ravara,V T Vasconcelos,554,561,1997,1997
+ref28,Specifications and their use in defining subtypes,Proceedings OOPSLA'93,B Liskov,J M Wing,28,10,16,28,1993,1993
+ref29,A model of components with nonregular protocols,Software Composition (SC 2005),M Südholt,Edinburgh, Scotland,2005,2005
+ref30,Analysis of inheritance anomaly in object-oriented concurrent programming languages,Research Directions in Concurrent Object-Oriented Programming,The MIT Press,S Matsuoka,A Yonezawa,1993,1993
+ref31,Incrementalized pointer and escape analysis,PLDI '01,ACM,F Vivien,M Rinard,2001,2001
+ref32,Static conflict analysis for multi-threaded object-oriented programs,PLDI '03,ACM Press,C von Praun,T R Gross,115,128,2003,2003
+ref33,Systematic concurrent objectoriented programming,Communications of the ACM,B Meyer,36,9,56,80,1993,1993
+ref34,Protocol specifications and component adaptors,ACM Transactions on Programming Languages and Systems,D M Yellin,R E Strom,19,2,292,333,1997,1997
+ref35,Object-Oriented Software Construction,Prentice Hall,B Meyer,2,1997,1997</t>
+  </si>
+  <si>
+    <t>ref1,Towards a theory of actor computation,In Proceedings CONCUR'92, number 630 in Lecture Notes in Computer Science,G. Agha,I. A. Mason,S. Smith,C. Talcott,565,579,1992
+ref2,Abstract behavior types: A foundation model for components and their composition,Science of Computer Programming,F. Arbab,55,1-3,3,52,2005
+ref3,Guava: A dialect of Java without data races,In OOPSLA,D. F. Bacon,R. E. Strom,A. Tarafdar,2000
+ref4,A parameterized type system for race-free Java programs,In OOPSLA 2001,C. Boyapati,M. Rinard,2001
+ref5,The programming language Concurrent Pascal,IEEE Transactions on Software Engineering,P. Brinch-Hansen,1,2,199,207,1975
+ref6,Toward a method of object-oriented concurrent programming,Communications of the ACM,D. Caromel,36,9,90,101,1993
+ref7,Escape analysis for Java,In OOPSLA'99,Choi,J.-D.,M. Gupta,M. Serrano,V. C. Sreedhar,S. Midkiff,1999
+ref8,A setconstraint-based analysis of actors,In Proceedings FMOODS'97,J.-L. Colaco,M. Pantel,P. Salle,United Canterbury,Kingdom,1997
+ref9,Interface automata,In Proceedings of the Ninth Annual Symposium on Foundations of Software Engineering (FSE),L. de Alfaro,T. A. Henzinger,109,120,2001
+ref10,Types for safe locking,In Proceedings ESOP'99,F. Flanagan,M. Abadi,1999
+ref11,Meta-protocol and type system for the dynamic coupling of binary components,In OORASE'99: OOSPLA'99 Workshop on Reflection and Software Engineering,D. Heuzeroth,R. Reussner,1999
+ref12,A design pattern based approach to generating synchronization adaptors from annotated IDL,In IEEE International Conference on Automated Software Engineering (ASE'98),B. J. Jacobsen,63,72,1998
+ref13,Linearity and the pi-calculus,ACM Transactions on Programming Languages and Systems,N. Kobayashi,B. Pierce,D. Turner,21,5,914,947,1999
+ref14,Type-theoretic foundations for concurrent object-oriented programming,ACM SIGPLAN Notices,N. Kobayashi,A. Yonezawa,29,10,94,45,1994
+ref15,A behavioral type system and its application in Ptolemy II,Formal Aspects of Computing,E. A. Lee,Y. Xiong,16,3,210,237,2004
+ref16,Specifications and their use in defining subtypes,ACM SIGPLAN Notices,B. Liskov,J. M. Wing,28,10,93,28,1993
+ref17,Analysis of inheritance anomaly in object-oriented concurrent programming languages,S. Matsuoka,A. Yonezawa,Programming,1993
+ref18,Systematic concurrent objectoriented programming,Communications of the ACM,B. Meyer,36,9,56,80,1993
+ref19,Object-Oriented Software Construction. Prentice Hall, second edition edition,B. Meyer,1997
+ref20,The grand challenge of trusted components,In ICSE-25 (International Conference on Software Engineering),B. Meyer,2003
+ref21,Integrating independent components with on-demand remodularization,In OOPSLA 2002 Conference Proceedings,M. Mezini,K. Ostermann,52,67,2002
+ref22,A calculus of mobile processes (parts I and II),Information and Computation,R. Milner,J. Parrow,D. Walker,100,1,77,1992
+ref23,A calculus of object bindings,In Proceedings FMOODS'97,E. Najm,A. Nimour,United Canterbury,Kingdom,1997
+ref24,From CML to process algebras,In Proceedings CONCUR'93, number 715 in Lecture Notes in Computer Science,F. Nielson,H. R. Nielson,493,508,1993
+ref25,Regular types for active objects,ACM SIGPLAN Notices,O. Nierstrasz,28,10,93,15,1993
+ref26,Behavioral protocols for software components,IEEE Transactions on Software Engineering,F. Plasil,S. Visnovsky,28,11,1056,1076,2002
+ref27,Flexible types for a concurrent model,In Proceedings of the Workshop on Object-Oriented Programming and Models of Concurrency,F. Puntigam,1995
+ref28,Coordination requirements expressed in types for active objects,Finland,F. Puntigam,Matsuoka,367,388,1997
+ref29,Concurrent Object-Oriented Programming with Process Types,F. Puntigam,2000
+ref30,State information in statically checked interfaces,F. Puntigam,Programming,2003
+ref31,Behavioural types for a calculus of concurrent objects,In Proceedings Euro-Par'97, number 1300 in Lecture Notes in Computer Science,A. Ravara,V. T. Vasconcelos,554,561,1997
+ref32,A model of components with nonregular protocols,In Software Composition (SC,M.,2005
+ref33,Incrementalized pointer and escape analysis,In PLDI '01,F. Vivien,M. Rinard,2001
+ref34,Static conflict analysis for multi-threaded object-oriented programs,In PLDI '03,C. von Praun,T. R. Gross,115,128,2003
+ref35,Protocol specifications and component adaptors,ACM Transactions on Programming Languages and Systems,D. M. Yellin,R. E. Strom,19,2,292,333,1997</t>
   </si>
   <si>
     <t>TUW-140308</t>
   </si>
   <si>
+    <t>ref1,Lessons held at Vienna University of Technology,Propädeutikum in Informatik (prolog),,www.informatik.tuwien.ac.at/prolog
+ref2,Preparatory Knowledge: Propaedeutic in Informatics),Computer Literacy to Informatics Fundamentals. Lecture Notes in Computer Science,Springer-Verlag,Mittermeir, R.T.,S Loidl,J Mühlbacher,H Schauer,Berlin Heidelberg New York,3422,104,115,2005,2005
+ref3,Computer Scientist Says all Students Should Learn to Think 'Algorithmically',The Chronicle of Higher Education,L Snyder,F Interview,Olsen,htm,2000-05-05,2000,5,5,http://chronicle.com/free/2000/03/2000032201t.htm/
+ref4,A new Approach to Learning Algorithms,Proceedings of International Conference on Information Technology: Coding and Computing,T Mudner,E Shakshuki,141,145,2004,2004</t>
+  </si>
+  <si>
+    <t>ref1,
+ref2,Preparatory Knowledge: Propaedeutic in Informatics,Fundamentals. Lecture Notes in Computer Science,S. Loidl,J Mühlbacher,3422,104,115,2005
+ref3,"Computer Scientist Says all Students Should Learn to Think 'Algorithmically',",The Chronicle of Higher Education, May,L. Snyder,Interview by F. Olsen,5,2000
+ref4,A new Approach to Learning Algorithms,In Proceedings of International Conference on Information Technology: Coding and Computing,T. Mudner,Shakshuki,141,145,2004</t>
+  </si>
+  <si>
     <t>TUW-140533</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,The KeY tool,Software and System Modeling,Wolfgang Ahrendt,Thomas Baar,Bernhard Beckert,Richard Bubel,Martin Giese,Reiner Hähnle,Wolfram Menzel,Wojciech Mostowski,Andreas Roth,Steffen Schlager,Peter Schmitt,Online First issue, to. appear in print,2004,2004
+ref2,,Programmverifikation,Springer-Verlag,Krzysztof Apt,Ernst-Rüdiger Olderog,ISBN 3-540-57479-4,1994,1994
+ref3,Term Rewriting and All That,Cambridge University Press,Franz Baader,Tobias Nipkow,1998,1998
+ref4,Analytica — An Experiment in Combining Theorem Proving and Symbolic Computation,Journal of Automated Reasoning,Andrej Bauer,Edmund Clarke,Xudong Zhao,21,295,325,1998,1998
+ref5,Taclets: A new paradigm for constructing interactive theorem provers,Revista de la Real Academia de Ciencias Exactas, Físicas y Naturales, Serie A: Matemáticas (RACSAM) Special Issue on Symbolic Computation in Logic and Artificial Intelligence,Bernhard Beckert,Martin Giese,Elmar Habermalz,Reiner Hähnle,Andreas Roth,Philipp Rümmer,Steffen Schlager,98,1,2004,2004
+ref6,The Paradox of the Case Study,Alan Bundy,2004,2004,http://www-unix.mcs.anl.gov/AAR/issuesept04/index.html#paradox.
+ref7,Analytica — A Theorem Prover for Mathematica,The Mathematica Journal,Edmund Clarke,Xudong Zhao,3,56,71,1993,1993
+ref8,The Perfect Developer Language Reference Manual,David Crocker,2001-09,2001,9
+ref9,Developing Reliable Software using Object-Oriented Formal Specification and Refinement,Escher Technologies Ltd,David Crocker,2003,2003
+ref10,Perfect Developer: A tool for Object-Oriented Formal Specification and Refinement,Tools Exhibition Notes at Formal Methods Europe,David Crocker,2003,2003
+ref11,Automated Reasoning in Perfect Developer,Escher Technologies Ltd,David Crocker,2004,2004
+ref12,Safe Object-Oriented Software: The Verified Design-ByContract Paradigm,Proceedings of the Twelfth Safety-Critical Systems Symposium,Springer-Verlag,Redmill and Anderson,David Crocker,London,ISBN 1-85233-800-8,19,41,2004,2004
+ref13,Predicate Calculus and Program Semantics,Springer-Verlag,Edsger Dijkstra,Carel Scholten,1990,1990
+ref14,First-order logic and automated theorem proving,Springer-Verlag,Melvin Fitting,ISBN 0-387-97233-1,1990,1990
+ref15,Ein Vergleich der Programmbeweiser FPP, NPPV und SPARK,Ada-Deutschland-Tagung,Carsten Freining,Stefan Kauer,Jürgen Winkler,ISSN 1433-9986,127,145,2002,2002,http://psc.informatik.uni-jena.de/Fpp/fpp-intr.htm#references
+ref16,Logic for Computer Science: Foundations of Automatic Theorem Proving,Wiley,Jean Gallier,2003,2003,http://www.cis.upenn.edu/~jean/gbooks/logic.html
+ref17,Software Specification: A Comparison of Formal Methods,International Specialized Book Service Inc,John Gannon,James Purtilo,Marvin Zelkowitz,1993-09,1993,9
+ref18,Untersuchungen überUntersuchungen¨Untersuchungenüber das logische Schließen,Mathematische Zeitschrift,Gerhard Gentzen,39,1935,1935
+ref19,The Science of Programming,Springer-Verlag,David Gries,1989,1989
+ref20,A comparison of PVS and Isabelle/HOL,Theorem Proving in Higher Order Logics: 11th International Conference, TPHOLs ’98, volume 1479 of Lecture Notes in Computer Science,Springer-Verlag,Jim Grundy and Malcolm Newey,David Griffioen,Marieke Huisman,/ Isabelle,Hol,Canberra, Australia,1479,123,142,1998-09,1998,9
+ref21,An axiomatic basis for computer programming,Communications of the ACM,Tony Hoare,12,10,ISSN 0001-0782,576,580,1969,1969,http://doi.acm.org/10.1145/363235.363259
+ref22,The verifying compiler: A grand challenge for computing research,J. ACM,Tony Hoare,50,1,ISSN 0004-5411,63,69,2003,2003,http://doi.acm.org/10.1145/602382.602403
+ref23,Logic in Computer Science: Modelling and Reasoning about Systems,Cambridge University Press,Michael Huth,Mark Ryan,2,ISBN 0 521 54310X,2004,2004
+ref24,The Early Search for Tractable Ways of Reasoning about Programs,IEEE Annals of the History of Computing,Cliff Jones,25,ISSN 1058-6180,26,49,2003,2003
+ref25,The grand challenge of Trusted Components,ICSE '03: Proceedings of the 25th International Conference on Software Engineering,IEEE Computer Society,Bertrand Meyer,ISBN 0-7695-1877-X,660,667,2003,2003
+ref26,Object Constraint Language Specification,OMG,2003,2003,http://www.omg.org/docs/ptc/03-10-14.pdf
+ref27,Unified Modeling Language Specification,OMG,2003-03,2003,3,http://www.uml.org/#UML2.0
+ref28,PVS: A prototype verification system,11th International Conference on Automated Deduction (CADE), volume 607 of Lecture Notes in Artificial Intelligence, pages 748–752,,Springer-Verlag,Deepak Kapur,Sam Owre,John Rushby,Natarajan Shankar,Saratoga, NY,607,748,752,1992-06,1992,6,http://www.csl.sri.com/papers/cade92-pvs/
+ref29,PVS: an experience report,Applied Formal Methods—FMTrends 98, volume 1641 of Lecture Notes in Computer Science,Springer-Verlag. URL http,Sam Owre,John Rushby,Natarajan Shankar,David Stringer-Calvert,Boppard, Germany,1641,338,345,1998-10,1998,10,http://www.csl.sri.com/papers/fmtrends98/
+ref30,PVS Language Reference,Sam Owre,John Rushby,Natarajan Shankar,David Stringer-Calvert,2001-11,2001,11
+ref31,PVS Prover Guide,Sam Owre,John Rushby,Natarajan Shankar,David Stringer-Calvert,2001-11,2001,11
+ref32,,PVS System Guide,Sam Owre,John Rushby,Natarajan Shankar,David Stringer-Calvert,2001-11,2001,11
+ref33,The Formal Semantics of PVS,Sam Owre,Natarajan Shankar,1999-03,1999,3
+ref34,Theoretische Informatik 1,Institute of Computer Languages, Vienna University of Technology,Gernot Salzer,2002-06,2002,6
+ref35,Java Card 2.2.1 Platform Specification,Sun Microsystems,,2003-10,2003,10
+ref36,Logic and Structure,Springer-Verlag,Dirk Van Dalen,4,ISBN 3-540-20879-8,2004,2004
+ref37,wp is Basically a State Set Transformer,Institute of Computer Science, Friedrich-Schiller-University,Jürgen Winkler,1995,1995
+ref38,The Frege Program Prover,42. Internationales Wissenschaftliches Kolloquium,Jürgen Winkler,ISSN 0943-7207,116,121,1997,1997
+ref39,Isabelle/HOL versus ACL2: Comparing Two Inductive Proof Systems,Institute of Computer Languages, Vienna University of Technology,Michael Zolda,2004,2004</t>
+  </si>
+  <si>
+    <t>ref1,2004. ISBN 3-540-20879-8.,Dirk van Dalen
+ref2,Ju¨rgen Winkler. wp is Basically a State Set Transformer,Friedrich-,1995
+ref3,Ju¨rgen Winkler,The Frege Program Prover,,42,116,121,1997</t>
   </si>
   <si>
     <t>TUW-140867</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,The KeY tool,Software and System Modeling,Wolfgang Ahrendt,Thomas Baar,Bernhard Beckert,Richard Bubel,Martin Giese,Reiner Hähnle,Wolfram Menzel,Wojciech Mostowski,Andreas Roth,Steffen Schlager,Peter H Schmitt,4,1,32,54,2005,2005
+ref2,Model Checking,MIT Press,Edmund M Clarke,Orna Grumberg,Doron A Peled,2000,2000
+ref3,Perfect Developer: A tool for Object-Oriented Formal Specification and Refinement,Tools Exhibition Notes at Formal Methods Europe,David Crocker,2003,2003
+ref4,A Discipline of Programming,Prentice Hall,Edsger Dijkstra,1976,1976
+ref5,Formal program verification: A comparison of selected tools and their theoretical foundations,Master’s thesis, Technische Universität Wien,Ingo Feinerer,Vienna, Austria,2005-01,2005,1
+ref6,The Science of Programming,Springer,David Gries,1987,1987
+ref7,Logic in Computer Science – modelling and reasoning about systems,Cambridge University Press,Michael R A Huth,Mark D Ryan,2003,2003
+ref8,PVS: A prototype verification system,11th International Conference on Automated Deduction (CADE), volume 607 of Lecture Notes in Artificial Intelligence,Springer-Verlag,Deepak Kapur,Sam Owre,John Rushby,Natarajan Shankar,Saratoga, NY,607,748,752,1992-06,1992,6
+ref9,The Frege Program Prover,42. Internationales Wissenschaftliches Kolloquium,Technische Universität Ilmenau,Jürgen Winkler,116,121,1997,1997</t>
+  </si>
+  <si>
+    <t>ref1,The KeY tool,Software and System Modeling,Wolfgang Ahrendt,Steffen Schlager,Peter H. Schmitt,4,1,32,54,2005
+ref2,M. Edmund,Clarke,A. Doron,Peled,2000
+ref3,Perfect Developer: A tool for Object-Oriented Formal Specification and Refinement,Tools Exhibition Notes at Formal Methods Europe,David Crocker,2003
+ref4,A Discipline of Programming,Prentice Hall,Edsger Dijkstra,1976
+ref5,Formal program verification: A comparison of selected tools and their theoretical foundations,Technische Universit a¨t Wien,Ingo Feinerer,January 2005
+ref6,The Science of Programming,David Gries,1987
+ref7,and reasoning about systems,R.A. Michael,Mark D. Huth,Ryan,2003
+ref8,PVS: A prototype verification system,volume 607 of Lecture Notes in Artificial Intelligence,Sam Owre,Natarajan Shankar,NY,748,752,June 1992
+ref9,t Ilmenau,,42,116,121,1997</t>
   </si>
   <si>
     <t>TUW-140895</t>
   </si>
   <si>
+    <t>ref1,Random-tree diameter and the diameter constrained MST,Congressus Numerantium,Ayman Abdalla,Narsingh Deo,Pankaj Gupta,144,161,182,2000,2000
+ref2,Models for vehilce routing problems,Proceedings of the 10th National Conference of the Australian Society for Operations Research,N R Achuthan,L Caccetta,276,294,1990,1990
+ref3,Minimum weight spanning trees with bounded diameter,Australasian Journal of Combinatorics,N R Achuthan,L Caccetta,5,261,276,1992,1992
+ref4,Computational methods for the diameter restricted minimum weight spanning tree problem,Australasian Journal of Combinatorics,N R Achuthan,L Caccetta,P Caccetta,J F Geelen,10,51,71,1994,1994
+ref5,Multicasting in a linear lightwave network,IEEE INFOCOM'93,K Bala,K Petropoulos,T E Stern,1350,1358,1993,1993
+ref6,Metaheuristics in combinatorial optimization: Overview and conceptual comparison,ACM Computing Surveys,Christian Blum,Andrea Roli,35,3,268,308,2003,2003
+ref7,Compression of correlated bit-vectors,Information Systems,A Bookstein,S T Klein,16,4,387,400,1991,1991
+ref8,Experimental analysis of practically efficient algorithms for bounded-hop accumulation in ad-hoc wireless networks,Proceedings of the 19th IEEE International Parallel and Distributed Processing Symposium (IPDPS'05), workshop 12,A E F Clementi,M Di Ianni,A Monti,G Rossi,R Silvestri,13,247,248,2005,2005
+ref9,The self-organizing exploratory pattern of the argentine ant,Journal of Insect Behavior,J.-L Deneubourg,S Aron,S Goss,J.-M Pasteels,3,159,168,1990,1990
+ref10,Optimization, Learning and Natural Algorithms (in Italian),Dipartimento di Elettronica, Politecnico di Milano,M Dorigo,IT,1992,1992
+ref11,Ant colonies for the traveling salesman problem,BioSystems,M Dorigo,L M Gambardella,43,73,81,1997,1997
+ref12,Ant colony system: A coopeartive learning approach to the traveling salesman problem,IEEE Transactions on Evolutionary Computation,M Dorigo,L M Gambardella,1,1,53,66,1997,1997
+ref13,Positive feedback as a search strategy,Technical Report 91-016,Dipartimento die Elettronica, Politecnico di Milano,M Dorigo,V Maniezzo,A Colorni,IT,1991,1991
+ref14,Solving diameter constrained minimum spanning tree problems in dense graphs,Proceedings of the International Workshop on Experimental Algorithms,Springer,A C Santos,A Lucena,C C Ribeiro,3059,458,467,2004,2004
+ref15,Computers and Intractability,A Guide to the Theory of NP-Completeness,W.H. Freeman,M R Garey,D S Johnson,New York,1979,1979
+ref16,Future paths for integer programming and links to artificial intelligence,Comput. Oper. Res,F Glover,13,533,549
+ref17,Self-organized shortcuts in the argentine ant,Naturwissenschaften,S Goss,S Aron,J L Deneubourg,J M Pasteels,76,579,581,1989,1989
+ref18,Network flow models for designing diameterconstrained minimum spanning and Steiner trees,Networks,Luis Gouveia,Thomas L Magnanti,41,3,159,173,2003,2003
+ref19,A 2-path approach for odd-diameter-constrained minimum spanning and Steiner trees,Networks,Luis Gouveia,Thomas L Magnanti,Christina Requejo,44,4,254,265,2004,2004
+ref20,La reconstruction du nid et les coordinations interindividuelles chez bellicositermes natalensis et cubitermes sp. la théorie de la stigmergie: essai d´interprétation du comportement des termites constructeurs,Insectes Sociaux,P P Grassé,6,41,81,1959,1959
+ref21,Variable Neighborhood Search for the Bounded Diameter Minimum Spanning Tree Problem,Institute of Computer Graphics and Algorithms, Vienna University of Technology,M Gruber,Günther R Raidl,2005,2005
+ref22,A new 0–1 ILP approach for the bounded diameter minimum spanning tree problem,Proceedings of the 2nd International Network Optimization Conference,L. Gouveia and C. Mour˜ao,Martin Gruber,Günther R Raidl,Lisbon, Portugal,1,178,185,2005,2005
+ref23,An introduction to variable neighborhood search Advances and Trends in Local Search Paradigms for Optimization,Meta-heuristics, Advances and Trends in Local Search Paradigms for Optimization,Kluwer Academic Publishers,S. Voss, S. Martello, I.H. Osman, and C. Roucairol,P Hansen,N Mladenović,433,458,1999,1999
+ref24,A permutation-coded evolutionary algorithm for the bounded-diameter minimum spanning tree problem,2003 Genetic and Evolutionary Computation Conference's Workshops Proceedings, Workshop on Analysis and Desgn of Representations,A. Barry, F. Rothlauf, D. Thierens, et al.,B A Julstrom,G R ,2,7,2003,2003
+ref25,Encoding bounded-diameter minimum spanning trees with permutations and with random keys,Genetic and Evolutionary Computation Conference – GECCO 2004,Springer,Kalyanmoy Deb et al.,A Bryant,Julstrom,3102,1282,1281,2004,2004
+ref26,Greedy heuristics for the bounded-diameter minimum spanning tree problem,Technical report,St. Cloud State University,A Bryant,Julstrom,Submitted. for publication in the ACM Journal of Experimental Algorithmics,2004,2004
+ref27,Network design and transportation planning: Models and algorithms,Transportation Science,T Magnanti,R Wong,18,1,1984,1984
+ref28,A variable neighborhood algorithm-a new metaheuristic for combinatorial optimization. Abstracts of papers presented at Optimization Days,N Mladenović,Montreal,1995,1995
+ref29,Variable neighborhood search,Computers Opers. Res,N Mladenović,P Hansen,24,1097,1100,1997,1997
+ref30,Combinatorial Optimization-Algorithms and Complexity,Dover Publications, Inc,C H Papadimitriou,K Steiglitz,New York,1982,1982
+ref31,Greedy heuristics and an evolutionary algorithm for the bounded-diameter minimum spanning tree problem,Proceedings of the 2003 ACM Symposium on Applied Computing,ACM Press,Gary Lamont et al.,Günther R Raidl,Bryant A Julstrom,747,752,2003,2003
+ref32,A tree-based algorithm for distributed mutual exclusion,ACM Transactions on Computer Systems,Kerry Raymond,7,1,61,77,1989,1989
+ref33,Introducing MAX − MIN ant system,Proceedings of the International Conference on Artifical Neural Networks and Genetic Algorithms,Springer Verlag,T Stützle,H Hoos,245,249,1997,1997
+ref34,MAX − MIN ant system and local search for the traveling salesman problem,Proceedings of IEEE-ICEC-EPS'97, IEEE Conference on Evolutionary Computation and Evolutionary Programming Conference,IEEE Press,T Stützle,H Hoos,309,314,1997,1997
+ref35,Meta-Heuristics-Advances and Trends in Local Search Paradigms for Optimization,Kluwer Academic Publishers,S Voß,S Martello,I H Osman,C Routacirol,Dordrecht, The Netherlands</t>
+  </si>
+  <si>
+    <t>ref1,Metaheuristics . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 11,Variable Neighbourhood,Search . . . . . . . . . . . . . . . . . . . . . . . . . 13,Ant Colony,Optimisation . . . . . . . . . . . . . . . . . . . . . . . . . . . . 16,3
+ref2,Structures . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 21 Neighbourhood,Tree Based,Neighbourhoods . . . . . . . . . . . . . . . . . . . . . . . . . . . 22,Edge Exchange,Neighbourhood . . . . . . . . . . . . . . . . . . . . . 22,Node Swap,Neighbourhood . . . . . . . . . . . . . . . . . . . . . . . 24,Level Based,Neighbourhoods . . . . . . . . . . . . . . . . . . . . . . . . . . 27,Centre Exchange,Neighbourhood . . . . . . . . . . . . . . . . . . . . 27,Level Change,Neighbourhood . . . . . . . . . . . . . . . . . . . . . . 30,2,4
+ref3,Optimisation for the BDMST,Ant Colony,Problem . . . . . . . . . . . . . . . . . 39,Variable Neighbourhood,Descent . . . . . . . . . . . . . . . . . . . . . . . . 39,Ant Colony,Optimisation . . . . . . . . . . . . . . . . . . . . . . . . . . . . 41,5
+ref4,Implementation . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 45,Manual . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 48,6
+ref5,Random-tree diameter and the diameter constrained MST,Congressus Numerantium,Results . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 52 Computational,neighbourhood . . . . . . . . . . . . . . . . . . . . . . . . . 23 Exchange,neighbourhood. . . . . . . . . . . . . . . . . . . . . . . . . . . . 24 Swap,neighbourhood . . . . . . . . . . . . . . . . . . . . . . . . 28 Exchange,neighbourhood . . . . . . . . . . . . . . . . . . . . . . . . . . Change,. . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . .,Ayman Abdalla,Pankaj Gupta,144,161,182,2000
+ref6,Proceedings of the 2003 ACM Symposium on Applied Computing,,747,752,2003
+ref7,A tree-based algorithm for distributed mutual exclusion,ACM Transactions on Computer Systems,Kerry Raymond,7,1,61,77,1989
+ref8,Introducing MAX − MIN ant system,In Proceedings of the International Conference on Artifical Neural Networks and Genetic Algorithms,T. Stu,H. Hoos,245,249,1997</t>
+  </si>
+  <si>
     <t>TUW-140983</t>
   </si>
   <si>
+    <t>ref1,Distance in graphs,Addison-Wesley,F Buckley,F Harary,1990,1990
+ref2,New Ideas in Optimization, chapter The Ant Colony Optimization Meta-Heuristic,McGraw-Hill,M Dorigo,G D Caro,The Ant Colony Optimization Meta-Heuristic,11,32,1999,1999
+ref3,Comparing Top k Lists,SIAM Journal on Discrete Mathematics,R Fagin,R Kumar,D Sivakumar,17,1,134,160,2003-10,2003,10
+ref4,Del.icio.us Social Bookmarking Service,Yahoo! Inc,http://del.icio.us</t>
+  </si>
+  <si>
+    <t>ref1,Addison-Wesley,F. Buckley,F. Harary,1990
+ref2,chapter The Ant Colony Optimization Meta-Heuristic,M. Dorigo,G. D. Caro,McGraw-Hill,11,32,1999
+ref3,Comparing Top k Lists,SIAM Journal on Discrete Mathematics,R. Fagin,R. Kumar,D. Sivakumar,17,1,134,160,October 2003
+ref4,[4] Yahoo! Inc. Del.icio.us Social Bookmarking Service. http://del.icio.us.,</t>
+  </si>
+  <si>
     <t>TUW-141024</t>
   </si>
   <si>
+    <t>ref1,Grading quality of evidence and strength of recommendations,BMJ,David Atkins,D Best,Peter A Briss,Martin Eccles,Y Falck-Ytter,Signe Flottorp,Gordon H Guyatt,Robin T Harbour,M C Haugh,D Henry,Suzanne Hill,Roman Jaeschke,G Leng,Alessandro Liberati,Nicola Magrini,James Mason,P Middleton,J Mrukowicz,Dianne O'Connell,Andrew D Oxman,Bob Phillips,Holger Schünemann,Tessa Tan-Torres Edejer,H Varonen,E Gunn,John W Williams Jr.,S Zaza,The GRADE Working Group,328,7454,1490,1498,2004-06,2004,6
+ref2,Strength of recommandation taxonomy (sort): A patient-centered approach to grading evidence in the medical literature,American Family Physician,Mark H Ebell,Jay Siwek,Barry D Weiss,Steven H Woole,Jeffrey Susman,Bernard Ewigman,Marjorie Bowman,69,3,548,556,2004-02,2004,2
+ref3,Clinical Practice Guidelines: Directions for a New Program,National Academies Press,Marilyn J Field,Kathleen N Lohr,Washington DC,1990,1990
+ref4,Disseminating medical knowledge: The PROforma approach,Artificial Intelligence in Medicine,John Fox,Nicky Johns,Ali Rahmanzadeh,14,157,181,1998-09,1998,9
+ref5,Competing practice guidelines: Using cost-effectiveness analysis to make optimal decisions,Annals of Internal Medicine,Attilio V Granata,Alan L Hillman,128,1,56,63,1998,1998
+ref6,Attributes of clinical guidelines that influence use of guidelines in general practice: observational study,BMJ,Richard Grol,Johannes Dalhuijsen,Siep Thomas,Cees in 't Veld,Guy Rutten,Henk Mokkink,317,858,861,1998-09-26,1998,09,26
+ref7,A meta schema for evidence information in clinical practice guidelines as a basis for decision-making,Proceedings of the 12th World Congress on Health (Medical) Informatics (Medinfo'2007),Klaus Kuhn, Tze Yun Leong, and JimWarren,Katharina Kaiser,Patrick Martini,Silvia Miksch,Alimë Oztürk,Brisbane, Australia,forthcoming. AMIA,2007,2007
+ref8,Asbru 7.3 reference manual,Technical Report Asgaard-TR-2002-1,Institute of Software Technology &amp; Interactive Systems, Vienna University of Technology,Andreas Seyfang,Robert Kosara,Silvia Miksch,Vienna, Austria, Europe,2002,2002
+ref9,The Asgaard project: A task-specific framework for the application and critiquing of time-oriented clinical guidelines,Artificial Intelligence in Medicine,Yuval Shahar,Silvia Miksch,Peter Johnson,14,29,51,1998-09,1998,9
+ref10,The syntax and semantics of the PROforma guideline modeling language,Journal of the American Medical Informatics Association (JAMIA),David R Sutton,John Fox,10,5,433,443,2003-10,2003,10
+ref11,A study of PROforma, a development methodology for clinical procedures,Artificial Intelligence in Medicine,Arjen Vollebregt,Annette ten Teije,Frank van Harmelen,Johan van Der Lei,Mees Mosseveld,17,3,195,221,1999,1999</t>
+  </si>
+  <si>
+    <t>ref1,Grading quality of evidence and strength of recommendations,BMJ,David Atkins,D. Best,Martin Peter A. Briss,Y. Eccles,Falck-Ytter,M. C. Gordon H. Guyatt,D. Haugh,P. Henry,J. Middleton,Mrukowicz,Andrew D. Dianne O'Connell,Oxman,H. Tan-Torres Edejer,John W. Williams Varonen,S. Jr.,Zaza,328,7454,1490,1498,June 2004
+ref2,Strength of recommandation taxonomy (sort): A patient-centered approach to grading evidence in the medical literature,American Family Physician,H. Mark,Barry D. Ebell,Weiss,Marjorie Steven H. Woole,Bowman,69,3,548,556,2004
+ref3,Clinical Practice Guidelines: Directions for a New Program,J. Marilyn,Field,1990
+ref4,Disseminating medical knowledge: The PROforma approach,Artificial Intelligence in Medicine,John Fox,Ali Rahmanzadeh,14,157,181,1998
+ref5,Competing practice guidelines: Using cost-effectiveness analysis to make optimal decisions,Annals of Internal Medicine,V. Attilio,Granata,Alan L. Hillman,128,1,56,63,1998
+ref6,Attributes of clinical guidelines that influence use of guidelines in general practice: observational study,BMJ,Richard Grol,Henk Mokkink,Sept. 26,317,858,861,1998
+ref7,Alime O¨ ztu¨rk. A meta schema for evidence information in clinical practice guidelines as a basis for decision-making,Proceedings of the 12th World Congress on Health (Medical) Informatics,Katharina Kaiser,2007
+ref8,3 reference manual,Technical Report AsgaardTR-2002-1, Institute of Software Technology &amp; Interactive Systems,Andreas Seyfang,2002
+ref9,The Asgaard project: A task-specific framework for the application and critiquing of time-oriented clinical guidelines,Artificial Intelligence in Medicine,Yuval Shahar,Peter Johnson,14,29,51,1998
+ref10,The syntax and semantics of the PROforma guideline modeling language,Journal of the American Medical Informatics Association (JAMIA),R. David,John Fox. Sutton,10,5,433,443
+ref11,A study of PROforma, a development methodology for clinical procedures,Artificial Intelligence in Medicine,Vollebregt Arjen,Mees Johan van der Lei,Mosseveld,17,3,195,221,1999</t>
+  </si>
+  <si>
     <t>TUW-141065</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Methods and techniques of adaptive hypermedia,User Modeling and User-Adapted Interaction,P Brusilovsky,6,87,129,1996,1996
+ref2,Learning and teaching styles in engineering education,Engineering Education Preceded by a preface,R M Felder,L K Silverman,78,674,681,1988,1988,http://www.ncsu.edu/felderpublic/Papers/LS-1988.pdf
+ref3,Cognitive profiling towards formal adaptive technologies in web-based learning communities,International Journal of WWW-based Communities,Kinshuk,T Lin,1,103,108,2004,2004
+ref4,Cognitive profiling in life-long learning,Encyclopedia of International Computer-Based Learning,Idea Group Inc,T Lin,Kinshuk ,Hershey, PA, USA,245,255,2005,2005
+ref5,Addressing different learning styles through course hypermedia,IEEE Transactions on Education,C A Carver,R A Howard,W D Lane,42,33,38,1999,1999
+ref6,A comparison of learning style theories on the suitability for elearning,Proceedings of the Conference on Web Technologies, Applications, and Services,ACTA Press,J Kuljis,F Liu,191,197,2005,2005
+ref7,Investigating the relationship between two approaches to verbal information processing in working memory: An examination of the construct of working memory coupled with an investigation of meta-working memory,Massey University,L A Richards-Ward,Palmerston North, New Zealand,1996,1996
+ref8,The magic number seven, plus or minus two: Some limit of our capacity for processing information,Psychology Review,G A Miller,63,81,96,1956,1956
+ref9,The relationship between learning styles and cognitive traits-Getting additional information for improving student modelling,International Journal on Computers in Human Behavior,S Graf,T Lin,Kinshuk ,in. press
+ref10,Index of Learning Style questionnaire,R M Felder,B A Soloman,1997-02-22,1997,2,22,http://www.engr.ncsu.edu/learningstyles/ilsweb.html
+ref11,Web-Ospan,2007-02-22,2007,2,22,http://altrc.massey.ac.nz/~tylin/webOSPAN
+ref12,Is working memory capacity task dependent?,Journal of Memory and Language,M L Turner,R W Engle,28,127,154,1989,1989
+ref13,A Dutch, computerized, and group administrable adaptation of the operation span test,Psychologica Belgica,W De Neys,G d'Ydewalle,W Schaeken,G Vos,42,177,190,2002,2002
+ref14,Applications, reliability and validity of the Index of Learning Styles,International Journal on Engineering Education,R M Felder,J Spurlin,21,103,112,2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,Methods and techniques of adaptive hypermedia, User Modeling,P. Brusilovsky,User-Adapted Interaction,6,87,129,1996
+ref2,Preceded by a preface in 2002: http,R. M. Felder,L. K. Silverman,78,retrieved July 23,674,681,2006
+ref3,Cognitive profiling towards formal adaptive technologies in web-based learning communities,International Journal of WWW-based Communities,T. Lin,1,103,108,2004
+ref4,Kinshuk, Cognitive profiling in life-long learning,Encyclopedia of International Computer-Based Learning,T. Lin,245,255,2005
+ref5,Addressing different learning styles through course hypermedia,IEEE Transactions on Education,C. A. Carver,R. A. Howard,W. D. Lane,42,33,38,1999
+ref6,A comparison of learning style theories on the suitability for elearning,Proceedings of the Conference on Web Technologies,J. Kuljis,F. Liu,191,197,2005
+ref7,Investigating the relationship between two approaches to verbal information processing in working memory: An examination of the construct of working memory coupled with an investigation of meta-working memory,L. A. Richards-Ward,1996
+ref8,The magic number seven, plus or minus two: Some limit of our capacity for processing information,G. A. Miller,63,81,96,1956
+ref9,Lin and Kinshuk, The relationship between learning styles and cognitive traits - Getting additional information for improving student modelling,International Journal on Computers in Human Behavior,S. Graf,T.
+ref10,Index of Learning Style questionnaire,Retrieved 22 February,R. M. Felder,B. A. Soloman,2007
+ref11,Web-OSPAN,2007
+ref12,Is working memory capacity task dependent,Journal of Memory and Language,M. L. Turner,R. W. Engle,28,127,154,1989
+ref13,group administrable adaptation of the operation span test,Psychologica Belgica,W. W. de Neys,G. Schaeken,Vos,42,177,190,2002
+ref14,Applications, reliability and validity of the Index of Learning Styles,International Journal on Engineering Education,R. M. Felder,J. Spurlin,21,103,112,2005</t>
   </si>
   <si>
     <t>TUW-141121</t>
   </si>
   <si>
+    <t>ref1,An overview of audio information retrieval,Multimedia Systems,Jonathan Foote,7,1,2,10,1999,1999
+ref2,Evaluation of feature extractors and psychoacoustic transformations for music genre classification,Proceedings of the Sixth International Conference on Music Information Retrieval (ISMIR 2005),Thomas Lidy,Andreas Rauber,London, UK,34,41,2005-09,2005,09
+ref3,Semantic analysis of song lyrics,Proceedings of the 2004 IEEE International Conference on Multimedia and Expo,IEEE,Beth Logan,Andrew Kositsky,Pedro Moreno,2004-06-30,2004,6,30
+ref4,Natural language processing of lyrics,MULTIMEDIA '05: Proceedings of the 13th annual ACM international conference on Multimedia,ACM Press,P G Jose Mahedero,Alvaro Martínez,Pedro Cano,Markus Koppenberger,Fabien Gouyon,,New York, NY, USA,475,478,2005,2005
+ref5,Using psycho-acoustic models and self-organizing maps to create a hierarchical structuring of music by musical styles,Proceedings of the 3rd International Symposium on Music Information Retrieval,Andreas Rauber,Elias Pampalk,Dieter Merkl,71,80,2002-10,2002,10
+ref6,Marsyas: A framework for audio analysis,Organized Sound,George Tzanetakis,Perry Cook,4,30,2000,2000</t>
+  </si>
+  <si>
+    <t>ref1,An overview of audio information retrieval,Multimedia Systems,Jonathan Foote,7,1,2,10,1999
+ref2,Evaluation of feature extractors and psychoacoustic transformations for music genre classification,In Proceedings of the Sixth International Conference on Music Information Retrieval (ISMIR,Thomas Lidy,Andreas Rauber,11,34,41,2005
+ref3,Semantic analysis of song lyrics,In Proceedings of the 2004 IEEE International Conference on Multimedia and Expo,Beth Logan,Andrew Kositsky,Pedro Moreno,ICME,27,30,2004
+ref4,Natural language processing of lyrics,In MULTIMEDIA '05: Proceedings of the 13th annual ACM international conference on Multimedia,A,Fabien Gouyon,475,478,2005
+ref5,Using psycho-acoustic models and self-organizing maps to create a hierarchical structuring of music by musical styles,In Proceedings of the 3rd International Symposium on Music Information Retrieval,Andreas Rauber,Dieter Merkl,13,71,80,2002
+ref6,Marsyas: A framework for audio analysis,Organized Sound,George Tzanetakis,Perry Cook,4,30,2000</t>
+  </si>
+  <si>
     <t>TUW-141140</t>
   </si>
   <si>
+    <t>ref1,An overview of modeldriven Web Engineering and the MDA,Web Engineering and Web Applications Design Methods, volume 12 of Human-Computer Interaction Series,Springer,Luis Olsina, Oscar Pastor, Gustavo Rossi and Daniel Schwabe,Nathalie Moreno,José Raúl Romero,Antonio Vallecillo,12,12,2007,2007
+ref2,OO-H Method: Extending UML to Model Web Interfaces,Idea Group Publishing,Jaime Gómez,Cristina Cachero,144,173,2003,2003
+ref3,UML-based Web Engineering: An Approach based on Standards,Web Engineering and Web Applications Design Methods,Springer,Luis Olsina, Oscar Pastor, Gustavo Rossi and Daniel Schwabe,Nora Koch,Alexander Knapp,Gefei Zhang,Hubert Baumeister,volume 12 of Human-Computer Interaction Series, chapter 7,2007,2007
+ref4,Designing Data-Intensive Web Applications,Morgan Kaufmann,S Ceri,P Fraternali,A Bongio,M Brambilla,S Comai,M Matera,2002,2002
+ref5,MDA Guide V1.0.1,omg/03-06-01,www.omg.org/mda
+ref6,Bridging WebML to Model-Driven Engineering: From DTDs to MOF,Andrea Schauerhuber,Manuel Wimmer,Elisabeth Kapsammer,Wieland Schwinger,Werner Retschitzegger,Accepted for puplication in IET Software,2007,2007
+ref7,Aspect-Oriented Modeling of Ubiquitous Web Applications: The aspectWebML Approach,5th Workshop on Model-Based Development for ComputerBased Systems: Domain-Specific Approaches to Model-Based Development,Andrea Schauerhuber,Manuel Wimmer,Wieland Schwinger,Elisabeth Kapsammer,Werner Retschitzegger,Tucson, AZ, USA,in. conjunction with ECBS,2007-03,2007,3
+ref8,On the Integration of Web Modeling Languages: Preliminary Results and Future Challenges,Workshop on Model-driven Web Engineering (MDWE),Manuel Wimmer,Andrea Schauerhuber,Wieland Schwinger,Horst Kargl,Como, Italy,held in conjunction with ICWE,2007-07,2007,7</t>
+  </si>
+  <si>
+    <t>ref1,An overview of modeldriven Web Engineering and the MDA,Web Engineering and Web Applications Design Methods,Nathalie Moreno,12,2007
+ref2,Extending UML to Model Web Interfaces,Jaime Gómez,Cristina Cachero. OO-H Method,144,173,2003
+ref3,UML-based Web Engineering: An Approach based on Standards,Web Engineering and Web Applications Design Methods,Nora Koch,7,2007
+ref4,Designing Data-Intensive Web Applications,S. Ceri,P. Fraternali,A. Bongio,M. Brambilla,S. Comai,M. Matera,2002
+ref5,V1.0.1,MDA Guide
+ref6,Bridging WebML to Model-Driven Engineering: From DTDs to MOF,IET Software,Andrea Schauerhuber,Werner Retschitzegger,2007
+ref7,Model-Based Development for ComputerBased Systems: Domain-Specific Approaches to Model-Based Development, in conjunction with ECBS, Tucson,Andrea Schauerhuber,Werner Retschitzegger,AZ,2007
+ref8,Engineering (MDWE), held in conjunction with ICWE, Como,Manuel Wimmer,Horst Kargl,Future Challenges,Web,2007</t>
+  </si>
+  <si>
     <t>TUW-141336</t>
   </si>
   <si>
-    <t>(Chen, Interian, 2005)
-(Cocco, Dubois, Mandler, Monasson, 2003)
-(Creignou, Daudé, 2003)
-(Creignou, Daudé, Dubois, 2003)
-(Creignou, Khanna, Sudan, 2001)
-(Dubois, Boufkhad, Mandler, 2000)
-(Dubois, Mandler, 2002)
-(Dubois, Monasson, Selman, Zecchina, 2001)
-(Erdős, Rényi, 1960)
-(Franz, Leone, Ricci-Tersenghi, Zecchina, 2001)
-(Gent, Walsh, 1999)
-(Janson, 1987)
-(Janson, Luczak, Rucinski, 2000)
-(Takács, 1988)</t>
+    <t>ref1,(Chen, Interian, 2005),A model for generating random quantified boolean formulas,Proceedings of the 19th International Joint Conference on Artificial Intelligence (IJCAI'2005),H Chen,Y Interian,66,71,2005,2005
+ref2,(Cocco, Dubois, Mandler, Monasson, 2003),Rigorous decimation-based construction of ground pure states for spin glass models on random lattices,Physical Review Letters,S Cocco,O Dubois,J Mandler,R Monasson,90,472051,472054,2003,2003
+ref3,(Creignou, Daudé, 2003),Coarse and sharp thresholds for random k-XOR-CNF,Informatique théorique et applications/Theoretical Informatics and Applications,N Creignou,H Daudé,37,2,127,147,2003,2003
+ref4,(Creignou, Daudé, Dubois, 2003),Approximating the satisfiability threshold for random k-XOR-CNF formulas,Combinatorics, Probability and Computing,N Creignou,H Daudé,O Dubois,12,2,113,126,2003,2003
+ref5,(Creignou, Khanna, Sudan, 2001),Complexity classifications of Boolean constraint satisfaction problems,SIAM Monographs On Discrete Mathematics And Applications,SIAM,N Creignou,S Khanna,M Sudan,Philadelphia, PA, USA,2001,2001
+ref6,(Dubois, Boufkhad, Mandler, 2000),Typical random 3-SAT formulae and the satisfiability threshold,Proceedings of the 11th ACM-SIAM Symposium on Discrete Algorithms (SODA'2000),O Dubois,Y Boufkhad,J Mandler,124,126,2000,2000
+ref7,(Dubois, Mandler, 2002),The 3-XOR-SAT threshold,Proceedings of the 43th Annual IEEE Symposium on Foundations of Computer Science (FOCS 2002),O Dubois,J Mandler,769,778,2002,2002
+ref8,(Dubois, Monasson, Selman, Zecchina, 2001),Editorial,Theoretical Computer Science,O Dubois,R Monasson,B Selman,R Zecchina,265,1,2,2001,2001
+ref9,(Erdős, Rényi, 1960),On the evolution of random graphs,Publ. Math. Inst. Hungar. Acad. Sci,P Erdős,A Rényi,7,17,61,1960,1960
+ref10,(Franz, Leone, Ricci-Tersenghi, Zecchina, 2001),Exact solutions for diluted spin glasses and optimization problems,Physical Review Letters,S Franz,M Leone,F Ricci-Tersenghi,R Zecchina,87,127209,127212,2001,2001
+ref11,(Gent, Walsh, 1999),Beyond NP: the QSAT phase transition,Proceedings of the 16th National Conference on Artificial Intelligence (AAAI'99),I Gent,T Walsh,648,653,1999,1999
+ref12,(Janson, 1987),Poisson convergence and Poisson processes with applications to random graphs,Stochastic Processes and Applications,S Janson,1,30,1987,1987
+ref13,(Janson, Luczak, Rucinski, 2000),Random graphs,John Wiley and sons,S Janson,T Luczak,A Rucinski,2000,2000
+ref14,(Takács, 1988),On the limit distribution of the number of cycles in a random graph,Journal of Applied Probability,L Takács,25,359,376,1988,1988</t>
+  </si>
+  <si>
+    <t>ref1,A model for generating random quantified boolean formulas,In Proceedings of the 19th International Joint Conference on Artificial Intelligence (IJCAI'2005),H. Chen,Y. Interian,66,71,2005
+ref2,Rigorous decimation-based construction of ground pure states for spin glass models on random lattices,Physical Review Letters,S. Cocco,O. Dubois,J. Mandler,R. Monasson,90,472051,472054,2003
+ref3,Coarse and sharp thresholds for random k-XOR-CNF,Informatique th´eorique et applications/Theoretical Informatics and Applications,N. Creignou,37,2,127,147,2003
+ref4,Approximating the satisfiability threshold for random k-XOR-CNF formulas,Combinatorics, Probability and Computing,N. Creignou,H. Dubois,O.,12,2,113,126,2003
+ref5,Complexity classifications of Boolean constraint satisfaction problems,SIAM Monographs On Discrete Mathematics And Applications,N. Creignou,S. Khanna,M. Sudan,2001
+ref6,Typical random 3-SAT formulae and the satisfiability threshold,In Proceedings of the 11th ACM-SIAM Symposium on Discrete Algorithms,O. Dubois,Y. Boufkhad,J. Mandler,124,126,2000
+ref7,The 3-XOR-SAT threshold,In Proceedings of the 43th Annual IEEE Symposium on Foundations of Computer Science (FOCS,O. Dubois,J. Mandler,769,778,2002
+ref8,Editorial. Theoretical Computer Science,O. Dubois,R. Monasson,B. Selman,R. Zecchina,265,1,2,2001
+ref9,On the evolution of random graphs,In Publ. Math. Inst. Hungar. Acad. Sci.,P. Erd,A.,7,17,61,1960
+ref10,Exact solutions for diluted spin glasses and optimization problems,Physical Review Letters,S. Franz,M. Leone,F. Ricci-Tersenghi,R. Zecchina,87,127209,127212,2001
+ref11,Beyond NP: the QSAT phase transition,In Proceedings of the 16th National Conference on Artificial Intelligence (AAAI'99),I. Gent,T. Walsh,648,653,1999
+ref12,Poisson convergence and Poisson processes with applications to random graphs,Stochastic Processes and Applications,S. Janson,26,1,1,30,1987
+ref13,Random graphs,S. Janson,T. Luczak,A. Rucinski,2000
+ref14,On the limit distribution of the number of cycles in a random graph,Journal of Applied Probability,L. Tak,25,359,376,1988</t>
   </si>
   <si>
     <t>TUW-141618</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Modeling multidimensional databases,Technical report,IBM Almaden Research Center,R Agrawal,A Gupta,S Sarawagi,1996,1996
+ref2,The MOSIX Distributed Operating System, Load Balancing for UNIX,Lecture Notes in Computer Science,Springer Verlag,A Barak,S Guday,R Wheeler,672,1993,1993
+ref3,The MOSIX Multicomputer Operating System for High Performance Cluster Computing,Journal of Future Generation Computer Systems,A Barak,O La'adan,13,4-5,261,372,1998-03,1998,3
+ref4,Beowulf: A parallel workstation for scientific computation,Proceedings International Conference on Parallel Processing,D J Becker,T Sterling,D Savarese,J E Dorband,U A Ranawak,C V Packer,1995,1995
+ref5,The Grid: vision, technology development and applications,Elektrotechnik und Informationstechnik,P Brezany,A Wöhrer,A M Tjoa,123,6,2006,2006
+ref6,Reference model for dbms standardization,database
+architecture framework task group (DAFTG) of ANSI/X3/SPARC database system study group,SIGMOD Record,T Burns,E N Fong,D Jefferson,R Knox,L Mark,C Reedy,L Reich,N Roussopoulos,W Truszkowski,15,1,19,58,1986-01,1986,1
+ref7,Data Warehousing and OLAP for Decision Support,Proceedings SIGMOD'97,S Chaudhuri,U Dayal,507,508,1997,1997
+ref8,An overview of Data Warehousing and OLAP technology,SIGMOD Record,S Chaudhuri,U Dayal,1997-03,1997,3
+ref9,A relational model of data for large shared data banks,Communications of the ACM,E F Codd,13,6,377,387,1970-06,1970,6
+ref10,Providing OLAP (On-Line Analytical Processing) to User-Analysts: An IT-Mandate,Technical report,E. F. Codd and Associates,E F Codd,S B Codd,C T Salley,1993,1993
+ref11,Distributed object computing platforms,Communications of the ACM,A Dogac,C Dengi,M T Oszu,41,9,95,103,1998-09,1998,9
+ref12,Distributed Classifier Construction in the Grid Data Mining Framework GridMiner-Core,Proceedings of the Data Mining and the Grid 4th IEEE International Conference on Data Mining (ICDM'04),J Hofer,P Brezany,2004,2004
+ref13,The Data Warehouse Toolkit: Practical Techniques for Building Dimensional Data Warehouses,John Wiley &amp; Sons, Inc,R Kimball,1996,1996
+ref14,Why decision support fails and how to fix it,SIGMOD Record,R Kimball,K Strehlo,24,3,92,97,1995-09,1995,9
+ref15,Modelling OLAP with extended relational models,J. of Computer Science and Information Management,O Mangisengi,A M Tjoa,1999,1999
+ref16,Architecture,Communications of the ACM,P Messina,D Culler,W Pfeiffer,W Martin,J T Oden,G Smith,41,11,36,44,1998-11,1998,11
+ref17,Modelling Dynamic Constraints Using Augmented Place/Transition Networks,Information Systems,Pergamon Press,T Mueck,G Vinek,14,4,1989,1989
+ref18,Conceptual Schema-Centric Development,A Grand Challenge for Information Systems Research,CAiSE 2005,LNCS 3520,A Olivé,1,15,2005,2005
+ref19,Beowulf: Harnessing the power of parallelism in a Pile-of-PCs,Proceedings IEEE Aerospace,D Ridge,D Becker,P Merkey,T Sterling,1997,1997
+ref20,On Making Data Warehouses Active,Proc. DaWaK Lecture Notes in Computer Science,Springer Verlag,M Schrefl,T Thalhammer,1874,2000,2000
+ref21,Bridging the Gap between Data Warehouses and Business Processes: A Business Intelligence Perspective for Event-Driven Process Chains,Proc. EDOC,V Stefanov,B List,J Schiefer,2005,2005
+ref22,Inverse problem theory-methods for data fitting and model parameter estimation,Society of Industrial and Applied Mathematics,J Tarantola,2005,2005
+ref23,Active data warehouses: complementing OLAP with analysis rules,Data Knowl. Eng,T Thalhammer,M Schrefl,M K Mohania,39,3,241,269,2001,2001
+ref24,Towards Grid Based Intelligent Information Systems,In Proc. 2003 International Conference on Parallel Processing,A M Tjoa,P Brezany,I Janciak,2003,2003
+ref25,Providing an Integrated Framework for Knowledge Discovery on Computational Grids,Proc. 5th International Conference on Knowledge Management,A M Tjoa,I Janciak,A Woehrer,P Brezany,2005,2005
+ref26,The ANSI/x3/SPARC DBMS framework report of the studygroup,Information Systems,D Tsischritzis,A C Klug,3,3,173,191,1978-03,1978,3
+ref27,Ein Softwaresystem zur Speicherung und integrierten Auswertung von Versuchsdaten,EDV in Medizin und Biologie,G Vinek,3,82,1972,1972
+ref28,Die Problemsprache NUMAN zur Vorbereitung von Daten für statistische Analysen,In: EDV in Medizin und Biologie,G Vinek,F Rennert,4,1,1973,1973
+ref29,Theorie und Praxis des Datenbankentwurfes,Physika-Verlag,G Vinek,F Rennert,A M Tjoa,1982,1982
+ref30,A Data Manipulation Language Based on a Relational Data Model for the Preparation of Statistical Analysis Proceedings in Computational Statistics,COMPSTAT 1976,Physika-Verlag,J. Gordesch, P. Naeve,G Vinek,F Rennert,A M Tjoa,R R Wagner,379,387
+ref31,Approximate computation of multidimensional aggregates of sparse data using wavelets,Proceedings SIGMOD'99,J S Vitter,M Wang,1999,1999
+ref32,Information systems and conceptual modelling: a research Agenda,Information Systems Research,Y Wand,R Weber,13,4,363,376,2002,2002
+ref33,On Ontological Foundations of Conceptual Modeling: A Response to Wyssusek,Scandinavian Journal of Information Systems,Y Wand,R Weber,18,1,127,138,2006,2006
+ref34,Computational Thinking,CACM,J Wing,49,3,2006-03,2006,3
+ref35,Virtualizing Heterogeneous Data Sources on the Grid-Design Concepts and Implementation Knowledge Grid and Grid Intelligence,A Woehrer,P Brezany,I Janciak,A M Tjoa,2004,2004
+ref36,Novel mediator architectures for Grid information systems,Future Generation Computer Systems,A Woehrer,P Brezany,A M Tjoa,2005,2005
+ref37,On ontological foundations of conceptual modelling,Scandinavian Journal of Information Systems,B Wyssusek,18,1,63,80,2006,2006</t>
+  </si>
+  <si>
+    <t>ref1,Modeling multidimensional databases,Technical report,AGRAWAL,R.,GUPTA,A. SARAWAGI,S.,1996
+ref2,The MOSIX Distributed Operating System, Load Balancing for UNIX,A. BARAK,S. GUDAY,WHEELER,R.,672,1993
+ref3,The MOSIX Multicomputer Operating System for High Performance Cluster Computing,Journal of Future Generation Computer Systems,A. BARAK,O. LA'ADAN,13,4-5,361,372,March 1998
+ref4,Beowulf: A parallel workstation for scientific computation,In Proceedings International Conference on Parallel Processing,D. J. BECKER,T. SAVARESE,D.,DORBAND,J. E. RANAWAK,C. V. PACKER,1995
+ref5,Data Warehousing and OLAP for Decision Support,In Proceedings SIGMOD'97,P. BREZANY,A. WÖHRER,A M. TJOA,:,S. CHAUDHURI,U.,123,6,507,508,1997
+ref6,Communications of the ACM,P. MESSINA,D. CULLER,W. PFEIFFER,W.,J. T. SMITH,G.. Architecture,41,11,36,44,November 1998
+ref7,Modelling Dynamic Constraints Using Augmented Place/Transition Networks,Information Systems,T. MUECK,VINEK,14,1989
+ref8,A Grand Challenge for Information Systems Research,A.: Conceptual OLIVÉ,Schema-Centric Development,1,15,2005
+ref9,Beowulf: Harnessing the power of parallelism in a Pile-of-PCs,In Proceedings IEEE Aerospace,D. RIDGE,D. BECKER,MERKEY,P.,1997
+ref10,On Making Data Warehouses Active,Proc. DaWaK Lecture Notes in Computer Science,M. SCHREFL,THALHAMMER,2000
+ref11,Bridging the Gap between Data Warehouses and Business Processes: A Business Intelligence Perspective for Event-Driven Process Chains,Proc. EDOC,V. STEFANOV,B. LIST,J. SCHIEFER,2005
+ref12,Inverse problem theory - methods for data fitting and model parameter estimation,Society of Industrial and Applied Mathematics,J. TARANTOLA,2005
+ref13,Active data warehouses: complementing OLAP with analysis rules,Data Knowl. Eng,T. THALHAMMER,M. SCHREFL,MOHANIA,M. K.,39,3,241,269,2001
+ref14,Towards Grid Based Intelligent Information Systems. In Proc. 2003 International Conference on Parallel Processing,A M. TJOA,BREZANY,P. JANCIAK,I.,2003
+ref15,Providing an Integrated Framework for Knowledge Discovery on Computational Grids,In Proc. 5th International Conference on Knowledge Management,A M. TJOA,JANCIAK,I.,WOEHRER,A.,BREZANY,P.,2005
+ref16,The ANSI/x3/SPARC DBMS framework report of the studygroup,Information Systems,D. TSISCHRITZIS,KLUG,A. C.,3,3,173,191,March 1978
+ref17,Ein Softwaresystem zur Speicherung und integrierten Auswertung von Versuchsdaten,EDV in Medizin und Biologie,G. VINEK,82,1972
+ref18,Die Problemsprache NUMAN zur Vorbereitung von Daten für statistische Analysen,In: EDV in Medizin und Biologie,G. VINEK,F. RENNERT,S.,4,1
+ref19,Datenmodellierung: Theorie und Praxis des Datenbankentwurfes,G. VINEK,F. RENNERT,TJOA,1982
+ref20,Approximate computation of multidimensional aggregates of sparse data using wavelets,In Proceedings SIGMOD'99,J. S. VITTER,M.. WANG,1999
+ref21,Information systems and conceptual modelling: a research Agenda,” Information Systems Research,Y. WAND,WEBER,13,363,376,2002
+ref22,On Ontological Foundations of Conceptual Modeling: A Response to Wyssusek,Scandinavian Journal of Information Systems,Y. WAND,WEBER,R.,18,1,127,138,2006
+ref23,WING,Thinking J. Computational,March,49,3,2006
+ref24,Virtualizing Heterogeneous Data Sources on the Grid - Design Concepts and Implementation Knowledge Grid,A. WOEHRER,BREZANY,P. JANCIAK,I. Tjoa,A M.,Grid Intelligence,2004
+ref25,Novel mediator architectures for Grid information systems,In Journal for Future Generation Computer Systems,A. WOEHRER,BREZANY,P. TJOA,2005
+ref26,On ontological foundations of conceptual modelling,”,Scandinavian Journal of Information Systems,B. WYSSUSEK,18,63,80,2006</t>
   </si>
   <si>
     <t>TUW-141758</t>
   </si>
   <si>
-    <t>[Aronow, Feng, 1997]
-[Aronson, 2001]
-[Atkins, Best, Briss, Eccles, Falck-Ytter, Flottorp, Guyatt, Harbour, Haugh, Henry, Hill, Jaeschke, Leng, Liberati, Magrini, Mason, Middleton, Mrukowicz, O’Connell, Oxman, Phillips, Schünemann, Edejer, Varonen, Vist, Williams, Zaza, The GRADE Working Group, 2004a]
-[Atkins, Briss, Eccles, Flottorp, Guyatt, Harbour, Hill, Jaeschke, Liberati, Magrini, Mason, O’Connell, Oxman, Phillips, Schünemann, Edejer, Vist, Williams Jr., The GRADE Working Group, 2005]
-[Atkins, Eccles, Flottorp, Guyatt, Henry, Hill, Liberati, O’Connell, Oxman, Phillips, Schünemann, Edejer, Vist, Williams Jr., The GRADE Working Group, 2004b]
-[Boytcheva, Strupchanska, Paskaleva, Tcharaktchiev, 2005]
-[Bruix, Sherman, Practice Guidelines Committee, American Association for the Study of Liver Diseases, 2005]
-[Chapman, Bridewell, Hanbury, Cooper, Buchanan, 2001]
-[Divita, 2005]
-[Elkin, Brown, Bauer, Husser, Carruth, Bergstrom, Wahner-Roedler, 2005]
-[Feder, Eccles, Grol, Griffiths, Grimshaw, 1999]
-[Field, Lohr, 1990]
-[Hahn, Wingard, Anderson, Bensinger, Berenson, Brozeit, Carver, Kyle, PL, 2003]
-[Hazlehurst, Frost, Sittig, Stevens, 2005]
-[Horn, 1989]
-[Hripcsak, Friedman, Alderson, DuMouchel, Johnson, Clayton, 1995]
-[Huang, Lowe, 2007]
-[Humphreys, Schuyler, 1993]
-[Kaiser, 2007]
-[Kaiser, Martini, Miksch, Öztürk, 2007]
-[Klein, Manning, 2003]
-[Kvale, 2006]
-[Kvale, Simoff, Prakash, 2003]
-[Lee, Geller, 2006]
-[Lehnert, Cardie, Fisher, McCarthy, Riloff, Soderland, 1994]
-[Mccray, 1989]
-[Meystre, Haug, 2005]
-[Miaskkowski, Cleary, Burney, Coyne, Finley, Foster, Grossman, Janjan, Ray, Syrjala, Weisman, Pettit, Zahrbock, 2005]
-[Mitchell, Becich, Berman, Chapman, Gilbertson, Gupta, Harrison, Legowski, Crowley, 2004]
-[Mutalik, Deshpande, Nadkarni, 2001]
-[National Collaborating Centre for Acute Care, 2005]
-[Otchy, Hyman, Simmang, Anthony, Buie, Cataldo, Church, Cohen, Dentsman, Ellis, 3rd, Ko, Moore, Orsay, Place, Rafferty, Rakinic, Savoca, Tjandra, Whiteford, 2004]
-[Patrick, Wang, Budd, 2006]
-[Rizzo, Lichtin, Woolf, Seidenfeld, Bennett, Cella, Djulbegovic, Goode, Jakubowski, Lee, Miller, Rarick, Regan, Browman, Gordon, 2002]
-[Scottish Intercollegiate Guidelines Network (SIGN), 2003a]
-[Scottish Intercollegiate Guidelines Network (SIGN), 2003b]
-[Scottish Intercollegiate Guidelines Network (SIGN), 2004]
-[Scottish Intercollegiate Guidelines Network (SIGN), 2005a]
-[Scottish Intercollegiate Guidelines Network (SIGN), 2005b]
-[Shekelle, Woolf, Eccles, Grimshaw, 1999]
-[Simon, Wagner, 2003]
-[Singapore Ministry of Health, 2004a]
-[Singapore Ministry of Health, 2004b]
-[Singapore Ministry of Health, National Committee on Cancer Care, 2004]
-[SNOMED International, 2006]
-[Socinsky, Morris, Masters, Lilenbaum, 2003]
-[Tolentino, Matters, Walop, Law, Tong, Liu, Fontelo, Kohl, Payne, 2006]
-[Winquist, Oliver, Gilbert, 2004]
-[Wolkov, Constine, Yahalom, Chauvenet, Hoppe, Abrams, Deming, Mendenhall, Morris, Ng, Hudson, Winter, Mauch, 2005]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,[Aronow, Feng, 1997],Ad-hoc classification of electronic clinical documents,D-Lib Magazine,D B Aronow,F Feng,1997,1997
+ref2,[Aronson, 2001],Effective mapping of biomedical text to the UMLS Metathesaurus: the MetaMap program,Proc. of the AMIA Symposium,A R Aronson,17,21,2001,2001
+ref3,[Atkins, Best, Briss, Eccles, Falck-Ytter, Flottorp, Guyatt, Harbour, Haugh, Henry, Hill, Jaeschke, Leng, Liberati, Magrini, Mason, Middleton, Mrukowicz, O’Connell, Oxman, Phillips, Schünemann, Edejer, Varonen, Vist, Williams, Zaza, The GRADE Working Group, 2004a],Grading quality of evidence and strength of recommendations,D Atkins,D Best,P A Briss,M Eccles,Y Falck-Ytter,S Flottorp,G H Guyatt,R T Harbour,M C Haugh,D Henry,S Hill,R Jaeschke,G Leng,A Liberati,N Magrini,J Mason,P Middleton,J Mrukowicz,D O’Connell,A D Oxman,B Phillips,H Schünemann,T Edejer,H Varonen,G E Vist,J W Jr Williams,S Zaza,The GRADE Working Group,328,7454,2004a,1490,1498,2004,2004
+ref4,[Atkins, Briss, Eccles, Flottorp, Guyatt, Harbour, Hill, Jaeschke, Liberati, Magrini, Mason, O’Connell, Oxman, Phillips, Schünemann, Edejer, Vist, Williams Jr., The GRADE Working Group, 2005],Systems for grading the quality of evidence and the strength of recommendations II: Pilot study of a new system,BMC Health Services Research,D Atkins,P A Briss,M Eccles,S Flottorp,G H Guyatt,R T Harbour,S Hill,R Jaeschke,A Liberati,N Magrini,J Mason,D O’Connell,A D Oxman,B Phillips,H Schünemann,T Edejer,G E Vist,J W Williams Jr.,The GRADE Working Group,5,25,2005,2005
+ref5,[Atkins, Eccles, Flottorp, Guyatt, Henry, Hill, Liberati, O’Connell, Oxman, Phillips, Schünemann, Edejer, Vist, Williams Jr., The GRADE Working Group, 2004b],Systems for grading the quality of evidence and the strength of recommendations i: Critical appraisal of existing approaches,BMC Health Services Research,D Atkins,M Eccles,S Flottorp,G H Guyatt,D Henry,S Hill,A Liberati,D O’Connell,A D Oxman,B Phillips,H Schünemann,T Edejer,G E Vist,J W Williams Jr.,The GRADE Working Group,4,38,2004b,2004,2004
+ref6,[Boytcheva, Strupchanska, Paskaleva, Tcharaktchiev, 2005],Some aspects of negation processing in electronic health records,Proc. of International Workshop Language and Speech Infrastructure for Information Access in the Balkan Countries,S Boytcheva,A Strupchanska,E Paskaleva,D Tcharaktchiev,1,8,2005,2005
+ref7,[Bruix, Sherman, Practice Guidelines Committee, American Association for the Study of Liver Diseases, 2005],Management of hepatocellular carcinoma,Hepatology,,J Bruix,M Sherman,Practice Guidelines Committee, American Association for the Study of Liver Diseases,42,5,1208,1236,2005,2005
+ref8,[Chapman, Bridewell, Hanbury, Cooper, Buchanan, 2001],A simple algorithm for identifying negated findings and diseases in discharge summaries,Journal of Biomedical Informatics,W W Chapman,W Bridewell,P Hanbury,G F Cooper,B G Buchanan,34,5,301,310,2001,2001
+ref9,[Divita, 2005],MMTX-API Documentation,G Divita,2005,2005,http://mmtx.nlm.nih.gov/
+ref10,[Elkin, Brown, Bauer, Husser, Carruth, Bergstrom, Wahner-Roedler, 2005],A controlled trial of automated classification of negation from clinical notes,BMC Medical Informatics and Decision Making,Peter L Elkin,S H Brown,B A Bauer,C S Husser,S Carruth,L R Bergstrom,D L Wahner-Roedler,5,13,1,7,2005,2005
+ref11,[Feder, Eccles, Grol, Griffiths, Grimshaw, 1999],Clinical guidelines: Using clinical guidelines,BMJ,G Feder,M Eccles,R Grol,C Griffiths,J Grimshaw,318,728,730,1999,1999
+ref12,[Field, Lohr, 1990],Clinical Practice Guidelines: Directions for a New Program,National Academies Press,M J Field,K N Lohr,Washington DC,1990,1990
+ref13,[Hahn, Wingard, Anderson, Bensinger, Berenson, Brozeit, Carver, Kyle, PL, 2003],The role of cytotoxic therapy with hematopoietic stem cell transplantation in the therapy of multiple myeloma: an evidence-based review,Biol Blood Marrow Transplant,T Hahn,J Wingard,K Anderson,W Bensinger,J Berenson,G Brozeit,J Carver,R Kyle,P M PL,9,1,4,37,2003,2003
+ref14,[Hazlehurst, Frost, Sittig, Stevens, 2005],Mediclass: A system for detecting and classifying encounter-based clinical events in any electronic medical record,Journal of the American Medical Informatics Association (JAMIA),B Hazlehurst,H R Frost,D F Sittig,V J Stevens,12,5,517,529,2005,2005
+ref15,[Horn, 1989],A Natural History of Negation,University of Chicago Press,L R Horn,Chicago, Illinois,1989,1989
+ref16,[Hripcsak, Friedman, Alderson, DuMouchel, Johnson, Clayton, 1995],Unlocking clinical data from narrative reports: A study of natural language processing,Annals of Internal Medicine,G Hripcsak,C Friedman,P O Alderson,W DuMouchel,S B Johnson,P D Clayton,122,9,681,688,1995,1995
+ref17,[Huang, Lowe, 2007],A novel hybrid approach to automated negation detection in clinical radiology reports,Journal of the American Medical Informatics Association (JAMIA),Y Huang,H J Lowe,14,304,311,2007,2007
+ref18,[Humphreys, Schuyler, 1993],The Unified Medical Language System: Moving beyond the vocabulary of bibliographic retrieval,Meckler,B L Humphreys,P Schuyler,Westport, CT,31,44,1993,1993
+ref19,[Kaiser, 2007],Medical terminology systems,Technical Report Asgaard-TR-
+2007-1,Vienna University of Technology, Institute of Software Technology and Interactive
+Systems,K Kaiser,2007,2007
+ref20,[Kaiser, Martini, Miksch, Öztürk, 2007],A meta schema for evidence information in clinical practice guidelines as a basis for decision-making,Studies in Health Technology and Informatics,AMIA, IOS Press,K Kaiser,P Martini,S Miksch,A Öztürk,Brisbane, Australia,129,925,929,2007,2007
+ref21,[Klein, Manning, 2003],Accurate Unlexicalized Parsing,Proc of the 41st Meeting of the Association for Computational Linguistics,D Klein,C Manning,2003,2003
+ref22,[Kvale, 2006],Chronic cough due to lung tumors: ACCP evidence-based clinical practice guidelines,Chest,P Kvale,129,1,147,153,2006,2006
+ref23,[Kvale, Simoff, Prakash, 2003],Lung cancer. palliative care,Chest,P Kvale,M Simoff,U Prakash,123,1,284,311,2003,2003
+ref24,[Lee, Geller, 2006],Semantic enrichment for medical ontologies,J. of Biomedical Informatics,Y Lee,J Geller,39,2,209,226,2006,2006
+ref25,[Lehnert, Cardie, Fisher, McCarthy, Riloff, Soderland, 1994],Evaluating an information extraction system,Journal of Integrated ComputerAided Engineering,W Lehnert,C Cardie,D Fisher,J McCarthy,E Riloff,S Soderland,1,6,1,29,1994,1994
+ref26,[Mccray, 1989],UMLS Semantic Network,The 13th annual SCAMC,A T Mccray,503,507,1989,1989
+ref27,[Meystre, Haug, 2005],Automation of a problem list using natural language processing,BMC Medical Informatics and Decision Making,S Meystre,P J Haug,5,30,2005,2005
+ref28,[Miaskkowski, Cleary, Burney, Coyne, Finley, Foster, Grossman, Janjan, Ray, Syrjala, Weisman, Pettit, Zahrbock, 2005],Guideline for the management of cancer pain in adults and children,Clinical practice guideline 3,American Pain Society (APS),C Miaskkowski,J Cleary,R Burney,P J Coyne,R Finley,R Foster,S Grossman,N A Janjan,J Ray,K Syrjala,S J Weisman,J B Pettit,C Zahrbock,Glenview (IL),2005,2005
+ref29,[Mitchell, Becich, Berman, Chapman, Gilbertson, Gupta, Harrison, Legowski, Crowley, 2004],Implementation and evaluation of a negation tagger in a pipeline-based system for information extraction from pathology reports,K J Mitchell,M J Becich,J J Berman,W W Chapman,J Gilbertson,D Gupta,J Harrison,E Legowski,R S Crowley,663,667,2004,2004
+ref30,[Mutalik, Deshpande, Nadkarni, 2001],Use of general-purpose negation detection to augment concept indexing of medical documents: A quantitative study using the UMLS,Journal of the American Medical Informatics Association,P G Mutalik,A Deshpande,P M Nadkarni,8,6,598,609,2001,2001
+ref31,[National Collaborating Centre for Acute Care, 2005],The diagnosis and treatment of lung cancer,Clinical practice guideline,National Institute for Clinical Excellence (NICE),National Collaborating Centre for Acute Care,London (UK),2005,2005
+ref32,[Otchy, Hyman, Simmang, Anthony, Buie, Cataldo, Church, Cohen, Dentsman, Ellis, 3rd, Ko, Moore, Orsay, Place, Rafferty, Rakinic, Savoca, Tjandra, Whiteford, 2004],Practice parameters for colon cancer,Dis Colon Rectum,D Otchy,N Hyman,C Simmang,T Anthony,W Buie,P Cataldo,J Church,J Cohen,F Dentsman,C Ellis,J K 3rd,C Ko,R Moore,C Orsay,R Place,J Rafferty,J Rakinic,P Savoca,J Tjandra,M Whiteford,47,8,1269,1284,2004,2004
+ref33,[Patrick, Wang, Budd, 2006],Automatic mapping clinical notes to medical terminologies,Proceedings of the 2006 Australasian Language Technology Workshop (ALTW2006),J Patrick,Y Wang,P Budd,2006,2006
+ref34,[Rizzo, Lichtin, Woolf, Seidenfeld, Bennett, Cella, Djulbegovic, Goode, Jakubowski, Lee, Miller, Rarick, Regan, Browman, Gordon, 2002],Use of epoetin in patients with cancer: evidence-based clinical practice guidelines of the american society of clinical oncology and the american society of hematology,Blood,J Rizzo,A Lichtin,S Woolf,J Seidenfeld,C Bennett,D Cella,B Djulbegovic,M Goode,A Jakubowski,S Lee,C Miller,M Rarick,D Regan,G Browman,M Gordon,100,7,2003,2020,2002,2002
+ref35,[Scottish Intercollegiate Guidelines Network (SIGN), 2003a],Cutaneous melanoma. A national clinical guideline,SIGN publication 72,Scottish Intercollegiate Guidelines Network (SIGN),Scottish Intercollegiate Guidelines Network (SIGN),Edinburgh (Scotland),2003a,2003,2003
+ref36,[Scottish Intercollegiate Guidelines Network (SIGN), 2003b],Epithelial ovarian cancer. A national clinical guideline,SIGN publication 75,Scottish Intercollegiate Guidelines Network (SIGN),Scottish Intercollegiate Guidelines Network (SIGN),Edinburgh (Scotland),2003b,2003,2003
+ref37,[Scottish Intercollegiate Guidelines Network (SIGN), 2004],Long term follow up of survivors of childhood cancer. A national clinical guideline. ,SIGN publication 76,Scottish Intercollegiate Guidelines Network (SIGN),Scottish Intercollegiate Guidelines Network (SIGN),Edinburgh (Scotland),2004,2004
+ref38,[Scottish Intercollegiate Guidelines Network (SIGN), 2005a],Management of patients with lung cancer. A national clinical guideline,SIGN publication 80,Scottish Intercollegiate Guidelines Network (SIGN),Scottish Intercollegiate Guidelines Network (SIGN),Edinburgh (Scotland),2005a,2005,2005
+ref39,[Scottish Intercollegiate Guidelines Network (SIGN), 2005b],Management of transitional cell carcinoma of the bladder. A national clinical guideline,SIGN publication 85,Scottish Intercollegiate Guideline Network (SIGN),Scottish Intercollegiate Guidelines Network (SIGN),Edinburgh (Scotland),2005b,2005,2005
+ref40,[Shekelle, Woolf, Eccles, Grimshaw, 1999],Clinical guidelines: Developing guidelines,BMJ,P G Shekelle,S H Woolf,M Eccles,J Grimshaw,318,593,596,1999,1999
+ref41,[Simon, Wagner, 2003],Small cell lung cancer,Chest,G Simon,H Wagner,123,1,259,271,2003,2003
+ref42,[Singapore Ministry of Health, 2004a],Cervical cancer,Clinical practice guideline,Singapore Ministry of Health,Singapore Ministry of Health,Singapore,2004a,2004,2004
+ref43,[Singapore Ministry of Health, 2004b],Colorectal cancer,Clinical practice guideline,Singapore Ministry of Health,Singapore Ministry of Health,Singapore,2004b,2004,2004
+ref44,[Singapore Ministry of Health, National Committee on Cancer Care, 2004],Breast cancer,Clinical practice guideline,Singapore Ministry of Health,Singapore Ministry of Health,National Committee on Cancer Care,Singapore,2004,2004
+ref45,[SNOMED International, 2006],SNOMED CT,SNOMED International,2006,2006,http://www.snomed.org/snomedct/index.html
+ref46,[Socinsky, Morris, Masters, Lilenbaum, 2003],Chemotherapeutic management of stage IV non-small cell lung cancer,Chest,M A Socinsky,D E Morris,G A Masters,R Lilenbaum,123,1,226,243,2003,2003
+ref47,[Tolentino, Matters, Walop, Law, Tong, Liu, Fontelo, Kohl, Payne, 2006],Concept negation in free text components of vaccine safety reports,Proc. of the AMIA 2006 Symposium,H Tolentino,M Matters,W Walop,B Law,W Tong,F Liu,P Fontelo,K Kohl,D Payne,1122,2006,2006
+ref48,[Winquist, Oliver, Gilbert, 2004],The role of postoperative chemoradiotherapy for advanced squamous cell carcinoma of the head and neck,Clinical practice guideline 5–10,Cancer Care Ontario (CCO),E Winquist,T Oliver,H Gilbert,Toronto (ON),2004,2004
+ref49,[Wolkov, Constine, Yahalom, Chauvenet, Hoppe, Abrams, Deming, Mendenhall, Morris, Ng, Hudson, Winter, Mauch, 2005],Staging evaluation-hodgkin's disease,Clinical practice guideline,American College of Radiology (ACR),H Wolkov,L Constine,J Yahalom,A Chauvenet,R Hoppe,R Abrams,R Deming,N Mendenhall,D Morris,A Ng,M Hudson,J Winter,P Mauch,Reston (VA),2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,23 3.8 Concept Negation in Free Text Components of Vaccine Safety Reports,. . . . 23 3,Motivation . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 1,Question . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Evaluation . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 22,Conclusio . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Terminologies . . . . . . . . . . . 22,Method . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 22,Preprocessing . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 23,Detection . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 23,Evaluation . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,NegExpander . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 24,A Hybrid,Approach . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 24,Discussion . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 26,7,3
+ref2,4 NegHunter 27 4,(MMTx) . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 27 Transfer,The Negation,Detection Algorithms . . . . . . . . . . . . . . . . . . . . . . . . . 30,The Adverbial,Negation . . . . . . . . . . . . . . . . . . . . . . . . . . . . 31,Negation . . . . . . . . . . . . . . . . . . . . . 36 Intra-Phrase Triggered,The Prepositional,Negation . . . . . . . . . . . . . . . . . . . . . . . . . . 37,The Adjective,Negation . . . . . . . . . . . . . . . . . . . . . . . . . . . . 39,The Verb,Negation . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 39,Assigning Prepositional,Information . . . . . . . . . . . . . . . . . . . . . 40,Summary . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 41,2,4
+ref3,3 1.2 The test set of the used,5 Evaluation 43 5,Identified Negated Phrases . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . 44,MMTx . . . . . . . . . . . . . . . . . . . . . . . . . . . 47,Discussion . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,CPGs. . . . . . . . . . . . . . . . . . . . . . . . . . .,CPGs. . . . . . . . . . . . . . . . . . . . . . . . . . . . . 4,2,5
+ref4,20 3.5 Performance of the Hybrid Approach on 120 Radiology,NegEx. . . . . . . 15 3,Reports . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Reports . . . . . . . . . . 25,2005
+ref5,35 4.10 The passive form of Future II,. . . . . 34 4,A Simple Past,. . . . . . . . .,Passive . . . . . . . . . . . . . .,Active. . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Voice . . . . . . . . . . . . . . . . 35,Future I Conditional,I Passive. . . . . . . . . . 35,Past Progressive Passive. . . . . . . . . . . . . . . . . . . . . . . . .,II. . . . . . . . . . . . . . . . . . . 35 Conditional,4
+ref6,48 5.9 Percentage of MMTx errors compared to overall errors,. . . . . . . . . . . . . . . . . . . . .,negation . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . 49
+ref7,[Singapore Ministry of Health, National Committee on Cancer Care,,2004
+ref8,[Singapore Ministry of Health,
+ref9,Chemotherapeutic management of stage IV non-small cell lung cancer,,2003
+ref10,Chronic cough due to lung tumors: ACCP evidence-based clinical practice guidelines,[Kvale,,2006
+ref11,[Singapore Ministry of Health,
+ref12,2. Cutaneous melanoma. A national clinical guideline. [Scottish Intercollegiate Guidelines Network (SIGN),,2003a
+ref13,Epithelial ovarian cancer. A national clinical guideline. [Scottish Intercollegiate Guidelines Network (SIGN),,2003b
+ref14,5. Long term follow up of survivors of childhood cancer. A national clinical guideline,[Scottish Intercollegiate Guidelines Network (SIGN),,2004
+ref15,Palliative care. [Kvale,,2003
+ref16,,2005
+ref17,Management of patients with lung cancer. A national clinical guideline. [Scottish Intercollegiate Guidelines Network (SIGN), 2005a] Management of transitional cell carcinoma of the bladder,
+ref18,9. A national clinical guideline. [Scottish Intercollegiate Guidelines Network (SIGN),,2005b
+ref19,Practice parameters for colon cancer,[Otchy,,2004
+ref20,Small cell lung cancer,[Simon and Wagner,,2003
+ref21,- Hodgkin's disease [Wolkov et al,Staging,2005
+ref22,The diagnosis and treatment of lung cancer,[National Collaborating Centre for Acute Care,,2005
+ref23,The role of cytotoxic therapy with hematopoietic stem cell transplantation in the therapy of multiple myeloma: an evidence-based review,[Hahn,,2003
+ref24,The role of postoperative chemoradiotherapy for advanced squamous cell carcinoma of the head and neck,,2004
+ref25,Use of epoetin in patients with cancer: evidence-based clinical practice guidelines of the American Society of Clinical Oncology and the American Society of Hematology,,2002
+ref26,Grading quality of evidence and strength of recommendations,D. Atkins,D. Best,P. A. Briss,M. Eccles,Y. Falck-Ytter,S. Flottorp,G. H. Guyatt,Harbour,M. C. Haugh,D. Henry,S. Hill,R. Jaeschke,G. Leng,A. Liberati,N. Magrini,J. Mason,P. Middleton,Mrukowicz,D. O'Connell,A. D. Oxman,B. Phillips,T. Edejer,H. Varonen,G. E. Vist,J. W. Williams,S. Zaza,328,7454,1490,1498,2004a
+ref27,Systems for grading the quality of evidence and the strength of recommendations II: Pilot study of a new system,BMC Health Services Research,D. Briss,P. A. Eccles,M. Flottorp,S. Guyatt,G. H. Harbour,S. Hill,R. Jaeschke,A. Liberati,N. Magrini,Mason,D. O'Connell,A. D. Oxman,B. Phillips,T. Edejer,G. E. Vist,J. W. Williams,5,25,2005
+ref28,Systems for grading the quality of evidence and the strength of recommendations i: Critical appraisal of existing approaches,BMC Health Services Research,D. Atkins,M. Eccles,S. Flottorp,G. H. Guyatt,D. Henry,S. Hill,A. Liberati,D. O'Connell,A. D. Oxman,B. Phillips,T. Edejer,G. E. Vist,J. W. Williams,4,38,2004b
+ref29,Some aspects of negation processing in electronic health records,Proc. of International Workshop Language and Speech Infrastructure for Information Access in the Balkan Countries,S. Strupchanska,A. Paskaleva,E. Tcharaktchiev,D.,1,8,2005
+ref30,Management of hepatocellular carcinoma,Hepatology,J. Sherman,M.,42,5,1208,1236,2005
+ref31,A simple algorithm for identifying negated findings and diseases in discharge summaries,Journal of Biomedical Informatics,W. W. Bridewell,W. Hanbury,P. Cooper,G. F. Buchanan,B. G.,34,5,301,310,2001
+ref32,MMTX-API Documentation,[Divita,G.,2005
+ref33,Clinical guidelines: Using clinical guidelines,BMJ,G. Eccles,M. Grol,R. Griffiths,C. Grimshaw,J.,318,728,730,1999
+ref34,The role of cytotoxic therapy with hematopoietic stem cell transplantation in the therapy of multiple myeloma: an evidence-based review,Biol Blood Marrow Transplant,T. Wingard,J. Anderson,K. Bensinger,W. Berenson,J. Brozeit,G. Carver,J. Kyle,R.,PL,P. M.,9,1,4,37,2003
+ref35,Semantic enrichment for medical ontologies,J. of Biomedical Informatics,Y. Geller,J.,39,2,209,226,2006
+ref36,Evaluating an information extraction system,Journal of Integrated ComputerAided Engineering,W. Cardie,C. Fisher,D. McCarthy,J. Riloff,E. Soderland,S.,1,6,1,29,1994
+ref37,UMLS Semantic Network,The 13th annual SCAMC,A. T. McCray,503,507,1989
+ref38,Automation of a problem list using natural language processing,BMC Medical Informatics and Decision Making,S. Haug,P. J.,5,30,2005
+ref39,Guideline for the management of cancer pain in adults and children,Glenview (IL).,C. Cleary,J. Burney,R. Coyne,P. J. Finley,R. Foster,R. Grossman,S. Janjan,N. A. Ray,J. Syrjala,K. Weisman,S. J. Pettit,J. B. Zahrbock,C.,Pain Society American,2005
+ref40,Implementation and evaluation of a negation tagger in a pipeline-based system for information extraction from pathology reports,K. J. Becich,M. J. Berman,J. J. Chapman,W. W. Gilbertson,J. Gupta,D. Harrison,J. Legowski,E. Crowley,R. S.,663,667,2004
+ref41,Use of general-purpose negation detection to augment concept indexing of medical documents: A quantitative study using the UMLS,Journal of the American Medical Informatics Association (JAMIA),P. G. Deshpande,A. Nadkarni,P. M.,8,6,598,609,2001
+ref42,Practice parameters for colon cancer,Dis Colon Rectum,D. Hyman,N. Simmang,C. Anthony,T. Buie,W. Cataldo,P. Church,J. Cohen,J. Dentsman,F. Ellis,C.,J. K. Ko,C. Moore,R.,C. Place,R. Rafferty,J. Rakinic,J. Savoca,P. Tjandra,J. Whiteford,M.,47,8,1269,1284,2004
+ref43,Clinical guidelines: Developing guidelines,BMJ,P. G. Woolf,S. H. Eccles,M. Grimshaw,J.,318,593,596,1999
+ref44,Small cell lung cancer,Chest,G. Wagner,H.,123,1,259,271,2003</t>
   </si>
   <si>
     <t>TUW-168222</t>
   </si>
   <si>
+    <t>ref1,Anwendung von NLP im Bereich der Künstlichen Intelligenz,Master Thesis,G. Kellner,Wien, Austria,2006
+ref2,Grammatik der deutschen Gegenwartssprache,Duden,G. Drosdowski,Mannheim, Germany,1995
+ref3,Computerlinguistik und Sprachtechnologie,K.-U. Carstensen,München, Germany,2004</t>
+  </si>
+  <si>
+    <t>ref1,Anwendung von NLP im Bereich der Künstlichen Intelligenz,Master Thesis,G. Kellner,2006
+ref2,Grammatik der deutschen Gegenwartssprache“,G. Drosdowski,1995
+ref3,Computerlinguistik und Sprachtechnologie,K.-U. Carstensen,2004</t>
+  </si>
+  <si>
     <t>TUW-168482</t>
   </si>
   <si>
-    <t>[Avr91]
-[BF99]
-[CFM04]
-[Dum59]
-[EG01]
-[EGHM03]
-[Fer09]
-[FK06]
-[FP03]
-[Gen69]
-[Gil74]
-[Gil82]
-[Göd32]
-[Gog69]
-[Háj02]
-[HGE95]
-[HGE96]
-[Há02]
-[KMP00]
-[Lor60]
-[Lor61]
-[Luk20]
-[MOG04]
-[MOG05]
-[RJM94]
-[Sca62]
-[Zad96]</t>
+    <t>ref1,[Avr91],Hypersequents, logical consequence and intermediate logics for concurrency,Annals of Mathematics and Artificial Intelligence,Arnon Avron,4,3,225,248,1991,1991
+ref2,[BF99],Analytic calculi for projective logics,TABLEAUX '99: Proceedings of the International Conference on Automated Reasoning with Analytic Tableaux and Related Methods,Springer-Verlag,Matthias Baaz,Christian G Fermüller,London, UK,36,50,1999,1999
+ref3,[CFM04],Uniform Rules and Dialogue Games for fuzzy logics,LPAR, volume 3452 of Lecture Notes in Computer Science,Springer,Franz Baader and Andrei Voronkov,Agata Ciabattoni,Christian G Fermüller,George Metcalfe,3452,496,510,2004,2004
+ref4,[Dum59],A propositional calculus with denumerable matrix,J. Symbolic Logic,M Dummett,24,2,97,106,1959,1959
+ref5,[EG01],Monoidal t-norm based logic: towards a logic for leftcontinuous t-norms,Fuzzy sets and systems,F Esteva,L Godo,124,3,271,288,2001,2001
+ref6,[EGHM03],Hoops and Fuzzy Logic,Journal of Logic and Computation,F Esteva,L Godo,P Hájek,F Montagna,13,4,532,555,2003,2003
+ref7,[Fer09],Revisiting Giles-Connecting Bets, Dialogue Games, and Fuzzy Logics,Games: Unifying Logic, Language, and Philosophy, volume 15 of Logic, Epistemology and the Unity of Science,Springer,Ondrej Majer, Ahti-Veikko Pietarinen, and Tero Tulenheimo,Christian G Fermüller,15,2009,2009
+ref8,[FK06],Combining Supervaluation and Degree Based Reasoning Under Vagueness,Lecture Notes in Computer Science,C G Fermuller,R Kosik,4246,212,2006,2006
+ref9,[FP03],A Dialogue Game for Intuitionistic Fuzzy Logic Based on Comparisons of Degrees of Truth,Proceedings of InTech'03 (Fourth International Conference on Intelligent Technologies),C G Fermuller,Norbert Preining,Chiang Mai, Thailand,2003-12,2003,12
+ref10,[Gen69],Investigations into logical deduction,The Collected Papers of Gerhard Gentzen,G Gentzen,68,131,1969,1969
+ref11,[Gil74],A non-classical logic for physics,Studia Logica,Robin Giles,33,4,397,415,1974,1974
+ref12,[Gil82],Semantics for Fuzzy Reasoning,International Journal of ManMachine Studies,Robin Giles,17,401,415,1982,1982
+ref13,[Göd32],Zum intuitionisticschen Aussagenkalkül,Anzeiger Akademie der Wissenschaften Wien, mathematisch-naturwiss. Klasse,K Göd32 Gödel,32,65,66,1932,1932
+ref14,[Gog69],The logic of inexact concepts,Synthése,J A Goguen,19,3,325,373,1969,1969
+ref15,[Háj02],Why fuzzy logic,Companion to Philosophical Logic,Petr Hájek,Blackwell, Massachusetts,595,605,2002,2002
+ref16,[HGE95],Fuzzy logic and probability,Proceedings of the 11th Annual Conference on Uncertainty in Artificial Intelligence (UAI-95),Morgan Kaufmann,Petr Hájek,Lluis Godo,Francesc Esteva,San Francisco, CA,237,244,1995,1995
+ref17,[HGE96],A complete many-valued logic with productconjunction,Archive for Mathematical Logic,P Hájek,L Godo,F Esteva,35,3,191,208,1996,1996
+ref18,[Há02],Metamathematics of Fuzzy Logic,Trends in Logic,Springer,Petr Hájek,4,2002,2002
+ref19,[KMP00],Triangular Norms,Trends in Logic,Springer,E P Klement,Radko Mesiar,Endre Pap,8,2000,2000
+ref20,[Lor60],Logik und Agon,Atti del Congresso Internazionale di Filosofia,P Lorenzen,Firenze,Sansoni,187,194,1960,1960
+ref21,[Lor61],Ein dialogisches Konstruktivitätskriterium,Infinitistic Methods,P Lorenzen,Warszawa,PWN. Proceed. Symp. Foundations of Math,193,200,1961,1961
+ref22,[Luk20],O logice trojwartosciowej,Ruch Filozoficzny,J Lukasiewicz,5,32,169,171,1920,1920
+ref23,[MOG04],Analytic Proof Calculi for Product Logics,Archive for Mathematical Logic,George Metcalfe,Nicola Olivetti,Dov Gabbay,43,7,859,889,2004,2004
+ref24,[MOG05],Sequent and hypersequent calculi for abelian and Lukasiewicz logics,ACM Trans. Comput. Logic,George Metcalfe,Nicola Olivetti,Dov Gabbay,6,3,578,613,2005,2005
+ref25,[RJM94],Fuzzy Logic Technology and Applications I,IEEE Press,II Robert J Marks,Piscataway, NJ, USA,1994,1994
+ref26,[Sca62],Die Nichtaxiomatisierbarkeit des unendlichwertigen Prädikatenkalküls von Lukasiewicz,Journal of Symbolic Logic,B Scarpellini,27,2,159,170,1962,1962
+ref17,[Zad96],The role of fuzzy logic in modeling, identification and control,Fuzzy Sets, Fuzzy Logic, and Fuzzy Systems: Selected Papers,L A Zadeh,1996,1996</t>
   </si>
   <si>
     <t>TUW-169511</t>
   </si>
   <si>
+    <t>ref1,Parallel Tabu search heuristics for the dynamic multi-vehicle dial-a-ride problem,Parallel Computing,A Attanasio,J.-F Cordeau,G Ghiani,G Laporte,30,377,387,2004,2004
+ref2,The Dial-a-Ride Problem (DARP): Variants modelling issues and algorithms,4OR,J.-F Cordeau,G Laporte,1,89,101,2003,2003
+ref3,Neighborhood Search heuristic for a Dynamic Vehicle Dispatching Problem with Pickups and Deliveries,Technical Report,Centre de recherche sur les transports, Université de Montréal,M Gendreau,F Guertin,J.-Y Potvin,R Séguin,Forthcoming in Transportation Research C,2002,2002
+ref4,A dynamic model and parallel tabu search heuristic for real-time ambulance relocation,Parallel Computing,M Gendreau,G Laporte,F Semet,27,1641,1653,2001,2001
+ref5,A heuristic algorithm for the multi-vehicle advance request dial-a-ride problem with time windows,Transportation Research B,J.-J Jaw,A Odoni,H Psaraftis,N Wilson,20,3,243,257,1986,1986
+ref6,Waiting Strategies for the Dynamic Pickup and Delivery Problem with Time Windows,Transportation Research B,S Mitrović-Minić,G Laporte,38,635,655,2004,2004</t>
+  </si>
+  <si>
+    <t>ref1,(2004) Parallel Tabu search heuristics for the dynamic multi-vehicle dial-a-ride problem,Parallel Computing,A. Attanasio,J.-F. Cordeau,G. Ghiani,G. Laporte,30,387
+ref2,The Dial-a-Ride Problem (DARP): Variants modelling issues and algorithms",4OR 1,J.-F. Cordeau,G. Laporte,89,101,2003
+ref3,: \Neighborhood Search heuristic for a Dynamic Vehicle Dispatching Problem with Pickups and Deliveries",Technical Report,M. Gendreau,F. Guertin,Potvin,2002
+ref4,: \A dynamic model and parallel tabu search heuristic for real-time ambulance relocation",Parallel Computing,M. Gendreau,G. Laporte,F. Semet,27,1641,1653,2001
+ref5,: \A heuristic algorithm for the multi-vehicle advance request dial-a-ride problem with time windows",Transportation Research B,Jaw J.-J.,A. Odoni,H. Psaraftis,N.,20,3,243,257,1986
+ref6,: \Waiting Strategies for the Dynamic Pickup and Delivery Problem with Time Windows",Transportation Research B,G. Laporte,38,635,655,2004</t>
+  </si>
+  <si>
     <t>TUW-172697</t>
   </si>
   <si>
-    <t>m
-m
-j</t>
+    <t>ref1,Preserving interactive multimedia art: A case study in preservation planning,Proc. ICADL'07,C Becker,G Kolar,J Kueng,A Rauber,2007-12,2007,12,m
+ref2,How to choose a digital preservation strategy: Evaluating a preservation planning procedure,Proc. JCDL'07,S Strodl,C Becker,R Neumayer,A Rauber,29,38,2007,2007,m
+ref3,An intelligent decision support system for digital preservation,Int. Journal Digital Libraries (IJDL),M Ferreira,A A Baptista,J C Ramalho,6,4,295,304,2007-07,2007,7,j</t>
   </si>
   <si>
     <t>TUW-174216</t>
   </si>
   <si>
-    <t>[Bearman, 1999]|m
-[Becker et al., 2008a]
-[Becker et al., 2008b]|m
-[Beckerle and Westhead, 2004]|m
-[Brandl and Keller-Marxer, 2007]|m
-[Canfield and Xing, 2005]|m
-[Consultative Committee for Space Data Systems, 2002]|m
-[Díaz et al., 2002]
-[Digital Preservation Testbed Project, 2002]|m
-[Ferreira et al., 2007]
-[Fisher et al., 2006]
-[van der Hoeven and van Wijngaarden, 2005]
-[ISO, 2002]|m
-[ISO, 2004]|m
-[ISO, 2006]|m
-[ISO19005, 2004]|m
-[ISSN 1082-9873, 2000]|m
-[K.Fisher and Gruber, 2005]
-[Lawrence et al., 2000]|m
-[Mellor et al., 2002]|m
-[Ramalho et al., 2007]
-[Rothenberg, 1999]|m
-[Rothenberg and Bikson, 1999]|m
-[Strodl et al., 2007]
-[Testbed, 2001]
-[The 100 Year Archive Task Force, 2007]|j
-[The Library of Congress, 2007]|j
-[UNESCO, 2003]|j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,[Bearman, 1999],Reality and Chimeras in the Preservation of Electronic Records,D-Lib Magazine,David Bearman,5,4,1999-04,1999,04,m
+ref2,[Becker et al., 2008a],Plato: A Service Oriented Decision Support System for Preservation Planning,Proceedings of the 8th ACM IEEE Joint Conference on Digital Libraries (JCDL’08),Christoph Becker,Hannes Kulovits,Andreas Rauber,2008,2008
+ref3,[Becker et al., 2008b],A Generic XML Language for Characterising Objects to Support Digital Preservation,Proc. 23rd Annual ACM Symposium on Applied Computing (SAC’08),ACM,Christoph Becker,Andreas Rauber,Volker Heydegger,Jan Schnasse,Manfred Thaller,1,Fortaleza, Brazil,402,406,2008-03,2008,03,16-20,m
+ref4,[Beckerle and Westhead, 2004],GGF DFDL Primer / Global Grid Forum Data Format Description Language Working Group,Technical Report,M Beckerle,M Westhead,2004,2004,m
+ref5,[Brandl and Keller-Marxer, 2007],Longterm Archiving of Relational Databases with Chronos,First International Workshop on Database Preservation (PresDB’07),Stefan Brandl,Peter Keller-Marxer,Edinburgh,2007,2007,03,m
+ref6,[Canfield and Xing, 2005],Approximate XML document matching,SAC ’05: Proceedings of the 2005 ACM symposiumon Applied computing,ACM Press,E R Canfield,Guangming Xing,New York, NY, USA,ISBN 1-58113-964-0,787,788,2005,2005,m
+ref7,[Consultative Committee for Space Data Systems, 2002],Reference Model for an Open Archival Information System (OAIS),Consultative Committee for Space Data Systems,CCSDS 650.0-B-1, 2002,2002,2002,m
+ref8,[Díaz et al., 2002],Interorganizational document exchange: Facing the conversion problem with XML,SAC ’02: Proceedings of the 2002 ACM symposium on Applied computing,ACM Press,Luis M Díaz,Erik Wüstner,Peter Buxmann,New York, NY, USA,ISBN 1-58113-445-2,1043,1047,2002,2002
+ref9,[Digital Preservation Testbed Project, 2002],XML and Digital Preservation,Technical Report,Digital Preservation Testbed Project,2002,2002,http://www.digitaleduurzaamheid.nl/bibliotheek/docs/white-paper_xml-en.%pdf,m
+ref10,[Ferreira et al., 2007],An intelligent decision support system for digital preservation,International Journal on Digital Libraries,Miguel Ferreira,Ana A Baptista,Jose C Ramalho,6,4,295,304,2007-07,2007,07
+ref11,[Fisher et al., 2006],The next 700 Data Description Languages,Conference record of the 33rd ACM SIGPLAN-SIGACT symposium on Principles of programming languages,K Fisher,Y Mandelbaum,D Walker,2,15,2006,2006
+ref12,[van der Hoeven and van Wijngaarden, 2005],Modular emulation as a long-term preservation strategy for digital objects,5th International Web Archiving Workshop (IWAW05),Jeffrey van der Hoeven,Hilde van Wijngaarden,2005,2005
+ref13,[ISO, 2002],Information technology – Multimedia content description interface – Part 1: Systems (ISO/IEC 15938-1:2002),ISO,,International Standards Organization (Veranst.),2002,2002,m
+ref14,[ISO, 2004],Information technology – Computer graphics and image processing – Portable Network Graphics (PNG): Functional specification (ISO/IEC 15948:2004),ISO,International Standards Organization (Veranst.),2004,2004,m
+ref15,[ISO, 2006],Information technology – Open Document Format for Office Applications (ISO/IEC 26300:2006),ISO,,International Standards Organization (Veranst.),2006,2006,m
+ref16,[ISO19005, 2004],Document management - Electronic document file format for long-term preservation - Part 1: Use of PDF 1.4 (PDF/A) (ISO/CD 19005-1),ISO,International Standards Organization (Veranst.),2004,2004,m
+ref17,[ISSN 1082-9873, 2000],Preserving the Authenticity of Contingent Digital Objects: The InterPARES Project,D-Lib Magazine,A J Gilliland-Swetland,P B Eppard,6,7/8,2000,2000,07-08,http://www.dlib.org/dlib/july00/eppard/07eppard.html,m
+ref18,[K.Fisher and Gruber, 2005],A Domain-Specific Language for Processing Ad Hoc Data,Proceedings of the 2005 ACM SIGPLAN conference on Programming language design and implementation,K Fisher,R Gruber,295,304,2005,2005
+ref19,[Lawrence et al., 2000],Risk Management of Digital Information: A File Format Investigation / Council on Library and Information Resources,Gregory W Lawrence,William R Kehoe,Oya Y Rieger,H William,Anne R Kenney,93,CLIR Report,2000-06,2000,6,http://www.clir.org/pubs/abstract/pub93abst,m
+ref20,[Mellor et al., 2002],Migration on request, a practical technique for preservation,Proceedings of the 6th European Conference on Digital Libraries (ECDL’02),Springer,Agosti, M. ; Thanos, M.C.,P Mellor,P Wheatley,D M Sergeant,516,526,2002,2002,m
+ref21,[Ramalho et al., 2007],Relational Database Preservation through XML modelling,Proceedings of Extreme Markup Languages 2007,José C Ramalho,Luís Faria,Rui Castro,Montréal, Québec,2007-08,2007,08
+ref22,[Rothenberg, 1999],Avoiding Technological Quicksand: Finding a Viable Technical Foundation for Digital Preservation,Council on Library and Information Resources,J Rothenberg,1999-01,1999,01,http://www.clir.org/pubs/reports/rothenberg/contents.html,m
+ref23,[Rothenberg and Bikson, 1999],Carrying Authentic, Understandable and Usable Digital Records Through Time / Report to the Dutch National Archives and Ministry of the Interior,Jeff Rothenberg,Tora Bikson,The Hague, Netherlands,1999,1999,m
+ref24,[Strodl et al., 2007],How to Choose a Digital Preservation Strategy: Evaluating a Preservation Planning Procedure,Proceedings of the 7th ACM IEEE Joint Conference on Digital Libraries (JCDL’07),Stephan Stephan,Christoph Becker,Robert Neumayer,Andreas Rauber,29,38,2007-06,2007,06
+ref25,[Testbed, 2001],Migration: Context and current status / National Archives and Ministry of the Interior and Kingdom Relations,Digital P Testbed,White paper,2001,2001
+ref26,[The 100 Year Archive Task Force, 2007],The 100 Year Archive Requirements Survey,The 100 Year Archive Task Force,,2007,2007,http://www.snia.org/forums/dmf/programs/ltacsi/100_year/,j
+ref27,[The Library of Congress, 2007],Preferences in Summary for Textual Content,The Library of Congress,,Website. accessed August 2007,2007,2007,http://www.digitalpreservation.gov/formats/content/text_preferences.sht%ml,j
+ref28,[UNESCO, 2003],UNESCO Charter on the Preservation of Digital Heritag,Adopted at the 32nd session of the General Conference of UNESCO,UNESCO,,October 17, 2003,2003,2003,http://portal.unesco.org/ci/en/files/13367/10700115911Charter_en.pdf/Ch%arter_en.pdf,j</t>
+  </si>
+  <si>
+    <t>ref1,Bearman, David: Reality and Chimeras in the Preservation of Electronic Records,[Bearman,Magazine D-Lib,1999
+ref2,A Service Oriented Decision Support System for Preservation Planning,In: Proceedings of the 8th ACM IEEE Joint Conference on Digital Libraries (JCDL'08),,2008
+ref3,Manfred: A Generic XML Language for Characterising Objects to Support Digital Preservation,In: Proc. 23rd Annual ACM Symposium on Applied Computing (SAC'08) Ed. 1. Fortaleza, Brazil : ACM, March,,16,402,406,2008
+ref4,- Technical Report,[Beckerle and Westhead,M. Westhead,M. GGF DFDL Primer / Global Grid Forum Data Format Description Language Working Group,2004
+ref5,Peter: Longterm Archiving of Relational Databases with Chronos,In: First International Workshop on Database Preservation (PresDB'07),,2007
+ref6,Guangming: Approximate XML document matching,In: SAC '05: Proceedings of the 2005 ACM symposium on Applied computing,E. R.,787,788,2005
+ref7,Consultative Committee for Space Data Systems: Reference Model for an Open Archival Information System (OAIS),CCSDS 650.0-B-1,,2002
+ref8,Interorganizational document exchange: Facing the conversion problem with XML,In: SAC '02: Proceedings of the 2002 ACM symposium on Applied computing,[D´,M. Luis,1043,1047,2002
+ref9,- Technical Report,2002] Digital Preservation Testbed Project: XML and Digital Preservation,,2002
+ref10,An intelligent decision support system for digital preservation,No. 4,,6,295,304,2007
+ref11,The next 700 Data Description Languages,In: Conference record of the 33rd ACM SIGPLAN-SIGACT symposium on Principles of programming languages,K. Mandelbaum,Y. Walker,D.,2,15,2006
+ref12,Modular emulation as a long-term preservation strategy for digital objects,In: 5th International Web Archiving Workshop (IWAW05),,2005,2005
+ref13,ISO: Information technology - Multimedia content description interface - Part 1: Systems,International Standards Organization (Veranst.),,2002
+ref14,ISO: Information technology - Computer graphics and image processing - Portable Network Graphics (PNG): Functional specification (ISO,International Standards Organization (Veranst.),,2004
+ref15,ISO: Information technology - Open Document Format for Office Applications,International Standards Organization (Veranst.),,2006
+ref16,ISO: Document management - Electronic document file format for long-term preservation - Part 1: Use of PDF 1.4 (PDF/A) (ISO/CD 19005-1,International Standards Organization (Veranst.),,2004
+ref17,July-,No. 7/8,A.J. Swetland,P.B.,August,6,2000
+ref18,A Domain-Specific Language for Processing Ad Hoc Data,In: Proceedings of the 2005 ACM SIGPLAN conference on Programming language design and implementation,R.:,295,304,2005
+ref19,Risk Management of Digital Information: A File Format Investigation / Council on Library and Information Resources,- CLIR Report,Walters,93,June 2000
+ref20,Migration on request, a practical technique for preservation,Proceedings of the 6th European Conference on Digital Libraries (ECDL'02),P.,P. Sergeant,D.M.:,516,526,2002
+ref21,Rui: Relational Database Preservation through XML modelling,In: Proceedings of Extreme Markup Languages,Ferreira,August 2007
+ref22,Finding a Viable Technical Foundation for Digital Preservation,Council on Library and Information Resources,J.,January 1999
+ref23,Understandable and Usable Digital Records Through Time / Report to the Dutch National Archives and Ministry of the Interior,The Hague, Netherlands,,1999
+ref24,How to Choose a Digital Preservation Strategy: Evaluating a Preservation Planning Procedure,In: Proceedings of the 7th ACM IEEE Joint Conference on Digital Libraries (JCDL'07),,29,38,June 2007
+ref25,- White paper,[Testbed,Digital P.,Kingdom Relations,2001
+ref26,The 100 Year Archive Task Force: The 100 Year Archive Requirements Survey,2007,,2007
+ref27,The Library of Congress: Preferences in Summary for Textual Content,Website. accessed August,,2007
+ref28,UNESCO: UNESCO Charter on the Preservation of Digital Heritage,Adopted at the 32nd session of the General Conference of UNESCO. October 17,,2003</t>
   </si>
   <si>
     <t>TUW-175428</t>
   </si>
   <si>
-    <t>m
-j
-m
-j
-j
-j
-j
-m
-j
-j
-j
-m
-j
-m
-j
-m
-j
-m
-m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,,The Traveling Salesman Problem: A Computational Study (Princeton Series in Applied Mathematics),Princeton University Press,D L Applegate,R E Bixby,V Chvatal,W J Cook,2007-01,2007,01,m
+ref2,A tabu search algorithm for the split delivery vehicle routing problem,Transportation Science,C Archetti,M G Speranza,A Hertz,40,1,64,73,2006,2006,j
+ref3,Dynamic Programming,Dover Publications, Incorporated,R E Bellman,2003,2003,m
+ref4,Design and control of warehouse order picking: A literature review,European Journal of Operational Research,R Koster,T Le-Duc,K J Roodbergen,182,2,481,501,2007,2007,j
+ref5,Routing orderpickers in a warehouse: a comparison between optimal and heuristic solutions,IIE Transactions,R de Koster,E Van Der Poort,30,5,469,480,1998,1998,j
+ref6,A note on two problems in connexion with graphs,Numerische Mathematik,E W Dijkstra,1,1,269,271,1959-12,1959,12,j
+ref7,Savings by split delivery routing,Transportation Science,M Dror,P Trudeau,23,141,145,1989,1989,j
+ref8,Split delivery routing,Naval Research Logistics,M Dror,P Trudeau,37,383,402,1990,1990,m
+ref9,Generalized network design problems,European Journal of Operational Research,C Feremans,M Labbe,G Laporte,148,1,1,13,2003,2003,j
+ref10,The symmetric generalized traveling salesman polytope,Networks,M Fischetti,J J Salazar Gonzalez,P Toth,26,2,113,123,1995,1995,j
+ref11,A tutorial on variable neighborhood search,Technical report,Les Cahiers du GERAD, HEC Montreal and GERAD,P Hansen,N Mladenović,L C D Gerad,2003,2003,j
+ref12,Variable neighborhood search,Handbook of Metaheuristics,Kluwer Academic Publisher,F. W. Glover and G. A. Kochenberger,P Hansen,N Mladenović,New York,145,184,2003,2003,m
+ref13,A tabu search heuristic for the vehicle routing problem with time windows and split deliveries,Computers and Operations Research,S C Ho,D Haugland,31,1947,1964,2004,2004,j
+ref14,Variable neighborhood descent with self-adaptive neighborhood-ordering,Proceedings of the 7th EU/MEeting on Adaptive, Self-Adaptive, and Multi-Level Metaheuristics,C. Cotta, A. J. Fernandez, and J. E. Gallardo,B Hu,G R Raidl,2006,2006,m
+ref15,A new branch-and-cut algorithm for the capacitated vehicle routing problem,Mathematical Programming,J Lysgaard,A N Letchford,R W Eglese,100,2,423,445,2004,2004,j
+ref16,A variable neighborhood algorithm-a new metaheuristic for combinatorial optimization,Abstracts of papers presented at Optimization Days,N Mladenović,12,1995,1995,m
+ref17,On the capacitated vehicle routing problem,Mathematical Programming Series,T Ralphs,L Kopman,W Pulleyblank,L T Jr.,94,B,1,19,2003,2003,j
+ref18,The Vehicle Routing Problem,Monographs on Discrete Mathematics and Applications,SIAM,P Toth,D Vigo,Philadelphia,2002,2002,m
+ref19,Heuristics for vehicle routing problem with time,Windows, 6th AI and Math,K Q Zhu,K C Tan,L H Lee,2000,2000,m</t>
+  </si>
+  <si>
+    <t>ref1,12 3.4 Bekannte Losungsansatze,3 Verwandte Arbeiten 9 3,Vehicle Routing,Problem . . . . . . . . . . . . . . . . . . . . . . . . . 10,Capacitated Vehicle,Routing Problem . . . . . . . . . . . . . . 10,Split Delivery,Vehicle Routing Problem . . . . . . . . . . . . .,Windows . . . . . . . . . 11,Netzwerkprobleme . . . . . . . . . . . . . . . . . . . . 12,Traveling Salesman,Problem . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . 13,1,3
+ref2,18 5.2 Genereller Ansatz fur die Variable,5 Variable Nachbarschaftssuche 17 5,Shaking . . . . . . . . . . . . . . . . . . . . . . . .,Nachbarschaftssuche . . . . . . . . 20
+ref3,23 6.2 Variable Nachbarschaftssuche und Dynamische Programmierung,6 Ein hybrides Verfahren 23 6,Ablauf . . . . . . . . . . . . . . . . . . . . . . . .
+ref4,47 7.4.2 Reparatur- und,7 Der Algorithmus im Detail 27 7,vorhandener Bestellungen . . . . . . . . . . . . . . . .,Touren . . . . . . . . . . . . . . . . . . . 27,Konstruktionsheuristiken . . . . . . . . . . . . . . . . . . . . .,Verbesserungsheuristik . . . . . . . . . . . . . 30,Nachbarschaften . . . . . . . . . . . . . . . . 35,Nachbarschaften . . . . . . . . . 36,einzelner Touren . . . . . . . . . . . . . . . . . . . . . . .,Graph . . . . . . . . . . . . . . . . . . . . 38,Ein Dynamisches,Programm . . . . . . . . . . . . . . . . . . .,Heuristik . . . . . . . . . . . . . . . . . . . . . . . . .,Touren . . . . . . . . . . . . . . . . . . 46,Konstruktionsheuristik . . . . . . . . . . . . . . . . . . . . . .,Verbesserungsheuristik . . . . . . . . . . . . . 48,4,7
+ref5,Algorithmus . . . . . . . . . . . . . . . . . . . . . . . . . 48
+ref6,60 8.6 Losungsqualitat bei Verwendung zusatzlicher,8 Testergebnisse 51 8,Konstruktionsheuristik . . . . . . . . . . . . . . . . . . . . 51,von Berechnungsparametern . . . . . . . . . . . . . . . . . . . . 53,Nachbarschaften . . . . . . . . . . . . . . . . . . . 56 zienz einzelner,Nachbarschaften . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . .,Nachbarschaften . . . . 60,8
+ref7,() ( ( ( ( 3 6,63 .20 .58 .92 .03 .72 .68 .47,,7 6 1 7 8 6 4 7 f 53,2215
+ref8,Research,31,2004
+ref9,Variable neighborhood descent with self-adaptive neighborhood-ordering,Proceedings of the 7th EU/MEeting on Adaptive,B. Hu,G. R. Raidl,A. J. Fernandez,J. E,Self-Adaptive,Multi-Level Metaheuristics,2006
+ref10,A new branch-and-cut algorithm for the capacitated vehicle routing problem,Mathematical Programming,J. Lysgaard,A. N. Letchford,R. W. Eglese,423,2,445,2004
+ref11,On the capacitated vehicle routing problem,Mathematical Programming Series,T. Ralphs,L. Kopman,W. Pulleyblank,L. T. Jr,1,19,2003
+ref12,The Vehicle Routing Problem. Monographs on Discrete Mathematics and Applications,P. Toth,D. Vigo,2002
+ref13,Heuristics for vehicle routing problem with time,In Windows, 6th AI and Math,K. Q. Zhu,K. C. Tan,L. H. Lee,2000</t>
   </si>
   <si>
     <t>TUW-176087</t>
   </si>
   <si>
-    <t xml:space="preserve">j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-</t>
+    <t>ref1,Pilot studies of telemedicine for patients with obsessive-compulsive disorder,American Journal of Psychiatry,L Baer,P Cukor,et al.,152,9,1383,5,1995,1995,j
+ref2,Applicability of telemedicine for assessing patients with schizophrenia: acceptance and reliability,Journal of Clinical Psychiatry,C A Zarate,L Weinstock,et al.,58,1,22,5,1997,1997,j
+ref3,The use of alternative delivery systems and new technologies in the treatment of patients with eating disorders,International Journal of Eating Disorders,T C Myers,L Swan-Kremeier,et al.,36,2,123,43,2004,2004,j
+ref4,The use of VR in the treatment of panic disorders and agoraphobia,Studies in Health Technology and Informatics,C Botella,et al.,99,73,90,2004,2004,j
+ref5,Combat related post-traumatic stress disorder: a multiple case report using virtual reality graded exposure therapy with physiological monitoring,Studies in Health Technology and Informatics,D P Wood,et al.,132,556,61,2008,2008,j
+ref6,Virtual reality exposure therapy for the treatment of posttraumatic stress disorder following September 11,Journal of Clinical Psychiatry,J Difede,et al.,68,11,1639,47,2007,2007,j
+ref7,Cue-exposure therapy to decrease alcohol craving in virtual environment,CyberPsychology &amp; Behavior,J H Lee,et al.,10,5,617,23,2007,2007,j
+ref8,The development of a computer-assisted cognitive remediation program for patients with schizophrenia,Israel Journal of Psychiatry &amp; Related Sciences,A S Bellack,D Dickinson,et al.,42,1,5,14,2005,2005,j
+ref9,A systematic review of randomized control trials evaluating the effectiveness of interactive computerized asthma patient education programs,Annals of Allergy, Asthma &amp; Immunology,K L Bussey-Smith,R D Rossen,98,6,507,16,2007,2007,j
+ref10,Assessment and training in a 3-dimensional virtual environment with haptics: a report on 5 cases of motor rehabilitation in the chronic stage after stroke,Neurorehabilitation and Neural Repair,J Broeren,M Rydmark,et al.,21,2,180,9,2007,2007,j
+ref11,Improvement in cancer-related knowledge following use of a psychoeducational video game for adolescents and young adults with cancer,Journal of Adolescent Health,I L Beale,P M Kato,et al.,41,3,263,70,2007,2007,j
+ref12,Developing a computer game to prepare children for surgery,Aorn Journal,M Rassin,Y Gutman,et al.,80,6,1095,6,2004,2004,j
+ref13,Personal Investigator: A therapeutic 3D game for adolescent psychotherapy,Journal of Interactive Technology &amp; Smart Education,D Coyle,M Matthews,et al.,2,2,73,88,2005,2005,j
+ref14,Exploring the use of computer games and virtual reality in exposure therapy for fear of driving following a motor vehicle accident,CyberPsychology &amp; Behavior,D G Walshe,E J Lewis,et al.,6,3,329,34,2003,2003,j
+ref15,PlayMancer Project,http://www.playmancer.com</t>
+  </si>
+  <si>
+    <t>ref1,Pilot studies of telemedicine for patients with obsessive-compulsive disorder,American Journal of Psychiatry,L. Baer,P. Cukor,152,9,1383,5,1995
+ref2,Applicability of telemedicine for assessing patients with schizophrenia: acceptance and reliability,Journal of Clinical Psychiatry,C.A. Zarate,L. Weinstock,58,1,22,5,1997
+ref3,The use of alternative delivery systems and new technologies in the treatment of patients with eating disorders,International Journal of Eating Disorders,T.C. Myers,L. Swan-Kremeier,36,2,123,43,2004
+ref4,The use of VR in the treatment of panic disorders and agoraphobia,Studies in Health Technology and Informatics,C. Botella,99,73,90,2004
+ref5,Combat related post-traumatic stress disorder: a multiple case report using virtual reality graded exposure therapy with physiological monitoring,Studies in Health Technology and Informatics,D.P. Wood,132,556,61,2008
+ref6,Virtual reality exposure therapy for the treatment of posttraumatic stress disorder following September 11,Journal of Clinical Psychiatry,J. Difede,68,11,1639,47,2007
+ref7,Cue-exposure therapy to decrease alcohol craving in virtual environment,CyberPsychology &amp; Behavior,J.H. Lee,10,5,617,23,2007
+ref8,The development of a computer-assisted cognitive remediation program for patients with schizophrenia,Israel Journal of Psychiatry &amp; Related Sciences,A.S. Bellack,D. Dickinson,42,1,5,14,2005
+ref9,A systematic review of randomized control trials evaluating the effectiveness of interactive computerized asthma patient education programs,Annals of Allergy, Asthma &amp; Immunology,K.L. Bussey-Smith,R.D. Rossen,98,6,507,16,2007
+ref10,Assessment and training in a 3-dimensional virtual environment with haptics: a report on 5 cases of motor rehabilitation in the chronic stage after stroke,Neurorehabilitation and Neural Repair,J. Broeren,M. Rydmark,21,2,180,9,2007
+ref11,Improvement in cancer-related knowledge following use of a psychoeducational video game for adolescents and young adults with cancer,Journal of Adolescent Health,I.L. Beale,P.M. Kato,41,3,263,70,2007
+ref12,Developing a computer game to prepare children for surgery,Aorn Journal,M. Rassin,Y. Gutman,80,6,1095,6,2004
+ref13,A therapeutic 3D game for adolescent psychotherapy,Journal of Interactive Technology &amp; Smart Education,D. Coyle,M. Matthews,Personal Investigator,2,2,73,88,2005</t>
   </si>
   <si>
     <t>TUW-177140</t>
   </si>
   <si>
-    <t>m
-j
-j
-m
-m
-m
-m
-m
-m
-m
-m
-m
-m
-m
-m</t>
+    <t>ref1,ccT: A Tool for Checking Advanced Correspondence Problems in Answer-Set Programming,Proceedings of the 15th International Conference on Computing (CIC 2006),IEEE Computer Society Press,J Oetsch,M Seidl,H Tompits,S Woltran,3,10,2006,2006,m
+ref2,Classical Negation in Logic Programs and Disjunctive Databases,New Generation Computing,M Gelfond,V Lifschitz,9,365,385,1991,1991,j
+ref3,Strongly Equivalent Logic Programs,ACM TOCL,V Lifschitz,D Pearce,A Valverde,2,4,526,541,2001,2001,j
+ref4,On Solution Correspondences in Answer Set Programming,Proceedings of the 19th International Joint Conference on Artificial Intelligence (IJCAI 2005),T Eiter,H Tompits,S Woltran,97,102,2005,2005,m
+ref5,Uniform Equivalence of Logic Programs under the Stable Model Semantics,Proceedings of the 19th International Conference on Logic Programming (ICLP
+2003),Springer,T Eiter,M Fink,Volume 2916 of LNCS,224,238,2003,2003,m
+ref6,Facts do not Cease to Exist Because They are Ignored: Relativised Uniform Equivalence with Answer-Set Projection,Proceedings of the 22nd National Conference on Artificial Intelligence (AAAI 2007),AAAI Press,J Oetsch,H Tompits,S Woltran,458,464,2007,2007,m
+ref7,Simplifying Logic Programs Under Uniform and Strong Equivalence,Proceedings of the 7th International Conference on Logic Programming and Nonmonotonic Reasoning (LPNMR-7),Springer,T Eiter,M Fink,H Tompits,S Woltran,Volume 2923 of LNCS,87,99,2004,2004,m
+ref8,Simplifying Logic Programs under Answer Set Semantics,Proceedings of the 20th International Conference on Logic Programming (ICLP 2004),Springer,D Pearce,Volume 3132 of LNCS,210,224,2004,2004,m
+ref9,Discovering Classes of Strongly Equivalent Logic Programs,Proceedings of the 19th International Joint Conference on Artificial Intelligence (IJCAI 2005),F Lin,Y Chen,516,521,2005,2005,m
+ref10,The Second QBF Solvers Comparative Evaluation,Proceedings of the 7th International Conference on Theory and Applications of Satisfiability Testing (SAT 2004),Springer,D Le Berre,M Narizzano,L Simon,L A Tacchella,Volume 3542 of LNCS,376,392,2005,2005,m
+ref11,An Extension of the System cct for Testing Relativised Uniform Equivalence under Answer-Set Projection,J Oetsch,M Seidl,H Tompits,S Woltran,Submitted draft,2007,2007,m
+ref12,Comparing Different Prenexing Strategies for Quantified Boolean Formulas,Master’s Thesis,Vienna University of Technology,M Zolda,2004,2004,m
+ref13,A Solver for QBFs in Nonprenex Form,Proceedings of the 17th European Conference on Artificial Intelligence (ECAI 2006),U Egly,M Seidl,S Woltran,477,481,2006,2006,m
+ref14,Verifying the Equivalence of Logic Programs in the Disjunctive Case,Proceedings of the 7th International Conference on Logic Programming and Nonmonotonic Reasoning (LPNMR-7),Springer,E Oikarinen,T Janhunen,Volume 2923 of LNCS,180,193,2004,2004,m
+ref15,SELP-A System for Studying Strong Equivalence Between Logic Programs,Proceedings of the 8th International Conference on Logic Programming and Non Monotonic Reasoning (LPNMR 2005),Springer,Y Chen,F Lin,L Li,Volume 3552 of LNCS,2005,2005,m</t>
+  </si>
+  <si>
+    <t>ref1,ccT: A Tool for Checking Advanced Correspondence Problems in Answer-Set Programming,In Proceedings of the 15th International Conference on Computing (CIC,J. Oetsch,M. Seidl,H. Tompits,S.: Woltran,3,10,2006
+ref2,Classical Negation in Logic Programs,New Generation Computing,M. Gelfond,V. Lifschitz,Disjunctive Databases,9,365,385,1991
+ref3,Strongly Equivalent Logic Programs,ACM TOCL 2,V. Lifschitz,D. Pearce,A. Valverde,4,526,541,2001
+ref4,(,In Proceedings of the 19th International Joint Conference on Artificial Intelligence (IJCAI,T. Eiter,H. Tompits,S. Woltran,97,102,2005
+ref5,Uniform Equivalence of Logic Programs under the Stable Model Semantics,In Proceedings of the 19th International Conference on Logic Programming (ICLP 2003). Volume 2916 of LNCS,T. Eiter,M. Fink,224,238,2003
+ref6,Facts do not Cease to Exist Because They are Ignored: Relativised Uniform Equivalence with Answer-Set Projection,In Proceedings of the 22nd National Conference on Artificial Intelligence (AAAI,J. Oetsch,H. Tompits,S. Woltran,458,464,2007
+ref7,Simplifying Logic Programs Under Uniform and Strong Equivalence,In Proceedings of the 7th International Conference on Logic Programming and Nonmonotonic Reasoning (LPNMR-7),T. Eiter,M. Fink,H. Tompits,S.: Woltran,87,99,2004
+ref8,Simplifying Logic Programs under Answer Set Semantics,In Proceedings of the 20th International Conference on Logic Programming (ICLP 2004). Volume 3132 of LNCS,D. Pearce,210,224,2004
+ref9,(,In Proceedings of the 19th International Joint Conference on Artificial Intelligence (IJCAI,F. Lin,Y. Chen,516,521,2005
+ref10,The Second QBF Solvers Comparative Evaluation,In Proceedings of the 7th International Conference on Theory and Applications of Satisfiability Testing (SAT,D. Le Berre,M. Narizzano,L. Simon,L.A. Tacchella,376,392,2005
+ref11,Submitted draft,J. Oetsch,M. Seidl,H. Tompits,S.: Woltran,2007
+ref12,Comparing Different Prenexing Strategies for Quantified Boolean Formulas (,M. Zolda,Master's Thesis,2004
+ref13,(,In Proceedings of the 17th European Conference on Artificial Intelligence (ECAI,U. Egly,M. Seidl,S.: Woltran,477,481,2006
+ref14,Verifying the Equivalence of Logic Programs in the Disjunctive Case,In Proceedings of the 7th International Conference on Logic Programming and Nonmonotonic Reasoning (LPNMR-7),E. Oikarinen,T. Janhunen,180,193,2004
+ref15,SELP - A System for Studying Strong Equivalence Between Logic Programs,In Proceedings of the 8th International Conference on Logic Programming and Non Monotonic Reasoning (LPNMR,Y. Chen,F. Lin,L. Li,442,446,2005</t>
   </si>
   <si>
     <t>TUW-179146</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Pastrystrings: A comprehensive content-based publish/subscribe dht network,26th IEEE Int. Conf. on Distributed Computing Systems (ICDCS'06),IEEE Computer Society,I Aekaterinidis,P Triantafillou,23,2006,2006
+ref2,Caps: Content-based publish/subscribe services for peer-to-peer systems,2nd Int. Conf. on Distributed Event-Based Systems (DEBS'08),J P Ahull,P G Lpez,A F G Skarmeta,2008,2008
+ref3,Exactly-once delivery in a content-based publish-subscribe system,DSN,S Bhola,R Strom,S Bagchi,Y Zhao,J Auerbach,7,16,2002,2002
+ref4,Design and evaluation of a support service for mobile, wireless publish/subscribe applications,IEEE Trans. on Softw. Eng,M Caporuscio,C M Caporuscio,A Carzaniga,A Carzaniga,E L Wolf,E L Wolf,29,1059,1071,2003,2003
+ref5,Architectures for an Event Notification Service Scalable toWide-area Networks,PhD thesis,Politecnico Di Milano,A Carzaniga,1998-12,1998,12
+ref6,Scribe: a large-scale and decentralized applicationlevel multicast infrastructure,Selected Areas in Communications IEEE Journal on,M Castro,P Druschel,A.-M Kermarrec,A Rowstron,20,8,1489,1499,2002-10,2002,10
+ref7,The jedi eventbased infrastructure and its application to the development of the opss wfms,IEEE Trans. Softw. Eng,G Cugola,E Di Nitto,A Fuggetta,27,9,827,850,2001,2001
+ref8,The many faces of publish/subscribe,ACM Comput. Surv,P T Eugster,P A Felber,R Guerraoui,A.-M Kermarrec,35,2,114,131,2003,2003
+ref9,Meghdoot: content-based publicsh/subscribe over p2p networks,5th ACM/IFIP/USENIX Int. Conf. on Middleware (Middleware'04),A Gupta,O D Sahin,D Agrawal,A E Abbadi,254,273,2004,2004
+ref10,Publish/subscribe in a mobile environment,Wirel. Netw,Y Huang,H Garcia-Molina,10,6,643,652,2004,2004
+ref11,A p2p network of space containers for efficient management of spatial-temporal data in intelligent transportation scenarios,International Symposium on Parallel and Distributed Computing (ISPDC'09),E Kühn,R Mordinyi,H.-D Goiss,S Bessler,S Tomic,2009,2009
+ref12,Introducing the concept of customizable structured spaces for agent coordination in the production automation domain,The 8th International Conference on Autonomous Agents and Multiagent Systems,E Kühn,R Mordinyi,L Keszthelyi,C Schreiber,2009,2009
+ref13,Achieving causal and total ordering in publish/subscribe middleware with dsm,Proc. of the 3rd Wsh on Middleware for service oriented computing (MW4SOC'08),C M M Pereira,D C Lobato,C A C Teixeira,M G Pimentel,61,66,2008,2008
+ref14,Hermes: A Scalable Event-Based Middleware,PhD thesis,Queens' College University of Cambridge,P R Pietzuch,2004-02,2004,2
+ref15,Pastry: Scalable, decentralized object location, and routing for large-scale peer-to-peer systems,Proc. of the 18th IFIP/ACM Int. Conf. on Distributed Systems Platforms (Middleware'01),A Rowstron,P Druschel,329,350,2001,2001
+ref16,Willow: Dht, aggregation, and publish/subscribe in one protocol,R van Renesse,A Bozdog,2005,2005
+ref17,Wave-based communication in vehicle to infrastructure real-time safety-related traffic telematics,Master’s thesis,University of Zaragoza,M Zaera,2008-08,2008,8
+ref18,A Distributed Publish/Subscribe Notification Service for Pervasive Environments,PhD thesis,Technischen Universitt Darmstadt,A Zeidler,2004,2004</t>
+  </si>
+  <si>
+    <t>ref1,A comprehensive content-based publish/subscribe dht network,In 26th IEEE Int. Conf. on Distributed Computing Systems (ICDCS'06),I. Aekaterinidis,P. Triantafillou. Pastrystrings,2006
+ref2,Content-based publish/subscribe services for peer-to-peer systems,2nd Int. Conf. on Distributed Event-Based Systems (DEBS'08),J. P. Ahull,P. G. Lpez,A. F. G. Skarmeta,2008
+ref3,Exactly-once delivery in a content-based publish-subscribe system,In DSN,S. Bhola,R. Strom,S. Bagchi,Y. Zhao,and J. Auerbach,7,16,2002
+ref4,Design and evaluation of a support service for mobile, wireless publish/subscribe applications,IEEE Trans. on Softw. Eng.,M. Caporuscio,C. M. Caporuscio,A. Carzaniga,A. Carzaniga,E. L. Wolf,E. L. Wolf,29,1059,1071,2003
+ref5,Architectures for an Event Notification Service Scalable toWide-area Networks,PhD thesis,A. Carzaniga,December 1998
+ref6,Scribe: a large-scale and decentralized applicationlevel multicast infrastructure,IEEE Journal on,M. Castro,P. Druschel,A.-M. Kermarrec,A. Rowstron,20,8,1489,1499,Oct 2002
+ref7,The jedi eventbased infrastructure and its application to the development of the opss wfms,IEEE Trans. Softw,G. Cugola,E. Di Nitto,A. Fuggetta,27,9,827,850,2001
+ref8,The many faces of publish/subscribe,P. T. Eugster,P. A. Felber,R. Guerraoui,-M. Kermarrec,35,2,114,131,2003
+ref9,Meghdoot: content-based publicsh/subscribe over p2p networks,In 5th ACM/IFIP/USENIX Int. Conf. on Middleware (Middleware'04),A. Gupta,O. D. Sahin,D. Agrawal,A. E. Abbadi,254,273,2004
+ref10,Publish/subscribe in a mobile environment,Y. Huang,H. Garcia-Molina,10,6,643,652,2004
+ref11,A p2p network of space containers for efficient management of spatial-temporal data in intelligent transportation scenarios,International Symposium on Parallel and Distributed Computing (ISPDC'09),E. Ku,S. -D. Goiss,S. Bessler,Tomic,2009
+ref12,Introducing the concept of customizable structured spaces for agent coordination in the production automation domain,The 8th International Conference on Autonomous Agents and Multiagent Systems,E. Ku,R. Mordinyi,L. Keszthelyi,C. Schreiber,2009
+ref13,Achieving causal and total ordering in publish/- subscribe middleware with dsm,In Proc. of the 3rd Wsh on Middleware for service oriented computing (MW4SOC'08),D. C. C. M. M. Pereira,C. A. C. Lobato,M. G. Teixeira,Pimentel,61,66,2008
+ref14,Hermes: A Scalable Event-Based Middleware,PhD thesis,P. R. Pietzuch,February 2004
+ref15,Pastry: Scalable, decentralized object location, and routing for large-scale peer-to-peer systems,Proc. of the 18th IFIP/ACM Int. Conf. on Distributed Systems Platforms (Middleware'01),A. Rowstron,P. Druschel,329,350,2001
+ref16,R. van Renesse,A. Bozdog,2005
+ref17,Wave-based communication in vehicle to infrastructure real-time safety-related traffic telematics,Master's thesis,M. Zaera,August 2008
+ref18,A Distributed Publish/Subscribe Notification Service for Pervasive Environments,PhD thesis,A. Zeidler,2004</t>
   </si>
   <si>
     <t>TUW-180162</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,An Analysis of Factors Used in Search Engine Ranking,Adversarial Information Retrieval on the Web,A Bifet,C Castillo,P.-A Chirita,I Weber,2005,2005
+ref2,The Anatomy of a Large-Scale Hypertextual Web Search Engine,7th International World Wide Web Conference (WWW),S Brin,L Page,1998,1998
+ref3,Experiencies retrieving information in the world wide web,Proceedings of the Sixth IEEE Symposium on Computers and Communications (ISCC 2001),F Cacheda,Á Viña,72,79,2001,2001
+ref4,Improving Cloaking Detection Using Search Query Popularity and Monetizability,Adversarial Information Retrieval on the Web,K Chellapilla,D Chickering,2006,2006
+ref5,Analysing Google rankings through search engine optimization data,Internet Research,M P Evans,17,1,2007,2007
+ref6,Spam, damn spam, and statistics: Using statistical analysis to locate spam web pages,WebDB,D Fetterly,M Manasse,M Najork,1,6,2004,2004
+ref7,Zeitgeist: Search patterns, trends, and surprises,Google,http://www.google.com/press/zeitgeist.html
+ref8,Google Keeps Tweaking Its Search Engine,,http://www.nytimes.com/2007/06/03/business/yourmoney/03google.html?pagewanted=4&amp;_r=1
+ref9,Web Spam Taxonomy,Adversarial Information Retrieval on the Web,Z Gyöngyi,H Garcia-Molina,2005,2005
+ref10,Exploiting Redundancy in Natural Language to Penetrate Bayesian Spam Filters,First USENIX Workshop on Offensive Technologies (WOOT07),C Karlberger,G Bayler,C Kruegel,E Kirda,2007,2007
+ref11,A quantitative study of forum spamming using context-based analysis,NDSS,Y Niu,Y.-M Wang,H Chen,M Ma,F Hsu,2007,2007
+ref12,Detecting Spam Web Pages through Content Analysis,15th International World Wide Web Conference (WWW),A Ntoulas,M Najork,M Manasse,D Fetterly,2006,2006
+ref13,All your iframes point to us,17th USENIX Security Symposium,N Provos,P Mavrommatis,M A Rajab,F Monrose,2008,2008
+ref14,The Ghost In The Browser Analysis of Web-based Malware,First Workshop on Hot Topics in Understanding Botnets (HotBots '07),N Provos,D Mcnamee,P Mavrommatis,K Wang,N Modadugu,2007,2007
+ref15,C4.5: Programs for Machine Learning,Morgan Kaufmann,R Quinlan,1993,1993
+ref16,Analysis of Adversarial Code: The role of Malware Kits!,Rahul Mohandas,2007-12,2007,12,http://clubhack.com/2007/files/Rahul-Analysis_of_Adversarial_Code.pd
+ref17,Google Search Engine Ranking Factors,,http://www.seomoz.org/article/ search-ranking-factors
+ref18,Improving Web Spam Classification using Rank-time Features,Adversarial Information Retrieval on the Web,K Svore,Q Wu,C Burges,A Raman,2007,2007
+ref19,Spam Double-Funnel: Connecting Web Spammers with Advertisers,16th International Conference on World Wide Web,Y.-M Wang,M Ma,Y Niu,H Chen,2007,2007
+ref20,Data Mining: Practical machine learning tools and techniques,Morgan Kaufmann,I Witten,E Frank,2,2005,2005
+ref21,Cloaking and Redirection: A Preliminary Study,Adversarial Information Retrieval on the Web,B Wu,B Davison,2005,2005
+ref22,Identifying Link Farm Spam Pages,14th International World Wide Web Conference (WWW),B Wu,B D Davison,2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,An Analysis of Factors Used in Search Engine Ranking,In Adversarial Information Retrieval on the Web,A. Bifet,C. Castillo,P.-A. Chirita,and I. Weber.,2005
+ref2,The Anatomy of a Large-Scale Hypertextual Web Search Engine,In 7th International World Wide Web Conference (WWW),S. Brin,L. Page,1998
+ref3,Vin˜ a. Experiencies retrieving information in the world wide web,In Proceedings of the Sixth IEEE Symposium on Computers and Communications (ISCC,F. Cacheda,A,72,79,2001
+ref4,Improving Cloaking Detection Using Search Query Popularity and Monetizability,In Adversarial Information Retrieval on the Web,K. Chellapilla,D. Chickering,2006
+ref5,Analysing Google rankings through search engine optimization data,Internet Research,M. P. Evans,17,1,2007
+ref6,Spam, damn spam, and statistics: Using statistical analysis to locate spam web pages,In WebDB,D. Fetterly,M. Manasse,M. Najork,1,6,2004
+ref7,Search patterns, trends, and surprises,Google
+ref8,Google Keeps Tweaking Its Search Engine,2007
+ref9,Web Spam Taxonomy,In Adversarial Information Retrieval on the Web,Z. Gyo,Garcia-Molina,2005
+ref10,Exploiting Redundancy in Natural Language to Penetrate Bayesian Spam Filters,In First USENIX Workshop on Offensive Technologies (WOOT07),C. Karlberger,C. Kruegel,E. Kirda,2007
+ref11,A quantitative study of forum spamming using context-based analysis,In NDSS,Y. Niu,Y.-M. Wang,H. Chen,F. Hsu,2007
+ref12,Detecting Spam Web Pages through Content Analysis,In 15th International World Wide Web Conference (WWW),A. Ntoulas,M. Najork,M. Manasse,D. Fetterly,2006
+ref13,All your iframes point to us,In 17th USENIX Security Symposium,N. Provos,P. Mavrommatis,M. A. Rajab,F. Monrose,2008
+ref14,The Ghost In The Browser Analysis of Web-based Malware,In First Workshop on Hot Topics in Understanding Botnets (HotBots '07),N. Provos,D. McNamee,P. Mavrommatis,K. Wang,N. Modadugu,2007
+ref15,5: Programs for Machine Learning,C4,R. Quinlan,1993
+ref16,Last accessed,Analysis of Adversarial Code: The role of Malware,Rahul Mohandas (McAfee Avert Labs,December 2008
+ref17,Google Search Engine Ranking Factors
+ref18,Improving Web Spam Classification using Rank-time Features,In Adversarial Information Retrieval on the Web,K. Svore,Q. Wu,C. Burges,A. Raman,2007
+ref19,Connecting Web Spammers with Advertisers,In 16th International Conference on World Wide Web,M. Y.-M. Wang,Y. Ma,H. Niu,Chen. Spam,2007
+ref20,Data Mining: Practical machine learning tools and techniques,2nd edition edition,I. Witten,E. Frank,2005
+ref21,Cloaking and Redirection: A Preliminary Study,In Adversarial Information Retrieval on the Web,B. Wu,B. Davison,2005
+ref22,Identifying Link Farm Spam Pages,In 14th International World Wide Web Conference (WWW),B. Wu,B. D. Davison,2005</t>
   </si>
   <si>
     <t>TUW-181199</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Knowledge Representation, Reasoning and Declarative Problem Solving,Cambridge University Press,C Baral,2003,2003
+ref2,Debugging Logic Programs under the Answer Set Semantics,Proc. ASP'05 CEUR Workshop Proceedings (CEUR-WS.org),M Brain,M De Vos,141,152,2005,2005
+ref3,Debugging Inconsistent Answer Set Programs,Proc. NMR'06,T Syrjänen,77,83,2006,2006
+ref4,Justifications for Logic Programs under Answer Set Semantics,Proc. ICLP'06,Springer,E Pontelli,T Son,196,210,2006,2006
+ref5,Debugging ASP Programs by means of ASP,Proc. LPNMR'07,Springer,M Brain,M Gebser,J Pührer,T Schaub,H Tompits,S Woltran,31,43,2007,2007
+ref6,"That is Illogical Captain!" – The Debugging Support Tool spock for Answer-Set Programs: System Description,Proc. SEA'07,M Brain,M Gebser,J Pührer,T Schaub,H Tompits,S Woltran,71,85,2007,2007
+ref7,A Framework for Compiling Preferences in Logic Programs,Theory and Practice of Logic Programming,J Delgrande,T Schaub,H Tompits,3,129,187,2003,2003
+ref8,ASSAT: Computing Answer Sets of a Logic Program by SAT Solvers,Artificial Intelligence,F Lin,Y Zhao,157,115,137,2004,2004
+ref9,Negation as Failure. In: Logic and Data Bases,Plenum Press,K Clark,293,322,1978,1978
+ref10,GNU General Public License – Version 2,Free Software Foundation Inc,,1991-06,1991,6,http://www.gnu.org/copyleft/gpl.html
+ref11,The DLV System for Knowledge Representation and Reasoning,ACM Transactions on Computational Logic,N Leone,G Pfeifer,W Faber,T Eiter,G Gottlob,S Perri,F Scarcello,7,499,562,2006,2006
+ref12,Extending and Implementing the Stable Model Semantics,Artificial Intelligence,P Simons,I Niemelä,T Soininen,138,181,234,2002,2002
+ref13,On Debugging of Propositional Answer-Set Programs,Master's thesis,J Pührer,Austria,2007,2007
+ref14,A Meta-Programming Technique for Debugging Answer-Set Programs,Proc. AAAI'08,M Gebser,J Pührer,T Schaub,H Tompits,To appear,2008,2008
+ref15,Justifying Proofs using Memo Tables,Proc. PPDP'00,A Roychoudhury,C Ramakrishnan,I Ramakrishnan,178,189,2000,2000
+ref16,Generating Explanation Trees even for Negations in Deductive Database Systems,Proc. LPE'93,G Specht,8,13,1993,1993</t>
+  </si>
+  <si>
+    <t>ref1,Knowledge Representation, Reasoning and Declarative Problem Solving,C. Baral,2003
+ref2,Debugging Logic Programs under the Answer Set Semantics,In: Proc. ASP'05. Volume 142, CEUR Workshop Proceedings (CEUR-WS.org),M. Brain,M.: De Vos,141,152,2005
+ref3,Debugging Inconsistent Answer Set Programs,In: Proc. NMR'06,,77,83,2006
+ref4,Justifications for Logic Programs under Answer Set Semantics,In: Proc. ICLP'06,E. Pontelli,T. Son,196,210,2006
+ref5,Debugging ASP Programs by means of ASP,In: Proc. LPNMR'07,M. Brain,M. Gebser,T. Schaub,H. Tompits,S. Woltran,31,43,2007
+ref6,- The Debugging Support Tool spock for Answer-Set Programs: System Description,In: Proc. SEA'07,M. Brain,M. Gebser,T. Schaub,H. Tompits,Woltran,71,85,2007
+ref7,A Framework for Compiling Preferences in Logic Programs,Theory and Practice of Logic Programming,J. Delgrande,T. Schaub,Tompits,3,129,187,2003
+ref8,ASSAT: Computing Answer Sets of a Logic Program by SAT Solvers,Artificial Intelligence,F. Lin,Y. Zhao,157,115,137,2004
+ref9,Negation as Failure,K. Clark,Data Bases,293,322,1978
+ref10,Free Software Foundation Inc,,1991
+ref11,The DLV System for Knowledge Representation and Reasoning,ACM Transactions on Computational Logic,N. Leone,G. Pfeifer,W. Faber,T. Eiter,G. Gottlob,S. Perri,F. Scarcello,7,499,562,2006
+ref12,Extending and Implementing the Stable Model Semantics,Artificial Intelligence,P. Simons,I. Soininen,T.,138,181,234,2002
+ref13,On Debugging of Propositional Answer-Set Programs,Master's thesis,,2007
+ref14,A Meta-Programming Technique for Debugging Answer-Set Programs,In: Proc. AAAI,M. Gebser,T. Schaub,Tompits,08,2008
+ref15,Justifying Proofs using Memo Tables,In: Proc. PPDP'00,A. Roychoudhury,C. Ramakrishnan,I. Ramakrishnan,178,189,2000
+ref16,Generating Explanation Trees even for Negations in Deductive Database Systems,In: Proc. LPE'93,Specht,8,13,1993</t>
   </si>
   <si>
     <t>TUW-182414</t>
   </si>
   <si>
-    <t>[ASC05]
-[BRO06]
-[HBL08]
-[KAH97]
-[MAN00]
-[MAS06]
-[NEU08]
-[RAU08]
-[SAN07]
-[STA00]
-[WEI08]</t>
+    <t>ref1,[ASC05],Die Bewahrung unserer Online-Kultur. Vorschläge und Strategien zur Webarchivierung,Sichtungen,Turia + Kant,Andreas Aschenbrenner,Andreas Rauber,6,7,99,115,2005,2005
+ref2,[BRO06],Archiving Websites: A Practical Guide for Information Management Professionals,Facet Publisching,Adrian Brown,2006,2006
+ref3,[HBL08],DPA: Handelsblatt: Internet als Quelle für
+Personalberater,Handelsblatt,Adrian Brown,2008-11-27,2008,11,27,http://www.handelsblatt.com/technologie/it-internet/internet-alsquelle-fuer-personalabteilungen;1174811
+ref4,[KAH97],Preserving the Internet,Scientific American,Kahle Brewster,1997-03,1997,3
+ref5,[MAN00],The Kulturarw3 project – The Royal Swedish Web Archiw3e. An Example of »Complete« Collection of Web Pages,Proceedings of the 66th IFLA Council and General Conference,Johan Mannerheim,Allan Arvidson,Krister Persson,Jerusalem, Israel.,2006,2006
+ref6,[MAS06],Web Archiving,Springer,Julien Masanes,2006,2006
+ref7,[NEU08],nestor Handbuch: eine kleine Enzyklopädie der digitalen Langzeitarchivierung,SUB Göttingen,Heike Neuroth,2008-12,2008,12,http://nestor.sub.uni-goettingen.de/handbuch
+ref8,[RAU08],Ethical Issues in Web Archive Creation and Usage - Towards a Research Agenda,Proceedings of the 8th International Web Archiving Workshop,Andreas Rauber,Max Kaiser,Bernhard Wachter,Aalborg, Dänemark,2008
+ref9,[SAN07],Automatic Identification of Genre in Web Pages,PhD thesis,Univ. of Brighton,Marina Santini,Brighton, UK,2007,2007
+ref10,[STA00],Text genre detection using common word frequencies,18th International Conf. on Computational Linguistics,E Stamatatos,N Fakotakis,G Kokkinakis,2000,2000
+ref11,[WEI08],Information Accountability,Communications of the ACM,Daniel Weitzner,Harold Abelson,Tim Berners-Lee,Joan Feigenbaum,James Hendler,Gerald Jay Sussman,Tim Berners-Lee,51,6,82,87,2008-06,2000,6</t>
+  </si>
+  <si>
+    <t>ref1,Aschenbrenner Andreas und Rauber Andreas: Die Bewahrung unserer Online-Kultur. Vorschläge und Strategien zur Webarchivierung,In: Sichtungen,,99,115,2005
+ref2,Brown, Adrian: Archiving Websites: A Practical Guide for Information Management Professionals,
+ref3,internet-alsquelle-fuer-personalabteilungen;1174811 [KAH97] Kahle Brewster: Preserving the Internet,Scientific American,,27,11,March 1997
+ref4,An Example of »Complete« Collection of Web Pages,In: Proceedings of the 66th IFLA Council and General Conference,,2000
+ref5,[MAS06] Masanes,,2006
+ref6,Rauber Andreas, Kaiser Max und Wachter Bernhard: Ethical Issues in Web Archive Creation and Usage - Towards a Research Agenda,In: Proceedings of the 8th International Web Archiving Workshop,,2008
+ref7,Santini, Marina: Automatic Identification of Genre in Web Pages,PhD thesis,,2007
+ref8,Fakotakis und G. Kokkinakis: Text genre detection using common word frequencies,In 18th International Conf. on Computational Linguistics,E. Stamatatos,N.,2000
+ref9,Information Accountability,In: Communications of the ACM,Tim Berners-Lee,51,6,82,87,Juni 2008</t>
   </si>
   <si>
     <t>TUW-182899</t>
   </si>
   <si>
-    <t>(Boud, Keogh, 1985)
-(Cannings, Talley, 2003)
-(Cherry, 2005)
-(Chuang, Rosenbusch, 2005)
-(Clark, Brennan, 1991)
-(Collier, 1999)
-(Conati, Carenini, 2001)
-(Crabtree, Rodden, al., 2004)
-(Davis, 2006)
-(Dillenbourg, 1999)
-(Fleck, 2008)
-(Fleck, Fitzpatrick, 2006)
-(Frohlich, 2004)
-(Harper, Randall, al., 2008)
-(Harper, Randell, al., 2007)
-(Hatton, Smith, 1995)
-(Hutchinson, Bryson, 1997)
-(Jones, McNamara, 2004)
-(Kindberg, Spasojevic, al., 2005)
-(Lee, 2005)
-(Lemon, 2007)
-(Leung, Kember, 2003)
-(Lindley, Harper, al., 2009)
-(Manouchehri, 2002)
-(Mcdonnell, Lloyd, al., 2002)
-(Moon, 1999)
-(Parry, null)
-(Parsons, Stephenson, 2005)
-(Reinman, 1999)
-(Schön, 1983)
-(Sellen, Fogg, al., 2007)
-(Sharpe, Hu, al., 2003)
-(Sherin, van Es, 2002)
-(Thomson, MacDougall, al., 2005)
-(Thomson, Macdougall, al., 2005)
-(Ward, McCotter, 2004)
-(Williams, Wood, 2004)
-(Zuber-Skerritt, 1984)</t>
+    <t>ref1,(Boud, Keogh, 1985),Promoting reflection in learning,Reflection: Turning experience into learning,Kogan Page,D. Boud, R. Keogh and D. Walker,D Boud,R Keogh,London,18,40,1985
+ref2,(Cannings, Talley, 2003),Bridging the gap between theory and practice in preservice education: the use of video case studies,Proceedings of the 3.1 and 3.3 working groups conference on International federation for information processing: ICT and the teacher of the future,Australian Computer Society, Inc,T Cannings,S Talley,Melbourne, Australia,23,2003,2003
+ref3,(Cherry, 2005),Total recall,IEEE spectrum on line,S Cherry,Retrieved 8/11/2005,2005,2005,http://www.spectrum.ieee.org/careers/careerstemplate.jsp?ArticleId=p110305
+ref4,(Chuang, Rosenbusch, 2005),Use of digital video technology in an elementary school foreign language methods course,British Journal of Educational Technology,H.-H Chuang,M H Rosenbusch,36,5,869,880,2005,2005
+ref5,(Clark, Brennan, 1991),Grounding in communication,Perspectives on socially shared cognition,American Psychological Association,L. Resnick, J. Levine and S. Teasley,H H Clark,S E Brennan,Washington, DC,127,149,1991,1991
+ref6,(Collier, 1999),Characteristics of reflective thought during the student teaching experience,Journal of Teacher Education,S T Collier,50,3,173,181,1999,1999
+ref7,(Conati, Carenini, 2001),Generating tailored examples to support learning via selfexplanation,International joint conference on artificial intelligence,C Conati,G Carenini,17,2,1301,1306,2001,2001
+ref8,(Crabtree, Rodden, al., 2004),Collaborating around collections: informing the continued development of photoware,Proceedings of the 2004 ACM conference on Computer supported cooperative work,ACM Press,A Crabtree,T Rodden,et al.,Chicago, Illinois,2004,2004
+ref9,(Davis, 2006),Characterizing productive reflection among preservice elementary teachers: Seeing what matters,Teaching and Teacher Education,E A Davis,22,3,281,2006,2006
+ref10,(Dillenbourg, 1999),What do you mean by 'collaborative learning'?,Collaborative learning: Cognitive and computational approaches,Elsevier,P. Dillenbourg,P Dillenbourg,Oxford,1,19,1999,1999
+ref11,(Fleck, 2008),Exploring the potential of passive image capture to support reflection on experience,Unpublished DPhil thesis,University of Sussex,R Fleck,2008,2008
+ref12,(Fleck, Fitzpatrick, 2006),Supporting collaborative reflection with passive image capture,COOP'06,R Fleck,G Fitzpatrick,Carry-le-Rouet, France,2006,2006
+ref13,(Frohlich, 2004),Audiophotography: bringing photos to life with sounds,Kluwer academic publishers,D Frohlich,Dordrecht,2004,2004
+ref14,(Harper, Randall, al., 2008),The past is a different place: they do things differently there,DIS 2008,ACM,R Harper,D Randall,et al.,Cape Town, South Africa,2008,2008
+ref15,(Harper, Randell, al., 2007),Thanks for the memory,The 21st BCS HCI Group Conference,British Computer Society,R Harper,D Randell,et al.,UK,2007,2007
+ref16,(Hatton, Smith, 1995),Reflection in teacher education: Towards definition and implementation,Teaching and Teacher Education,N Hatton,D Smith,11,1,33,49,1995,1995
+ref17,(Hutchinson, Bryson, 1997),Video, reflection and transformation: Action research in vocational education and training,Educational action research,B Hutchinson,P Bryson,5,2,283,303,1997,1997
+ref18,(Jones, McNamara, 2004),The possibilities and constraints of multimedia as a basis for critical reflection,Cambridge Journal of Education,L Jones,O McNamara,34,3,279,296,2004,2004
+ref19,(Kindberg, Spasojevic, al., 2005),The ubiquitous camera: An in-depth study of camera phone use,IEEE Pervasive Computing,T Kindberg,M Spasojevic,et al.,4,2,42,50,2005,2005
+ref20,(Lee, 2005),Understanding and assessing preservice teachers' reflective thinking,Teaching and Teacher Education,H.-J Lee,21,6,699,715,2005,2005
+ref21,(Lemon, 2007),Take a photograph: teacher reflection through narrative,Reflective Practice,N Lemon,8,2,177,191,2007,2007
+ref22,(Leung, Kember, 2003),The relationship between approaches to learning and reflection upon practice,Educational Psychology,D Y P Leung,D Kember,23,1,61,71,2003,2003
+ref23,(Lindley, Harper, al., 2009),Reflecting on oneself and on otehrs: Multiple perspectives via SenseCam,Designing for reflection on experience: CHI 2009 Workshop,S E Lindley,R Harper,et al.,Boston, MAS,2009,2009
+ref24,(Manouchehri, 2002),Developing teaching knowledge through peer discourse,Teaching and Teacher Education,A Manouchehri,18,6,715,737,2002,2002
+ref25,(Mcdonnell, Lloyd, al., 2002),Using video-story making to encourage deeper reflection on learning experiences,UCL conference on teaching and learning,University College London,J Mcdonnell,P Lloyd,et al.,London,2002,2002
+ref26,(Moon, 1999),Reflection in learning and professional development,Kogan Page Limited,J A Moon,London,1999,1999
+ref27,(Parry, null),The potential role of critical colleagueship in initial teacher education,Teachers and Teaching,J Parry,In submission
+ref28,(Parsons, Stephenson, 2005),Developing reflective practice in student teachers: collaboration and critical partnerships,Teachers and Teaching: Theory and Practice,M Parsons,M Stephenson,11,1,95,116,2005,2005
+ref29,(Reinman, 1999),The evolution of social roletaking and guided reflection framework in teacher education: recent theory and quantitative synthesis of research,Teaching and Teacher Education,A J Reinman,597,612,1999,1999
+ref30,(Schön, 1983),The reflective practitioner: How professionals think in action,D A Schön,London, Temple Smith,1983,1983
+ref31,(Sellen, Fogg, al., 2007),Do life-logging technologies support memory for the past?: an experimental study using sensecam,the SIGCHI conference on Human factors in computing systems,ACM Press,A J Sellen,A Fogg,et al.,San Jose, California, USA,2007,2007
+ref32,(Sharpe, Hu, al., 2003),Enhancing multipoint desktop video conferencing (MDVC) with lesson video clips: recent developments in pre-service teaching practice in Singapore,Teaching and Teacher Education,L Sharpe,C Hu,et al.,19,5,529,541,2003,2003
+ref33,(Sherin, van Es, 2002),Using video to support teachers' ability to interpret classroom interactions,Society for Information Technology and Teacher Education International Conference,AACE,M G Sherin,E A van Es,Nashville, Tennessee, USA,2002,2002
+ref34,(Thomson, MacDougall, al., 2005),Using Video Interaction Guidance to assist student teachers' and teacher educators' reflections on their interactions with learners and bring about change in practice,Report for the Scottish Executive Education Department,C Thomson,L MacDougall,et al.,2005,2005
+ref35,(Thomson, Macdougall, al., 2005),Using Video Interaction Guidance to assist student teachers' and teacher educators' reflections on their interactions with learners and bring about change in practice,British Educational Research Association Annual Conference,University of Glamorgan,C Thomson,L Macdougall,et al.,2005,2005
+ref36,(Ward, McCotter, 2004),Reflection as a visible outcome for preservice teachers,Teaching and Teacher Education,J R Ward,S S McCotter,20,3,243,257,2004,2004
+ref37,(Williams, Wood, 2004),SenseCam - a personal memory recall device,L Williams,K Wood,Microsoft Research,unpublished report,2004,2004
+ref38,(Zuber-Skerritt, 1984),Video in Higher Education,Billing &amp; Sons Limited,O Zuber-Skerritt,Worcester,1984,1984</t>
+  </si>
+  <si>
+    <t>ref1,The past is a different place: they do things differently there,DIS,R. Harper,D. Randall,Town Cape,2008
+ref2,Thanks for the memory,The 21st BCS HCI Group Conference,R. Harper,D. Randell,2007
+ref3,"Reflection in teacher education: Towards definition and implementation," Teaching and Teacher Education,D. Hatton,Smith,11,1,33,49,1995
+ref4,"Video, reflection and transformation: Action research in vocational education and training.",Educational action research 5(2),B. and P. Hutchinson,Bryson,283,303,1997
+ref5,"The possibilities and constraints of multimedia as a basis for critical reflection.",Cambridge Journal of Education,L. Jones,O. McNamara,34,3,279,296,2004
+ref6,"The ubiquitous camera: An in-depth study of camera phone use," IEEE Pervasive Computing,T. Kindberg,M. Spasojevic,4,2,42,50,2005
+ref7,"Understanding and assessing preservice teachers' reflective thinking," Teaching and Teacher Education,Lee,21,6,699,715,2005
+ref8,"Take a photograph: teacher reflection through narrative," Reflective Practice,N. Lemon,8,2,177,191,2007
+ref9,"The relationship between approaches to learning and reflection upon practice," Educational Psychology,D. Y. P. Leung,D. Kember,23,1,61,71,2003
+ref10,Reflecting on oneself and on otehrs: Multiple perspectives via SenseCam,Designing for reflection on experience: CHI 2009 Workshop Boston,S. E. Lindley,R. Harper,2009
+ref11,"Developing teaching knowledge through peer discourse," Teaching and Teacher Education,A. Manouchehri,18,6,715,737,2002
+ref12,Using video-story making to encourage deeper reflection on learning experiences. UCL conference on teaching,J. McDonnell,P. Lloyd,2002
+ref13,Reflection in learning and professional development,J. A. Moon,1999
+ref14,"Developing reflective practice in student teachers: collaboration and critical partnerships," Teachers and Teaching: Theory and Practice,M. Parsons,M. Stephenson,11,1,95,116,2005
+ref15,"The evolution of social roletaking and guided reflection framework in teacher education: recent theory and quantitative synthesis of research." Teaching and Teacher Education,A. J. Reinman,597,612,1999
+ref16,The reflective practitioner: How professionals think in action,D. A. Schön,1983</t>
   </si>
   <si>
     <t>TUW-185321</t>
   </si>
   <si>
+    <t>ref1,Integrating Production Automation Expert Knowledge Across Engineering Stakeholder Domains,Proceedings of the 2010 International Conference on Complex, Intelligent and Software Intensive Systems,T Moser,S Biffl,W D Sunindyo,D Winkler,Krakow, Poland,to be published,8,2010,2010</t>
+  </si>
+  <si>
+    <t>ref1,Integrating Production Automation Expert Knowledge Across Engineering Stakeholder Domains,In Proceedings of the 2010 International Conference on Complex, Intelligent and Software Intensive Systems (to be published),T. Moser,S. Biffl,W. D. Sunindyo,D. Winkler,8,2010</t>
+  </si>
+  <si>
     <t>TUW-185441</t>
   </si>
   <si>
+    <t>ref1,Solving shape-analysis problems in languages with destructive updating,ACM Transactions on Programming Languages and Systems (TOPLAS),Mooly Sagiv,Thomas W Reps,Reinhard Wilhelm,20,1,1,50,1998-01,1998,1
+ref2,Principles of Program Analysis,Springer,Flemming Nielson,Hanne Riis Nielson,Chris Hankin,Shape Analysis,102,129,1999,1999
+ref3,Combining tools and languages for static analysis and optimization of high-level abstractions,24. Workshop der GI-Fachgruppe “Programmiersprachen und Rechenkonzepte”,Department of Computer Science, Christian-Albrechts-Universitt zu Kiel,Markus Schordan,72,81,2007,2007
+ref4,Shape analysis and applications,The Compiler Design Handbook: Optimizations and Machine Code Generation,CRC Press,Thomas W Reps,Mooly Sagiv,Reinhard Wilhelm,175,218,2002,2002
+ref5,Shape-based alias analysis for objectoriented languages,Master's thesis,TU Wien, Department of Computer Science,Viktor Pavlu,Vienna, Austria,2009,2009</t>
+  </si>
+  <si>
+    <t>ref1,Solving shape-analysis problems in languages with destructive updating,ACM Transactions on Programming Languages and Systems (TOPLAS),Mooly Sagiv,Reinhard Wilhelm,20,1,1,50,January 1998
+ref2,Principles of Program Analysis, chapter Shape Analysis,Flemming Nielson,Chris Hankin,102,129,1999
+ref3,Programmiersprachen und Rechenkonzepte”,Markus Schordan,Christian-,72,81,2007
+ref4,Shape analysis and applications,In The Compiler Design Handbook: Optimizations and Machine Code Generation,W. Thomas,Reinhard Reps,Wilhelm,175,218,2002
+ref5,Shape-based alias analysis for objectoriented languages,Master's thesis,Viktor Pavlu,2009</t>
+  </si>
+  <si>
     <t>TUW-186227</t>
   </si>
   <si>
+    <t>ref1,Clinical Practice Guidelines: Directions for a New Program,National Academies Press, Institute of Medicine,M J Field,K N Lohr,Washington DC,1990-09,1990,9
+ref2,Clinical practice guidelines,Singapore Medical Journal,S Twaddle,46,12,681,687,2005-12,2005,12
+ref3,Toward the standardization of electronic guidelines,MD Computing,P L Elkin,M Peleg,R Lacson,E Bernstam,S W Tu,A Boxwala,R Greenes,E H Shortliffe,17,6,39,44,2000-12,2000,12
+ref4,Approaches for creating computerinterpretable guidelines that facilitate decision support,Artificial Intelligence in Medicine,P A de Clercq,J A Blom,H H M Korsten,A Hasman,31,1,1,27,2004-05,2004,5
+ref5,Comparing computerinterpretable guideline models: A case-study approach,Journal of the American Medical Informatics Association,M Peleg,S W Tu,J Bury,P Ciccarese,J Fox,R A Greenes,R Hall,P D Johnson,N Jones,A Kumar,S Miksch,S Quaglini,A Seyfang,E H Shortliffe,M Stefanelli,10,1,52,68,2003-02,2003,2
+ref6,The usability engineering life cycle,Computer,J Nielsen,25,3,12,22,1992-03,1992,3
+ref7,Information requisition is the core of guideline-based medical care: Which information is needed for whom?,Master's thesis,Vienna University of Technology,T Gschwandtner,Vienna, Austria,2009-12,2009,12</t>
+  </si>
+  <si>
+    <t>ref1,Clinical Practice Guidelines: Directions for a New Program,M. J. Field,K. N. Lohr,September 1990
+ref2,Clinical practice guidelines,Singapore Medical Journal,S. Twaddle.,46,12,681,687,December 2005
+ref3,Toward the standardization of electronic guidelines,MD Computing,P. L. Elkin,M. Peleg,R. Lacson,E. Bernstam,S. W. Tu,A. Boxwala,R. Greenes,E. H. Shortliffe,17,6,39,44,2000
+ref4,Approaches for creating computerinterpretable guidelines that facilitate decision support,Artificial Intelligence in Medicine,P . A. de Clercq,J. A. Blom,H. H. M. Korsten,A. Hasman,31,1,1,27,2004
+ref5,Comparing computerinterpretable guideline models: A case-study approach,Journal of the American Medical Informatics Association,M. Peleg,S. W. Tu,J. Bury,P. Ciccarese,J. Fox,R. A. Greenes,R. Hall,P. D. Johnson,N. Jones,A. Kumar,S. Miksch,S. Quaglini,A. Seyfang,E. H. Shortliffe,M. Stefanelli,10,1,52,68,2003
+ref6,The usability engineering life cycle,Computer,J. Nielsen,25,3,12,22,March 1992
+ref7,Information requisition is the core of guideline-based medical care: Which information is needed for whom? Master's thesis,T. Gschwandtner,December 2009</t>
+  </si>
+  <si>
     <t>TUW-189842</t>
   </si>
   <si>
+    <t>ref1,The reality of homes fit for heroes: design challenges for rehabilitation technology at home,Journal of Assistive Technologies,L Axelrod,G Fitzpatrick,3,2,35,43,2009,2009
+ref2,Rehabilitation Centred Design,EA CHI2010,ACM Press,M Balaam,et al.,to appear in
+ref3,A framework for a home-based stroke rehabilitation system,Proc 3rd Int Conf on Pervasive Computing Technologies for Healthcare,S Eggleston,L Axelrod,2009,2009
+ref4,A review of the literature on evidence-based practice in physical therapy,The Internet Journal of Allied Health Sciences and Practice,J Schreiber,P Stern,3,4,2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,in EA CHI2010,M. Balaam</t>
+  </si>
+  <si>
     <t>TUW-191715</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Ten Unsolved Problems in Computer Graphics,Datamation,I E Sutherland,12,22,27,1966,1966
+ref2,Ten Unsolved Problems in Rendering,Workshop on Rendering Algorithms and Systems, Graphics Interface '87,P Heckbert,1987,1987
+ref3,Top Scientific Visualization Research Problems,IEEE Computer Graphics and Applications,C Johnson,24,4,13,17,2004,2004
+ref4,Interactive Rendering of Large Volume Data Sets,Proc. IEEE Visualization,S Guthe,M Wand,J Gonser,W Strasser,53,60,2002,2002
+ref5,Interactive Out-Of-Core Isosurface Extraction,Proc. IEEE Visualization '98,Y.-J Chiang,C Silva,W Schroeder,167,174,1998,1998
+ref6,Visualization Handbook,Academic Press,C Hansen,C Johnson,2004,2004
+ref7,Interactive Iso-Surface Ray Tracing of Massive Volumetric Data Sets,EG Symposium on Parallel Graphics and Visualization,H Friedrich,I Wald,P Slusallek,2007,2007
+ref8,Large Volume Visualization of Compressed Time Dependent Data-Sets on GPU Clusters,Parallel Computing,M Strengert,M Magallon,D Weiskopf,S Guthe,T Ertl,31,2,205,219,2005,2005
+ref9,Issues and Architectures in Large-Scale Data Visualization,Visualization Handbook,Academic Press,C. Hansen,C Pavlakos,P Heermann,551,567,2004,2004
+ref10,LINQ: Reconciling Object, Relations and XML in the NET Framework,Proceedings of the Twenty-Fifth ACM SIGACTSIGMOD-SIGART Symposium on Principles of Database Systems,ACM Press,E Meijer,B Beckman,G Bierman,706,2006,2006
+ref11,High-Level User Interfaces for Transfer Function Design with Semantics,Proc. IEEE Visualization,C Rezk - Salama,M Keller,P Kohlmann,1021,1028,2006,2006
+ref12,Semantic Layers for Illustrative Volume Rendering,IEEE Transactions on Visualization and Computer Graphics,P Rautek,S Bruckner,E Gröller,13,6,1336,1343,2007,2007
+ref13,VRVis Research Center homepage,,www.vrvis.at
+ref14,A Multiresolution Mesh Generation Approach for Procedural Definition of Complex Geometry,Proc. of the Shape Modeling International 2002,R F Tobler,S Maierhofer,A Wilkie,Banff, Canada,35,42,2002-05,2002,5
+ref15,Multiresolution Geometric Details on Subdivision Surfaces,Proc. of Graphite 2007,P Musialski,R F Tobler,2007,2007
+ref16,Severe Weather Explorer-Interactive Visual Analysis of Large and Heterogeneous Meteorological Data,Proceedings of Lakeside Conference Velden,H Doleisch,P Muigg,M Spatzierer,Austria,2008-07,2008,7
+ref17,Comprehensive Visualization of Cardiac MRI Data,Ph. D. Diss,Vienna University of Technology,M Termeer,2009,2009
+ref18,GeoTime Information Visualization,Proceedings of the 2004 IEEE Symposium on Information Visualization (InfoVis '04),T Kapler,W Wright,25,32,2004,2004
+ref19,Stories in GeoTime,proceedings of the second IEEE Symposium on Visual Analytics Science and Technology (VAST '07),R Eccles,T Kapler,R Harper,W Wright,19,26,2007,2007
+ref20,Illuminating the Path: The Research and Development Agenda for Visual Analytics,IEEE Computer Society,J J Thomas,K A Cook,2005,2005
+ref21,A Rank-by-Feature Framework for Unsupervised Multidimensional Data Exploration Using Low-Dimensional Projections,proceedings of the IEEE Symposium on Information Visualization,J Seo,B Shneiderman,65,72,2004,2004
+ref22,Enhancing Visual Analysis of Network Traffic Using a Knowledge Representation,Proc. IEEE Symposium on Visual Analytics Science and Technology (VAST '06),X Ling,J Gerth,P Hanrahan,107,114,2006,2006
+ref23,Intelligent Visual Analytics Queries,proceedings of the second IEEE Symposium on Visual Analytics Science and Technology (VAST '07),M C Hao,U Dayal,D A Keim,D Morent,J Schneidewind,91,98,2007,2007
+ref24,Analysis Guided Visual Exploration of Multivariate Data,proceedings of the second IEEE Symposium on Visual Analytics Science and Technology (VAST '07),D Yang,E A Rundensteiner,M O Ward,83,90,2007,2007
+ref25,Model-Driven Visual Analytics,proceedings of the third IEEE Symposium on Visual Analytics Science and Technology (VAST '08),S Garg,J E Nam,I V Ramakrishnan,K Mueller,19,26,2008,2008
+ref26,Surface project homepage,Microsoft Inc,www.microsoft.com/surface/
+ref27,State of the Art: Coordinated &amp; Multiple Views in Exploratory Visualization,CMV '07: Proceedings of the Fifth International Conference on Coordinated and Multiple Views in Exploratory Visualization,J C Roberts,2007,2007
+ref28,Virtual Training in Hand Fire Extinguisher Use,A L Fuhrmann,2010-06,2010,6,www.vrvis.at/ projects/running-projects/ViFeLoe
+ref29,A Knowledge-Based Approach to Soft Tissue Reconstruction of the Cervical Spine,IEEE Transactions on Medical Imaging,S Seifert,I Wachter,G Schmelzle,R Dillmann,28,494,507,2009,2009
+ref30,Handbook of Computer Vision and Applications,Three-Volume Set,Academic Press,B Jahne,H Haussecker,P Geissler,1-3,1999,1999
+ref31,Front-End Vision and Multi-Scale Image Analysis,Computational Imaging and Vision,Springer,T H Romeny,27,2004,2004
+ref32,Shape and Appearance Models for Automatic Coronary Artery Tracking,Proceedings of MICCAI Workshop 3D Segmentation in the Clinic: A Grand Challenge II,S Zambal,J Hladůvka,A Kanitsar,K Bühler,2008,2008
+ref33,SymmetryBased Facade Repair,Vision, Modeling and Visualization Workshop 2009 in Braunschweig,P Musialski,P Wonka,M Recheis,S Maierhofer,W Purgathofer,Germany,2009,2009</t>
+  </si>
+  <si>
+    <t>ref1,Datamation,I.E. Sutherland,12,5,22,27,1966
+ref2,Workshop on Rendering Algorithms and Systems, Graphics Interface '87,P. Heckbert,1987
+ref3,Top Scientific Visualization Research Problems. IEEE Computer Graphics and Applications,C. Johnson,24,4,13,17,2004
+ref4,Interactive Rendering of Large Volume Data Sets. Proc. IEEE Visualization,S. Guthe,M. Wand,J. Gonser,W. Strasser,53,60,2002
+ref5,Interactive Out-Of-Core Isosurface Extraction,Proc. IEEE Visualization '98,Chiang Y.-J.,C. Silva,W. Schroeder,167,174,1998
+ref6,C. Hansen,C. Johnson,2004
+ref7,Ray Tracing of Massive Volumetric Data Sets. EG Symposium on Parallel Graphics and Visualization,H. Friedrich,I. Wald,P. Slusallek,Interactive,2007
+ref8,Large Volume Visualization of Compressed Time Dependent Data-Sets on GPU Clusters. Parallel Computing,M. Strengert,M. Magallon,D. Weiskopf,S. Guthe,T. Ertl,31,2,205,219,2005
+ref9,Issues and Architectures in Large-Scale Data Visualization,C. Pavlakos,P. Heermann,551,567,2004
+ref10,LINQ: Reconciling Object, Relations and XML in the NET Framework,Proceedings of the Twenty-Fifth ACM SIGACTSIGMOD-SIGART Symposium on Principles of Database Systems,E. Meijer,B. Beckman,G. Bierman,706,2006
+ref11,High-Level User Interfaces for Transfer Function Design with Semantics,Proc. IEEE Visualization,C. Rezk - Salama,M. Keller,P. Kohlmann,1021,1028,2006
+ref12,Semantic Layers for Illustrative Volume Rendering,IEEE Transactions on Visualization and Computer Graphics,P. Rautek,S. Bruckner,E. Gröller,13,6,1336,1343,2007
+ref13,
+ref14,Generation Approach for Procedural Definition of Complex Geometry,Proc. of the Shape Modeling International,R.F. Tobler,S. Maierhofer,A. Wilkie,A Multiresolution Mesh,35,42,2002
+ref15,Multiresolution Geometric Details on Subdivision Surfaces. Proc. of Graphite,P. Musialski,R.F. Tobler,2007
+ref16,Visual Analysis of Large and Heterogeneous Meteorological Data. Proceedings of Lakeside Conference Velden, Austria, July 11-13,H. Doleisch,P. Muigg,M. Spatzierer,Severe Weather,2008
+ref17,Comprehensive Visualization of Cardiac MRI Data. Ph. D. Diss.,M. Termeer,2009
+ref18,GeoTime Information Visualization. Proceedings of the 2004 IEEE Symposium on Information Visualization (InfoVis '04),T. Kapler,W. Wright,25,32,2004
+ref19,In proceedings of the second IEEE Symposium on Visual Analytics Science and Technology (VAST '07),R. Eccles,T. Kapler,R. Harper,W. Wright,19,26,2007
+ref20,Illuminating the Path: The Research and Development Agenda for Visual Analytics,IEEE Computer Society,J.J. Thomas,K.A. Cook,2005
+ref21,A Rank-by-Feature Framework for Unsupervised Multidimensional Data Exploration Using Low-Dimensional Projections,In proceedings of the IEEE Symposium on Information Visualization,J. Seo,B. Shneiderman,65,72,2004
+ref22,Enhancing Visual Analysis of Network Traffic Using a Knowledge Representation,Proc. IEEE Symposium on Visual Analytics Science and Technology (VAST '06),X. Ling,J. Gerth,P. Hanrahan,107,114,2006
+ref23,Intelligent Visual Analytics Queries. In proceedings of the second IEEE Symposium on Visual Analytics Science and Technology (VAST '07),M.C. Hao,U. Dayal,D.A. Keim,D. Morent,J. Schneidewind,91,98,2007
+ref24,Analysis Guided Visual Exploration of Multivariate Data,In proceedings of the second IEEE Symposium on Visual Analytics Science and Technology (VAST '07),D. Yang,E.A. Rundensteiner,M.O. Ward,83,90,2007
+ref25,Analytics,In proceedings of the third IEEE Symposium on Visual Analytics Science and Technology (VAST '08),S. Garg,J.E. Nam,I.V. Ramakrishnan,K. Mueller,Model-Driven Visual,19,26,2008
+ref26,Surface project homepage,
+ref27,State of the Art: Coordinated &amp; Multiple Views in Exploratory Visualization,In CMV '07: Proceedings of the Fifth International Conference on Coordinated and Multiple Views in Exploratory Visualization,J.C. Roberts,2007
+ref28,Virtual Training in Hand Fire Extinguisher Use,A.L. Fuhrmann,June 2010
+ref29,A Knowledge-Based Approach to Soft Tissue Reconstruction of the Cervical Spine,IEEE Transactions on Medical Imaging,S. Seifert,I. Wachter,G. Schmelzle,R. Dillmann,28,4,494,507,2009
+ref30,B. Jahne,H. Haussecker,P. Geissler,Three-Volume Set,1,3,1999
+ref31,Front-End Vision and Multi-Scale Image Analysis,Computational Imaging and Vision,T.H. Romeny,27,2004
+ref32,Shape and Appearance Models for Automatic Coronary Artery Tracking,Proceedings of MICCAI Workshop,S. Zambal,J. Hladůvka,A. Kanitsar,K. Bühler,II Challenge,2008
+ref33,SymmetryBased Facade Repair,Germany (VMV09),P. Musialski,P. Wonka,M. Recheis,S. Maierhofer,W. Purgathofer,2009</t>
   </si>
   <si>
     <t>TUW-191977</t>
   </si>
   <si>
+    <t>ref1,Developing Adapters for Web Services Integration,17th Conference on Advanced Information Systems Engineering (CAISE),B Benatallah,F Casati,D Grigori,R Nezhad,F Toumani,Porto, Portugal,2005-06,2005,6
+ref2,When are two Web Services Compatible?,5th VLDB Workshop on Technologies for E-Services,L Bordeaux,G Salaün,D Berardi,M Mecella,Toronto, Canada,2004-08,2004,8
+ref3,The DELOS Digital Library Reference Model, Foundations for Digital Libraries,DELOS Network of Excellence - Project no. 507618,L Candela,D Castelli,et al.,Ver 0.98,2008,2008
+ref4,Digital Library Interoperability, Best Practices and Modelling Foundations,EU funded project,Dl Org,Contract no. 231551,http://www.dlorg.eu
+ref5,Towards a Digital Library Theory: A Formal Digital Library Ontology,Int. J. Digital Libraries,M A Goncalves,E A Fox,L T Watson,8,2,91,114,2008-04,2008,4
+ref6,Semantic Integration: A Survey of Ontology-based Approaches,ACM SIGMOD Record,N Noy,33,4,65,70,2004,2004</t>
+  </si>
+  <si>
+    <t>ref1,Developing Adapters for Web Services Integration,In 17th Conference on Advanced Information Systems Engineering (CAISE),B. Benatallah,F. Casati,D. Grigori,R. Nezhad,F. Toumani,June 2005
+ref2,When are two Web Services Compatible,L. Bordeaux,G. Salaün,D. Berardi,M. Mecella,August 2004
+ref3,The DELOS Digital Library Reference Model, Foundations for Digital Libraries, Ver,L. Candela,D. Castelli,507618,98,2008
+ref4,org: Digital Library Interoperability, Best Practices and Modelling Foundations. EU funded project,Contract no. 231551,
+ref5,Towards a Digital Library Theory: A Formal Digital Library Ontology,Int. J. Digital Libraries,M. A. Goncalves,E. A. Fox,L. T. Watson,8,2,91,114
+ref6,Semantic Integration: A Survey of Ontology-based Approaches,ACM SIGMOD Record,Noy,33,4,65,70,2004</t>
+  </si>
+  <si>
     <t>TUW-192724</t>
   </si>
   <si>
-    <t>[Dudycz, 2005]
-[Edvinsson, Malone, 1997]
-[Farlow, 1984]
-[Fitz-Enz, 2001]
-[Hill, Jones, 2000]
-[Iwachnienko, 1982]
-[Johnson, Scholes, 2002]
-[Kasiewicz, Rogowski, Kicińska, 2006]
-[Kasprzak, in. polish]
-[Klaus, Rosemann, Gable, Manufactured in The Netherlands]
-[Krebs, Patalas-Maliszewska, 2009]
-[Mintzberg, Lampel, Quinn, Ghoshal, 2003]
-[Nonaka, Takeuchi, 1995]
-[Patalas-Maliszewska, 2010]
-[Quinn, Anderson, Finkelstein, 1996]
-[Sokołowska, 2005]</t>
+    <t>ref1,[Dudycz, 2005],Enterprises value management,PTE,T Dudycz,Warsaw, Poland,2005,2005
+ref2,[Edvinsson, Malone, 1997],Intellectual Capital: realizing your company's true value by finding its hidden brainpower,HarperBusiness,L Edvinsson,M Malone,New York, NY,1997,1997
+ref3,[Farlow, 1984],Self-organizing Methods in Modelling: GMDH-type Algorithms,Marcel Dekker Inc,S J Farlow,New York,1984,1984
+ref4,[Fitz-Enz, 2001],Investment in human capital,J Fitz-Enz,Krakow, Poland,2001,2001
+ref5,[Hill, Jones, 2000],Strategic Management: An Integrated Approach Houghton-Mifflin,Houghton-Mifflin,C W L Hill,G R Jones,5,Boston,2000,2000
+ref6,[Iwachnienko, 1982],Induktiwnyj metod samoorganizacji modelej sloznych system po eksperymentalnym danym,Naukowa Dumka,A G Iwachnienko,Kijów:,1982,1982
+ref7,[Johnson, Scholes, 2002],Exploring Corporate Strategy: Text and Cases,Pearson Higher Education,G Johnson,K Scholes,6,London,2002,2002
+ref8,[Kasiewicz, Rogowski, Kicińska, 2006],Intellectual capital,S Kasiewicz,W Rogowski,M Kicińska,Krakow, Poland,2006,2006
+ref9,[Kasprzak, in. polish],The reference model In the business processes management,T Kasprzak,Difin, Poland, Warsaw,in. polish,2005,2005
+ref10,[Klaus, Rosemann, Gable, Manufactured in The Netherlands],What is ERP?,Information Systems Frontiers,Kluwer Academic Publishers,H Klaus,M Rosemann,G G Gable,Manufactured in The Netherlands,141,162,2000,2000
+ref11,[Krebs, Patalas-Maliszewska, 2009],An E-Administration Strategy for Innovation Transfer,5th International Vilnius Conference. Knowledge-Based Technologies and Methodologies for Strategic Decisions of Sustainable Development,VGTU Press "Technika",Grasserbauer, M.; Sakalauskas, L.; Zavadskas, E. K.,I Krebs,J Patalas-Maliszewska,Vilnius,2009,2009
+ref12,[Mintzberg, Lampel, Quinn, Ghoshal, 2003],The Strategy Process: Concepts, Contexts, Cases,NJ,Prentice-Hall,H Mintzberg,J Lampel,J B Quinn,S Ghoshal,Upper Saddle River, NJ,2003,2003
+ref13,[Nonaka, Takeuchi, 1995],The Knowledge-Creating Company,Oxford University Press,L Nonaka,H Takeuchi,New York,1995,1995
+ref14,[Patalas-Maliszewska, 2010],The concept of system supporting decision making enabling to asses and forecast of knowledge in SMEs" – research results,Applied Computer Science,J Patalas-Maliszewska,Zilina, Slovak Republic,2010,2010
+ref15,[Quinn, Anderson, Finkelstein, 1996],Managing professional intellect: making the most of the best,Harvard Business Review,J B Quinn,P Anderson,S Finkelstein,1996-04,1996,4
+ref16,[Sokołowska, 2005],Intellectual capital management in the small enterprise,PTE,A Sokołowska,2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,Enterprises value management,PTE,T. Dudycz,2005
+ref2,realizing your company's true value by finding its hidden brainpower,L. Edvinsson,M. Malone,1997
+ref3,Self-organizing Methods in Modelling: GMDH-type,S.J Farlow,Algorithms,1984
+ref4,Investment in human capital. Krakow,,2001
+ref5,Management: An Integrated Approach. (5th edn),Houghton-Mifflin,C.W.L. Hill,G.R. Jones,Strategic,2000
+ref6,Induktiwnyj metod samoorganizacji modelej sloznych system po eksperymentalnym danym,Kijów: Naukowa Dumka,A.G. Iwachnienko,1982
+ref7,Strategy: Text and Cases. (6th edn),Pearson Higher Education,Johnson,K. Scholes,Exploring Corporate,2002
+ref8,S. Kasiewicz,W. Rogowski,M. Intellectual,capital,Poland.,2006
+ref9,The reference model In the business processes management,(,T. Kasprzak,2005
+ref10,Information Systems Frontiers,H. Klaus,M. Rosemann,G.G Gable,ERP What is,141,162,2000
+ref11,Knowledge-Based Technologies and Methodologies for Strategic Decisions of Sustainable Development",Publisher: VGTU Press "Technika",I. Krebs,J. Patalas-Maliszewska,M. Sakalauskas,L. Zavadskas,E. K.,2009
+ref12,S. The Strategy Process: Concepts,H. Mintzberg,J. Lampel,J.B. Quinn,Ghoshal,2003
+ref13,L. Nonaka,H. The Takeuchi,Company Knowledge-Creating,1995
+ref14,The concept of system supporting decision making enabling to asses and forecast of knowledge in SMEs” - research results,J., Patalas-Maliszewska,2010
+ref15,(,Harvard Business Review Mar-Apr,J.B. Quinn,P. Anderson,S. Finkelstein,1996
+ref16,Intellectual capital management in the small enterprise,PTE,A. Sokołowska,2005</t>
   </si>
   <si>
     <t>TUW-194085</t>
   </si>
   <si>
-    <t>Alpern, Schneider [1985]
-Attiya, Welch [2004]
-Bourbaki [1989]
-Charron-Bost, Toueg, Basu [2000]
-Dolev, Dwork, Stockmeyer [1987]
-Fich, Ruppert [2003]
-Fischer, Lynch, Paterson [1985]
-Hatcher [2002]
-Herlihy, Rajsbaum [2000]
-Herlihy, Shavit [1993]
-Herrlich, Strecker [1973]
-Lamport [1977]
-Lubitch, Moran [1995]
-Lynch [1996]
-Moses, Rajsbaum [2002]
-Saks, Zaharoglou [2000]
-Santoro, Widmayer [1989]
-Spanier [1966]</t>
+    <t>ref1,Alpern, Schneider [1985],Defining liveness,Technical Report TR85-650,Cornell University,Bowen Alpern,Fred B Schneider,1985,1985
+ref2,Attiya, Welch [2004],Distributed Computing: Fundamentals, Simulations, and Advanced Topics,John Wiley &amp; Sons,Hagit Attiya,Jennifer Welch,2,2004,2004
+ref3,Bourbaki [1989],General Topology, Chapters 1–4,Elements of Mathematics,Springer,Nicoloas Bourbaki,1989,1989
+ref4,Charron-Bost, Toueg, Basu [2000],Revisiting safety and liveness in the context of failures,Proceedings of CONCUR 2000 —Concurrency Theory,Springer,Bernadette Charron-Bost,Sam Toueg,Anindya Basu,552,565,2000,2000
+ref5,Dolev, Dwork, Stockmeyer [1987],On the minimal synchronism needed for distributed consensus,Journal of the ACM,Danny Dolev,Cynthia Dwork,Larry Stockmeyer,34,1,77,97,1987,1987
+ref6,Fich, Ruppert [2003],Hundreds of impossibility results for distributed computing,Distributed Computing,Faith Fich,Eric Ruppert,16,2,121,163,2003,2003
+ref7,Fischer, Lynch, Paterson [1985],Impossibility of distributed consensus with one faulty process,Journal of the ACM,Michael J Fischer,Nancy A Lynch,Michael S Paterson,32,2,374,382,1985,1985
+ref8,Hatcher [2002],Algebraic Topology,Cambridge University Press,Allan Hatcher,2002,2002
+ref9,Herlihy, Rajsbaum [2000],Algebraic spans,Mathematical Structures in Computer Science,Maurice Herlihy,Sergio Rajsbaum,10,4,549,573,2000,2000
+ref10,Herlihy, Shavit [1993],The asynchronous computability theorem for tresilient tasks,Proceedings of the 25th Annual ACM Symposium on Theory of Computing,Maurice Herlihy,Nir Shavit,111,120,1993,1993
+ref11,Herrlich, Strecker [1973],Category Theory: An Introduction,Allyn and Bacon,Horst Herrlich,George E Strecker,1973,1973
+ref12,Lamport [1977],Proving the correctness of multiprocess programs,IEEE Transactions on Software Engineering SE,Leslie Lamport,3,2,125,143,1977,1977
+ref13,Lubitch, Moran [1995],Closed schedulers: A novel technique for analyzing asynchronous protocols,Distributed Computing,Ronit Lubitch,Shlomo Moran,8,4,203,210,1995,1995
+ref14,Lynch [1996],Distributed Algorithms,Morgan Kaufmann,Nancy A Lynch,1996,1996
+ref15,Moses, Rajsbaum [2002],A layered analysis of consensus,SIAM Journal on Computing,Yoram Moses,Sergio Rajsbaum,31,4,989,1021,2002,2002
+ref16,Saks, Zaharoglou [2000],Wait-free k-set agreement is impossible: The topology of public knowledge,SIAM Journal on Computing,Michael Saks,Fotios Zaharoglou,29,5,1449,1483,2000,2000
+ref17,Santoro, Widmayer [1989],Time is not a healer,Proceedings of the 6th Annual Symposium on Theoretical Aspects of Computer Science,Springer,Nicola Santoro,Peter Widmayer,304,313,1989,1989
+ref18,Spanier [1966],Algebraic Topology,McGraw-Hill,Edwin H Spanier,1966,1966</t>
+  </si>
+  <si>
+    <t>ref1,A layered analysis of consensus,SIAM Journal on Computing,Sergio Rajsbaum,31,4,989,1021,2002
+ref2,Wait-free k-set agreement is impossible: The topology of public knowledge,SIAM Journal on Computing,Fotios Saks,Zaharoglou,29,5,1449,1483,2000
+ref3,Time is not a healer,In Proceedings of the 6th Annual Symposium on Theoretical Aspects of Computer Science,Peter Santoro,Widmayer,304,313,1989</t>
   </si>
   <si>
     <t>TUW-194561</t>
   </si>
   <si>
+    <t>ref1,Improving context-sensitive dependency pairs,Proc. LPAR'08,Springer,I. Cervesato, H. Veith and A. Voronkov,B Alarcón,F Emmes,C Fuhs,J Giesl,R Gutiérrez,S Lucas,P Schneider-Kamp,R Thiemann,LNCS 5330,636,651,2008,2008
+ref2,On-demand strategy annotations revisited: An improved on-demand evaluation Strategy,Theoretical Computer Science,M Alpuente,S Escobar,B Gramlich,S Lucas,411,2,504,541,2010,2010
+ref3,A sequential reduction strategy,Theoretical Computer Science,S Antoy,A Middeldorp,165,1,75,95,1996,1996
+ref4,Term rewriting and All That,Cambridge University Press,F Baader,T Nipkow,1998,1998
+ref5,Term Rewriting Systems,Cambridge Tracts in Theoretical Computer Science 55,Cambridge University Press,M Bezem,J Klop,R de Vrijer,2003-03,2003,3
+ref6,Proving operational termination of membership equational programs,Higher-Order and Symbolic Computation,F Durán,S Lucas,C Marché,J Meseguer,X Urbain,21,1-2,59,88,2008,2008
+ref7,Term rewriting with operator evaluation strategies Abbaye des Prémontrés at Pont-` a-Mousson, France,Electr. Notes Theor. Comput. Sci.,Kirchner and H. Kirchner,S Eker,Abbaye des Prémontrés at Pont-á-Mousson, France,15,311,330,1998-09,1998,9
+ref8,From outermost to context-sensitive rewriting,Proc. RTA'09,Springer,R. Treinen,J Endrullis,D Hendriks,Proc. RTA'09, Brasilia, Brazil, June 29 - July 1, 2009, LNCS 5595,,305,319,2009-06,2009,6
+ref9,Lazy rewriting on eager machinery,ACM Transactions on Programming Languages and Systems (TOPLAS),W Fokkink,J Kamperman,P Walters,22,1,45,86,2000,2000
+ref10,Principles of OBJ2,Conference Record of the 12th Annual ACM Symposium on Principles of Programming Languages (POPL'85),ACM Press,K Futatsugi,J Goguen,J.-P Jouannaud,J Meseguer,52,66,1985,1985
+ref11,Transformation techniques for context-sensitive rewrite systems,Journal of Functional Programming,J Giesl,A Middeldorp,14,4,379,427,2004-07,2004,7
+ref12,AProVE 1.2: Automatic termination proofs in the dependency pair framework,Proc. IJCAR'06,Springer,U. Furbach and N. Shankar,J Giesl,P Schneider-Kamp,R Thiemann,Seattle, Wasington, USA, August 17-20, 2006, LNCS 4130,281,286,2006,2006
+ref13,Generalizing Newman's Lemma for left-linear rewrite systems,Proc. RTA'06, Seattle, Washington, USA, August 12-14, 2006, LNCS 4098,Springer,F. Pfenning,B Gramlich,S Lucas,66,80,2006,2006
+ref14,Context-sensitive computations in functional and functional logic programs,Journal of Functional and Logic Programming,S Lucas,1,1998-01,1998,1
+ref15,Termination of on-demand rewriting and termination of OBJ programs,Proc. PPDP'01, September 5-7, 2001, Florence, Italy,ACM,S Lucas,82,93,2001,2001
+ref16,Context-sensitive rewriting strategies,Information and Computation,S Lucas,178,1,294,343,2002,2002
+ref17,Lazy rewriting and context-sensitive rewriting,Electr. Notes Theor. Comput. Sci.,S Lucas,64,Proc.WFLP'01, Kiel, Germany, September 13-15, 2001, Selected Papers, M. Hanus, ed.,234,254,2001,2001
+ref18,Computing in systems described by equations,LNCS,Springer,M J O'Donnell,58,1977,1977
+ref19,Termination of lazy rewriting revisited,Electronic Notes in Theoretical Computer Science,F Schernhammer,B Gramlich,204,Final Proc. WRS'07, Jüurgen Giesl, ed.,35,51,2008-04,2008,4
+ref20,Characterizing and proving operational termination of deterministic conditional term rewriting systems,Journal of Logic and Algebraic Programming,F Schernhammer,B Gramlich,Selected revised papers of NWPT'08, to appear,2009,2009
+ref21,VMTL – a modular termination laboratory,Proc. RTA'09,Springer,R. Treinen,F Schernhammer,B Gramlich,Proc. RTA'09, Brasilia, Brazil, June 29 - July 1, 2009, LNCS 5595,285,294,2009-06,2009,6
+ref22,On some implementation aspects of VMTL,Proc. WST'09,A. Geser and J. Waldmann,F Schernhammer,B Gramlich,Proc. WST’09, Leipzig, Germany,72,75,2009-06,2009,6</t>
+  </si>
+  <si>
+    <t>ref1,Improving context-sensitive dependency pairs,November 22-27,B. Alarco´ n,F. Emmes,C. Fuhs,J. Giesl,P. Schneider-Kamp,R. Thiemann,H. Veith,A,Doha,636,651,2008
+ref2,On-demand strategy annotations revisited: An improved on-demand evaluation Strategy,Theoretical Computer Science,M. Alpuente,S. Escobar,B. Gramlich,S. Lucas,411,2,504,541,2010
+ref3,A sequential reduction strategy,Theoretical Computer Science,S. Antoy,A. Middeldorp,165,1,75,95,1996
+ref4,Term rewriting and All That,F. Baader,T. Nipkow,1998
+ref5,Term Rewriting Systems,M. Bezem,J. Klop,2003
+ref6,Proving operational termination of membership equational programs,Higher-Order and Symbolic Computation,F. Dura,J. Meseguer,X. Urbain,21,1-2,59,88,2008
+ref7,Abbaye des Pre´montre´s at Pont-a`-Mousson,Electr. Notes Theor. Comput. Sci.,S. Eker,C. Kirchner,98,311,330,1998
+ref8,From outermost to context-sensitive rewriting,Proc. RTA'09,J. Endrullis,D. Hendriks,Brasilia,305,319,June 2009
+ref9,Lazy rewriting on eager machinery,ACM Transactions on Programming Languages and Systems (TOPLAS),W. Fokkink,J. Kamperman,P. Walters,22,1,45,86,2000
+ref10,Principles of OBJ2. In Conference Record of the 12th Annual ACM Symposium on Principles of Programming Languages (POPL'85),K. Futatsugi,J. Goguen,J.-P. Jouannaud,J. Meseguer,52,66,1985
+ref11,Transformation techniques for context-sensitive rewrite systems,Journal of Functional Programming,J. Giesl,A. Middeldorp,14,4,379,427,2004
+ref12,AProVE 1.2: Automatic termination proofs in the dependency pair framework,Proc. IJCAR'06,J. Giesl,P. Schneider-Kamp and R. Thiemann,Seattle,20,281,286,2006
+ref13,Generalizing Newman's Lemma for left-linear rewrite systems,Proc. RTA'06,B. Gramlich,S. Lucas,14,66,80,2006
+ref14,Context-sensitive computations in functional and functional logic programs,Journal of Functional and Logic Programming,S. Lucas,1998
+ref15,Termination of on-demand rewriting and termination of OBJ programs,In Proc. PPDP'01, September 5-7,S. Lucas,82,93,2001
+ref16,Context-sensitive rewriting strategies,Information and Computation,S. Lucas,178,1,294,343,2002
+ref17,Proc,September 13-15,S. Lucas,Kiel,Selected Papers,01,234,254,2002
+ref18,Computing in systems described by equations,LNCS 58,M.J. O'Donnell,1977
+ref19,Termination of lazy rewriting revisited,Electronic Notes in Theoretical Computer Science,F. Schernhammer,B. Gramlich,Final Proc. WRS,07,35,51,2008
+ref20,Characterizing and proving operational termination of deterministic conditional term rewriting systems,Selected revised papers of NWPT'08,F. Schernhammer,B. Gramlich,2009
+ref21,a modular termination laboratory,Proc. RTA'09,F. Schernhammer,B. Gramlich. VMTL -,Brasilia,285,294,June 2009
+ref22,On some implementation aspects of VMTL. In A. Geser and,Proc. WST'09,F. Schernhammer,B. Gramlich,72,75,June 2009</t>
+  </si>
+  <si>
     <t>TUW-194660</t>
   </si>
   <si>
+    <t>ref1,Interaction nets,Proceedings of the 17th ACM symposium on Principles of programming languages (POPL),J Lafont,95,108,1990,1990
+ref2,Interaction nets with nested pattern matching,Electr. Notes Theor. Comput. Sci,A Hassan,S Sato,203,1,79,92,2008,2008
+ref3,The inets project,,http://www.interaction-nets.org
+ref4,Interaction nets with nested patterns: An implementation. ,Proceedings: 10th Int. Workshop on Rule-Based Programming (RULE'09),A Hassan,E Jiresch,S Sato,Brasìlia, Brazil,Prelim,14,25,2009-06,2009,6
+ref5,Interaction nets with nested patterns: An implementation,Proceedings of RULE'09: Electr. Proceed. in Theor. Comp. Sci. (EPTCS),A Hassan,E Jiresch,S Sato,Full version of [4], to appear,2010,2010</t>
+  </si>
+  <si>
+    <t>ref1,Interaction nets,In Proceedings of the 17th ACM symposium on Principles of programming languages (POPL),Y. Lafont,95,108,1990
+ref2,Interaction nets with nested pattern matching,Electr. Notes Theor. Comput. Sci.,A. Hassan,S. Sato,203,1,79,92,2008
+ref3,[3] The inets project,
+ref4,Interaction nets with nested patterns: An implementation,Prelim. Proceedings: 10th Int. Workshop on Rule-Based Programming (RULE'09),A. Hassan,S. Sato,14,25,June 2009
+ref5,Interaction nets with nested patterns: An implementation,Full version of [4]. In Proceedings of RULE'09: Electr. Proceed. in Theor. Comp. Sci. (EPTCS),A. Hassan,S. Sato,2010</t>
+  </si>
+  <si>
     <t>TUW-197422</t>
   </si>
   <si>
-    <t>[Byr03]
-[CNM83]
-[Dou01]
-[DRC10]
-[GRF08]
-[HHN85]
-[Hut96]
-[Kee10]
-[KN06]
-[Lam08]
-[LNS08]
-[LS10]
-[Nor88]
-[Nor93]
-[PSCO09]
-[Ric06]
-[SC06]
-[SNLD06]
-[Spe07]
-[Ste92]
-[Str04]
-[Suc87]
-[TC05]
-[Tha96]
-[War04]
-[YKSJ07]</t>
+    <t>ref1,[Byr03],Cognitive Architecture,Lawrence Erlbaum Associates,M D Byrne,Hillsdale, NJ,97,117,2003
+ref2,[CNM83],The Psychology of Human-Computer Interaction,Lawrence Erlbaum Associates,S K Card,A Newell,T P Moran,Hillsdale, NJ,1983
+ref3,[Dou01],Where the Action Is: The Foundations of Embodied Interaction,The MIT Press,P Dourish,Cambridge,2001
+ref4,[DRC10],Capturing Reasoning Process Through User Interaction,Proc. IEEE EuroVAST (2010),W Dou,W Ribarsky,R Chang,2010
+ref5,[GRF08],Visual Analytics for Complex Concepts Using a Human Cognition Model,Proc. IEEE VAST (2008),T Green,W Ribarsky,B Fisher,91,98,2008
+ref6,[HHN85],Direct Manipulation Interfaces,E L Hutchins,J D Hollan,D A Norman,1,4,311,338,1985
+ref7,[Hut96],Cognition in the Wild,The MIT Press,E Hutchins,Cambridge,1996
+ref8,[Kee10],Integrating Visualization and Interaction Research to Improve Scientific Workflows,IEEE CGA0,D Keefe,30,2,8,13,2010
+ref9,[KN06],Acting with Technology: Activity Theory and Interaction Design,The MIT Press,V Kaptelinin,B A Nardi,Cambridge,2006
+ref10,[Lam08],A Framework of Interaction Costs in Information Visualization,H Lam,14,2008
+ref11,[LNS08],Distributed Cognition as a Theoretical Framework for Information Visualization,IEEE TVCG,Z Liu,N J Nersessian,J T Stasko,14,6,1173,1180,2008
+ref12,[LS10],Mental Models, Visual Reasoning and Interaction in Information Visualization: A Top-down Perspective,IEEE TVCG,Z Liu,J Stasko,16,6,999,1008,2010
+ref13,[Nor88],Psychology of Everyday Things,Basic Books,D A Norman,1,1149,1156,1988
+ref14,[Nor93],Things That Make Us Smart: Defending Human Attributes In The Age Of The Machine,Basic Books,D Norman,1993
+ref15,[PSCO09],The Science of Interaction,Information Visualization,W A Pike,J T Stasko,R Chang,T A O’Connell,8,4,263,274,2009
+ref16,[Ric06],Is Interactivity Actually Important?,Proc. Australasian Conf. on Interactive Entertainment,D Richards,59,66,2006
+ref17,[SC06],Guest Editors’ Introduction: Interacting with Digital Tabletops,IEEE CGA,S Scott,S Carpendale,26,5,24,27,2006
+ref18,[SNLD06],An Insight-Based Longitudinal Study of Visual Analytics,IEEETVCG,P Saraiya,C North,V Lam,K A Duca,12,6,1511,1522,2006
+ref19,[Spe07],Information Visualization: Design for Interaction,Prentice Hall,R Spence,2,Upper Saddle River, NJ,2007
+ref20,[Ste92],Defining Virtual Reality: Dimensions Determining Telepresence,Journal of Communication,J Steuer,42,4,73,93,1992
+ref21,[Str04],Interactivity-as-Product and Interactivity-as-Process,The Information Society,J Stromer-Galley,20,5,391,394,2004
+ref22,[Suc87],Plans and Situated Actions: The Problem of Human-Machine Communication,Cambridge University Press,L A Suchman,Cambridge,1987
+ref23,[TC05],Illuminating the Path: The Research and Development Agenda for Visual Analytics,IEEE Press,J J Thomas,K A Cook,2005
+ref24,[Tha96],Mind: Introduction to Cognitive Science,The MIT Press,P Thagard,Cambridge,1996
+ref25,[War04],Information Visualization: Perception for Design, 2nd edition ed,Interactive Technologies,Morgan Kaufmann,C Ware,2,San Francisco,2004
+ref26,[YKSJ07],Toward a Deeper Understanding of the Role of Interaction in Information Visualization,IEEE TVCG,J S Yi,Y A Kang,J Stasko,J Jacko,13,6,1224,1231,2007</t>
+  </si>
+  <si>
+    <t>ref1,Cognitive Architecture,[Byr03] BYRNE M. D.,3,117,2003
+ref2,The Psychology of Human-Computer Interaction,A.,1983
+ref3,Where the Action Is: The Foundations of Embodied Interaction,[Dou01] DOURISH P.:,2001
+ref4,Capturing Reasoning Process Through User Interaction,In Proc. IEEE EuroVAST,DOU W.,2,2010
+ref5,Visual Analytics for Complex Concepts Using a Human Cognition Model,In Proc. IEEE VAST,T.,1,98,2008
+ref6,Direct Manipulation Interfaces,Human-Computer Interaction 1,HUTCHINS E. L. HOLLAN J. D.,NORMAN D. A.,4,2,338,1985
+ref7,Cognition in the Wild,HUTCHINS E.,1996
+ref8,[Kee10] KEEFE D.: Integrating Visualization and Interaction Research to Improve Scientific Workflows,IEEE CGA 30,,2,2,13,2010
+ref9,Acting with Technology: Activity Theory,KAPTELININ V.,NARDI B. A.,Interaction Design,2006
+ref10,A Framework of Interaction Costs in Information Visualization,IEEE TVCG 14,[Lam08] LAM H.:,6,1,1156,2008
+ref11,Distributed Cognition as a Theoretical Framework for Information Visualization,IEEE TVCG 14,Z.,NERSESSIAN N. J.,2,3,1180,2008
+ref12,Visual Reasoning and Interaction in Information Visualization: A Top-down Perspective,IEEE TVCG 16,Z.,6,2,1008,2010
+ref13,A.: Psychology of Everyday Things,Basic Books,[Nor88] NORMAN D.,1,2,1988
+ref14,Smart: Defending Human Attributes In The Age Of The Machine,Basic Books,[Nor93] NORMAN D.: Things That Make Us,2,3,1993
+ref15,O'CONNELL T. A.: The Science of Interaction. Information Visualization 8,PIKE W. A.,STASKO J. T.,4,1,274,2009
+ref16,In Proc. Australasian Conf. on Interactive Entertainment,RICHARDS D.,2,66,2006
+ref17,Introduction: Interacting with Digital Tabletops,IEEE CGA 26,,5,2,27,2006
+ref18,DUCA K. A.: An Insight-Based Longitudinal Study of Visual Analytics,IEEE TVCG 12,SARAIYA P.,6,2,1522,2006
+ref19,[Spe07] SPENCE R.: Information Visualization: Design for Interaction,,2007
+ref20,Reality: Dimensions Determining Telepresence,Journal of Communication,[Ste92] STEUER J.: Defining Virtual,42,4,2,93,1992
+ref21,Interactivity-as-Product and Interactivity-as-,The Information Society 20,STROMER-GALLEY J.:,Process,5,2,394,2004
+ref22,A.: Plans and Situated Actions: The Problem of Human-Machine Communication,[Suc87] SUCHMAN L.,1987
+ref23,COOK K. A.: Illuminating the Path: The Research and Development Agenda for Visual Analytics,THOMAS J. J.,1,4,2005
+ref24,THAGARD P.,1996
+ref25,: Information Visualization: Perception for Design, 2nd edition ed,Interactive Technologies,[War04] WARE C.,2004
+ref26,Toward a Deeper Understanding of the Role of Interaction in Information Visualization,IEEE TVCG 13,YI J. S.,KANG Y. A.,STASKO J.,6,1,1231,2007</t>
   </si>
   <si>
     <t>TUW-197852</t>
   </si>
   <si>
-    <t>[Abb83]
-[APL08]
-[BM06]
-[BSW+08]
-[FKM05]
-[SM04]
-[WKH08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,[Abb83],Program Design by Informal English Descriptions,Bibliography Communications of the ACM,R J Abbott,26,11,882,894,1983,1983
+ref2,[APL08],A Diagnosis Method that Matches Class Diagrams in a Learning Environment for Object-Oriented Modeling,ICALT '08: Proc. of the 2008 Eighth IEEE International Conference on Advanced Learning Technologies,IEEE Computer Society,L Auxepaules,T Py,Lemeunier,26,30,2008,2008
+ref3,[BM06],A Constraint-Based Collaborative Environment for Learning UML Class Diagrams,Proc. Intelligent Tutoring Systems,Springer,N Baghaei,A Mitrovic,LNCS 4053,176,186,2006,2006
+ref4,[BSW+08],Teaching Models @ BIG-How to Give 1000 Students an Understanding of the UML,Promoting Software Modeling Through Active Education, Educators Symposium Models'08,Warsaw University of Technology,M Brandsteidl,M Seidl,M Wimmer,C Huemer,G Kappel,64,68,2008,2008
+ref5,[FKM05],From Textual Scenarios to a Conceptual Schema,Data &amp; Knowledge Engineering,G Fliedl,C Kop,H C Mayr,55,1,20,37,2005,2005
+ref6,[SM04],An Intelligent Tutoring System for Entity Relationship Modelling,International Journal of Artificial Intelligence in Education (IJAIED),P Suraweera,A Mitrovic,14,3-4,375,417,2004,2004
+ref7,[WKH08],A Combined Similarity Measure for Determining Similarity of Model-based and Descriptive Requirements,Artificial Intelligence Techniques in Software Engineering (ECAI 2008 Workshop),K Wolter,T Krebs,L Hotz,11,15,2008,2008</t>
+  </si>
+  <si>
+    <t>ref1,An Intelligent Tutoring System for Entity Relationship Modelling,International Journal of Artificial Intelligence in Education (IJAIED) 14,P. Suraweera,A. Mitrovic,3-4,375,417,2004
+ref2,A Combined Similarity Measure for Determining Similarity of Model-based and Descriptive Requirements,In Artificial Intelligence Techniques in Software Engineering (ECAI 2008 Workshop),K. Wolter,T. Krebs,L. Hotz,11,15,2008</t>
   </si>
   <si>
     <t>TUW-198400</t>
   </si>
   <si>
+    <t>ref1,Software engineering for security: a roadmap,ICSE '00: Proceedings of the Conference on The Future of Software Engineering,ACM,P T Devanabu,S Stubblebine,227,239,2000,2000
+ref2,Cyberwarfare is becoming scarier,The Economist,,2007,2007
+ref3,Secure Systems Development with UML,Springer,J Juerjens,2005,2005
+ref4,Model-driven development for secure information systems,Information and Software Technology,E Fernandez-Medina,J Juerjens,J Trujillo,S Jajodia,2008,2008
+ref5,Model-driven engineering,IEEE Computer,D C Schmidt,39,2,2006,2006
+ref6,Aspect-oriented programming,G Kiczales,J Lamping,A Mendhekar,C Maeda,C Lopes,J.-M Loingtier,J Irwin,220,242,1997,1997
+ref7,Architecting secure software systems using an aspect-oriented approach: A survey of current research,Iowa State University, Tech. Rep.,J Dehlinger,N Subramanian,2006,2006
+ref8,UMLsec: Extending UML for secure systems development,UML '02: Proceedings of the 5th International Conference on The Unified Modeling Language,J Juerjens,2002,2002
+ref9,Model driven security for process-oriented systems,SACMAT ’03: Proceedings of the eighth ACM Symposium on Access
+control models and technologies,ACM,D Basin,J Doser,T Lodderstedt,100,109,2003,2003
+ref10,Automated security protocol analysis with the AVISPA tool,Electronic Notes in Theoretical Computer Science,L Vigano,155,61,86,2006,2006
+ref11,A synthesis of evaluation criteria for software specifications and specification techniques,International Journal of Software Engineering and Knowledge Engineering,A Khwaja,J Urban,2002,2002
+ref12,Evaluation: Methods for Studying Programs and Policies,Prentice-Hall,C H Weiss,1998,1998
+ref13,Assumptions underlying evaluation models,Educational Researcher,H E R,1978,1978
+ref14,Secure information systems development-a survey and comparison,Computers &amp; Security,R Villarroel,E Fernandez-Medina,M Piattini,2005,2005
+ref15,Introducing security aspects with model transformations,ECBS ’05: Proceedingsof the 12th IEEE International Conference andWorkshops on Engineering of Computer-Based Systems,IEEE Computer Society,J Fox,J Juerjens,2005,2005
+ref16,Is UML an architectural description language,D Coleman,G Booch,D Garlan,S Iyengar,C Kobryn,V Stavridou,1999,1999
+ref17,Model-based security engineering of distributed information systems using UMLsec,ICSE '07: Proceedings of the 29th international conference on Software Engineering,B Best,J Juerjens,B Nuseibeh
+ref18,UML analysis tools,J Juerjens,http://mcs.open.ac.uk/jj2924/umlsectool/index.html
+ref19,Developing secure embedded systems: Pitfalls and how to avoid them,J Juerjens,2007,2007
+ref20,Secure software architectures design by aspect orientation,ICECCS '05: Proceedings of the 10th IEEE International Conference on Engineering of Complex Computer Systems,IEEE Computer Society,H Yu,D Liu,X He,L Yang,S Gao,47,55,2005,2005
+ref21,Recognizing safety and liveness,Distributed Computing,B Alpern,B Alpera,F B Schneider,F B Schneider,2,117,126,1987,1987
+ref22,A model-based aspect-oriented framework for building intrusion-aware software systems,Information and Software Technology,Z J Zhu,M Zulkernine,2008,2008
+ref23,Threat classification,WASC Tech. Rep,Web Application Security Consortium, Tech. Rep.,,2008,2008,http://www.webappsec.org/projects/threat
+ref24,The AVISPA tool for the automated validation of internet security protocols and applications,Lecture Notes in Computer Science,A Armando,D Basin,Y Boichut,Y Chevalier,L Compagna,J Cuellar,P H Drielsma,P Heam,O Kouchnarenko,J Mantovani,S Moedersheim,D von Oheimb,M Rusinowitch,J Santiago,M Turuani,L Vigano,L Vigneron,,3576,2005,2005
+ref25,The temporal logic of actions,ACM Transactions on Programming Languages and Systems,L Lamport,16,872,923,1994,1994
+ref26,The state explosion problem,Lectures on Petri Nets I: Basic Models Advances in Petri Nets, the volumes are based on the Advanced Course on Petri Nets,Springer Verlag,A Valmari,London, UK,429,528,1998,1998
+ref27,Logic in Computer Science,Cambridge University Press The MIT Press,M Huth,M Ryan,2004,2004
+ref28,Software abstractions: Logic, Language, and Analysis,The MIT Press,D Jackson,2006,2006</t>
+  </si>
+  <si>
+    <t>ref1,This work was supported by grants of the Austrian Government's BRIDGE Research Initiative (contract 824884), the FIT-IT Research Initiative (contract 816158) and was performed at the research center Secure Business Austria funded by the Federal Ministry of Economy, Family and Youth of the Republic of Austria and by the City of Vienna.,</t>
+  </si>
+  <si>
     <t>TUW-198401</t>
   </si>
   <si>
+    <t>ref1,Security attribute evaluation method: a cost-benefit approach,ICSE '02: Proceedings of the 24th International Conference on Software Engineering,ACM Press,S A Butler,New York, NY, USA,232,240,2002,2002
+ref2,Octave,CERT,,2007,2007,http://www.cert.org/octave/index.html
+ref3,Cramm,InsightConsulting,Octave,2007-05,2007,5,http://www.cramm.com
+ref4,Acquiring COTS software selection requirements,IEEE Software,N A Maiden,C Ncube,15,2,46,56,1998,1998
+ref5,Using process models to analyze health care security requirements,International Conference Advances in Infrastructure for e-Business, eEducation, e-Science, and e-Medicine on the Internet,S Röhrig,Italy,2002,2002
+ref6,The Analytic Hierarchy Process,McGraw-Hill,T L Saaty,1980,1980</t>
+  </si>
+  <si>
+    <t>ref1,Security attribute evaluation method: a cost-benefit approach,In ICSE '02: Proceedings of the 24th International Conference on Software Engineering,S. A. Butler,232,240,2002
+ref2,,2007</t>
+  </si>
+  <si>
     <t>TUW-198405</t>
   </si>
   <si>
+    <t>ref1,Information Security: An Integrated Collection of Essays,IEEE Computer Society Press,M D Abrams,S Jajodia,1995,1995
+ref2,Basic concepts and taxonomy of dependable and secure computing,IEEE Transactions on Dependable and Secure Computing,A Avizienis,J.-C Laprie,B Randell,C Landwehr,01,1,11,33,2004,2004
+ref3,Using abuse case models for security requirements analysis,Proceedings of the 15th Annual Computer Security Applications ConferenceACSAC '99),J Mcdermott,C Fox,55,64,1999-12-10,1999,12,6-10
+ref4,Secure Business Process Management: A Roadmap,Procs. The First International Conference on Availability, Reliability and Security, 2006,T Neubauer,M Klemen,S Biffl,ARES 2006,2006-04-22,2006,4,20-22
+ref5,Eliciting security requirements by misuse cases,Proceedings of the 37th International Conference on Technology of Object-Oriented Languages and Systems, 2000,G Sindre,A L Opdahl,TOOLS-Pacific,120,131,2000-11,2000,11,20-23
+ref6,Business process management: a boundaryless approach to modern competitiveness,Business Process Management,M Zairi,3,1,64,80,1997,1997</t>
+  </si>
+  <si>
+    <t>ref1,An Integrated Collection of Essays,M. D. Abrams,S. Jajodia,1995
+ref2,Basic concepts and taxonomy of dependable and secure computing,IEEE Transactions on Dependable and Secure Computing,A. Avizienis,J.-C. Laprie,B. Randell,C. Landwehr,11,1,33,2004
+ref3,Using abuse case models for security requirements analysis,(ACSAC '99),J. McDermott,C. Fox,64,6,10,1999
+ref4,Secure Business Process Management: A Roadmap,ARES,T. Neubauer,M. Klemen,S. Bi,20,22,2006
+ref5,Eliciting security requirements by misuse cases,In Proceedings of the 37th International Conference on Technology of Object-Oriented Languages and Systems,G. Sindre,A.L. Opdahl,120,131,20,23,2000
+ref6,Business process management: a boundaryless approach to modern competitiveness,Business Process Management,M. Zairi,64,1,80,1997</t>
+  </si>
+  <si>
     <t>TUW-198408</t>
   </si>
   <si>
-    <t>[Alves2001]
-[Alves2003]
-[Andrews2005]
-[Basili1987]
-[Basili1996]
-[Doerner2006]
-[Ehrgott2000]
-[Ehrgott2004]
-[Kontio1995]
-[Kunda2003]
-[Lozanotello2002]
-[Maiden1998]
-[Maiden2002]
-[Martinsons1998]
-[Medaglia2006]
-[Morisio2002]
-[Navarrete2005]
-[Ncube2002]
-[Neubauer2006]
-[Ruhe2002]
-[Ruhe2003]
-[Ryan2004]
-[Torchiano2004]
-[Tran1997]
-[Stummer2003]
-[Stummer2005]
-[Wanyama2005]</t>
+    <t>ref1,[Alves2001],CRE: A systematic method for COTS components selection,Proceedings of the XV Brazilian Symposium on Software Engineering,C Alves,J Castro,2001,2001
+ref2,[Alves2003],Investigating conflicts in COTS decisionmaking,International Journal of Software Engineering and Knowledge Engineering,C Alves,A Finkelstein,13,5,473,495,2003,2003
+ref3,[Andrews2005],A COTS component comprehension process,Proceedings of the 13th International Workshop on Program Comprehension (IWPC'05),IEEE,A A Andrews,A Stefik,N Picone,S Ghosh,135,144,2005,2005
+ref4,[Basili1987],Tailoring the software process to project goals and environments,Proceedings of the 9th International Conference on Software Engineering,IEEE,V R Basili,A Rombach,345,357,1987,1987
+ref5,[Basili1996],How reuse influences productivity in object-oriented systems,Communications of the ACM,V R Basili,L C Briand,W L Melo,39,10,104,116,1996,1996
+ref6,[Doerner2006],Natureinspired metaheuristics for multiobjective activity crashing,Omega,K F Doerner,W J Gutjahr,R F Hartl,C Strauss,C Stummer,im Druck,2006,2006
+ref7,[Ehrgott2000],A survey and annotated bibliography of multiobjective combinatorial optimization,OR Spectrum,M Ehrgott,X Gandibleux,22,4,425,460,2000,2000
+ref8,[Ehrgott2004],Approximative solution methods for multiobjective combinatorial optimization,TOP,M Ehrgott,X Gandibleux,12,1,1,63,2004,2004
+ref9,[Kontio1995],OTSO: A systematic process for reusable software component selection,Institute for Advanced Computer Studies and Department of Computer Science, University of Maryland,J Kontio,Arbeitspapier,Arbeitspapier,1995,1995
+ref10,[Kunda2003],STACE: Social technical approach to COTS software evaluation,Component-Based Software Quality: Methods and Techniques,Springer,D Kunda,LNCS 2693,64,84,2003,2003
+ref11,[Lozanotello2002],BAREMO: How to choose the appropriate software component using the Analytic Hierarchy Process,Proceedings of the 14th International Conference on Software Engineering and Knowledge Engineering, ACM Proceedings 27,A Lozano-Tello,A Gomez-Perez,781,788,2002,2002
+ref12,[Maiden1998],Acquiring COTS software selection requirements,IEEE Software,N Maiden,C Ncube,15,2,46,56,1998,1998
+ref13,[Maiden2002],Rethinking process guidance for selecting software components,Proceedings of the First International Conference on COTS-Based Software Systems (ICCBSS 2002),Springer,N Maiden,H Kim,C Ncube,LNCS 2255,151,164,2002,2002
+ref14,[Martinsons1998],The balanced scorecard: A foundation for the strategic management of information systems,Decision Support Systems Journal,M Martinsons,R Davidson,D Tse,25,1,71,78,1998,1998
+ref15,[Medaglia2006],A multiobjective evolutionary approach for linearly constrained project selection under uncertainty,European Journal of Operational Research,A Medaglia,S Graves,J Ringuest,im Druck,2006,2006
+ref16,[Morisio2002],Definition and classification of COTS: A proposal,Proceedings of the First International Conference on COTS-Based Software Systems (ICCBSS 2002),Springer,M Morisio,M Torchiano,LNCS 2255,165,175,2002,2002
+ref17,[Navarrete2005],How agile COTS selection methods are (and can be)?,Proceedings of the 31st EUROMICROConference on Software Engineering and Advanced Applications (EUROMICRO-SEAA'05),IEEE,F Navarrete,P Botella,X Franch,160,167,2005,2005
+ref18,[Ncube2002],The limitations of current decision-making techniques in the procurement of COTS software components,Proceedings of the First International Conference on COTS-Based Software Systems (ICCBSS
+2002),Springer,C Ncube,J C Dean,LNCS 2255,176,187,2002,2002
+ref19,[Neubauer2006],Workshop-based multiobjective security safeguard selection,Proceedings of the First International Conference on Availability, Reliability and Security (ARES'06),IEEE,T Neubauer,C Stummer,E Weippl,366,373,2006,2006
+ref20,[Ruhe2002],Intelligent support for selection of COTS products,Revised Papers from the Workshop on Web, Web-Services, and Database Systems (NODe 2002),Springer,G Ruhe,LNCS 2593,34,45,2002,2002
+ref21,[Ruhe2003],Software engineering decision support: A new paradigm for learning software organizations,Proceedings of the 4th International Workshop on Advances in Learning Software Organizations (LSO 2002),Springer,G Ruhe,LNCS 2640,104,113,2003,2003
+ref22,[Ryan2004],Inclusion of social sub-system issues in ITinvestment decisions: An empiricial assessment,Information Resources Management Journal,S D Ryan,M S Gates,17,1,1,18,2004,2004
+ref23,[Torchiano2004],Overlooked aspects of COTS-based development,IEEE Software,M Torchiano,M Morisio,21,2,88,93,2004,2004
+ref24,[Tran1997],Component-based systems development: challenges and lessons learned,Software Technology and Engineering Practice,IEEE,V Tran,D.-B Liu,B Hummel,452,462,1997,1997
+ref25,[Stummer2003],Interactive R&amp;D portfolio analysis with project interdependencies and time profiles of multiple objectives,IEEE Transactions on Engineering Management,C Stummer,K Heidenberger,50,2,175,183,2003,2003
+ref26,[Stummer2005],New multiobjective metaheuristic solution procedures for capital investment planning,Journal of Heuristics,C Stummer,M Sun,11,3,183,199,2005,2005
+ref27,[Wanyama2005],Towards providing decision support for COTS selection,Proceedings of the 18th IEEE Canadian Conference on Electrical and Computer Engineering (CCECE 2005),IEEE,T Wanyama,B Homayoun,908,911,2005,2005</t>
   </si>
   <si>
     <t>TUW-200745</t>
   </si>
   <si>
+    <t>ref1,Generalized Spanning Trees and Extensions,Diss.,Universite Libre de Bruxelles,C Feremans,2001,2001
+ref2,Solving medium to large sized Euclidean generalized minimum spanning tree problems,Forschungsbericht,Indian Institute of Management, Research and Publication Department,D Ghosh,2003,2003
+ref3,Computing Generalized Minimum Spanning Trees with Variable Neighborhood Search,Proceedings of the 18th Mini Euro Conference on Variable Neighborhood Search,HANSEN, P. (Hrsg.) ; MLADENOVIĆ, N. (Hrsg.) ; PÉREZ, J. A. M. (Hrsg.) ; BATISTA, B. M. (Hrsg.) ; MORENOVEGA, J. M. (Hrsg.),B Hu,M Leitner,G R Raidl,Teneriffa, Spanien,2005,2005
+ref4,Combining Variable Neighborhood Search with Integer Linear Programming for the Generalized Minimum Spanning Tree Problem,Journal of Heuristics,B Hu,M Leitner,G R Raidl,14,5,473,499,2008,2008
+ref5,An Evolutionary Algorithm with Solution Archive for the Generalized Minimum Spanning Tree Problem,Proceedings of EUROCAST 2011-13th International Conference on Computer Aided Systems Theory,QUESADA-ARENCIBIA, A. (Hrsg.),B Hu,G R Raidl,Las Palmas de Gran Canaria, Spain,256,259,2011-02,2011,02,6-11
+ref6,An efficient algorithm for generalized minimum spanning tree problem,GECCO '10: Proceedings of the 12th annual conference on Genetic and evolutionary computation,ACM,H Jiang,Y Chen,New York, NY, USA,ISBN 978–1–4503–0072–8,217,224,2010,2010
+ref7,Solving Two Generalized Network Design Problems with Exact and Heuristic Methods,Diplomarbeit,Technische Universität Wien,M Leitner,supervised by G. Raidl and B. Hu,2006,2006
+ref8,On the Generalized Minimum Spanning Tree Problem,Networks,Y S Myung,C H Lee,D W Tcha,26,231,241,1995,1995
+ref9,Einführung in Evolutionäre Algorithmen.: Optimierung nach dem Vorbild der Evolution,Vieweg,V Nissen,1997,1997
+ref10,A hybrid heuristic approach for solving the generalized traveling salesman problem,GECCO,ACM,KRASNOGOR, Natalio (Hrsg.) ; LANZI, Pier L. (Hrsg.),P C Pop,S Iordache,Natalio (Hrsg.,481,488,2011,2011
+ref11,Generalized Minimum Spanning Tree Problem,Diss.,University of Twente,P C Pop,2002,2002
+ref12,Enhancing Genetic Algorithms by a Trie-Based Complete Solution Archive,Evolutionary Computation in Combinatorial Optimisation-EvoCOP,Springer,G R Raidl,B Hu,6022,LNCS,239,251,2010,2010
+ref13,Ein neues Lösungsarchiv für das Generalized Minimum Spanning Tree-Problem,Diplomarbeit,Technische Universität Wien,M Sonnleitner,2010,2010
+ref14,Enhancing a Genetic Algorithm by a Complete Solution Archive Based on a Trie Data Structure,Technische Universität Wien,A Šramko,Diplomarbeit,2009,2009
+ref15,Ein Lösungsarchiv-unterstützter evolutionärer Algorithmus für das Generalized Minimum Spanning Tree-Problem,M Wolf,Diplomarbeit,2009,2009
+ref16,A Complete Archive Genetic Algorithm for the Multidimensional Knapsack Problem,Technische Universität Wien,S Zaubzer,Diplomarbeit,2008,2008</t>
+  </si>
+  <si>
+    <t>ref1,8 1.6.2 EA mit Pop-Lösungsarchiv,1 Einleitung 1 1,Generalized Minimum Spanning,Tree-Problem . . . . . . . . . . . . . 1,Algorithmen . . . . . . . . . . . . . . . . . . . . . . . . . 2,Lösungsarchive . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 3,Lösungsrepräsentationen . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . .,Bound . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 6,Ansätze . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . 10,1
+ref2,26 2.2.4 Konvertierungs-Methode,2 Algorithmus 12 2,Gosh-Archiv . . . . . . . . . . . . . . . . . . . . im,. . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . 17,Pop-Archiv . . . . . . . . . . . . . . . . . . . . . 19 im,Boundberechnung . . . . . . . . . . . . . . . . . 23,Nearest Neighbours Reduktion . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . 27,2,2
+ref3,A hybrid heuristic approach for solving the generalized traveling salesman problem,In: KRASNOGOR,Vorgehensweise . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 30,P. C. POP,S.: IORDACHE,Natalio,L. Pier,2,481,488,2011
+ref4,Enhancing Genetic Algorithms by a Trie-Based Complete Solution Archive,2010 Bd. 6022,G. R. RAIDL,B.,239,251,2010</t>
+  </si>
+  <si>
     <t>TUW-200748</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Steiner minimal trees,SIAM Journal on Applied Mathematics,E N Gilbert,H O And Pollak,16,1,1,29,1968,1968
+ref2,Steiner's problem in graphs and its implications,Networks,S L Hakimi,1,2,113,133,1971,1971
+ref3,Reducibility among combinatorial problems,Complexity of Computer Computations,Plenum Press,R. Miller and J. Thatcher,R Karp,85,103,1972,1972
+ref4,Multicasting for multimedia applications,INFOCOM '92. Eleventh Annual Joint Conference of the IEEE Computer and Communications Societies,IEEE,V P Kompella,J C Pasquale,G C And Polyzos,2078,2085,1992-05,1992,5
+ref5,A fast and high quality multilevel scheme for partitioning irregular graphs,SIAM J. Sci. Comput,G Karypis,V Kumar,20,359,392,1998-12,1998,12
+ref6,A multi-level algorithm for partitioning graphs,SC Conference,B Hendrickson,R Leland,0,28,1995,1995
+ref7,Coarsening, sampling, and smoothing: Elements of the multilevel method,Algorithms for Parallel Processing,S Teng,105,247,276,1999,1999
+ref8,Variable Neighborhood Search and Ant Colony Optimization for the Rooted Delay-Constrained Minimum Spanning Tree Problem,Proceedings of the 11th International Conference on Parallel Problem Solving from Nature: Part II,Springer,R. Schaefer et al.,M Ruthmair,G R And Raidl,6239,of LNCS,391,400,2010,2010
+ref9,Solving Steiner tree problems in graphs to optimality,Networks,T Koch,A Martin,32,207,232,1998,1998
+ref10,A fast algorithm for Steiner trees,Acta Informatica,L Kou,G Markowsky,L Berman,15,2,141,145,1981,1981
+ref11,A source-based algorithm for delay-constrained minimum-cost multicasting,INFOCOM'95. Fourteenth Annual Joint Conference of the IEEE Computer and Communications Societies. Bringing Information to People,IEEE,Q Zhu,M Parsa,377,385,1995,1995
+ref12,A delay-constrained least-cost multicast routing heuristic for dynamic multicast groups,Electronic Commerce Research,W ZHENGYING,S Bingxin,Z Ling,2,4,323,335,2002,2002
+ref13,Dclc routing algorithm based on selective function,Mini-Micro Computer Systems,W Zhengying,S Bingxin,M Tao,21,12,1267,1269,2000,2000
+ref14,Bandwidth-delay-constrained least-cost multicast routing based on heuristic genetic algorithm,Computer communications,W Zhengying,S Bingxin,Z Erdun,24,7,8,2001,2001
+ref15,A path relinking approach for delay-constrained least-cost multicast routing problem,Tools with Artificial Intelligence, 2007. ICTAI 2007. 19th IEEE International Conference,IEEE,N Ghaboosi,A Haghigha,1,383,390,2007,2007
+ref16,A grasp heuristic for the delay-constrained multicast routing problem,Telecommunication Systems,N Skorin-Kapov,M Kos,32,1,55,69,2006,2006
+ref17,A GRASP approach for the Delay-constrained Multicast routing problem,Proceedings of the 4th Multidisplinary International Scheduling Conference (MISTA4),Y Xu,R Qu,Dublin, Ireland, 2009,93,104,2009,2009
+ref18,A Variable Neighborhood Descent Search Algorithm for Delay-Constrained Least-Cost Multicast Routing,Proceedings of Learning and Intelligent OptimizatioN (LION3),Springer,R Qu,Y Xu,G Kendall,15,29,2009,2009
+ref19,A hybrid scatter search meta-heuristic for delay-constrained multicast routing problems,Applied Intelligence,Y Xu,R Qu,1,13,2010,2010
+ref20,Optimum routing of multicast streams,INFOCOM'94. Networking for Global Communications., 13th Proceedings IEEE,IEEE,C Noronha Jr,F Tobagi,865,873,1994,1994
+ref21,Multicast problems in telecommunication networks,PhD thesis,Università del Salento,V Leggieri,Lecce, Italy,2007,2007
+ref22,The steiner tree problem with delays: a tight compact formulation and reduction procedures,Tech. rep., Technical report,Universita del Salento,V Leggieri,M Haouari,C Triki,Lecce, Italy,2010,2010
+ref23,An Exact Algorithm for the Steiner Tree Problem with Delays,Electronic Notes in Discrete Mathematics,V Leggieri,M Haouari,C Triki,36,223,230,2010,2010
+ref24,A Layered Graph Model and an Adaptive Layers Framework to Solve Delay-Constrained Minimum Tree Problems,Proceedings of the 15th Conference on Integer Programming and Combinatorial Optimization (IPCO XV),Springer,O. Günlük and G. Woeginger,M Ruthmair,G R Raidl,6655,of LNCS,376,388,2011,2011
+ref25,Stabilized Branch-and-Price for the Rooted Delay-Constrained Steiner Tree Problem,Network Optimization: 5th International Conference, INOC 2011,Springer,J. Pahl, T. Reiners, and S. Voß,M Leitner,M Ruthmair,G R Raidl,Hamburg, Germany,6701,LNCS,124,138,2011-06,2011,6
+ref26,Stabilized Column Generation for the Rooted Delay-Constrained Steiner Tree Problem,Proceedings of the VII ALIO/EURO – Workshop on Applied Combinatorial Optimization,M Leitner,M Ruthmair,G R Raidl,Porto, Portugal,250,253,2011-05,2011,5
+ref27,Multilevel computations: Review and recent developments,Multigrid methods: theory, applications, and supercomputing;[papers from the 3. Copper Mountain Conference on Multigrid Methods, held at Copper Mountain, Colo., April 5-10, 1987],A Brandt,110,35,1988,1988
+ref28,A multilevel approach to the travelling salesman problem,Operations Research,C Walshaw,862,877,2002,2002
+ref29,Experimental analysis of heuristics for the stsp,The Traveling Salesman Problem and its Variations,D Johnson,L Mcgeoch,369,443,2004,2004
+ref30,A multilevel approach to the graph colouring problem,SE10 9LS,Citeseer,C Walshaw,2001,2001
+ref31,Multilevel Heuristiken für das Rooted Delay-Constrained Minimum Spanning Tree Problem,Master's thesis,Vienna University of Technology, Institute of Computer Graphics and Algorithms,M Berlakovich,Vienna, Austria,supervised by G. Raidl and M. Ruthmair,2010-07,2010,7
+ref32,A Multilevel Heuristic for the Rooted Delay-Constrained Minimum Spanning Tree Problem,Extended Abstracts of the 13th International Conference on Computer Aided Systems Theory (2011),A. Quesada-Arencibia et al.,M Berlakovich,M Ruthmair,G R Raidl,247,249
+ref33,A Kruskal-Based Heuristic for the Rooted Delay-Constrained Minimum Spanning Tree Problem,Proceedings of the 12th International Conference on Computer Aided Systems Theory,Springer,R. Moreno-Díaz, F. Pichler, and A. Quesada-Arencibia,M Ruthmair,G R Raidl,5717,of LNCS,713,720,2009,2009
+ref34,Steiner's problem in graphs: heuristic methods,Discrete Applied Mathematics,S Voss,40,1,45,72,1992,1992
+ref35,Solving Two Network Design Problems by Mixed Integer Programming and Hybrid Optimization Methods,PhD thesis,Vienna University of Technology, Institute of Computer Graphics and Algorithms,M Leitner,Vienna, Austria,35,2,600,613,2010,2010
+ref36,Modeling and Solving the Rooted Distance-Constrained Minimum Spanning Tree Problem,Computers and Operations Research,L GOUVEIA,A PAIAS,D SHARMA,35,2,600,613,2008,2008
+ref37,A note on two problems in connexion with graphs,Numerische mathematik,E Dijkstra,1,1,269,271,1959,1959
+ref38,Network flows: theory, algorithms, and applications,Prentice Hall,R Ahuja,T Magnanti,J Orlin,New York,1993,1993
+ref39,C++-Framework for Solving Delay-Constrained Tree Problems,M Ruthmair,2011,2011
+ref40,Test instances for the RDCMSTP,M Ruthmair,2011,2011,https://www.ads.tuwien.ac.at/~marior/instances/random/
+ref41,A hybrid GRASP with perturbations for the Steiner problem in graphs,INFORMS Journal on Computing,C Ribeiro,E Uchoa,R Werneck,14,3,228,246,2003,2003</t>
+  </si>
+  <si>
+    <t>ref1,7 2.5 Other related work,2 Related work 5 2,Preprocessing . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 5,algorithms . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 5,algorithms . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 6,heuristic . . . . . . . . . . . . . . . . . . . . . . . . . . Refinement,. . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 7,2
+ref2,10 3.4 Solving the highest level,22 [1] [2] [3] [4] [5] [6] [8] [9],definitions . . . . . . . . . . . . . . . . . . . . . . . 9,approach . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 10,phase . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . . . . . . . . . 15,phase . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 17,runtime . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,3
+ref3,Modeling and Solving the Rooted Distance-Constrained Minimum Spanning Tree Problem,Computers and Operations Research,L. GOUVEIA,A. PAIAS,D.,35,2,600,613,2008
+ref4,A note on two problems in connexion with graphs,Numerische mathematik 1,E. DIJKSTRA,1,269,271,1959
+ref5,Network flows: theory, algorithms,R. AHUJA,T.,J.,1993
+ref6,+-Framework for Solving Delay-Constrained Tree Problems,RUTHMAIR,M. C+,2011
+ref7,Test instances for the RDCMSTP,M. RUTHMAIR,2011</t>
   </si>
   <si>
     <t>TUW-200948</t>
   </si>
   <si>
+    <t>ref1,Voting paradoxes and digraphs realizations,Advances in Applied Math,N Alon,29,126,135,2002,2002
+ref2,Algorithms with large domination ratio,J. Algorithms,N Alon,G Gutin,M Krivelevich,50,1,118,131,2004,2004
+ref3,Digraphs: Theory, Algorithms and Applications,Springer-Verlag,J Bang-Jensen,G Gutin,2,London,2009,2009
+ref4,Basic Linear Algebra,Springer,T S Blyth,E F Robertson,2000,2000
+ref5,Walsh subspaces of L p-product spaces,Seminar on Functional Analysis, 1979-1980 (French),Ecole Polytech.,J Bourgain,Palaiseau,Exp. No. 4A, 9,9,1980,1980
+ref6,Solving linear systems over GF(2): block Lanczos algorithm,Lin. Algebra Applic,D Coppersmith,192,33,60,1993,1993
+ref7,Parameterized Complexity,Springer,R G Downey,M R Fellows,1999,1999
+ref8,Parameterized Complexity Theory,Texts in Theoretical Computer Science. An EATCS Series,Springer Verlag,J Flum,M Grohe,XIV,2006,2006
+ref9,Ordinal Embedding Relaxations Parameterized Above Tight Lower BoundTech,Report arXiv:0907.5427,G Gutin,E J Kim,M Mnich,A Yeo
+ref10,The linear arrangement problem parameterized above guaranteed value,Theory Comput. Syst,G Gutin,A Rafiey,S Szeider,A Yeo,41,521,538,2007,2007
+ref11,Fixed-parameter complexity of minimum profile problems,Algorithmica,G Gutin,S Szeider,A Yeo,52,2,133,152,2008,2008
+ref12,On the advantage over a random assignment,Proceedings of the Thirty-Fourth Annual ACM Symposium on Theory of Computing,ACM,J Håstad,S Venkatesh,New York,Full version appeared in Random Structures
+Algorithms 25(2) (2004), pp. 117-149.,42,52,2002,2002
+ref13,Interval completion with few edges,STOC'07-Proceedings of the 39th Annual ACM Symposium on Theory of Computing,ACM,P Heggernes,C Paul,J A Telle,Y Villanger,Full version appeared in SIAM J. Comput. 38(5), 2008/09,374,381,2007,2007
+ref14,Parameterizing above guaranteed values: MaxSat and MaxCut,J. Algorithms,M Mahajan,V Raman,31,2,335,354,1999,1999
+ref15,Parameterizing above or below guaranteed values,J. of Computer and System Sciences,M Mahajan,V Raman,S Sikdar,75,2,137,153,2009,2009
+ref16,Invitation to Fixed-Parameter Algorithms,Oxford Lecture Series in Mathematics and its Applications,Oxford University Press,R Niedermeier,2006,2006
+ref17,Private communication,V Vovk,2009-08,2009,08</t>
+  </si>
+  <si>
+    <t>ref1,Voting paradoxes and digraphs realizations,N. Alon,29,135,2002
+ref2,Algorithms with large domination ratio,J. Algorithms,N. Alon,M. Krivelevich,118,1,131,2004
+ref3,London, 2nd edition,J. Bang-Jensen,G. Gutin,2009
+ref4,T. S. Blyth,E. F. Robertson,2000
+ref5,French),Ecole Polytech,J. Bourgain,Palaiseau,9,4A
+ref6,Solving linear systems over GF(2): block Lanczos algorithm,Lin. Algebra Applic.,D. Coppersmith,192,60,1993
+ref7,R. G. Downey and M. R. Fellows,1999
+ref8,Parameterized Complexity Theory, volume XIV of Texts in Theoretical Computer Science. An EATCS Series,J. Flum,M. Grohe,2006
+ref9,and,Tech. Report arXiv:0907,G. Gutin,E. J. Kim,M. Mnich,A. Yeo. Ordinal Embedding Relaxations Parameterized Above Tight Lower Bound,5427
+ref10,The linear arrangement problem parameterized above guaranteed value,Theory Comput. Syst.,A.,A. Yeo,41,538,2007
+ref11,Fixed-parameter complexity of minimum pro le problems,S. Szeider,A. Yeo,133,2,152,2008
+ref12,On the advantage over a random assignment,Random Structures Algorithms,J. Hastad,S. Venkatesh,117,2,149,2004
+ref13,Interval completion with few edges,SIAM J. Comput,P. Heggernes,C. Paul,J. A. Telle,Y. Villanger,38,5,381,2008
+ref14,Parameterizing above guaranteed values: MaxSat and MaxCut,M. Mahajan,V. Raman,335,2,354,1999
+ref15,Parameterizing above or below guaranteed values,J. of Computer and System Sciences,V. M. Mahajan,S. Raman,Sikdar,137,2,153,2009
+ref16,Algorithms. Oxford Lecture Series in Mathematics and its Applications,R. Niedermeier,2006
+ref17,August,V. Vovk,2009</t>
+  </si>
+  <si>
     <t>TUW-200950</t>
   </si>
   <si>
-    <t>[Al00]
-[ALS91]
-[BF05]
-[BFLRRW06]
-[BPT92]
-[CFRRRS07]
-[Cou90]
-[DF99]
-[ERT80]
-[FG06]
-[FGKPRWY07]
-[FHR07]
-[JS97]
-[JT95]
-[KPW03]
-[KTV98]
-[Ma04]
-[Mey73]
-[Nie06]
-[Th94]
-[Tu97]
-[Viz76]
-[Wo01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,[Al00],Restricted colorings of graphs,Surveys in Combinatorics,Cambridge Univ. Press,K. Walker,N Alon,187,London Math. Soc. Lecture Notes Series,1,33,1993,1993
+ref2,[ALS91],Easy problems for tree-decomposable graphs,J. Algorithms,S Arnborg,J Lagergren,D Seese,12,308,340,1991,1991
+ref3,[BF05],Equitable colorings of bounded treewidth graphs,Theoretical Computer Science,H L Bodlaender,F V Fomin,349,22,30,2005,2005
+ref4,[BFLRRW06],Quadratic kernelization for convex recoloring of trees,Proceedings COCOON,Springer-Verlag,H L Bodlaender,M Fellows,M Langston,M A Ragan,F Rosamond,M Weyer,Lecture Notes in Computer Science, to appear,2007,2007
+ref5,[BPT92],Automatic generation of linear-time algorithms from predicate calculus descriptions of problems on recursively generated graph families,Algorithmica,R B Borie,R G Parker,C A Tovey,7,555,581,1992,1992
+ref6,[CFRRRS07],Connected coloring completion for general graphs: algorithms and complexity,Proceedings COCOON,Springer-Verlag,B Chor,M Fellows,M A Ragan,I Razgon,F Rosamond,S Snir,Lecture Notes in Computer Science, to appear,2007,2007
+ref7,[Cou90],The monadic second-order logic of graphs I: Recognizable sets of finite graphs,Information and Computation,B Courcelle,85,12,75,1990,1990
+ref8,[DF99],Parameterized Complexity,Springer-Verlag,D G Downey,M R Fellows,1999,1999
+ref9,[ERT80],Choosability in graphs,Congressus Numerantium,P Erdös,A L Rubin,H Taylor,26,122,157,1980,1980
+ref10,[FG06],Parameterized Complexity Theory,Springer-Verlag,J Flum,M Grohe,2006,2006
+ref11,[FGKPRWY07],The lawnmower and other problems: applications of MSO logic in geometry,Manuscript,M Fellows,P Giannopoulos,C Knauer,C Paul,F Rosamond,S Whitesides,N Yu,2007,2007
+ref12,[FHR07],On the fixed-parameter intractability and tractability of multiple-interval graph properties,Manuscript,M Fellows,D Hermelin,F Rosamond,2007,2007
+ref13,[JS97],Generalized colorings for tree-like graphs,Discrete Applied Mathematics,K Jansen,P Scheffler,75,135,155,1997,1997
+ref14,[JT95],Graph Coloring Problems,Wiley Interscience,T R Jensen,B Toft,1995,1995
+ref15,[KPW03],A list analogue of equitable coloring,Journal of Graph Theory,A V Kostochka,M J Pelsmajer,D B West,44,166,177,2003,2003
+ref16,[KTV98],New trends in the theory of graph colorings: choosability and list coloring,Contemporary Trends in Discrete Mathematics (from DIMACS and DIMATIA to the future),AMS, Providence,R. Graham, et al.,J Kratochvil,Z Tuza,M Voigt,49,DIMACS Series in Discrete Mathematics and Theoretical Computer Science,183,197,1999,1999
+ref17,[Ma04],Graph coloring with local and global constraints,Ph.D. dissertation,Department of Computer Science and Information Theory, Budapest University of Technology and Economics,D Marx,2004,2004
+ref18,[Mey73],Equitable coloring,American Mathematical Monthly,W Mayer,80,920,922,1973,1973
+ref19,[Nie06],Invitation to Fixed Parameter Algorithms,Oxford University Press,R Niedermeier,2006,2006
+ref20,[Th94],Every planar graph is 5-choosable,J. Combinatorial Theory Ser. B,C Thomassen,62,180,181,1994,1994
+ref21,[Tu97],Graph colorings with local constraints — A survey,Discussiones Mathematicae – Graph Theory,Z Tuza,17,161,228,1997,1997
+ref22,[Viz76],Coloring the vertices of a graph in prescribed colors,Metody Diskret. Anal. v Teorii Kodov i Schem,V G Vizing,29,In. Russian,3,10,1976,1976
+ref23,[Wo01],List colourings of graphs,Surveys in Combinatorics,Cambridge Univ. Press,J. W. P. Hirschfeld,D R Woodall,288,London Math. Soc. Lecture Notes Series,269,301,2001,2001</t>
+  </si>
+  <si>
+    <t>ref1,Surveys in Combinatorics 1993 (K,London Math. Soc. Lecture Notes Series,N. Alon,187,1,33,1993
+ref2,Easy problems for tree-decomposable graphs,J. Algorithms,S. Arnborg,J. Lagergren,D. Seese,12,308,340,1991
+ref3,Equitable colorings of bounded treewidth graphs,Theoretical Computer Science,F. V. [BF05] H. L. Bodlaender,Fomin,349,22,30,2005
+ref4,Quadratic kernelization for convex recoloring of trees,Proceedings COCOON 2007, Springer-Verlag, Lecture Notes in Computer Science,M. [BFLRRW06] H. L. Bodlaender,M. Fellows,M. A. Langston,F. Ragan,M. Rosamond,Weyer,2007
+ref5,Automatic generation of linear-time algorithms from predicate calculus descriptions of problems on recursively generated graph families,Algorithmica,R. G. [BPT92] R. B. Borie,C. A. Parker,Tovey,7,555,581,1992
+ref6,Connected coloring completion for general graphs: algorithms and complexity,Proceedings COCOON 2007, Springer-Verlag, Lecture Notes in Computer Science,B. Chor,M. Fellows,M. A. Ragan,I. Razgon,F. Rosamond,S. Snir,2007
+ref7,The monadic second-order logic of graphs I: Recognizable sets of finite graphs,Information and Computation,B. Courcelle,85,12,75,1990
+ref8,R. G. Downey,M. R. Fellows,1999
+ref9,¨s,,Congressus Numerantium,P. Erdo,A. L. Rubin,H. Taylor,26,122,157,1980
+ref10,J. Flum,M. Grohe,2006
+ref11,The lawnmower and other problems: applications of MSO logic in geometry,Manuscript,P. [FGKPRWY07] M. Fellows,C. Giannopoulos,C. Knauer,F. Paul,S. Rosamond,N. Whitesides,Yu,2007
+ref12,On the fixed-parameter intractability and tractability of multiple-interval graph properties,Manuscript,D. [FHR07] M. Fellows,F. Hermelin,Rosamond,2007
+ref13,Generalized colorings for tree-like graphs,Discrete Applied Mathematics,K. Jansen,P. Scheffler,75,135,155,1997
+ref14,T. R. Jensen,B. Toft,1995
+ref15,A list analogue of equitable coloring,Journal of Graph Theory,A. V. Kostochka,M. J. Pelsmajer,D. B. West,44,166,177,2003
+ref16,Contemporary Trends in Discrete Mathematics (from DIMACS and DIMATIA to the future) (,DIMACS Series in Discrete Mathematics and Theoretical Computer Science,J. Kratochvil,Z. Tuza,M. Voigt,R. Graham,49,AMS,183,197,1999
+ref17,Graph coloring with local and global constraints,Ph.D. dissertation,D. Marx,2004
+ref18,American Mathematical Monthly,,80,920,922,1973
+ref19,Invitation to Fixed Parameter Algorithms,R. Niedermeier,2006
+ref20,Every planar graph is 5-choosable,J. Combinatorial Theory Ser. B,C. Thomassen,62,180,181,1994
+ref21,Graph colorings with local constraints - A survey,Discussiones Mathematicae - Graph Theory,Z. Tuza,17,161,228,1997
+ref22,Coloring the vertices of a graph in prescribed colors,Metody Diskret. Anal. v Teorii Kodov i Schem,V. G. Vizing.,29,3,10,1976
+ref23,List colourings of graphs, in: Surveys in Combinatorics 2001 (J,London Math. Soc. Lecture Notes Series,D. R. Woodall,288,269,301,2001</t>
   </si>
   <si>
     <t>TUW-200959</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,Directed tree-width examples,J. Combin. Theory Ser. B,I Adler,97,5,718,725,2007,2007
+ref2,Searching and sweeping graphs: A brief survey,COMBINATORICS,B Alspach,04,2004,2004
+ref3,Digraphs-Theory, Algorithms and Applications,Springer,J Bang-Jensen,G Gutin,2001,2001
+ref4,Directed path-width and monotonicity in digraph searching,Graphs Combin,J Barát,22,2,161,172,2006,2006
+ref5,DAG-width and parity games,STACS 2006, volume 3884 of Lecture Notes in Comput. Sci.,Springer,D Berwanger,A Dawar,P Hunter,S Kreutzer,Berlin,524,536,2006,2006
+ref6,Entanglement – A measure for the complexity of directed graphs with applications to logic and games,LPAR,D Berwanger,E Grädel,209,223,2004,2004
+ref7,Monotonicity in graph searching,Journal of Algorithms,D Bienstock,P Seymour,12,239,245,1991,1991
+ref8,Treewidth: Algorithmic techniques and results,MFCS'97,H L Bodlaender,1295,19,36,1997,1997
+ref9,A partial k-arboretum of graphs with bounded treewidth,Theoretical Computer Science,H L Bodlaender,209,1,45,1998,1998
+ref10,Fugitive-search games on graphs and related parameters,TCS,N D Dendris,L M Kirousis,D M Thilikos,172,12,233,254,1997,1997
+ref11,Graph theory,Graduate Texts in Mathematics,Springer-Verlag,R ,3,Berlin,173,2005,2005
+ref12,Graph searching, and a min-max theorem for tree-width,Journal of Combinatorial Theory, Series B,P D Seymour,R Thomas,58,22,33,1993,1993
+ref13,Sweeping Graphs and Digraphs,PhD thesis,Simon Fraser University,D Dyer,2004,2004
+ref14,On the monotonicity of games generated by symmetric submodular functions,Lecture Notes in Computer Science,F V Fomin,D M Thilikos,2204,177+,2001,2001
+ref15,Computers and Intractibility,W. H. Freeman and Company,M R Garey,D S Johnson,1979,1979
+ref16,Digraph measures: Kelly decompositions, games, and orderings,Proc. of the 18th ACM-SIAM Symp. on Discrete Algorithms (SODA),P Hunter,S Kreutzer,637,644,2007,2007
+ref17,Directed tree-width,J. Combin. Theory Ser. B,T Johnson,N Robertson,P D Seymour,R Thomas,82,1,138,154,2001,2001
+ref18,Directed tree-width,Journal of Combinatorial Theory, Series B,T Johnson,N Robertson,P D Seymour,R Thomas,82,1,138,154,2001,2001
+ref19,Complexity of Computer Science,Plenum Press,Rm M Karp,New York,1972,1972
+ref20,Recontamination does not help to search a graph,Journal of the ACM,A S Lapaugh,40,224,254,1993,1993
+ref21,Monotonicity property of non-deterministic graph searching,Proceedings of the 33rd International Workshop on Graph-Theoretic Concepts in Computer Science (WG 2007),F Mazoit,N Nisse,to appear,2007,2007
+ref22,An algorithm for finding a minimum equivalent graph of a digraph,J. ACM,D M Moyles,G L Thompson,16,3,455,460,1969,1969
+ref23,DAG-width: connectivity measure for directed graphs,Proceedings of the 17th Annual ACM-SIAM Symposium on Discrete Algorithms (SODA),J Obdržálek,814,821,2006,2006
+ref24,Introducing directed tree width,6th Twente Workshop on Graphs and Combinatorial Optimization (Enschede, 1999), volume 3 of Electron. Notes Discrete Math.,Elsevier,B Reed,Amsterdam,8,1999,1999
+ref25,d-width: a more natural measure for directed tree width,Mathematical foundations of computer science 2005, volume 3618 of Lecture Notes in Comput. Sci.,Springer,M A Safari,Berlin,745,756,2005,2005
+ref26,Having a grundy-numbering is np-complete,Technical report,Pennsylvania State University,J van Leeuwen,1976,1976
+ref27,Digraph strong searching: Monotonicity and complexity,AAIM,B Yang,Y Cao,37,46,2007,2007</t>
+  </si>
+  <si>
+    <t>ref1,is a circle and the robber is not able to reach a vertex Ap, Bp, Cp for p 6= j the two cops can push the robber to a Hi, where he can be captured as shown in case one,
+ref2,Directed tree-width examples,J. Combin. Theory Ser. B,I. Adler.,97,5,718,725,2007
+ref3,Searching and sweeping graphs: A brief survey,In COMBINATORICS 04,B. Alspach,2004
+ref4,J. Bang-Jensen,G. Gutin. Digraphs - Theory,2001
+ref5,´t. Directed path-width and monotonicity in digraph searching,J. Bara,22,2,161,172,2006
+ref6,DAG-width and parity games,In STACS 2006, volume 3884 of Lecture Notes in Comput. Sci.,D. Berwanger,A. Dawar,P. Hunter,S. Kreutzer,524,536,2006
+ref7,¨del. Entanglement - A measure for the complexity of directed graphs with applications to logic and games,In LPAR,D. Berwanger,E. Gra,209,223,2004
+ref8,Monotonicity in graph searching,Journal of Algorithms,D. Bienstock,P. Seymour,12,239,245,1991
+ref9,Algorithmic techniques and results,In MFCS'97,H. L. Bodlaender,1295,19,36,1997
+ref10,A partial k-arboretum of graphs with bounded treewidth,Theoretical Computer Science,H. L. Bodlaender,209,1,45,1998
+ref11,Fugitive-search games on graphs and related parameters,TCS,N. D. Dendris,L. M. Kirousis,D. M. Thilikos,172,1-2,233,254,1997
+ref12,Graph theory,R. Diestel,173,2005
+ref13,Graph searching, and a min-max theorem for tree-width,Journal of Combinatorial Theory,P. D. Seymour,R. Thomas,B Series,58,22,33,1993
+ref14,Sweeping Graphs and Digraphs,PhD thesis,D. Dyer,2004
+ref15,On the monotonicity of games generated by symmetric submodular functions,Lecture Notes in Computer Science,F. V. Fomin,D. M. Thilikos,2204,177,2001
+ref16,M. R. Garey,D. S. Johnson,Intractibility. W. H. Freeman,1979
+ref17,Digraph measures: Kelly decompositions, games, and orderings,In Proc. of the 18th ACM-SIAM Symp. on Discrete Algorithms (SODA),P. Hunter,S. Kreutzer,637,644,2007
+ref18,Directed tree-width,J. Combin. Theory Ser. B,T. Johnson,P. D. Seymour,R. Thomas,82,1,138,154,2001
+ref19,Directed tree-width,Journal of Combinatorial Theory,T. Johnson,P. D. Seymour,R. Thomas,B Series,82,1,138,154,2001
+ref20,M. Rm,Karp,1972
+ref21,Recontamination does not help to search a graph,Journal of the ACM,A. S. LaPaugh,40,224,254,1993
+ref22,Monotonicity property of non-deterministic graph searching,In In Proceedings of the 33rd International Workshop on Graph-Theoretic Concepts in Computer Science (WG,F. Mazoit,N. Nisse,2007
+ref23,An algorithm for finding a minimum equivalent graph of a digraph,J. ACM,D. M. Moyles,G. L. Thompson,16,3,455,460,1969
+ref24,˘a´lek. DAG-width: connectivity measure for directed graphs,In Proceedings of the 17th Annual ACM-SIAM Symposium on Discrete Algorithms (SODA),J. Obdrz,814,821,2006
+ref25,(electronic),Elsevier,B. Reed,3,1999
+ref26,-width: a more natural measure for directed tree width,of Lecture Notes in Comput. Sci.,M. A. Safari.,3618,745,756,2005
+ref27,a grundy-numbering is np-complete,Technical report,J. van Leeuwen. Having,1976</t>
   </si>
   <si>
     <t>TUW-201066</t>
   </si>
   <si>
+    <t>ref1,Modeling and solving the rooted distanceconstrained minimum spanning tree problem,Computers and Operations Research,L Gouveia,A Paias,D Sharma,35,2,600,613,2008,2008
+ref2,A Kruskal-Based Heuristic for the Rooted DelayConstrained Minimum Spanning Tree Problem,EUROCAST 2009,Springer,Moreno-Díaz, R., Pichler, F., Quesada-Arencibia, A.,M Ruthmair,G R Raidl,LNCS, vol. 5717,713,720,2009,2009
+ref3,The delay-constrained minimum spanning tree problem,Proceedings of the 2nd IEEE Symposium on Computers and Communications – ISCC '97,Blum, C., Roli, A., Sampels, M.,H F Salama,D S Reeves,Y Viniotis,699,703,1997,1997
+ref4,Multilevel refinement for combinatorial optimisation problems,Annals of Operations Research,C Walshaw,131,1,325,372,2004,2004</t>
+  </si>
+  <si>
+    <t>ref1,Modeling and solving the rooted distanceconstrained minimum spanning tree problem,Computers and Operations Research,L. Gouveia,A. Paias,D. Sharma,35,2,600,613,2008
+ref2,LNCS,M. Ruthmair,G.R.: Raidl,Moreno-D´,F. Pichler,A Quesada-Arencibia,5717,713,720,2009
+ref3,The delay-constrained minimum spanning tree problem,Proceedings of the 2nd IEEE Symposium on Computers and Communications - ISCC '97,H.F. Salama,D.S. Reeves,Y. Viniotis,C. Roli,A. Sampels,699,703,1997
+ref4,Multilevel refinement for combinatorial optimisation problems,Annals of Operations Research,C. Walshaw,131,1,325,372,2004</t>
+  </si>
+  <si>
     <t>TUW-201160</t>
   </si>
   <si>
+    <t>ref1,Combining Lagrangian decomposition with very large scale neighborhoood search for capacitated connected facility location,PostConference Book of the Eight Metaheuristics International Conference – MIC 2009,M Leitner,G R Raidl,to appear
+ref2,Branch-and-cut-and-price for capacitated connected facility location,Technical Report TR 186–1–10–01,Vienna University of Technology,M Leitner,G R Raidl,Vienna, Austria,2010,2010
+ref3,Dynamic programming and strong bounds for the 0–1 knapsack problem,Management Science,S Martello,D Pisinger,P Toth,45,3,414,424,1999,1999
+ref4,Variable neighborhood search: Principles and applications,European Journal of Operational Research,P Hansen,N Mladenović,130,3,449,467,2001,2001
+ref5,Steiner's problem in graphs: heuristic methods,Discrete Applied Mathematics,S Voß,40,45,72,1992,1992
+ref6,Scatter search for the single source capacitated facility location problem,Annals of Operations Research,I A Contreras,J A Diaz,157,1,73,89,2008,2008
+ref7,Greedy randomized adaptive search procedures,Journal of Global Optimization,T Feo,M Resende,6,2,109,133,1995,1995</t>
+  </si>
+  <si>
+    <t>ref1,(to appear),M. Leitner,G.R. Raidl,2009
+ref2,Branch-and-cut-and-price for capacitated connected facility location,Technical Report TR 186-1-10-01,M. Leitner,G.R. Raidl,2010
+ref3,Dynamic programming and strong bounds for the 0-1 knapsack problem,Management Science,S. Martello,D. Pisinger,P. Toth,45,3,414,424,1999
+ref4,Variable neighborhood search: Principles and applications,European Journal of Operational Research,P. Hansen,130,3,449,467,2001
+ref5,Steiner's problem in graphs: heuristic methods,Discrete Applied Mathematics,S. Voß,40,45,72,1992
+ref6,Scatter search for the single source capacitated facility location problem,Annals of Operations Research,I.A. Contreras,J.A. Diaz,157,1,73,89,2008
+ref7,Greedy randomized adaptive search procedures,Journal of Global Optimization,T. Feo,M. Resende,6,2,109,133,1995</t>
+  </si>
+  <si>
     <t>TUW-201167</t>
   </si>
   <si>
+    <t>ref1,Modeling and Solving the Rooted DistanceConstrained Minimum Spanning Tree Problem,Computers and Operations Research,L Gouveia,A Paias,D Sharma,35,2,600,613,2008,2008
+ref2,Improving Performances of the Genetic Algorithm by Caching,Computers and Artificial Intelligence,J Kratica,18,3,271,283,1999,1999
+ref3,Enhancing Genetic Algorithms by a Trie-Based Complete Solution Archive,Evolutionary Computation in Combinatorial Optimisation { EvoCOP 2010. LNCS, vol. 6022,Springer,Cowling, P., Merz, P.,G R Raidl,B Hu,239,251,2010,2010
+ref4,A Kruskal-Based Heuristic for the Rooted DelayConstrained Minimum Spanning Tree Problem,EUROCAST 2009. LNCS, vol. 5717,Springer,Moreno-Díaz, R., Pichler, F., Quesada-Arencibia, A.,M Ruthmair,G R Raidl,713,720,2009,2009
+ref5,Variable Neighborhood Search and Ant Colony Optimization for the Rooted Delay-Constrained Minimum Spanning Tree Problem,PPSN XI, Part II. LNCS, vol. 6239,,Springer,et al., R.S.,M Ruthmair,G R Raidl,391,400,2010,2010
+ref6,The Delay-Constrained Minimum Spanning Tree Problem,Proceedings of the 2nd IEEE Symposium on Computers and Communications,Blum, C., Roli, A., Sampels, M.,H F Salama,D S Reeves,Y Viniotis,699,703,1997,1997</t>
+  </si>
+  <si>
+    <t>ref1,Modeling and Solving the Rooted DistanceConstrained Minimum Spanning Tree Problem,Computers and Operations Research,L. Gouveia,A. Paias,D. Sharma,600,2,613,2008
+ref2,Improving Performances of the Genetic Algorithm by Caching,Computers and Arti cial Intelligence,Kratica,271,3,283,1999
+ref3,EvoCOP 2010,G.R. Raidl,B. Hu,P. Merz,239,251,2010
+ref4,LNCS,M. Ruthmair,G.R.: Raidl,Moreno-D az,F. Pichler,A Quesada-Arencibia,713,720,2009
+ref5,Variable Neighborhood Search and Ant Colony Optimization for the Rooted Delay-Constrained Minimum Spanning Tree Problem,M. Ruthmair,G.R. Raidl,R.S PPSN,XI Part,II,391,400,2010
+ref6,The Delay-Constrained Minimum Spanning Tree Problem,Proceedings of the 2nd IEEE Symposium on Computers and Communications,H.F. Salama,D.S. Reeves,Y. Viniotis,C. Roli,A. Sampels,699,703,1997</t>
+  </si>
+  <si>
     <t>TUW-201821</t>
   </si>
   <si>
-    <t>j
-m
-m
-m
-m
-j
-m
-j
-m
-j
-j
-m
-j
-m
-j
-m
-j
-m
-j
-j
-j
-m
-m
-m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,MWeb: A principled framework for modular web rule bases and its semantics,ACM Trans. Comput. Logic,A Analyti,G Antoniou,C V Damasio,12,2,2011,2011,j
+ref2,Logic programs with consistency-restoring rules,International Symposium on Logical Formalization of Commonsense Reasoning, AAAI 2003 Spring Symposium Series,M Balduccini,M Gelfond,9,18,2003,2003,m
+ref3,Bridging possibilistic conditional knowledge bases and partially ordered bases,JELIA,S Benferhat,S Lagrue,S Yahi,38,50,2010,2010,m
+ref4,Contextual argumentation in ambient intelligence,LPNMR,A Bikakis,G Antoniou,30,43,2009,2009,m
+ref5,Alternative strategies for conflict resolution in multi-context systems,AIAI,A Bikakis,G Antoniou,P Hassapis,31,40,2009,2009,m
+ref6,Data fusion,ACM Comput. Surv,J Bleiholder,F Naumann,41,1,1,41,2008,2008,j
+ref7,Equilibria in heterogeneous nonmonotonic multi-context systems,AAAI,G Brewka,T Eiter,385,390,2007,2007,m
+ref8,Managed multi-context systems,IJCAI,G Brewka,T Eiter,M Fink,A Weinzierl,to appear,2011,2011,j
+ref9,Contextual default reasoning,IJCAI,G Brewka,F Roelofsen,L Serafini,268,273,2007,2007,m
+ref10,Inconsistency tolerance in p2p data integration: An epistemic logic approach,Inf. Syst,D Calvanese,G D Giacomo,D Lembo,M Lenzerini,R Rosati,33,4-5,360,384,2008,2008,j
+ref11,Ultimate approximation and its application in nonmonotonic knowledge representation systems,Inf. Comput,M Denecker,V W Marek,M Truszczynski,192,1,84,121,2004,2004,j
+ref12,Finding explanations of inconsistency in multi-context systems,KR,T Eiter,M Fink,P Schüller,A Weinzierl,2010,2010,m
+ref13,Preference-based inconsistency assessment in multi-context systems,JELIA,T Eiter,M Fink,A Weinzierl,143,155,2010,2010,j
+ref14,Relational information exchange and aggregation in multi-context systems,LPNMR,M Fink,L Ghionna,A Weinzierl,120,133,2011,2011,m
+ref15,Classical negation in logic programs and disjunctive databases,New Generation Comput,M Gelfond,V Lifschitz,9,3/4,365,386,1991,1991,j
+ref16,Abstract contextual reasoning,F Giunchiglia,1993,1993,m
+ref17,Multilanguage hierarchical logics or: How we can do without modal logics,Artif. Intell,F Giunchiglia,L Serafini,65,1,29,70,1994,1994,j
+ref18,Focusing on probable diagnoses,AAAI,J de Kleer,842,848,1991,1991,m
+ref19,Notes on formalizing context,IJCAI,J McCarthy,555,562,1993,1993,j
+ref20,A theory of diagnosis from first principles,Artif. Intell,R Reiter,32,1,57,95,1987,1987,j
+ref21,Minimal and absent information in contexts,IJCAI,F Roelofsen,L Serafini,558,563,2005,2005,j
+ref22,Minimality and non-determinism in multi-context systems,CONTEXT,F Roelofsen,L Serafini,424,435,2005,2005,m
+ref23,Semantic reasoning with sparql in heterogeneous multicontext systems,Semantic Search over the Web,P Schüller,A Weinzierl,to appear,2011,2011,m
+ref24,Local relational model: A logical formalization of database coordination,CONTEXT,L Serafini,F Giunchiglia,J Mylopoulos,P Bernstein,286,299,2003,2003,m</t>
+  </si>
+  <si>
+    <t>ref1,MWeb: A principled framework for modular web rule bases and its semantics,ACM Trans. Comput. Logic,A. Analyti,G. Antoniou,C.V. Damasio,12,2,2011
+ref2,Logic programs with consistency-restoring rules,In: International Symposium on Logical Formalization of Commonsense Reasoning,M. Balduccini,M. Gelfond,9,18,2003
+ref3,Bridging possibilistic conditional knowledge bases and partially ordered bases,In: JELIA,S. Benferhat,S. Lagrue,S. Yahi,38,50,2010
+ref4,Contextual argumentation in ambient intelligence,In: LPNMR,A. Bikakis,Antoniou,30,43,2009
+ref5,Alternative strategies for conflict resolution in multi-context systems,In: AIAI,A. Bikakis,G. Antoniou,P. Hassapis,31,40,2009
+ref6,Data fusion,ACM Comput. Surv,J. Bleiholder,F. Naumann,41,1,1,41,2008
+ref7,Equilibria in heterogeneous nonmonotonic multi-context systems,In: AAAI,G. Brewka,T. Eiter,385,390,2007
+ref8,Managed multi-context systems,In: IJCAI,G. Brewka,T. Eiter,M. Fink,A. Weinzierl,2011
+ref9,Contextual default reasoning,In: IJCAI,G. Brewka,F. Roelofsen,L. Serafini,268,273,2007
+ref10,Inconsistency tolerance in p2p data integration: An epistemic logic approach,Inf. Syst,D. Calvanese,G.D. Giacomo,D. Lembo,M. Lenzerini,Rosati,33,4-5,360,384,2008
+ref11,Ultimate approximation and its application in nonmonotonic knowledge representation systems,Inf. Comput,M. Denecker,V.W. Marek,M. Truszczynski,192,1,84,121,2004
+ref12,Finding explanations of inconsistency in multi-context systems,In: KR,T. Eiter,M. Fink,P. Weinzierl,A.,2010
+ref13,Preference-based inconsistency assessment in multi-context systems,In: JELIA,T. Eiter,M. Fink,A. Weinzierl,143,155,2010
+ref14,Relational information exchange and aggregation in multi-context systems,In: LPNMR,M. Fink,L. Ghionna,A. Weinzierl,120,133,2011
+ref15,Classical negation in logic programs,New Generation Comput,M. Gelfond,V. Lifschitz,9,3,365,386,1991
+ref16,Abstract contextual reasoning (,F. Giunchiglia,1993
+ref17,Multilanguage hierarchical logics or: How we can do without modal logics,Artif. Intell,F. Giunchiglia,L. Serafini,65,1,29,70,1994
+ref18,Focusing on probable diagnoses,In: AAAI,J.:,842,848,1991
+ref19,Notes on formalizing context,In: IJCAI,J.: McCarthy,555,562,1993
+ref20,A theory of diagnosis from first principles,Artif. Intell,Reiter,32,1,57,95,1987
+ref21,Minimal and absent information in contexts,In: IJCAI,F. Roelofsen,L. Serafini,558,563,2005
+ref22,Minimality and non-determinism in multi-context systems,In: CONTEXT,F. Roelofsen,L. Serafini,424,435,2005
+ref23,Semantic reasoning with sparql in heterogeneous multicontext systems,In: Semantic Search over the Web,P. Weinzierl,A.,2011
+ref24,Local relational model: A logical formalization of database coordination,In: CONTEXT,L. Serafini,F. Giunchiglia,J. Mylopoulos,P. Bernstein,286,299,2003</t>
   </si>
   <si>
     <t>TUW-202034</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,The multi-level network design problem,Working papers 3366-91,Massachusetts Institute of Technology (MIT), Sloan School of Management,A Balakrishnan,T L Magnanti,P Mirchandani,1991,1991
+ref2,Programming pearls: a sample of brilliance,Communications ACM,J Bentley,B Floyd,30,754,757,1987,1987
+ref3,Optimization over Integers,Dynamic Ideas,D Bertsimas,R Weismantel,1,2005,2005
+ref4,A faster algorithm for betweenness centrality,Journal of Mathematical Sociology,U Brandes,25,163,177,2001,2001
+ref5,The hierarchical network design problem,European Journal of Operational Research,J R Current,C S ReVelle,J L Cohon,27,1,57,66,1986,1986
+ref6,Networks, Crowds, and Markets: Reasoning About a Highly Connected World,Cambridge University Press,D Easley,J Kleinberg,2010,2010
+ref7,Development of sampling plans by using sequential (item by item) selection techniques and digital computers,Journal of the American Statistical Association,C T Fan,M E Muller,I Rezucha,57,387,402,1962,1962
+ref8,Design of Survivable Networks with Bounded Rings,PhD thesis,Universite libre de Bruxelles,B Fortz,2000,2000
+ref9,Community structure in social and biological networks,Proceedings of the National Academy of Science,M Girvan,M E J Newman,99,7821,7826,2002,2002
+ref10,A note on sampling a tape-file,Communications ACM,T G Jones,5,343,1962,1962
+ref11,An Efficient Heuristic Procedure for Partitioning Graphs,The Bell system technical journal,B W Kernighan,S Lin,49,1,291,307,1970,1970
+ref12,Hub location in backbone/tributary network design: a review,Location Science,J G Klincewicz,6,1-4,307,335,1998,1998
+ref13,Locating a cycle in a transportation or a telecommunications network,Networks,G Laporte,I R Martín,50,92,108,2007,2007
+ref14,The Traveling Salesman Problem: A Guided Tour of Combinatorial Optimization,Wiley,E L Lawler,J K Lenstra,A H G R Kan,D B Shmoys,New York,1985,1985
+ref15,A design of the minimum cost ring-chain network with dualhoming survivability: A tabu search approach,Computers &amp; Operations Research,C Y Lee,S J Koh,24,9,883,897,1997,1997
+ref16,An effective heuristic algorithm for the travelling-salesman problem,Operations Research,S Lin,B W Kernighan,21,498,516,1973,1973
+ref17,Fast k-means algorithm clustering,CoRR, abs/1108.1351,R Salman,V Kecman,Q Li,R Strack,E Test,2011,2011
+ref18,Hierarchical Network Design,PhD thesis,Technical University of Denmark,T Thomadsen,2005,2005
+ref19,An efficient algorithm for sequential random sampling,ACM Transactions Mathematical Software,ACM,J S Vitter,New York, NY, USA,13,58,67,1987,1987
+ref20,Multilevel refinement for combinatorial optimisation problems,Annals of Operations Research,C Walshaw,131,325,372,2004,2004
+ref21,Overlapping community detection in networks: the state of the art and comparative study,CoRR, abs/1110.5813,J Xie,S Kelley,B K Szymanski,2011,2011</t>
+  </si>
+  <si>
+    <t>ref1,-rsp7835e12b it,-rsp918243p0 0 5 0 5,t.,t.,t.,t.
+ref2,Locating a cycle in a transportation or a telecommunications network,Networks,G. Laporte,I. R. Martín,50,92,108,2007
+ref3,The Traveling Salesman Problem: A Guided Tour of Combinatorial Optimization,E. L. Lawler,J. K. Lenstra,A. H. G. R. Kan,D. B. Shmoys,1985
+ref4,A design of the minimum cost ring-chain network with dualhoming survivability: A tabu search approach,Computers &amp; Operations Research,C. Y. Lee,S. J. Koh,24,9,883,897,1997
+ref5,An effective heuristic algorithm for the travelling-salesman problem,Operations Research,S. Lin,B. W. Kernighan,21,498,516,1973
+ref6,Fast k-means algorithm clustering,CoRR, abs/1108.1351,R. Salman,V. Kecman,Q. Li,R. Strack,E. Test,2011
+ref7,PhD thesis,T. Thomadsen,2005
+ref8,An efficient algorithm for sequential random sampling,In ACM Transactions Mathematical Software,J. S. Vitter,13,58,67,1987
+ref9,Multilevel refinement for combinatorial optimisation problems,Annals of Operations Research,C. Walshaw,131,325,372,2004</t>
   </si>
   <si>
     <t>TUW-202824</t>
   </si>
   <si>
+    <t>ref1,The Case for Cloud Computing,IT-Professional,R L Grossman,Case,Cloud,11,2,23,27,2009,2009
+ref2,The Cloudy Future of Government IT: Cloud Computing and the Public Sector Around the World,International Journal of Web &amp; Semantic Technology,D C Wyld,1,1,2010,2010
+ref3,E-Governance challenges and cloud benefits,Proceedings of the IEEE International Conference on Computer Science and Automation Engineering (CSAE),A Tripathi,B Parihar,2011,2011
+ref4,State of Public Sector Cloud Computing,Washington, D.C.: CIO Council,V Kundra,2010-05-20,2010,5,20</t>
+  </si>
+  <si>
     <t>TUW-203409</t>
   </si>
   <si>
@@ -803,613 +2314,1089 @@
     <t>TUW-203924</t>
   </si>
   <si>
+    <t>ref1,Genetic diversity and new therapeutic concepts,Journal of Human Genetics,B S Shastry,50,321,328,2005,2005
+ref2,Pharmacogenomic Biomarker Information in Drug Labels Approved by the United States Food and Drug Administration: Prevalence of Related Drug Use,Pharmacotherapy,F W Frueh,S Amur,P Mummaneni,R S Epstein,R E Aubert,T M DeLuca,R R Verbrugge,G J Burckart,L J Lesko,28,992,998,2008,2008
+ref3,Semantic Web Health Care and Life Sciences (HCLS) Interest Group,,http://www.w3.org/2001/sw/hcls/
+ref4,World Wide Web Consortium (W3C),,http://www.w3.org/
+ref5,OWL Web Ontology Language Overview,,http://www.w3.org/TR/owl-features/
+ref6,The pharmacogenetics and pharmacogenomics knowledge base: accentuating the knowledge,Nucleic Acids Research,T Hernandez-Boussard,M Whirl-Carrillo,J M Hebert,L Gong,R Owen,M Gong,W Gor,F Liu,C Truong,R Whaley,M Woon,T Zhou,R B Altman,T E Klein,36,D913,D918,2008-01,2008,1
+ref7,DrugBank and its relevance to pharmacogenomics,Pharmacogenomics,D S Wishart,9,1155,1162,2008-08,2008,8
+ref8,OMIM Home,http://www.ncbi.nlm.nih.gov/omim
+ref9,dbSNP Home Page,http://www.ncbi.nlm.nih.gov/projects/SNP/
+ref10,SNPedia,http://www.SNPedia.com/
+ref11,Using text to build semantic networks for pharmacogenomics,Journal of Biomedical Informatics,A Coulet,N H Shah,Y Garten,M Musen,R B Altman,43,1009,1019,2010-12,2010,12
+ref12,Horizon scanning for new genomic tests,Genetics in Medicine: Official Journal of the American College of Medical Genetics,M Gwinn,D A Grossniklaus,W Yu,S Melillo,A Wulf,J Flome,W D Dotson,M J Khoury,2011-01,2011,1
+ref13,The Evaluation of Genomic Applications in Practice and Prevention (EGAPP) initiative: methods of the EGAPP Working Group,S M Teutsch,L A Bradley,G E Palomaki,J E Haddow,M Piper,N Calonge,W D Dotson,M P Douglas,A O Berg,11,3,14,2009-01,2009,1
+ref14,The Translational Medicine Ontology: Driving personalized medicine by bridging the gap from bedside to bench,Proceedings of the 13th Annual Bio-Ontologies Meeting,M Dumontier,B Andersson,C Batchelor,C Denney,C Domarew,A Jentzsch,J Luciano,E Pichler,E Prud&amp;apos;hommeaux,P L Whetzel,O Bodenreider,T Clark,L Harland,V Kashyap,P Kos,J Kozlovsky,J McGurk,C Ogbuji,M Samwald,L Schriml,P J Tonellato,J Zhao,S Stephens,2010,2010
+ref15,Suggested Ontology for Pharmacogenomics (SO-Pharm): Modular Construction and Preliminary Testing,A Coulet,M Smaïl-Tabbone,A Napoli,M.-D Devignes,2006,2006
+ref16,The Sequence Ontology: a tool for the unification of genome annotations,Genome Biology,K Eilbeck,S E Lewis,C J Mungall,M Yandell,L Stein,R Durbin,M Ashburner,6,R44,2005,2005
+ref17,Health Level Seven International-Homepage,,http://www.hl7.org/
+ref18,Feasibility of incorporating genomic knowledge into electronic medical records for pharmacogenomic clinical decision support,C L Overby,P Tarczy-Hornoch,J I Hoath,I J Kalet,D L Veenstra,11,S10,S10
+ref19,Arden Syntax,,http://www.hl7.org/implement/standards/ardensyntax.cfm
+ref20,Fuzzy Arden Syntax: A fuzzy programming language for medicine,Artificial Intelligence in Medicine,T Vetterlein,H Mandl,K.-P Adlassnig,49,1,10,2010-05,2010,5
+ref21,Pronto-A Probabilistic Reasoner for OWL DL and,,http://pellet.owldl.com/pronto
+ref22,Improving clinical practice using clinical decision support systems: a systematic review of trials to identify features critical to success,BMJ,K Kawamoto,330,765,0,2005,2005</t>
+  </si>
+  <si>
+    <t>ref1,Genetic diversity and new therapeutic concepts“,Journal of Human Genetics,B.S. Shastry,50,321,328,2005
+ref2,Pharmacogenomic Biomarker Information in Drug Labels Approved by the United States Food and Drug Administration: Prevalence of Related Drug Use“,Pharmacotherapy,F.W. Frueh,S. Amur,P. Mummaneni,R.S. Epstein,R.E. Aubert,R.R. T.M. DeLuca,G.J. Verbrugge,L.J. Burckart,Lesko,28,992,998,2008
+ref3,[3] „Semantic Web Health Care and Life Sciences (HCLS,
+ref4,,W3C
+ref5,„OWL Web Ontology Language Overview
+ref6,D913-D918.,Nucleic Acids Research,T. Hernandez-Boussard,M. Whirl-Carrillo,J.M. Hebert,L. Gong,R. Owen,M. Gong,W. Gor,F. Liu,C. Truong,R. Whaley,M. Woon,T. Zhou,Jan,S.,36,2008
+ref7,DrugBank and its relevance to pharmacogenomics“,Pharmacogenomics,D.S. Wishart,Aug,9,1155,1162,2008
+ref8,
+ref9,
+ref10,
+ref11,Using text to build semantic networks for pharmacogenomics“,Journal of Biomedical Informatics,A. Coulet,N.H. Shah,Y. Garten,Altman,Dez,43,1009,1019,2010
+ref12,Horizon scanning for new genomic tests“, Genetics in Medicine: Official Journal of the American College of Medical Genetics,M. Gwinn,D.A. Grossniklaus,W. Yu,S. Melillo,A. Wulf,J. Flome,und M.J. Khoury,2011
+ref13,The Evaluation of Genomic Applications in Practice and Prevention (EGAPP) initiative: methods of the EGAPP Working Group“,S.M. Teutsch,L.A. Bradley,G.E. Palomaki,J.E. Haddow,M. Piper,N. Calonge,W.D. Dotson,M.P. Douglas,A.O. Berg,Jan,11,3,14,2009
+ref14,The Translational Medicine Ontology: Driving personalized medicine by bridging the gap from bedside to bench“,Proceedings of the 13th Annual Bio-Ontologies Meeting,M. Dumontier,B. Andersson,C. Batchelor,C. Denney,C. Domarew,A. Jentzsch,J. Luciano,E. Pichler,P.L. Whetzel,O. Bodenreider,T. Clark,L. Harland,V. Kashyap,P. Kos,J. Kozlovsky,J. McGurk,C. Ogbuji,M. Samwald,L. Schriml,P.J. Tonellato,J,2010
+ref15,Suggested Ontology for Pharmacogenomics (SO-Pharm): Modular Construction,A. Coulet,M. Smaïl-Tabbone,A,D. Devignes,2006
+ref16,Ashburner, „The Sequence Ontology: a tool for the unification of genome annotations“,Genome Biology,K. Eilbeck,S.E. Lewis,C.J. Mungall,M. Yandell,L. Stein,S.,6,R44
+ref17,
+ref18,S10-S10.,C.L. Overby,P. Tarczy-Hornoch,J.I. Hoath,I.J. Kalet,und D.L. Veenstra,S.,11
+ref19,
+ref20,Fuzzy Arden Syntax: A fuzzy programming language for medicine“,Artificial Intelligence in Medicine,T. Vetterlein,und K,Mai,49,1,10,2010
+ref21,Pronto-A Probabilistic Reasoner for OWL DL and Pellet,
+ref22,Improving clinical practice using clinical decision support systems: a systematic review of trials to identify features critical to success“,BMJ,K. Kawamoto,330,765,0,2005</t>
+  </si>
+  <si>
     <t>TUW-204724</t>
   </si>
   <si>
-    <t>(Król, Ludwiczyński, 2007)
-(Barthelme, Ermine, Rosenthal-Sabroux, 1998)
-(Basu, 1998)
-(Carayannis, 1998)
-(Drew, 1999)
-(Chen, Liang, 1999)
-(Senn, 1990)
-(Chrisman, Chua, Zahra, 2003)
-(McGrath, MacMillan, 2000)
-(Sirmon, Hitt, 2003)
-(Berio, Harzallah, 2005)
-(Patalas-Maliszewska, Republic, 2009)</t>
+    <t>ref1,(Król, Ludwiczyński, 2007),Human Resource Management,PWN,H. Król,A. Ludwiczyński,Warszawa,(in polish),2007
+ref2,(Barthelme, Ermine, Rosenthal-Sabroux, 1998),An architecture for knowledge evolution in organisations,European Journal of Operational Research,F. Barthelme,J. L Ermine,C Rosenthal-Sabroux,1998
+ref3,(Basu, 1998),Perspectives on operations research in data and knowledge management,European Journal of Operational Research,A. Basu,1998
+ref4,(Carayannis, 1998),The strategic management of technological learning in project/program management: the role of extranets, intranets and intelligent agents in knowledge generation, diffusion, and leveraging,Technovation,Elsevier,E. G. Carayannis,18,11,697,703,1998
+ref5,(Drew, 1999),Building knowledge management into strategy. Making sense of a new perspective,Long Range Plan,S. Drew,1999
+ref6,(Chen, Liang, 1999),Design and implementation of a collaborative engineering information system for allied concurrent engineering,Int J Comput Integrated Manuf,YM Chen,MW Liang,1999
+ref7,(Senn, 1990),Information Systems in Management,J. A Senn,Wadsworth CA,1990
+ref8,(Chrisman, Chua, Zahra, 2003),Creating wealth in family firms through managing resources: Comments and extensions,Entrepreneurship Theory and Practice,J. J. Chrisman,J. H. Chua,S. A. Zahra,27,4,359,365,2003
+ref9,(McGrath, MacMillan, 2000),The entrepreneurial mindset,Harvard Business School Press,R. McGrath,MacMillan,Boston,2000
+ref10,(Sirmon, Hitt, 2003),A. Managing resources: linking unique resources, management and wealth creation in family firms,Entrepreneurship Theory and Practice,D. G. Sirmon,M. A Hitt,27,4,339,358,2003
+ref11,(Berio, Harzallah, 2005),Knowledge management for competence management,Journal of Universal Knowledge Management,G. Berio,M Harzallah,0,1,21,38,2005
+ref12,(Patalas-Maliszewska, Republic, 2009),The concept of system supporting decision making enabling to asses and forecast of knowledge in SMEs - research results,Applied Computer Science,J Patalas-Maliszewska,Zilina, Slovak Republic,2009</t>
+  </si>
+  <si>
+    <t>ref1,Ludwiczyński A. Human Resource Management,H. Król,PWN,2007
+ref2,An architecture for knowledge evolution in organisations,European Journal of Operational Research,F. Barthelme,J. L Ermine,C Rosenthal-Sabroux,1998
+ref3,Perspectives on operations research in data and knowledge management,European Journal of Operational Research,A.. Basu,1998
+ref4,The strategic management of technological learning in project/program management: the role of extranets, intranets and intelligent agents in knowledge generation, diffusion, and leveraging,Technovation,E. G. Carayannis,Elsevier,11,697,703,1998
+ref5,Building knowledge management into strategy. Making sense of a new perspective,Long Range Plan,S. Drew,1999
+ref6,Design and implementation of a collaborative engineering information system for allied concurrent engineering,Int J Comput Integrated Manuf,YM Chen,MW Liang,1999
+ref7,J.A Senn,1990
+ref8,Creating wealth in family firms through managing resources: Comments and extensions,Entrepreneurship Theory and Practice,J. J. Chrisman,J. H. Chua,S. A. Zahra,27,4,359,365,2003
+ref9,The entrepreneurial mindset,R. McGrath,I.,2000
+ref10,A. Managing resources: linking unique resources, management and wealth creation in family firms,Entrepreneurship Theory and Practice,D.G. Sirmon,339,4,358,2003
+ref11,Knowledge management for competence management,Journal of Universal Knowledge Management,G. Berio,M. Harzallah,0,1,21,38,2005
+ref12,The concept of system supporting decision making enabling to asses and forecast of knowledge in SMEs - research results,J Patalas-Maliszewska,Slovak Republic,2009
+ref13,Acknowledgement: The research leading to these results has received funding from the European Community's, Seventh Framework Programme [FP7/2007-2013; FP7-PEOPLE-IEF2008], under grant agreement n°[ 235585] “SKnowInn ov”,</t>
   </si>
   <si>
     <t>TUW-205557</t>
   </si>
   <si>
-    <t>m
-m</t>
+    <t>ref1,An Evaluation of WCET Analysis using Symbolic Loop Bounds,Pre-Proceedings of the 11th International Workshop on Worst-Case Execution Time Analysis (WCET 2011),J. Knoop,L. Kovacs,J. Zwirchmayr,Porto, Portugal,2011,2011,m
+ref2,Symbolic Loop Bound Computation for WCET Analysis,Proceedings of the 8th International Andrei Ershov Memorial ConferencePerspectives of System Informatics (PSI 2011),J. Knoop,L. Kovacs,J. Zwirchmayr,Akademgorodok/Novosibirsk, Russia,to. appear,2011-06-27,2011,6,27,m</t>
+  </si>
+  <si>
+    <t>ref1,An Evaluation of WCET Analysis using Symbolic Loop Bounds,In Pre-Proceedings of the 11th International Workshop on Worst-Case Execution Time Analysis (WCET,J. Knoop,L. Kovacs,J. Zwirchmayr,2011
+ref2,Symbolic Loop Bound Computation for WCET Analysis,In Proceedings of the 8th International Andrei Ershov Memorial Conference - Perspectives of System Informatics (PSI,J. Knoop,L. Kovacs,J. Zwirchmayr,2011</t>
   </si>
   <si>
     <t>TUW-205933</t>
   </si>
   <si>
-    <t>[Bateson, 1973]|m
-[Bishop, 2008]
-[Fenzl and Hofkirchner, 1997]
-[Haken, 1988]
-[Halley and Winkler, 2008]
-[Hofkirchner, 2011]
-[Lenin, 1977]
-[Mayr, 1974]
-[Morin, 1992]
-[Peirce, 1983]
-[Peirce, 2000]
-[Ursul, 1970]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,[Bateson, 1973],Steps to an Ecology of Mind,Ballantine,G. Bateso,Ballantine, New York,1973,1973,m
+ref2,[Bishop, 2008],Downward causation in fluid convection,Synthese,R. C. Bishop,160,229,248,2008
+ref3,[Fenzl and Hofkirchner, 1997],Information Processing in Evolutionary Systems. An Outline Conceptual Framework for a Unified Information Theory,Self-Organization of Complex Structures: From Individual to Collective Dynamics,Gordon &amp; Breach,F. Schweitzer,N. Fenzl,W. Hofkirchner,London,59,70,1997
+ref4,[Haken, 1988],Information and self-organization,Springer,H. Haken,Berlin,1988
+ref5,[Halley and Winkler, 2008],Consistent concepts of Self-organization and Self-assembly,Complexity,J. D. Halley,D. A. Winkler,14,2,10,17,2008
+ref6,[Hofkirchner, 2011],Four ways of thinking in information,triple-c,W. Hofkirchner,9,1,in print,2011
+ref7,[Lenin, 1977],Materialismus und Empiriokritizismus,W. I. Lenin,Dietz, Berlin,1977
+ref8,[Mayr, 1974],Teleological and Teleonomic: A New Analysis,Boston Studies in the Philosophy of Science,E. Mayr,XIV,91,117,1974
+ref9,[Morin, 1992],The nature of nature,Morin,Lang, New York,1992
+ref10,[Peirce, 1983],Phänomen und Logik der Zeichen,C. S. Peirce,Suhrkamp, Frankfurt,1992
+ref11,[Peirce, 2000],Semiotische Schriften,1, 2, 3,C. S. Peirce,Suhrkamp, Frankfurt,2000
+ref12,[Ursul, 1970],Information, Eine philosophische Studie,A. D. Ursul,Dietz, Berlin,1970</t>
+  </si>
+  <si>
+    <t>ref1,Steps to an Ecology of Mind,[Bateson,G. Bateson,1973
+ref2,Downward causation in fluid convection,In: Synthese,R.C. Bishop,160,229,248,2008
+ref3,An Outline Conceptual Framework for a Unified Information Theory,Information Processing in Evolutionary Systems,N. Fenzl,W. Hofkirchner,F. Schweitzer,59,70,1997
+ref4,[Haken,H. Haken,1988
+ref5,Consistent concepts of Self-organization and Self-assembly,In: Complexity,J.D. Halley,D.A. Winkler,14,2,10,17
+ref6,Four ways of thinking in information,[Hofkirchner,W. Hofkirchner,9,1
+ref7,Materialismus und Empiriokritizismus. Dietz,W.I. Lenin,1977
+ref8,Teleological and Teleonomic: A New Analysis,In: Boston Studies in the Philosophy of Science,E. Mayr,91,117
+ref9,The nature of nature,[Morin,E. Morin.,1992
+ref10,Phänomen und Logik der Zeichen,[Peirce,C.S. Peirce,1992
+ref11,Vols. 1,C.S. Peirce,2,3,2000
+ref12,[Ursul,A.D. Ursul,1970</t>
   </si>
   <si>
     <t>TUW-213513</t>
   </si>
   <si>
+    <t>ref1,Fuzz revisited: A re-examination of the reliability of unix utilities and services,Technical Report CS-TR-1995-1268,University of Wisconsin,B. Miller,D. Koski,C. Pheow,L. V. Maganty,R. Murthy,A. Natarajan,J. Steidl,1995,1995,m
+ref2,Guided merging of sequence diagrams,Pre-proceedings of SLE 2012,M. Widl,A. Biere,P. Brosch,U. Egly,M. Heule,G. Kappel,M. Seidl,H. Tompits,163,182,2012,2012,http://modelevolution.org/publications/sle12.pdf,m</t>
+  </si>
+  <si>
+    <t>ref1,Fuzz revisited: A re-examination of the reliability of unix utilities and services,Technical Report CS-TR-1995-1268,B. Miller,D. Koski,C. Pheow,L. V. Maganty,R. Murthy,A. Natarajan,J. Steidl,1995
+ref2,Guided merging of sequence diagrams,In Pre-proceedings of SLE,M. Widl,A. Biere,P. Brosch,U. Egly,M. Heule,M. Seidl,H. Tompits,163,182,2012</t>
+  </si>
+  <si>
     <t>TUW-216744</t>
   </si>
   <si>
-    <t>j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-j
-m
-m
-j
-m
-j
-m</t>
+    <t>ref1,How Well Do Physicians Use Electronic Information Retrieval Systems? A Framework for Investigation and Systematic Review,JAMA: The Journal of the American Medical Association,W. R. Hersh,D. H. Hickam,280,1347,1352,1998-10,1998,10,j
+ref2,Patient-Care Questions that Physicians Are Unable to Answer,Journal of the American Medical Informatics Association : JAMIA,J W Ely,J A Osheroff,S M Maviglia,M E Rosenbaum,14,407,414,2007,2007,j
+ref3,The information-seeking behaviour of doctors: a review of the evidence,Health Information and Libraries Journal,K Davies,24,78,94,2007,2007,j
+ref4,Information Seeking in Primary Care,Medical Decision Making,P N Gorman,M Helfand,15,113,119,1995-06,1995,6,j
+ref5,Finding and Applying Evidence During Clinical Rounds,JAMA: The Journal of the American Medical Association,D L Sackett,S E Straus,280,1336,1338,1998-10,1998,10,j
+ref6,Answers to Questions Posed During Daily Patient Care Are More Likely to Be Answered by UpToDate Than PubMed,Journal of Medical Internet Research,A Hoogendam,A F Stalenhoef,P F De Vries Robbé,A J P Overbeke,10,j
+ref7,Clever searching for evidence,BMJ,S Sanders,330,1162,1163,2005,2005,j
+ref8,Analysis of queries sent to PubMed at the point of care: Observation of search behaviour in a medical teaching hospital,BMC Medical Informatics and Decision Making,A Hoogendam,A F Stalenhoef,P F De Vries Robbé,A J P Overbeke,8,42,42,j
+ref9,Follow up of quality of public oriented health information on the world wide web: systematic re-evaluation,BMJ,C Pandolfini,M Bonati,324,582,583,2002-03,2002,3,j
+ref10,Real-time information-seeking behavior of residency physicians,Family Medicine,K Ramos,R Linscheid,S Schafer,35,257,260,2003-04,2003,4,j
+ref11,Information Needs and Information-Seeking Behavior of Primary Care Physicians,Ann Fam Med,A I Gonzales-Gonzales,M Dawes,J Sanchez-Mateos,R Riesgo-Fuertes,E Escortell-Mayor,T Sanz-Cuesta,T Hernandez-Fernandez,5,345,352,2007-07,2007,7,j
+ref12,What resources do Auckland general practitioners use for answering immediate clinical questions and for lifelong learning?,Journal of Primary Health Care,Z B H Gravatt,B Arroll,2,100,104,2010-06,2010,6,j
+ref13,Connecting with physicians online: searching for answers,Hall and Partners,2009,2009,m
+ref14,A cognitive evaluation of four online search engines for answering definitional questions posed by physicians,Pacific Symposium on Biocomputing. Pacific Symposium on Biocomputing,H Yu,D Kaufman,328,339,2007,2007,m
+ref15,Googling for a diagnosis—use of Google as a diagnostic aid: internet based study,BMJ,H Tang,J H K Ng,333,1143,1145,2006-12,2006,12,j
+ref16,Websites Most Frequently Used by Physician for Gathering Medical Information,G De Leo,E C Leroug,C Ceriani,F Niederman,902,902,2006,2006,m
+ref17,Does general practice Google?,Australian Family Physician,M G Sim,E Khong,M Jiwa,37,471,474,2008-06,2008,6,j
+ref18,GATE: A Framework and Graphical Development Environment for Robust NLP Tools and Applications,H Cunningham,D Maynard,K Bontcheva,V Tablan,2002,2002,m</t>
+  </si>
+  <si>
+    <t>ref1,How Well Do Physicians Use Electronic Information Retrieval Systems? A Framework for Investigation and Systematic Review,JAMA: The Journal of the American Medical Association,W.R HERSH,D.H.,Okt,280,1347,1352,1998
+ref2,Patient-Care Questions that Physicians Are Unable to Answer,Journal of the American Medical Informatics Association : JAMIA,J.W. ELY,J.A. MAVIGLIA,S.M.,ROSENBAUM,M.E.,14,407,414,2007
+ref3,The information-seeking behaviour of doctors: a review of the evidence,Health Information and Libraries Journal,K. DAVIES,24,78,94,2007
+ref4,Seeking in Primary Care, Medical Decision Making,P.N. GORMAN,M. HELFAND,Information,Juni,15,113,119,1995
+ref5,Finding and Applying Evidence During Clinical Rounds,JAMA: The Journal of the American Medical Association,D.L. SACKETT,S.E. STRAUS,Okt,280,1336,1338,1998
+ref6,Answers to Questions Posed During Daily Patient Care Are More Likely to Be Answered by UpToDate Than PubMed,Journal of Medical Internet Research,A. HOOGENDAM,A.F. STALENHOEF,P.F. DE VRIES ROBBÉ,A.J.P. OVERBEKE,10
+ref7,Clever searching for evidence,BMJ,S. SANDERS,330,1162,1163,2005
+ref8,Analysis of queries sent to PubMed at the point of care: Observation of search behaviour in a medical teaching hospital,BMC Medical Informatics and Decision Making,A. HOOGENDAM,A.F. STALENHOEF,P.F. DE VRIES ROBBÉ,A.J.P. OVERBEKE,S.,42
+ref9,Follow up of quality of public oriented health information on the world wide web: systematic re-evaluation, BMJ,C. und BONATI PANDOLFINI,M.,März,324,582,583,2002
+ref10,Real-time information-seeking behavior of residency physicians,Family Medicine,K. RAMOS,LINSCHEID,R.,S.,Apr,35,257,260,2003
+ref11,Information Needs and Information-Seeking Behavior of Primary Care Physicians, Ann Fam Med,A.I. GONZALES-GONZALES,M. SANCHEZ-MATEOS,J. RIESGO-FUERTES,R. ESCORTELL-MAYOR,E. SANZ-CUESTA,T. HERNANDEZ-FERNANDEZ,T.,Juli,5,345,352,2007
+ref12,What resources do Auckland general practitioners use for answering immediate clinical questions and for lifelong learning?,Journal of Primary Health Care,Z.B.H. GRAVATT,B. ARROLL,Juni,2,100,104,2010
+ref13,[13] HALL AND PARTNERS, Connecting with physicians online: searching for answers,,2009
+ref14,A cognitive evaluation of four online search engines for answering definitional questions posed by physicians,Pacific Symposium on Biocomputing. Pacific Symposium on Biocomputing,H. YU,328,339,2007
+ref15,Googling for a diagnosis-use of Google as a diagnostic aid: internet based study,BMJ,H. TANG,NG,J.H.K.,Dez,333,1143,1145,2006
+ref16,Websites Most Frequently Used by Physician for Gathering Medical Information,LEO DE,E C. LEROUG,C. CERIANI,F. NIEDERMAN,902,902,2006
+ref17,Australian Family Physician,M.G. SIM,E. KHONG,M. JIWA,Juni,37,471,474,2008
+ref18,GATE: A Framework and Graphical Development Environment for Robust NLP Tools,H. CUNNINGHAM,D. MAYNARD,K. BONTCHEVA,V. TABLAN,2002</t>
   </si>
   <si>
     <t>TUW-217690</t>
   </si>
   <si>
+    <t>ref1,Parallel Tracking and Mapping for Small AR Workspaces,Proc. International Symposium on Mixed and Augmented Reality (ISMAR'07, Nara),Georg Klein,David Murray,2007,2007,m
+ref2,Video-rate localization in multiple maps for wearable augmented reality,Proc. 12th IEEE Int. Symp. on Wearable Computing,R O Castle,G Klein,D W Murray,Pittsburgh PA,15,22,2008,2008,m</t>
+  </si>
+  <si>
+    <t>ref1,David Murray, Parallel Tracking and Mapping for Small AR Workspaces,In Proc. International Symposium on Mixed and Augmented Reality (ISMAR'07,Georg Klein,) Nara,2007
+ref2,Video-rate localization in multiple maps for wearable augmented reality,In Proc. 12th IEEE Int. Symp. on Wearable Computing,R. O. Castle,D. W. Murray,PA Pittsburgh,15,22,2008</t>
+  </si>
+  <si>
     <t>TUW-217971</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-m
-m
-j
-m
-m
-m</t>
+    <t>ref1,Visualization of Time and Time-Oriented Information: Challenges and Conceptual Design,Theses,Vienna University of Technology,W Aigner,2006-02,2006,2,m
+ref2,Time Granularities in Databases, Data Mining and Temporal Reasoning,Springer-Verlag New York,C Bettini,S Jajodia,S Wang,Secaucus, NJ, USA,2000,2000,m
+ref3,Readings in Information Visualization: Using Vision to Think,Morgan Kaufmann Publishers,S Card,J Mackinlay,B Shneiderman,San Francisco,1999,1999,m
+ref4,Visualizing Data,Hobart Press,W Cleveland,Summit, NJ, USA,1993,1993,m
+ref5,An ObjectOriented Framework for Temporal Data Models,Springer,I A Goralwalla,M T Ozsu,D Szafron,1,35,1998,1998,m
+ref6,A Comparison of Programming Platforms for Interactive Visualization in Web Browser Based Applications,Proceedings of 12th International Conference on Information Visualisation (IV08),T Lammarsch,W Aigner,A Bertone,J Gärtner,S Miksch,T Turic,forthcoming,2008-07,2008,7,m
+ref7,An Insight-Based Longitudinal Study of Visual Analytics,IEEE Transactions on Visualization and Computer Graphics,P Saraiya,C North,V Lam,K Duca,12,6,1,2006,2006,j
+ref8,Coordinated Views to Assist Exploration of SpatioTemporal Data: A Case Study,Proceedings of the 2nd International Conference on Coordinated and Multiple Views in Exploratory Visualization (CMV04),IEEE,M Shimabukuro,E Flores,M de Oliveira,H Levkowitz,107,117,2004-07-13,2004,7,13,m
+ref9,Information Visualization: Design for Interaction,Prentice-Hall, Inc,R Spence,Upper Saddle River, NJ, USA,2007,2007,m
+ref10,Cluster and Calendar Based Visualization of Time Series Data,Proceedings of the IEEE Symposium on Information Visualization 1999 (InfoVis99),J J van Wijk,E R van Selow,4,9,1999,1999,m</t>
+  </si>
+  <si>
+    <t>ref1,Visualization of Time and Time-Oriented Information: Challenges and Conceptual Design,W. Aigner,2006
+ref2,Data Mining and Temporal Reasoning,C. Bettini,S. Jajodia,S. Wang,2000
+ref3,Readings in Information Visualization: Using Vision to Think,S. Card,J. Mackinlay,B. Shneiderman,1999
+ref4,W. Cleveland. Visualizing Data,1993
+ref5,An ObjectOriented Framework for Temporal Data Models,I. A. Goralwalla,D. Szafron,1,35,1998
+ref6,A Comparison of Programming Platforms for Interactive Visualization in Web Browser Based Applications,In Proceedings of 12th International Conference on Information Visualisation (IV08),T. Lammarsch,W. Aigner,A. Bertone,T. Turic,July 2008
+ref7,An Insight-Based Longitudinal Study of Visual Analytics,IEEE Transactions on Visualization and Computer Graphics,P. Saraiya,V. Lam,K. Duca,12,6,1,2006
+ref8,Coordinated Views to Assist Exploration of SpatioTemporal Data: A Case Study,In Proceedings of the 2nd International Conference on Coordinated and Multiple Views in Exploratory Visualization (CMV04),M. Shimabukuro,H. Levkowitz,107,117,2004
+ref9,Design for Interaction. Prentice-Hall, Inc,R. Spence,2007
+ref10,and Calendar Based Visualization of Time Series Data,In Proceedings of the IEEE Symposium on Information Visualization,J. J. van Wijk and E. R. van Selow. Cluster,InfoVis99,4,9,1999</t>
   </si>
   <si>
     <t>TUW-221215</t>
   </si>
   <si>
-    <t>j
-j
-m
-j
-j
-j
-j
-m
-m
-j
-m
-m
-j
-j
-j
-j
-m
-j
-j
-j
-m
-m
-m
-m
-j
-j
-m
-m
-j
-j
-m
-j
-j
-m
-j
-j
-m
-m
-m
-j
-m
-m
-j
-m</t>
+    <t>ref1,On colouring the nodes of a network,Proceedings of the Cambridge Philosophical Society,R Brooks,W Tutte,37,2,194,197,1941,1941,j
+ref2,Chromatic scheduling and the chromatic number problem,Management Science,J Brown,19,4,456,463,1972,1972,j
+ref3,Reducibility Among Combinatorial Problems,Complexity of Computer Computations,R Karp,85,103,1972,1972,m
+ref4,Every Planar Map is Four Colorable,Illinois Journal of Mathematics,K Appel,W Haken,21,429,567,1977,1977,j
+ref5,A Graph Coloring Algorithm for Large Scheduling Problems,Journal of Research of the National Bureau of Standards,F Leighton,84,6,489,506,1979,1979,j
+ref6,A correction to Brelaz's modification of Brown's coloring algorithm,Communications of the ACM,J Peemöller,26,8,593,597,1983,1983,j
+ref7,A generalized implicit enumeration algorithm for graph coloring,Communications of the ACM,M Kubale,B Jackowski,28,4,412,418,1985,1985,j
+ref8,Using Tabu Search Techniques for Graph Coloring. Computing,A Hertz,D de Werra,39,345,351,1987,1987,m
+ref9,Efficient routing in all-optical networks,Proc 26th ACM Symp. on Theory of Computing,P Raghavan,E Upfal,134,143,1994,1994,m
+ref10,A Column Generation Approach For Graph Coloring,INFORMS Journal on Computing,A Mehrotra,M Trick,8,344,354,1995,1995,j
+ref11,No Free Lunch Theorems for Search,Technical Report SFI-TR-95-02-010,Santa Fe Institute,D Wolpert,W Macready,1995,1995,m
+ref12,Distributed Coloration Neighborhood Search,DIMACS Series in Discrete Mathematics and Theoretical Computer Science,C Morgenstern,26,335,357,1996,1996,m
+ref13,Routing and wavelength assignment in alloptical networks,IEEE/ACM Trans. Networking,R Ramaswami,K Sivarajan,3,5,489,500,1995,1995,j
+ref14,Genetic and hybrid algorithms for graph coloring,Annals of Operations Research,C Fleurent,J Ferland,63,3,437,461,1996,1996,j
+ref15,Some principles for designing a wide-area WDM optical network,IEEE/ACM Trans. Networking,B Mukherjee,4,5,684,696,1996,1996,j
+ref16,Variable neighborhood search,Computers and Operations Research,N Mladenovic,P Hansen,24,11,1097,1100,1997,1997,j
+ref17,Routing and wavelength assignment in all-optical WDM wavelength-routed networks,PhD thesis,George Washington University,E Harder,1998,1998,m
+ref18,Optical communication networks,Morgan-Kaufmann,R Ramaswami,K Sivarajan,1998,1998
+ref19,Hybrid Evolutionary Algorithms for Graph Coloring,Journal of Combinatoral Optimization,P Galinier,J Hao,3,4,379,397,1999,1999,j
+ref20,Routing and Scheduling I/O Transfers on WormholeRouted Mesh Networks,J. Parallel and Distributed Computing,B Narahari,et al.,57,1,1,13,1999,1999,j
+ref21,Improvements and comparison of heuristics for solving the multisource Weber problem,Operational Research,J Brimberg,48,444,460,2000,2000,j
+ref22,The Partition Coloring Problem and its Application to Wavelength Routing and Assignment,Proceedings of the First Workshop on Optical Networks,G Li,R Simha,2000,2000,m
+ref23,A functional classification of routing and wavelength assignment schemes in DWDM networks: Static case,Proceedings of the 7th International Conference on Optical Communication and Networks,J Choi,et al.,Paris,1109,1115,2000,2000,m
+ref24,Constructive Genetic Algorithm and Column Generation: an Application to Graph Coloring,G Filho,et al.,paper published on the Internet,2000,2000,m
+ref25,Optimization Is Easy and Learning Is Hard in the Typical Function,Proceedings of the 2000 Congress on Evolutionary Computation: CEC00,T English,924,931,2000,2000,m
+ref26,Finding the chromatic number by means of critical graphs,ACM Journal of Experimental Algorithmics,F Herrmann,A Hertz,7,10,1,9,2002,2002,j
+ref27,A Variable Neighborhood Search for Graph Coloring,European Journal of Operational Research,C Avanthay,A Hertz,N Zufferey,151,379,388,2003,2003,j
+ref28,Cliques, holes and the vertex coloring polytope,Information Processing Letters,R Correa,M Campelo,Y Frota,89,159,164,2004,2004,m
+ref29,On the asymmetric representatives formulation for the vertex coloring problem,Proceedings of the 2th Brazilian Symposium on Graphs, Algorithms and Combinatorics,M Campelo,V Campos,R Correa,Angra dos Reis,19,Electronic Notes in Discrete Mathematics,337,343,2005,2005,m
+ref30,Efficient algorithms for finding critical subgraphs,Discrete Applied mathematics,C Desrosiers,P Galinier,A Hertz,156,2,244,266,2005,2005,j
+ref31,An Adaptive Memory Algorithm for the Graph Coloring Problem,Discrete Applied Mathematics,A Hertz,P Galinier,N Zufferey,156,2,267,279,2005,2005,j
+ref32,A Metaheuristic Approach for the Vertex Coloring Problem,Technical Report OR/05/3,University of Bologna,E Malaguti,M Monaci,P Thot,Italy,2005,2005,m
+ref33,A Branch-and-Cut Algorithm for Graph Coloring,Discrete Applied Mathematics,I Diaz,P Zabala,154,5,826,847,2006,2006,j
+ref34,Routing and wavelength assignment by partition colouring,European Journal of Operational Research,T Noronha,C Ribeiro,171,3,797,810,2006,2006,j
+ref35,Tremaux Trees and Planarity,European Journal of Combinatorics,H de Fraysseix,P Ossona de Mendez,P Rosenstiehl,33,3,2798,293,2012,2012,m
+ref36,A graph coloring heuristic using partial solutions and a reactive tabu scheme,Computers &amp; Operations Research,I Blöchliger,N Zufferey,35,3,960,975,2008,2008,j
+ref37,Variable space search for graph coloring,Discrete Applied Mathematics,A Hertz,et al.,156,13,2551,1560,2008,2008,j
+ref38,Essentials of Metaheuristics,Lulu,S Luke,2009,2009,http://cs.gmu.edu/~sean/book/metaheuristics/,m
+ref39,A branch-and-cut algorithm for partition coloring,Networks,Y Frota,et al.,55,3,194,204,2010,2010,m
+ref40,Instances for the partition Coloring Problem,Y Frota,et al.,www.ic.uff.br/~celso/grupo/pcp.htm,m
+ref41,A memetic algorithm for graph coloring,European Journal of Operational Research,Z Lü,J Hao,203,1,241,250,2010,2010,j
+ref42,Safe Lower Bounds For Graph Coloring,IPCO 2011,S Held,et al.,261,273,2011,2011,m
+ref43,Efficieny issues in the RLF heuristic for graph coloring,MIC 2011 (The IX Metaheuristics International Conference),M Chiarandini,G Galbiati,S Gualandi,461,469,2011,2011,m
+ref44,Exact Solution of Graph Coloring Problems via Constraint Programming and Column Generation,INFORMS Journal on Computing,S Gualandi,F Malucelli,24,1,81,100,2012,2012,j
+ref45,An evolutionary algorithm with solution archive for the generalized minimum spanning tree problem,Proceedings of the 13th International Conference on Computer Aided Systems Theory: Part I,Springer,B Hu,G Raidl,6927,of LNCS,287,294,2012,2012,m</t>
+  </si>
+  <si>
+    <t>ref1,5 1.3 Formal Definition,1 Introduction 3 1,Graph Theory,Basics . . . . . . . . . . . . . . . . . . . . . . . . 4,Applications . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Complexity . . . . . . . . . . . . . . . . 5,1
+ref2,3 Methods 11 3,Metaheuristics . . . . . . . . . . . . . . . . . . . . . . . . . . . 12,Evaluation . . . . . . . . . . . . . . . . . . . . . . . . 17,Archive . . . . . . . . . . . . . . . . . . . . . . . . . . 23,Algorithm . . . . . . . . . . . . . . . . . . . . . . . . 23,3
+ref3,5 Computational Results 29 5,Results . . . . . . . . . . . . . . . . . . . . . . . . 29,Final Results . . . . . . . . . . . . . . . . . . . 47,5
+ref4,: Optimization Is Easy and Learning Is Hard in the Typical Function,Proceedings of the 2000 Congress on Evolutionary Computation: CEC00,T. English,924,931,2000
+ref5,: Finding the chromatic number by means of critical graphs,ACM Journal of Experimental Algorithmics,F. Herrmann,A. Hertz,7,1,9,2002
+ref6,Zufferey: A Variable Neighborhood Search for Graph Coloring,European Journal of Operational Research,C. Avanthay,A. Hertz,N.,151,379,388,2003
+ref7,: Cliques, holes and the vertex coloring polytope,Information Processing Letters,R. Correa,M. Campelo,Y. Frota,89,159,164,2004</t>
   </si>
   <si>
     <t>TUW-223906</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-m</t>
+    <t>ref1,Learning similarity metrics for event identification in social media,ACM WSDM,H Becker,M Naaman,L Gravano,291,300,2010,2010,m
+ref2,Social event detection using multimodal clustering and integrating supervisory signals,ACM ICMR,G Petkos,S Papadopoulos,Y Kompatsiaris,23,1,8,2012,2012,m
+ref3,Event-based classification of social media streams,ACM ICMR,T Reuter,P Cimiano,22,1,8,2012,2012,m
+ref4,Social Event Detection at MediaEval 2013: Challenges, datasets, and evaluation,MediaEval 2013 Workshop,T Reuter,S Papadopoulos,V Mezaris,P Cimiano,C de Vries,S Geva,2013,2013,m
+ref5,Event detection via LDA for the MediaEval2012 SED Task,MediaEval 2012 Workshop,K N Vavliakis,F A Tzima,P A Mitkas,2012,2012,m</t>
+  </si>
+  <si>
+    <t>ref1,Learning similarity metrics for event identification in social media,In ACM WSDM,H. Becker,M. Naaman,L. Gravano,291,300,2010
+ref2,Social event detection using multimodal clustering and integrating supervisory signals,In ACM ICMR,G. Petkos,S. Papadopoulos,Y. Kompatsiaris,23,1,8,2012
+ref3,Event-based classification of social media streams,In ACM ICMR,T. Reuter,P. Cimiano,22,1,8,2012
+ref4,Challenges, datasets, and evaluation,In MediaEval 2013 Workshop,T. Reuter,S. Papadopoulos,V. Mezaris,P. Cimiano,S. Geva,2013
+ref5,Event detection via LDA for the MediaEval2012 SED Task,In MediaEval 2012 Workshop,K. N. Vavliakis,F. A. Tzima,P. A. Mitkas,2012</t>
   </si>
   <si>
     <t>TUW-223973</t>
   </si>
   <si>
-    <t>j
-j
-m
-j
-j
-m
-j
-j
-j
-j
-j
-m
-m
-j
-j
-m
-m
-j
-m
-m
-j
-m</t>
+    <t>ref1,Automatic extraction of semantic relations between medical entities: a rule based approach,Journal of Biomedical Semantics,A B Abacha,P Zweigenbaum,2,Suppl. 5,4,2011,2011,j
+ref2,An overview of MetaMap: historical perspective and recent advances,Journal of the American Medical Informatics Association : JAMIA,A R Aronson,F M M Lang,17,3,229,236,2010-05,2010,5,j
+ref3,GATE: A framework and graphical development environment for robust NLP tools and applications,Proceedings of the 40th Anniversary Meeting of the Association for Computational Linguistics,H Cunningham,D Maynard,K Bontcheva,V Tablan,2002,2002,m
+ref4,Text Processing with GATE,University of Sheffield Department of Computer Science,H Cunningham,D Maynard,K Bontcheva,V Tablan,N Aswani,I Roberts,G Gorrell,A Funk,A Roberts,D Damljanovic,T Heitz,M A Greenwood,H Saggion,J Petrak,Y Li,W Peters,Version 6,2011,2011,http://tinyurl.com/gatebook,j
+ref5,Semantic structuring of and information extraction from medical documents using the UMLS,Methods of Information in Medicine,K Denecke,47,5,425,434,2008,2008,j
+ref6,Clinical Practice Guidelines: Directions for a New Program,National Academies Press, Institute of Medicine,M J Field,K N Lohr,Washington DC,1990,1990,m
+ref7,Computer-based execution of clinical guidelines: A review,International Journal of Medical Informatics,D Isern,A Moreno,77,12,787,808,2008,2008,j
+ref8,How can information extraction ease formalizing treatment processes in clinical practice guidelines? A method and its evaluation,Artificial Intelligence in Medicine,K Kaiser,C Akkaya,S Miksch,39,2,151,163,2007,2007,j
+ref9,Versioning computer-interpretable guidelines: Semiautomatic modeling of 'Living Guidelines' using an information extraction method,Artificial Intelligence in Medicine,K Kaiser,S Miksch,46,1,55,66,2009,2009,j
+ref10,Identifying treatment activities for modelling computer-interpretable clinical practice guidelines,Knowledge Representation for Health-Care, Lecture Notes in Computer Science,Springer Berlin Heidelberg,Riao, D., Teije, A., Miksch, S., Peleg, M.,K Kaiser,A Seyfang,S Miksch,6512,114,125,2011,2011,j
+ref11,The Unified Medical Language System,Methods of Information in Medicine,D Lindberg,B Humphreys,A McCray,32,4,281,291,1993,1993,j
+ref12,Foundations of statistical natural language processing,MIT Press,C D Manning,H Schütze,Cambridge, MA, USA,1999,1999,m
+ref13,UMLS Semantic Network,Proc. of the 13th Annual Symposium on Computer Applications in Medical Care(SCAMC),A McCray,503,507,1989,1989,m
+ref14,Improving clinical guideline implementation through prototypical design patterns,Artificial Intelligence in Medicine, Lecture Notes in Computer Science,Springer Berlin Heidelberg,Miksch, S., Hunter, J., Keravnou, E.,M Moser,S Miksch,3581,126,130,2005,2005,j
+ref15,Comparing Computer-Interpretable Guideline Models: A Case-Study Approach,The Journal of the American Medical Informatics Association (JAMIA),M Peleg,S Tu,J Bury,P Ciccarese,J Fox,R Greenes,R Hall,P D Johnson,N Jones,A Kumar,S Miksch,S Quaglini,A Seyfang,E H Shortliffe,M Stefanelli,10,1,52,68,2003,1-2,j
+ref16,Remine: Documentation of formalized guidelines,,2010,2010,http://www.remineproject.eu/,m
+ref17,British Guideline on the Management of Asthma. A national clinical guideline,Scottish Intercollegiate Guidelines Network (SIGN),,2011-05,2011,5,m
+ref18,Extraction and use of linguistic patterns for modelling medical guidelines,Artif. Intell. Med,R Serban,A ten Teije,F van Harmelen,M Marcos,C Polo-Conde,39,2,137,149,2007-02,2007,2,j
+ref19,MHB-F Specification,A Seyfang,K Kaiser,2011,2011
+ref20,Maintaining formal models of living guidelines efficiently,Proc. of the 11th Conference on Artificial Intelligence in Medicine (AIME07),Springer Verlag,A Seyfang,B Martnez-Salvador,R Serban,A Wittenberg,S Miksch,M Marcos,A T Teije,K Rosenbrand,2007,2007,m
+ref21,Bridging the gap between informal and formal guideline representations,European Conference on Artificial Intelligence (ECAI-2006),IOS Press,Brewka, G., Coradeschi, S., Perini, A., Traverso, P.,A Seyfang,S Miksch,M Marcos,J Wittenberg,C Polo-Conde,K Rosenbrand,Riva del Garda, Italy,41,447,451,2006,2006,m
+ref22,Computer-interpretable clinical practice guidelines. where are we and where are we going ?,Yearb Med Inform,F A Sonnenberg,C G Hagerty,145,58,2006,2006,j
+ref23,From natural language descriptions in clinical guidelines to relationships in an ontology,Proceedings of the 2009 AIME international conference on Knowledge Representation for Health-Care: data, Processes and Guidelines,Springer-Verlag,M Taboada,M Meizoso,D Riaño,A Alonso,D Martínez,Berlin, Heidelberg,KR4HC’09,26,37,2010,2010,m</t>
+  </si>
+  <si>
+    <t>ref1,Automatic extraction of semantic relations between medical entities: a rule based approach,Journal of Biomedical Semantics,A.B. Abacha,P. Zweigenbaum,2,Suppl 5,2011
+ref2,An overview of MetaMap: historical perspective and recent advances,Journal of the American Medical Informatics Association : JAMIA,A.R. Aronson,F.M.M.: Lang,17,3,229,236,2010
+ref3,GATE: A framework and graphical development environment for robust NLP tools and applications,In: Proceedings of the 40th Anniversary Meeting of the Association for Computational Linguistics,H. Cunningham,D. Maynard,K. Bontcheva,Tablan,2002
+ref4,Text Processing with GATE (Version 6,H. Cunningham,D. Maynard,K. Bontcheva,V. Tablan,N. Aswani,I. Roberts,G. Gorrell,A. Funk,A. Roberts,D. Damljanovic,T. Heitz,M.A. Greenwood,H. Saggion,J. Petrak,Y. Li,W. Peters,2011
+ref5,Semantic structuring of and information extraction from medical documents using the UMLS,Methods of Information in Medicine,K. Denecke,47,5,425,434,2008
+ref6,(eds.): Clinical Practice Guidelines: Directions for a New Program,M.J. Field,K.N. Lohr,1990
+ref7,Computer-based execution of clinical guidelines: A review,International Journal of Medical Informatics,D. Isern,A. Moreno,77,12,787,808,2008
+ref8,How can information extraction ease formalizing treatment processes in clinical practice guidelines? A method and its evaluation,Artificial Intelligence in Medicine,K. Kaiser,C. Akkaya,S. Miksch,39,2,151,163,2007
+ref9,Versioning computer-interpretable guidelines: Semiautomatic modeling of 'Living Guidelines' using an information extraction method,Artificial Intelligence in Medicine,K. Kaiser,S. Miksch,46,1,55,66,2009
+ref10,Identifying treatment activities for modelling computer-interpretable clinical practice guidelines,Knowledge Representation for Health-Care, Lecture Notes in Computer Science,K. Kaiser,A. Seyfang,S.: Miksch,D. Teije,A. Miksch,S. Peleg,6512,114,125,2011
+ref11,The Unified Medical Language System,Methods of Information in Medicine,D. Lindberg,B. Humphreys,A. McCray,32,4,281,291,1993
+ref12,Foundations of statistical natural language processing,C.D. Manning,1999
+ref13,UMLS Semantic Network,In: Proc. of the 13th Annual Symposium on Computer Applications in Medical Care(SCAMC),A. McCray,503,507,1989
+ref14,Improving clinical guideline implementation through prototypical design patterns,Artificial Intelligence in Medicine, Lecture Notes in Computer Science,M. Moser,S. Miksch,S. Hunter,J. Keravnou,3581,126,130,2005
+ref15,The Journal of the American Medical Informatics Association (JAMIA) 10(1),M. Peleg,S. Tu,J. Bury,P. Ciccarese,J. Fox,R. Greenes,R. Jones,N. Kumar,A. Miksch,S. Quaglini,S. Seyfang,A. Shortliffe,E.H. Stefanelli,M.,Comparing Computer-Interpretable Guideline Models: A Case-Study,Approach,52,68,2003
+ref16,: Documentation of formalized guidelines (,Remine,2010
+ref17,Scottish Intercollegiate Guidelines Network (SIGN): British Guideline on the Management of Asthma. A national clinical guideline. Scottish Intercollegiate Guidelines Network (SIGN),,2011
+ref18,Extraction and use of linguistic patterns for modelling medical guidelines,Artif. Intell. Med,Serban,Teije,F. van Harmelen,M. Marcos,C. Polo-Conde,39,2,137,149,Feb 2007
+ref19,A. Seyfang,K. Kaiser,MHB-F Specification,2011
+ref20,Maintaining formal models of living guidelines efficiently,In: Proc. of the 11th Conference on Artificial Intelligence in Medicine (AIME07),A. Seyfang,B. Martnez-Salvador,R. Serban,A. Wittenberg,S. Miksch,M. Marcos,A.T. Teije,K. Rosenbrand,2007
+ref21,Bridging the gap between informal and formal guideline representations,Italy,A. Seyfang,S. Miksch,M. Marcos,J. Wittenberg,C. Polo-Conde,K. Rosenbrand,G. Coradeschi,S. Perini,A. Traverso,141,447,451,2006
+ref22,Computer-interpretable clinical practice guidelines. where are we and where are we going ?,Yearb Med,F.A. Sonnenberg,C.G. Hagerty,145,58,2006
+ref23,From natural language descriptions in clinical guidelines to relationships in an ontology,In: Proceedings of the 2009 AIME international conference on Knowledge Representation for Health-Care: data, Processes and Guidelines,M. Taboada,M. Meizoso,D. Alonso,A.,SpringerVerlag,26,37,2010</t>
   </si>
   <si>
     <t>TUW-225252</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-m
-j</t>
+    <t>ref1,An evolutionary algorithm with solution archives and bounding extension for the generalized minimum spanning tree problem,Proceedings of the 14th Annual Conference on Genetic and Evolutionary Computation (GECCO),ACM Press,B Hu,G R Raidl,Philadelphia, PA, USA,393,400,2012,2012,m
+ref2,Strip shredded document reconstruction using optical character recognition,4th International Conference on Imaging for Crime Detection and Prevention 2011 (ICDP 2011),J Perl,M Diem,F Kleber,R Sablatnig,1,6,2011,2011,m
+ref3,Meta-Heuristics for Reconstructing Cross Cut Shredded Text Documents,Proceedings of the 11th Annual Conference on Genetic and Evolutionary Computation (GECCO),ACM Press,M Prandtstetter,G R Raidl,349,356,2009,2009,m
+ref4,Enhancing genetic algorithms by a trie-based complete solution archive,Evolutionary Computation in Combinatorial Optimization,Springer Berlin Heidelberg,Cowling, P., Merz, P.,G R Raidl,B Hu,LNCS, vol. 6022,239,251,2010,2010,m
+ref5,A memetic algorithm for reconstructing cross-cut shredded text documents,Proceedings of the 7th international conference on Hybrid metaheuristics,Springer-Verlag,C Schauer,M Prandtstetter,G R Raidl,HM2010,,103,117,2010,2010,m
+ref6,An alternative clustering approach for reconstructing cross cut shredded text documents,Telecommunication Systems,A Sleit,Y Massad,M Musaddaq,1,11,2011,2011,j</t>
+  </si>
+  <si>
+    <t>ref1,An evolutionary algorithm with solution archives and bounding extension for the generalized minimum spanning tree problem,In: Proceedings of the 14th Annual Conference on Genetic and Evolutionary Computation (GECCO),B. Hu,G.R.: Raidl,393,400,2012
+ref2,ICDP 2011),In: 4th International Conference on Imaging for Crime Detection and Prevention,J. Perl,M. Diem,F. Kleber,Sablatnig,1,6,2011
+ref3,Meta-Heuristics for Reconstructing Cross Cut Shredded Text Documents,In: Proceedings of the 11th Annual Conference on Genetic and Evolutionary Computation (GECCO),M. Prandtstetter,G.R. Raidl,349,356,2009
+ref4,Evolutionary Computation in Combinatorial Optimization,LNCS,G.R. Raidl,B. Hu,P. Merz,239,251,2010
+ref5,A memetic algorithm for reconstructing cross-cut shredded text documents,In: Proceedings of the 7th international conference on Hybrid metaheuristics,C. Schauer,M. Prandtstetter,G.R.: Raidl,103,117,2010
+ref6,An alternative clustering approach for reconstructing cross cut shredded text documents,Telecommunication Systems,A. Sleit,Y. Massad,M.: Musaddaq,1,11,2011</t>
   </si>
   <si>
     <t>TUW-226000</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-m
-m
-m
-m
-m
-m
-j
-m
-m</t>
+    <t>ref1,A theoretical survey of user interface description languages: Preliminary results,Web Congress LAWEB'09. Latin American,J Guerrero-Garcia,J M Gonzalez-Calleros,J Vanderdonckt,J Muoz-Arteaga,36,43,2009,2009,m
+ref2,Universal remote console – prototyping for the alternate interface access standard,Proceedings of the User interfaces for all 7th international conference on Universal access: theoretical perspectives, practice, and experience, ERCIM'02,Springer-Verlag,G Zimmermann,G Vanderheiden,A Gilman,524,531,2003,2003,m
+ref3,Information technology-user interfaces-universal remote console,International Organization for Standardization, ISO/IEC 24752,,2008,2008,m
+ref4,XIML: A universal language for user interfaces,Technical report,RedWhale Software,A Puerta,J Eisenstein,2001,2001,m
+ref5,Voice extensible markup language (VoiceXML) version 2.1,W3C recommendation,W3C,M Oshry,R J Auburn,P Baggia,M Bodell,D Burke,D C Burnett,E Candell,J Carter,S McGlashan,A Lee,B Porter,K Rehor,2007,2007,m
+ref6,Synchronized multimedia integration language (SMIL 3.0),W3C recommendation,W3C,D Bulterman,2008,2008,m
+ref7,Web services description language (WSDL) version 2.0 part 1: Core language,W3C recommendation,W3C,R Chinnici,J.-J. Moreau,A Ryman,S Weerawarana,2007,2007,m
+ref8,USIXML: A language supporting multi-path development of user interfaces,Proceedings of the 9th IFIP Working Conference on Engineering for Human-Computer Interaction jointly with the 11th Int. Workshop on Design, Specification, and Verification of Interactive Systems,Springer Verlag,Q Limbourg,J Vanderdonckt,B Michotte,L Bouillon,V López-Jaquero,3425,of EHCI-DSVIS’2004,200,220,2004,2004,m
+ref9,The relationship of the UIML 3.0 spec. to other standards/working groups,Technical report,Organization for the Advancement of Structured Information Standards (OASIS),,2003,2003,m
+ref10,Dialog modeling for multiple devices and multiple interaction modalities,Proceedings of the 5th international conference on task models and diagrams for users interface design, TAMODIA'06,Springer Verlag,R Schaefer,S Bleul,W Mueller,39,53,2007,2007,m
+ref11,MARIA: A universal, declarative, multiple abstraction-level language for service-oriented applications in ubiquitous environments,ACM Transactions on ComputerHuman Interaction,F Paternó,C Santoro,L D Spano,16,4,Article 19,200),j
+ref12,HTML 4.01 specification,W3C recommendation,W3C,D Raggett,Le Hors,A Jacobs,I ,1999,1999
+ref13,XHTML TM 1.0 the extensible hypertext markup language,W3C recommendation,W3C,S Pemberton,2,2002,2002,m
+ref14,Comparison of SGML and XML,W3C note,W3C,J Clark,1997,1997,m</t>
+  </si>
+  <si>
+    <t>ref1,A theoretical survey of user interface description languages: Preliminary results,In Web Congress,J. Guerrero-Garcia,J. M. Gonzalez-Calleros,J. Vanderdonckt,J. Muoz-Arteaga,09,36,43,2009
+ref2,Universal remote console - prototyping for the alternate interface access standard. In: Proceedings of the User interfaces for all 7th international conference on Universal access: theoretical perspectives, practice, and experience,ERCIM'02. SpringerVerlag,G. Zimmermann,G. Vanderheiden,A. Gilman,524,531,2003
+ref3,- user interfaces - universal remote console,International Organization for Standardization, ISO/IEC 24752,Information,2008
+ref4,XIML: A universal language for user interfaces,Technical report, RedWhale Software.,A. Puerta,J. Eisenstein,2001
+ref5,Voice extensible markup language (VoiceXML) version 2.1. W3C recommendation, W3C.,M. Oshry,R.J. Auburn,P. Baggia,M. Bodell,D. Burke,D. C. Burnett,E. Candell,J. Carter,S. McGlashan,A. Lee,B. Porter,K. Rehor,2007
+ref6,Synchronized multimedia integration language (SMIL 3.0). W3C recommendation, W3C.,D. Bulterman,2008
+ref7,Web services description language (WSDL) version 2.0 part 1: Core language,W3C recommendation, W3C.,R. Chinnici,Moreau,A. Ryman,S Weerawarana,2007
+ref8,USIXML: A language supporting multi-path development of user interfaces,of EHCI-DSVIS'2004,Q. Limbourg,J. Vanderdonckt,B. Michotte,L. Bouillon,V. Jaquero,3425,200,220,2004
+ref9,[9] The relationship of the UIML 3.0 spec,Technical report, Organization for the Advancement of Structured Information Standards (OASIS),,2003
+ref10,Dialog modeling for multiple devices and multiple interaction modalities,TAMODIA'06,R. Schaefer,S. Bleul,W. Mueller,39,53,2007
+ref11,MARIA: A universal, declarative, multiple abstraction-level language for service-oriented applications in ubiquitous environments,ACM Transactions on ComputerHuman Interaction,F. Paterno´,C. Santoro,L.D. Spano,16
+ref12,HTML 4.01 specification. W3C recommendation, W3C.,D. Raggett,A. Le Hors,I Jacobs,1999
+ref13,0 the extensible hypertext markup language (second edition),W3C recommendation, W3C.,S. Pemberton,XHTMLTM1
+ref14,Comparison of SGML and XML. W3C note, W3C. 3www.aaluis.eu. The project AALuis is co-funded by the AAL Joint Programme (AAL-2010-3-070) and the following National Authorities and R&amp;D programs in Austria, Germany and The Netherlands: bmvit, program benefit,FFG (AT),J. Clark,BMBF (DE) and ZonMw (NL).,1997</t>
   </si>
   <si>
     <t>TUW-226016</t>
   </si>
   <si>
-    <t>[AAR09]|j
-[And02]|m
-[BCC+03]|m
-[BCD+05]|m
-[BMSW10]|m
-[CC77]|m
-[Coo71]|m
-[DdM06]|m
-[Dij75]|m
-[DL62]|m
-[dMB11]|m
-[DP60]|m
-[DW50]|m
-[ES04]|m
-[FM10]|m
-[G.S83]|m
-[HHKR10]|m
-[HKV11]|m
-[KV09]|m
-[KVar]|m
-[LRCR13]|m
-[MMZ+11]|m
-[MP92]|m
-[MSS99]|m
-[SS09]|m
-[TH06]|m
-[Wan95]|m</t>
+    <t>ref1,[AAR09],Efficient Generation of Craig Interpolants in Satisfiability Modulo Theories,In ACM Transactions on Computational Logic,A Cimatti,A Griggio,R Sebastiani,12,2009-10,2009,10,j
+ref2,[And02],An Introduction to Mathematical Logic and Type Theory: To Truth Through Proof,Peter B Andrews,2002,2002,m
+ref3,[BCC+03],Ofer Strichman, and Yunshan Zhu,Bounded Model Checking,Armin Biere,Alessandro Cimatti,Edmund M Clarke,58,2003,2003,m
+ref4,[BCD+05],Boogie: A Modular Reusable Verifier for Object-Oriented Programs,FMCO,Michael Barnett,Bor-Yuh Evan Chang,Robert DeLine,Bart Jacobs,K Rustan,M Leino,4111,364,387,2005,2005,m
+ref5,[BMSW10],HOL-Boogie—An Interactive Prover-Backend for the Verifying C Compiler,Sascha Böhme,Michał Moskal,Wolfram Schulte,Burkhart Wolff,44,111,144,2010-02,2010,2,m
+ref6,[CC77],Abstract Interpretation: A Unified Lattice Model for Static Analysis of Programs by Construction or Approximation of Fixpoints,Patrick Cousot,Radhia Cousot,238,252,1977,1977,m
+ref7,[Coo71],The complexity of theorem-proving procedures,Stephen A Cook,151,158,1971,1971,m
+ref8,[DdM06],A Fast Linear-Arithmetic Solver for DPLL(T),Bruno Dutertre,Leonardo de Moura,81,94,2006,2006,m
+ref9,[Dij75],Guarded Commands, Nondeterminacy and Formal Derivation of Programs,E W Dijkstra,18,453,457,1975,1975,m
+ref10,[DL62],A machine program for theorem-proving,Martin Davis,George Logemann,Donald Loveland,5,394,397,1962-07,1962,7,m
+ref11,[dMB11],Satisfiability modulo theories: introduction and applications,Leonardo de Moura,Nikolaj Bjørner,54,69,77,2011,2011,m
+ref12,[DP60],A Computing Procedure for Quantification Theory,Martin Davis,Hilary Putnam,7,201,215,1960-07,1960,07,m
+ref13,[DW50],Principles of Mathematical Logic,Chelsea Publishing Company,D Ackermann,W Ackermann,1950,1950,m
+ref14,[ES04],An Extensible SAT-solver,Niklas Eén,Niklas Sörensson,2919,502,518,2004,2004,m
+ref15,[FM10],Inferring Loop Invariants using Postconditions,Fields of Logic and Computation: Essays Dedicated to Yuri Gurevich on the Occasion of His 70th Birthday,Carlo A Furia,Bertrand Meyer,2010,2010,m
+ref16,[G.S83],On the Complexity of Derivation in Propositional Calculus,G S Tseitin,466,483,1983,1983,m
+ref17,[HHKR10],Aligators for Arrays (Tool Paper),Thomas A Henzinger,Thibaud Hottelier,Laura Kovács,Andrey Rybalchenko,6397,348,356,2010,2010,m
+ref18,[HKV11],Case Studies on Invariant Generation Using a Saturation Theorem Prover,10th Mexican International Conference on Artificial Intelligence, MICAI,Krystof Hoder,Laura Kovacs,Andrei Voronkov,2011,2011,m
+ref19,[KV09],Finding Loop Invariants for Programs over Arrays Using a Theorem Prover,International Symposium on Symbolic and Numeric Algorithms for Scientific Computing, SYNASC,Laura Kovacs,Andrei Voronkov,2009,2009,m
+ref20,[KVar],First-Order Theorem Proving and Vampire,Proceedings of the International Conference on Computer Aided Veri cation (CAV), LNCS,Laura Kovacs,Andrei Voronkov,to appear,2013,2013,m
+ref21,[LRCR13],SMT-Based Array Invariant Generation,14th International Conference Verification, Model Checking, and Abstract Interpretation, VMCAI,Daniel Larraz,Enric Rodriguez-Carbonell,Albert Rubio,2013,2013,m
+ref22,[MMZ+11],Lintao Zhang, and Sharad Malik. Chaff: Engineering an Efficient SAT Solver,Matthew W Moskewicz,Conor F Madigan,Ying Zhao,2011,2011,m
+ref23,[MP92],The Temporal Logic of Reactive and Concurrent Systems,Springer,Z Manna,A Pnueli,1992,1992,m
+ref24,[MSS99],GRASP: a search algorithm for propositional satisfiability,J Marques-Silva,K Sakallah,506,521,1999-05,1999,5,m
+ref25,[SS09],Program Verification using Template over Predicate Abstraction,Proc. of PLDI,S Strivastava,S Gulwani,2009,2009,m
+ref26,[TH06],FaCT++ Description Logic Reasoner: System Description,Dmitry Tsarkov,Ian Horrocks,4130,292,297,2006,2006,m
+ref27,[Wan95],A branching heuristic for testing propositional satisfiability,Jinchang Wang,1995-10-05,1995,10,05,m</t>
+  </si>
+  <si>
+    <t>ref1,41 5.2 Discussions and,2 Preliminaries 3 2,logic . . . . . . . . . . . . . . . . . . . . . . . . 3,solvers . . . . . . . . . . . . . . . . . . . . . . . . . . . . 4,Boogie . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Cpp-Inv . . . . . . . . . . . .,Lingva . . . . . . . . . . . . . . . . . . . .,Results . . . . . . . . . . . . . .,. . . . . . . . . . . . . . .,Conclusions . . . . . . . . . . . . . . . . . . . 53,2</t>
   </si>
   <si>
     <t>TUW-228620</t>
   </si>
   <si>
-    <t>(acatech 2011)|m
-(Accorsi 2011)|m
-(Asokan et al. 2013)|m
-(Avizienis et al. 2004)|j
-(Biggio et al. 2012)|m
-(Bons et al. 2012)|j
-(BSI 2011)|m
-(Buneman et al. 2001)|m
-(Camenisch and Lysanskaya 2001)|m
-(Chaum 1985)|j
-(Dekker et al. 2013)|j
-(DIVSI 2012)|m
-(Dolev and Yao 1983)|j
-(Domingos 2012)|j
-(European Commission 2009)|j
-(European Commission 2010)|j
-(Fischer et al. 1985)|j
-(Freire et al. 2013)|m
-(Furubotn and Richter 2005)
-(Gärtner 1999)|j
-(Gilliot et al. 2009)|m
-(Haimes 2009)|j
-(Hilty et al. 2005)|m
-(Holling 2001)|j
-(Huang et al. 2011)
-(IBM Corporation 2008)|j
-(Karjoth et al. 2002)|m
-(Naehrig et al. 2011)|m
-(Pfitzmann and Hansen 2010)|m
-(Pfitzmann and Waidner 1992)|m
-(Pretschner et al. 2006)|j
-(Prime Minister of Japan and His Cabinet 2013)|m
-(Rannenberg et al. 1999)|m
-(Riemer et al. 2009)|j
-(Ristenpart et al. 2009)|m
-(Sackmann et al. 2006)|j
-(Samarati and de Capitani di Vimercati 2001)|m
-(Sonehara et al. 2011)|m
-(Van der Aalst 2012)
-(Wahlster and Müller 2013)|j
-(Wang and Ju 2006)|m
-(Weitzner et al. 2008)|j
-(Whitten and Tygar 1999)|m
-(Wohlgemuth and Müller 2006)|m
-(Wohlgemuth et al. 2010)|j</t>
+    <t>ref1,(acatech 2011),Cyber-physical systems. Driving force for innovation in mobility, health, energy and production,acatech POSITION PAPER,acatech,,2011,http://www.acatech.de/fileadmin/user_upload/Baumstruktur_nach_Website/Acatech/root/de/Publikationen/Stellungnahmen/acatech_POSITION_CPS_Englisch_WEB.pdf,m
+ref2,(Accorsi 2011),BBox: A distributed secure log architecture,7th European Conference on Public-Key Infrastructures, Services and Applications (EuroPKI'10),R Accorsi,109,124,2011,2011,m
+ref3,(Asokan et al. 2013),Mobile platform security-Synthesis lectures on information security, privacy, and trust,Morgan &amp; Claypool Publishers,N Asokan,L Davi,A Dmitrienko,S Heuser,K Kostiainen,E Reshetova,et al.,2013,2013,m
+ref4,(Avizienis et al. 2004),Basic concepts and taxonomy of dependable and secure computing,IEEE Transactions on Dependable and Secure Computing,IEEE,A Avizienis,J.-C. Laprie,B Randell,C Landwehr,1,1,11,33,2004,2004,j
+ref5,(Biggio et al. 2012),Poisoning attacks against support vector machines,29th Int. Conf. on Machine Learning (ICML),B Biggio,B Nelson,P Laskov,2012,2012,m
+ref6,(Bons et al. 2012),Banking in the internet and mobile era,EM - Electronic Markets,Springer,R W H Bons,R Alt,H G Lee,B Weber,22,4,197,202,2012,2012,j
+ref7,(BSI 2011),The IT security situation in Germany in 2011,BSI,Bundesamt für Sicherheit in der Informationstechnik (BSI)-Federal Office for Information Security,,2011,https://www.bsi.bund.de/EN/Publications/SecuritySituation/SecuritySituation_node.html.,m
+ref8,(Buneman et al. 2001),Why and where: A characterization of data provenance,ICDT 2001,Springer,P Buneman,S Khanna,W C Tan,LNCS 1973,316,330,2001,2001,m
+ref9,(Camenisch and Lysanskaya 2001),An efficient system for nontransferable anonymous credentials with optional anonymity revocation,EUROCRYPT'01,Springer,J Camenisch,A Lysanskaya,LNCS 2045,93,118,2001,2001,m
+ref10,(Chaum 1985),Security without identification: transaction systems to make big brother obsolete,Communications of the ACM,ACM,D Chaum,28,10,1030,1044,1985,1985,j
+ref11,(Dekker et al. 2013),Annual incident reports 2012-analysis of article 13a incident reports,European Union Agency for Network and Information Security (ENISA),M Dekker,C Karsberg,M Lakka,2013,http://www.enisa.europa.eu/activities/Resilience-and-CIIP/Incidentsreporting/annual-reports/annual-incident-reports-2012,j
+ref12,(DIVSI 2012),DIVSI Milieu study on trust and security on the Internet, condensed version,Deutsches Institut für Vertrauen und Sicherheit im Internet (DIVSI),,2012,https://www.divsi.de/publikationen/studien/divsi-milieu-studie/,m
+ref13,(Dolev and Yao 1983),On the security of public key protocols,IEEE Transactions on Information Theory,IEEE Computer Society,D Dolev,A C Yao,29,2,198,208,1983,1983,j
+ref14,(Domingos 2012),A few useful things to know about machine learning,Communications of the ACM,ACM,P Domingos,55,10,78,87,2012,2012,j
+ref15,(European Commission 2009),Directive 2009/140/EC of the European Parliament and of the Council of 25 November 2009 amending Directives 2002/21/EC on a common regulatory framework for electronic communications networks and services, 2002/19/EC on access to, and interconnection of, electronic communications networks and associated facilities, and 2002/20/EC on the authorisation of electronic communications networks and services.,Official Journal of the European Communities, L 337,European Commission,,25,37,69,2009,2009,j
+ref16,(European Commission 2010),A digital agenda for Europe,Communication from the Commission to the European Parliament, the Council, the European Economic and Social Committee and the Committee of the Regions, COM 245 final/2.,European Commission,,2010,2010,j
+ref17,(Fischer et al. 1985),Impossibility of distributed consensus with one faulty process,Journal of the ACM,ACM,M J Fischer,N A Lynch,M S Paterson,32,2,374,382,1985,1985,j
+ref18,(Freire et al. 2013),Non-interactive key exchange,PKC 2013. LNCS 7778,Springer,E Freire,D Hofheinz,E Kiltz,K Paterson,254,271,2013,2013,m
+ref19,(Furubotn and Richter 2005),Institutions and economic theory: The contribution of the new institutional economics,University of Michigan Press,E G Furubotn,R Richter,2,Ann Arbor,2005,2005
+ref20,(Gärtner 1999),Fundaments of fault-tolerant distributed computing in asynchronous environments,ACM Computing Surveys,ACM,F Gärtner,31,1,1,26,1999,1999,j
+ref21,(Gilliot et al. 2009),Privacy and identity,The Future of Identity on the Information Society,Springer,M Gilliot,V Matyas,S Wohlgemuth,351,390,2009,2009,m
+ref22,(Haimes 2009),On the definition of resilience in systems,Risk Analysis,Society for Risk Analysis,Y Y Haimes,29,4,498,501,2009,2009,j
+ref23,(Hilty et al. 2005),On obligations,ESORICS'05, LNCS 3679,Springer,M Hilty,D Basin,A Pretschner,98,117,2005,2005,m
+ref24,(Holling 2001),Understanding the complexity of economic, ecological, and social systems,Ecosystems,Springer,C S Holling,4,5,390,405,2001,2001,j
+ref25,(Huang et al. 2011),AdversarialMachine Learning,4th ACM Workshop on Security and Artificial Intelligence,ACM,L Huang,A D Joseph,B Nelson,I Rubenstein,J Tygar,43,58,2011,2011
+ref26,(IBM Corporation 2008),A mandate for change is a mandate for smart,IBM Smarter Planet,IBM Corporation,2008,https://www.ibm.com/smarterplanet/global/files/us__en_us__overview__68655_08_522_11092012.pdf,j
+ref27,(Karjoth et al. 2002),Platform for enterprise privacy practices: Privacy-enabled management of customer data,2nd International Conference on Privacy-Enhancing Technologies (PET'02),Springer,G Karjoth,M Schunter,M Waidner,69,84,2002,2002,m
+ref28,(Naehrig et al. 2011),Can homomorphic encryption be practical?,3rd ACM Workshop on Cloud Computing Security (CCSW'11),ACM,M Naehrig,K Lauter,V Vaikuntanathan,113,124,2011,2011,m
+ref29,(Pfitzmann and Hansen 2010),Anonymity, unlinkability, unobservability, pseudonymity, and identity management-A consolidated proposal for terminology,Anon Terminology v0.34,TU Dresden and ULD Schleswig-Holstein,A Pfitzmann,M Hansen,2010,http://dud.inf.tu-dresden.de/Anon_Terminology.shtml,m
+ref30,(Pfitzmann and Waidner 1992),Unconditional byzantine agreement for any number of faulty processes,STACS'92, LNCS 577,Springer,B Pfitzmann,M Waidner,339,350,1992,1992,m
+ref31,(Pretschner et al. 2006),Distributed usage control,Communications of the ACM,ACM,A Pretschner,M Hilty,D Basin,49,9,39,44,2006,2006,j
+ref32,(Prime Minister of Japan and His Cabinet 2013),Declaration to be the world’s most advanced IT nation,Strategic headquarters for the promotion of an advanced information and telecommunications network society,Prime Minister of Japan and His Cabinet,,2013,http://japan.kantei.go.jp/policy/it/2013/0614_declaration.pdf,m
+ref33,(Rannenberg et al. 1999),IT security and multilateral security,Multilateral Security in CommunicationsTechnology, Infrastructure, Economy,Addison-Wesley-Longman,K Rannenberg,A Pfitzmann,G Müller,21,29,1999,1999,m
+ref34,(Riemer et al. 2009),eCollaboration: on the nature and emergence of communication and collaboration technologies,EM - Electronic Markets,Springer,K Riemer,C Steinfield,D Vogel,19,4,181,188,2009,2009,j
+ref35,(Ristenpart et al. 2009),Hey, you, get off of my cloud: Exploring information leakage in third-party compute clouds,16th ACM CCS,ACM,T Ristenpart,E Tromer,H Shacham,S Savage,199,212,2009,2009,m
+ref36,(Sackmann et al. 2006),Personalization in privacy-aware highly dynamic systems,Communications of the ACM,ACM,S Sackmann,J Strüker,R Accorsi,49,9,32,38,2006,2006,j
+ref37,(Samarati and de Capitani di Vimercati 2001),Access control: Policies, models, and mechanisms,FOSAD 2000, LNCS 2171,Springer,P Samarati,S de Capitani di Vimercati,2171,134,196,2001,2001,m
+ref38,(Sonehara et al. 2011),Isolation in cloud computing and privacy-enhancing technologies,Special Issue‘Sustainable Cloud Computing’ BISE,Gabler,N Sonehara,I Echizen,S Wohlgemuth,3,3,155,162,2011,2011,m
+ref39,(Van der Aalst 2012),Process mining,Communications of the ACM,ACM,A Van der Aalst,55,8,76,83,2012,2012
+ref40,(Wahlster and Müller 2013),Placing humans in the feedback loop of social infrastructures - NII research strategies on cyber-physical systems,Informatik Spektrum,Springer,W Wahlster,G Müller,36,6,520,529,2013,2013,j
+ref41,(Wang and Ju 2006),The dilemma of covert channels searching,Information Security and Cryptology - ICISC 2005, LNCS 3935,Springer,C Wang,S Ju,3935,169,174,2006,2006,m
+ref42,(Weitzner et al. 2008),Information accountability,Communications of the ACM,ACM,D J Weitzner,H Abelson,T Berners-Lee,J Feigenbaum,J Hendler,G J Sussman,51,6,82,87,2008,2008,j
+ref43,(Whitten and Tygar 1999),Why Johnny can't encrypt: A usability evaluation of PGP 5.0',8th USENIX Security Symposium (SSYM’99),A Whitten,J D Tygar,8,SSYM'99),169,184,1999,1999,m
+ref44,(Wohlgemuth and Müller 2006),Privacy with delegation of rights by identity management,ETRICS 2006, LNCS 3995,Springer,S Wohlgemuth,G Müller,175,190,2006,2006,m
+ref45,(Wohlgemuth et al. 2010),Tagging disclosures of personal data to third parties to preserve privacy,SEC 2010,S Wohlgemuth,I Echizen,N Sonehara,G Müller,330,IFIP AICT 330, IFIP,241,252,2010,2010,j</t>
+  </si>
+  <si>
+    <t>ref1,Englisch_WEB.pdf,Accessed 27 Feb,,2014
+ref2,BBox: A distributed secure log architecture,7th European Conference on Public-Key Infrastructures, Services and Applications (EuroPKI'10),R. Accorsi,109,124,2011
+ref3,Mobile platform security-Synthesis lectures on information security, privacy, and trust,N. Asokan,L. Davi,A. Dmitrienko,S. Heuser,K. Kostiainen,E. Reshetova,2013
+ref4,Basic concepts and taxonomy of dependable and secure computing,IEEE Transactions on Dependable and Secure Computing,A. Avizienis,J.-C. Laprie,B. Randell,C. Landwehr,1,1,11,33,2004
+ref5,Poisoning attacks against support vector machines,29th Int. Conf. on Machine Learning (ICML).,B. Biggio,B. Nelson,P. Laskov,2012
+ref6,Banking in the internet and mobile era,EM - Electronic Markets,R. W. H. Bons,R. Alt,H. G. Lee,B. Weber,22,4,197,202,2012
+ref7,The IT security situation in Germany in 2011, BSI,html. Accessed 27 Feb,,2014
+ref8,LNCS 1973,ICDT,P. Buneman,S. Khanna,W. C. Tan,316,330,2001
+ref9,An efficient system for nontransferable anonymous credentials with optional anonymity revocation,EUROCRYPT'01,J. Camenisch,A. Lysanskaya,LNCS,93,118,2045
+ref10,Security without identification: transaction systems to make big brother obsolete,Communications of the ACM,D. Chaum,28,10,1030,1044,1985
+ref11,Annual incident reports 2012-analysis of article 13a incident reports. European Union Agency for Network and Information Security (ENISA),2012. Accessed 27 Feb,M. Dekker,C. Karsberg,M. Lakka,-CIIP,2014
+ref12,(2012). DIVSI Milieu study on trust and security on the Internet, condensed version,Accessed 27 Feb,,2014
+ref13,On the security of public key protocols,IEEE Transactions on Information Theory,D. Dolev,A. C. Yao,29,2,198,208,1983
+ref14,A few useful things to know about machine learning,Communications of the ACM,P. Domingos,55,10,78,87,2012
+ref15,and interconnection of, electronic communications networks and associated facilities, and 2002/20/EC on the authorisation of electronic communications networks and services,Official Journal of the European Communities, L,European Commission,337,37,69,2002
+ref16,A digital agenda for Europe. Communication from the Commission to the European Parliament, the Council, the European Economic and Social Committee and the Committee of the Regions,COM 245 final/2.,European Commission,2010
+ref17,Impossibility of distributed consensus with one faulty process,Journal of the ACM,M. J. Fischer,N. A. Lynch,M. S. Paterson,32,2,374,382,1985
+ref18,Non-interactive key exchange,PKC 2013. LNCS 7778,E. Freire,D. Hofheinz,E. Kiltz,K. Paterson,254,271,2013
+ref19,Institutions and economic theory: The contribution of the new institutional economics (2nd ed,E. G. Furubotn,R. Richter,2005
+ref20,Fundaments of fault-tolerant distributed computing in asynchronous environments,ACM Computing Surveys,F. Gärtner,31,1,1,26,1999
+ref21,Privacy and identity,The Future of Identity on the Information Society,M. Gilliot,V. Matyas,S. Wohlgemuth,351,390,2009
+ref22,Society for Risk Analysis,Risk Analysis,Y. Y. Haimes,29,4,498,501,2009
+ref23,On obligations,ESORICS'05, LNCS 3679,M. Hilty,D. Basin,A. Pretschner,98,117,2005
+ref24,Understanding the complexity of economic, ecological, and social systems,Ecosystems,C. S. Holling,4,5,390,405,2001
+ref25,Adversarial Machine Learning. 4th ACM Workshop on Security and Artificial Intelligence, ACM,L. Huang,A. D. Joseph,B. Nelson,I. Rubenstein,J. Tygar,43,58,2011
+ref26,A mandate for change is a mandate for smart,Accessed 27 Feb,IBM Corporation.,68655,11092012,2014
+ref27,Platform for enterprise privacy practices: Privacy-enabled management of customer data,2nd International Conference on Privacy-Enhancing Technologies (PET'02),G. Karjoth,M. Schunter,M. Waidner,69,84,2002
+ref28,Can homomorphic encryption be practical? 3rd ACM Workshop on Cloud Computing Security (CCSW'11),M. Naehrig,K. Lauter,V. Vaikuntanathan,113,124,2011
+ref29,Anonymity, unlinkability, unobservability, pseudonymity, and identity management-A consolidated proposal for terminology,Accessed 27 Feb,A. Pfitzmann,M. Hansen,TU Dresden,2014
+ref30,Unconditional byzantine agreement for any number of faulty processes,STACS'92, LNCS 577,B. Pfitzmann,M. Waidner,339,350,1992
+ref31,Distributed usage control,Communications of the ACM,A. Pretschner,M. Hilty,D. Basin,49,9,39,44,2006
+ref32,Strategic headquarters for the promotion of an advanced information and telecommunications network society,pdf. Accessed 27 Feb,,2014
+ref33,IT security and multilateral security,K. Rannenberg,A. Pfitzmann,G. Müller,21,29,1999
+ref34,eCollaboration: on the nature and emergence of communication and collaboration technologies,EM - Electronic Markets,K. Riemer,C. Steinfield,D. Vogel,19,4,181,188,2009
+ref35,Hey, you, get off of my cloud: Exploring information leakage in third-party compute clouds,16th ACM CCS, ACM,T. Ristenpart,E. Tromer,H. Shacham,S. Savage,199,212,2009
+ref36,Personalization in privacy-aware highly dynamic systems,Communications of the ACM,S. Sackmann,J. Strüker,R. Accorsi,49,9,32,38,2006
+ref37,Access control: Policies, models, and mechanisms,FOSAD 2000. LNCS 2171,P. Samarati,S.,134,196,2001
+ref38,Isolation in cloud computing and privacy-enhancing technologies,Special Issue 'Sustainable Cloud Computing' BISE,N. Sonehara,I. Echizen,S. Wohlgemuth,3,3,155,162,2011
+ref39,Process mining,Communications of the ACM,W. Van der Aalst,55,8,76,83,2012
+ref40,Placing humans in the feedback loop of social infrastructures - NII research strategies on cyber-physical systems,Informatik Spektrum,W. Wahlster,G. Müller,36,6,520,529,2013
+ref41,The dilemma of covert channels searching,Information Security and Cryptology - ICISC,C. Wang,S. Ju,169,174,2005
+ref42,Information accountability,Communications of the ACM,D. J. Weitzner,H. Abelson,T. Berners-Lee,J. Feigenbaum,J. Hendler,G. J. Sussman,51,6,82,87,2008
+ref43,Why Johnny can't encrypt: A usability evaluation of PGP 5.0', 8th,USENIX Security Symposium Volume 8 (SSYM'99),A. Whitten,J. D. Tygar,169,184,1999
+ref44,Privacy with delegation of rights by identity management,ETRICS,S. Wohlgemuth,G. Müller,175,190,2006
+ref45,IFIP AICT 330,SEC,S. Wohlgemuth,I. Echizen,N. Sonehara,G. Müller,241,252,2010</t>
   </si>
   <si>
     <t>TUW-231707</t>
   </si>
   <si>
+    <t>ref1,VRVIS,2014,www.vrvis.at</t>
+  </si>
+  <si>
     <t>TUW-233317</t>
   </si>
   <si>
-    <t>m
-m
-m
-j
-m
-m
-j
-m
-m
-m
-j
-m
-m
-j</t>
+    <t>ref1,Sensemaking in visual analytics: Processes and challenges,EuroVAST 2010: Intern. Symp. on VAST,Eurographics Association,J. Kohlhammer and D. Keim,S J Attfield,S K Hara,B L W Wong,Bordeaux, France,1,6,2010,2010,m
+ref2,Data Quality: Concepts, Methodologies and Techniques (Data-Centric Systems and Applications),Springer Verlag New York, Inc.,C Batini,M Scannapieco,Secaucus, NJ, USA,2006,2006,m
+ref3,Why and where: A characterization of data provenance,Intern. Conf. DB Theory,Springer,J. V. d. Bussche and V. Vianu,P Buneman,S Khanna,W C Tan,LNCS 1973,316,330,2001,2001,m
+ref4,A primer on provenance,Queue,L Carata,S Akoush,N Balakrishnan,T Bytheway,R Sohan,M Seltzer,A Hopper,12,3,10:10–10:23,2014-03,2014,3,j
+ref5,Using web data provenance for quality assessment,CEUR Workshop Proceedings. CEUR-WS.org,J. Freire, P. Missier, and S. S. Sahoo,O Hartig,J Zhao,526,SWPM;CEUR-WS.org,2009-10,2009,10,m
+ref6,Contextifier: Automatic generation of annotated stock visualizations,Proc. SIGCHI Conf. Human Factors in Computing Systems, CHI '13,ACM,J Hullman,N Diakopoulos,E Adar,New York, NY, USA,2707,2716,2013,2013,m
+ref7,Research directions in data wrangling: Visualizations and transformations for usable and credible data,Inf. Vis. Journal,S Kandel,J Heer,C Plaisant,J Kennedy,F van Ham,N H Riche,C Weaver,B Lee,D Brodbeck,P Buono,10,4,271,288,2011,2011,j
+ref8,Profiler: Integrated statistical analysis and visualization for data quality assessment,Proc. Intern. Working Conf. Advanced Visual Interfaces, AVI '12,ACM,S Kandel,R Parikh,A Paepcke,J M Hellerstein,J Heer,New York, NY, USA,547,554,2012,2012,m
+ref9,User-centric annotation management for biological data,Provenance and Annotation of Data and Processes,Springer Berlin Heidelberg,J. Freire, D. Koop, and L. Moreau,Q Li,A Labrinidis,P Chrysanthis,volume 5272 of Lecture Notes in Computer Science,54,61,2008,2008,m
+ref10,Analytic trails: Supporting provenance, collaboration, and reuse for visual data analysis by business users,Proc. 13th IFIP TC 13 Int. Conf. HCI-Vol. IV, INTERACT'11,J Lu,Z Wen,S Pan,J Lai,Berlin, Heidelberg,256,273,2011,2011,m
+ref11,The open provenance model core spec. (v1.1),Future Gen. Computer Systems,L Moreau,B Clifford,J Freire,J Futrelle,Y Gil,P Groth,N Kwasnikowska,S Miles,P Missier,J Myers,B Plale,Y Simmhan,E Stephan,J V d Bussche,27,6,743,756,2011,2011,j
+ref12,Handbook of Data Quality,Springer Verlag,S. Sadiq,,Berlin, Heidelberg,2013,2013,m
+ref13,Supporting the analytical reasoning process in information visualization,Proc. SIGCHI Conference on Human Factors in Computing Systems, CHI '08,ACM,Y B Shrinivasan,J J van Wijk,New York, NY, USA,1237,1246,2008,2008,m
+ref14,A survey of data provenance in e-science,SIGMOD Rec,Y L Simmhan,B Plale,D Gannon,34,3,31,36,2005-09,2005,9,j</t>
+  </si>
+  <si>
+    <t>ref1,Sensemaking in visual analytics: Processes and challenges,EuroVAST 2010: Intern. Symp. on VAST,S. J. Attfield,S. K. Hara,B. L. W. Wong,1,6,2010
+ref2,Methodologies and Techniques (Data-Centric Systems and Applications),C. Batini,M. Scannapieco,2006
+ref3,Why and where: A characterization of data provenance,Intern. Conf. DB Theory,P. Buneman,S. Khanna,W. C. Tan,316,330,2001
+ref4,A primer on provenance,Queue,L. Carata,S. Akoush,N. Balakrishnan,T. Bytheway,R. Sohan,M. Seltzer,A. Hopper,Mar,10,3,23,10,2014
+ref5,Using web data provenance for quality assessment,of CEUR Workshop Proceedings. CEUR-WS.org, Oct,O. Hartig,J. Zhao,P. Missier,526,2009
+ref6,Automatic generation of annotated stock visualizations,In Proc. SIGCHI Conf. Human Factors in Computing Systems, CHI '13,J. Hullman,N. Diakopoulos,E. Adar,2707,2716,2013
+ref7,Research directions in data wrangling: Visualizations and transformations for usable and credible data,Inf. Vis. Journal,S. Kandel,J. Heer,C. Plaisant,J. Kennedy,F. van Ham,N. H. Riche,C. Weaver,B. Lee,D. Brodbeck,P. Buono,10,4,271,288,2011
+ref8,Integrated statistical analysis and visualization for data quality assessment,AVI '12,S. Kandel,R. Parikh,A. Paepcke,J. M. Hellerstein,J. Heer,547,554,2012
+ref9,User-centric annotation management for biological data,Provenance and Annotation of Data and Processes,Q. Li,A. Labrinidis,P. Chrysanthis,D. Koop,5272,54,61,2008
+ref10,Analytic trails: Supporting provenance, collaboration, and reuse for visual data analysis by business users,In Proc. 13th IFIP TC 13 Int. Conf. HCI - Vol. IV, INTERACT'11,J. Lu,Z. Wen,S. Pan,J. Lai,256,273,2011
+ref11,The open provenance model core spec,Computer Systems,L. Moreau,B. Clifford,J. Freire,J. Futrelle,Y. Gil,P. Groth,N. Kwasnikowska,S. Miles,P. Missier,J. Myers,B. Plale,Y. Simmhan,J. V. d. Bussche.,27,6,743,756,2011
+ref12,Handbook of Data Quality,S. Sadiq,2013
+ref13,the analytical reasoning process in information visualization,In Proc. SIGCHI Conference on Human Factors in Computing Systems, CHI '08,Y. B. Shrinivasan,J. J. van Wijk. Supporting,1237,1246,2008
+ref14,A survey of data provenance in e-science,SIGMOD Rec,Y. L. Simmhan,B. Plale,D. Gannon,34,3,31,36,2005</t>
   </si>
   <si>
     <t>TUW-233657</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-m
-m
-j
-j
-j
-j
-j
-m
-m</t>
+    <t>ref1,Assessing the Role and Value of Interactivity in Visual Business Intelligence - A User's Perspective,masterstheses,Danube University Krems,W Aigner,Austria,2009,2009,m
+ref2,Useful junk?: The effects of visual embellishment on comprehension and memorability of charts,Proceedings of the SIGCHI Conference on Human Factors in Computing Systems, CHI '10,ACM,S Bateman,R L Mandryk,C Gutwin,A Genest,D McDine,C Brooks,New York, NY, USA,2573,2582,2010,2010,m
+ref3,The persuasive phase of visualization,Proceedings of the 14th ACM SIGKDD international conference on Knowledge discovery and data mining,ACM,C H Chih,D S Parker,884,892,2008,2008,m
+ref4,Persuasive technology: using computers to change what we think and do,Ubiquity,,B J Fogg,2002,December,5,2002,2002,m
+ref5,Grand challenges for information visualization,Panel at IEEE VisWeek,G Grinstein,D Keim,T Munzner,2008,2008,m
+ref6,Designing for persuasion: toward ambient eco-visualization for awareness,Persuasive technology,Springer,T Kim,H Hong,B Magerko,106,116,2010,2010,m
+ref7,Storytelling: The next step for visualization,Computer,R Kosara,J Mackinlay,46,5,44,50,2013,2013,j
+ref8,Sketchstory: Telling more engaging stories with data through freeform sketching,Visualization and Computer Graphics, IEEE Transactions on,B Lee,R H Kazi,G Smith,19,12,2416,2425,2013,2013,j
+ref9,Effectiveness of animation in trend visualization,Visualization and Computer Graphics, IEEE Transactions on,G Robertson,R Fernandez,D Fisher,B Lee,J Stasko,14,6,1325,1332,2008,2008,j
+ref10,Representation and misrepresentation: Tufte and the morton thiokol engineers on the challenger,Science and Engineering Ethics,W Robison,8,1,59,81,2002,2002,j
+ref11,Narrative visualization: Telling stories with data,Visualization and Computer Graphics, IEEE Transactions on,E Segel,J Heer,16,6,1139,1148,2010-11,2010,11,j
+ref12,The Visual Display of Quantitative Information,Graphics Press,E R Tufte,Cheshire, CT,1983,1983,m
+ref13,Visual explanations: images and quantities, evidence and narrative,Graphics Press Cheshire,E R Tufte,E Weise Moeller,CT,36,1997,1997,m</t>
+  </si>
+  <si>
+    <t>ref1,Assessing the Role and Value of Interactivity in Visual Business Intelligence - A User's Perspective,W. Aigner,3,2009
+ref2,Useful junk?: The effects of visual embellishment on comprehension and memorability of charts,In Proceedings of the SIGCHI Conference on Human Factors in Computing Systems, CHI '10,S. Bateman,R. L. Mandryk,C. Gutwin,A. Genest,D. McDine,C. Brooks,2573,2582,2010
+ref3,The persuasive phase of visualization,In Proceedings of the 14th ACM SIGKDD international conference on Knowledge discovery and data mining,C. H. Chih,D. S. Parker,884,892,2008
+ref4,Persuasive technology: using computers to change what we think and do,Ubiquity,B. J. Fogg,5,2002
+ref5,Grand challenges for information visualization,Panel at IEEE VisWeek,G. Grinstein,D. Keim,T. Munzner,2008
+ref6,Designing for persuasion: toward ambient eco-visualization for awareness,In Persuasive technology,T. Kim,H. Hong,B. Magerko,106,116,2010
+ref7,The next step for visualization,Computer,R. Kosara,J. Mackinlay,1,5,3,50,2013
+ref8,Sketchstory: Telling more engaging stories with data through freeform sketching,Visualization and Computer Graphics,B. Lee,R. H. Kazi,G. Smith.,19,12,2416,2425,2013
+ref9,Effectiveness of animation in trend visualization,Visualization and Computer Graphics,G. Robertson,R. Fernandez,B. Lee,and J. Stasko,14,6,1325,1332,2008
+ref10,Representation and misrepresentation: Tufte and the morton thiokol engineers on the challenger,Science and Engineering Ethics,W. Robison,8,1,59,81,2002
+ref11,Narrative visualization: Telling stories with data,Visualization and Computer Graphics,E. Segel,J. Heer,16,6,1,1148,Nov 2010
+ref12,The Visual Display of Quantitative Information,E. R. Tufte,CT,1983</t>
   </si>
   <si>
     <t>TUW-236063</t>
   </si>
   <si>
-    <t>m
-m
-m</t>
+    <t>ref1,Seeing what others don΄t: The remarkable ways we gain insights,PublicAffairs, a Member of the Perseus Book Group,G A Klein,New York, USA,2013,2013,m
+ref2,A data-frame theory of sensemaking,Expertise Out of Context: Proc. of the Sixth International Conf. on Naturalistic Decision Making,G Klein,J Phillips,E Rall,D Peluso,Pensacola Beach, Florida,2003-05,2003,5,m
+ref4,Psychology of intelligence analysis,Novinka/Nova Science,R J Heuer,New York, USA,1999,1999,m</t>
+  </si>
+  <si>
+    <t>ref1,Seeing what others don't: The remarkable ways we gain insights,G. A. Klein,2013
+ref2,A data-frame theory of sensemaking,” in Expertise Out of Context: Proc. of the Sixth International Conf. on Naturalistic Decision Making, Pensacola Beach,G. Klein,J. Phillips,E. Rall,D. Peluso,2003
+ref3,Psychology of intelligence analysis,R. J. Heuer,1999</t>
   </si>
   <si>
     <t>TUW-236120</t>
   </si>
   <si>
-    <t xml:space="preserve">
-m
-m
-m
-m
-j
-j
-m
-m
-j
-m
-m
-j
-m
-m</t>
+    <t>ref1,Educational standards for vocational schools,Austria,http://www.bildungsstandards.berufsbildendeschulen.at/en/leitideen.html
+ref2,EQF-European Qualifications Framework,2008,2008,http://eur-lex.europa.eu/LexUriServ/LexUriServ.do?uri=CELEX:32008H0506%2801%29:EN:NOT
+ref3,Empirical refinement of a theoretically derived competence model for informatics modelling and system comprehension,Proceedings of IFIP-Conference Addressing Educational Challenges: The Role of ICT (AECRICT),Manchester Metropolitan University,B Linck,J Magenheim,W Nelles,J Neugebauer,L Ohrndorf,N Schaper,S Schubert,2012-07,2012,07,2-5,m
+ref4,Grundsätze und Standards für die Informatik in der Schule,LOG IN Nr. 150/151,,2008,2008,m
+ref5,Concept of Competence: A Conceptual Clarification,Defining and Selecting Key Competencies. Hofgrefe &amp; Huber,Hofgrefe &amp; Huber,Rychen, D., Sal-ganik, L.,F E Weinert,2001,2001,m
+ref6,Curricula for HTL,Bundesgesetzblatt Nr. 300/2011,Austria,http://www.htl.at/fileadmin/content/Lehrplan/HTL_VO_2011/BGBl_II_Nr_300_2011.pdf
+ref7,Bildungsstandards in der Berufsbildung - Projekthandbuch,http://www.bildungsstandards.berufsbildendeschulen.at/fileadmin/content/bbs/Handbuch_BIST_25.03.2013.pdf
+ref8,On Competence-Orientation and Learning Informatics,Informatics in Schools: Situation, Evolution and Perspectives, Proceedings of ISSEP 2011, Selected Papers (on CD),Library and Publishing Centre Comenius University,Bezakova, D., Kalas, I.,P Antonitsch,Bratislava,2011,2011,m
+ref9,Methodenpool,Reich, K.,http://methodenpool.uni-koeln.de,j
+ref10,Kompetenzfördernd unterrichten – 22 Schritte von der Theorie zur Praxis,Pädagogik,R Lersch,12,2007,2007,j
+ref11,Kompetenzorientiertes Unterrichten - Grundlagenpapier,bm:ukk,U Fritz,2011,2011,http://www.berufsbildendeschulen.at/fileadmin/content/bbs/KU/Grundlagenpapier_KU_Maerz2011.pdf,m
+ref12,A Taxonomy for Learning, Teaching, and Assessing: A Revision of Bloom's Taxonomy of Educational Objectives,Allyn &amp; Bacon,Anderson, L. W., David R., Krathwohl, D. R., et al,Boston, MA,2001,2001,m
+ref13,Höhere technische Lehranstalt für Informationstechnologie – Bildungsstandards in der Berufsbildung,http://www.berufsbildendeschulen.at/fileadmin/content/bbs/AGBroschueren/IT_V8.pdf
+ref14,Höhere technische Lehranstalt für Informationstechnologie - Fachrichtungsstandard,,http://www.bildungsstandards.berufsbildendeschulen.at/fileadmin/content/bbs/AGBroschueren/Fachrichtungsstandard_IT_08-09-2011_Druck.pdf,j
+ref15,Mittelfristige Perspektiven der HTL - Erhebung und Analysen zur Sicherung und Weiterentwicklung der Ausbildungsqualität,A Schneeberger,2008-06,2008,6,http://www.ibw.at/html/rb/pdf/rb_43_schneeberger.pdf,m
+ref16,HTL und Qualifikationsbedarf der Wirtschaft - Analysen zur Arbeitsmarktlage und europäischer Vergleiche,A Schneeberger,A Petanovitsch,2009-03,2009,3,http://www.ibw.at/de/pruefungsunterlagen?page=shop.getfile&amp;file_id=306&amp;product_id=288,m
+ref17,International Standard Classification of Education,UNESCO,,1997,1997,http://www.unesco.org/education/information/nfsunesco/doc/isced_1997.htm,j
+ref18,Internationale Einstufung der österreichischen Berufsbildung - Adäquate ISCED-Positionierung als bildungspolitische Herausforderung,A Schneeberger,2010-05,2010,5,http://www.ibw.at/de/pruefungsunterlagen?page=shop.getfile&amp;file_id=404&amp;product_id=365,m
+ref19,Lehre von Software-Verifikation in der Berufsbildung unter dem Aspekt von Bildungsstandards,Master thesis,Vienna University of Technology,T Reinbacher,2010,2010,m</t>
+  </si>
+  <si>
+    <t>ref1,Educational standards for vocational schools,
+ref2,EQF - European Qualifications Framework,2801,2008
+ref3,Empirical refinement of a theoretically derived competence model for informatics,B. Linck,J. Magenheim,W. Nelles,J. Neugebauer,L. Ohrndorf,N. Schaper,S. Schubert</t>
   </si>
   <si>
     <t>TUW-237297</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-m
-j
-m
-m</t>
+    <t>ref1,How People Learn: Brain, Mind, Experience and School,National Academic Press,J D Bransford,A L Brown,R R Cocking,Washington,2000,2000,m
+ref2,360-degree Evaluation Framework for Doctoral Programs,Vienna University of Technology,M d C Calatrava Moreno,2014,2014,m
+ref2,Mind Over Machine: The power of Human Intuition and Expertise in the Era of the Computer,Free Press,H L Dreyfus,S E Dreyfus,New York,1986,1986,m
+ref3,Constructivism: New Implications for Instructional Technology,Constructivism and the Technology of Instruction: A Conversation,Duffy, T. M. and Jonassen, D. H.,T M Duffy,D H Jonassen,Hillsdale,1,16,1992,1992,m
+ref4,Self-Regulation and Learning,Handbook of Psychology. Part Two: Cognitive Contributions to Learning, Development, and Instruction,D H Schunk,B J Zimmerman,4,59,78,2003,2003
+ref5,,Handbook of Psychology. Part Two: Cognitive Contributions to Learning, Development, and Instruction,,59,78,m
+ref6,Is eLearning the Solution for Individual Learning,Electronic Journal of e-Learning,D Tavangarian,M Leypold,K Nölting,M Röser,D Voigt,2,2,273,280,2004,2004,j
+ref7,Bericht zur Spezialauswertung: Zeugnisse zu den Lehrveranstaltungen der Studieneingangs- und Orientierungsphase (StEOP) der Bachelorstudien Informatik für die Beginnkohorten der Wintersemester 2011-2012 an der TU Wien,Stabstelle Studienbezogene Daten, Vizerektorat für Lehre, Technische Universität Wien,Sh M Tauböck,2014,2014,m
+ref8,Modes of classroom assessment in computer science,Proceedings of the 12th International Conference on Computer Systems and Technologies, CompSysTech'11,ACM,H Tellioğlu,New York, USA,546,551,2011,2011,m</t>
+  </si>
+  <si>
+    <t>ref1,How People Learn: Brain, Mind, Experience and School,J. D. Bransford,A. L. Brown,R. R. Cocking,2000
+ref2,A 360-degree Evaluation Framework for Doctoral Programs,Calatrava Moreno,2014
+ref3,Mind Over Machine: The power of Human Intuition and Expertise in the Era of the Computer,H. L. Dreyfus,S. E. Dreyfus,1986
+ref4,Constructivism and the Technology of Instruction: A Conversation,T. M. Duffy,D. H. Jonassen,T. M. Jonassen,D. H,1,16,1992
+ref5,Cognitive Contributions to Learning, Development, and,D. H. Schunk,B. J. Zimmerman,Instruction,59,78,2003
+ref6,Is eLearning the Solution for Individual Learning”,Electronic Journal of e-Learning,D. Tavangarian,M. Leypold,K. Nölting,M. Röser,D. Voigt,2,2,273,280,2004
+ref7,Bericht zur Spezialauswertung: Zeugnisse zu den Lehrveranstaltungen der Studieneingangs- und Orientierungsphase (StEOP) der Bachelorstudien Informatik für die Beginnkohorten der Wintersemester 2011-2012 an der TU Wien, Stabstelle Studienbezogene Daten, Vizerektorat für Lehre, Technische Universität Wien,Sh. M. Tauböck,2014
+ref8,“Modes of classroom assessment in computer science”,in Proceedings of the 12th International Conference on Computer Systems and Technologies,H. Tellioğlu,ACM June,546,551,2011
+ref9,Е-mail: hilda.tellioglu@tuwien,Phone: +43 1 58801 18716,Assoc. Prof. Hilda Tellioğlu,PhD</t>
   </si>
   <si>
     <t>TUW-240858</t>
   </si>
   <si>
-    <t>m
-j
-j
-m
-j
-m
-m
-m
-m
-j
-m
-m
-j</t>
+    <t>ref1,Chase termination for guarded existential rules,PODS,M Calautti,G Gottlob,A Pieris,to appear,2015,2015,m
+ref2,Taming the infinite chase: Query answering under expressive relational constraints,J. Artif. Intell. Res,A Calì,G Gottlob,M Kifer,48,115,174,2013,2013,j
+ref3,A general Datalog-based framework for tractable query answering over ontologies,J. Web Sem,A Calì,G Gottlob,T Lukasiewicz,14,57,83,2012,2012,j
+ref4,The chase revisisted,PODS,A Deutsch,A Nash,J B Remmel,149,158,2008,2008,m
+ref5,Data exchange: Semantics and query answering,Theor. Comput. Sci,R Fagin,P G Kolaitis,R J Miller,L Popa,336,1,89,124,2005,2005,j
+ref6,All-instances termination of chase is undecidable,ICALP,T Gogacz,J Marcinkowski,293,304,2014,2014,m
+ref7,Anatomy of the chase. CoRR abs/1303.6682,G Grahne,A Onet,2013,2013,http://arxiv.org/abs/1303.6682,m
+ref8,Acyclicity conditions and their application to query answering in description logics,KR,B C Grau,I Horrocks,M Krötzsch,C Kupke,D Magka,B Motik,Z Wang,2012,2012,m
+ref9,Incomplete Data and Data Dependencies in Relational Databases,Morgan &amp; Claypool Publishers,S Greco,C Molinaro,F Spezzano,2012,2012,m
+ref10,Stratification criteria and rewriting techniques for checking chase termination,PVLDB,S Greco,F Spezzano,I Trubitsyna,4,11,1158,1168,2011,2011,j
+ref11,CWA-solutions for data exchange settings with target dependencies,PODS,A Hernich,N Schweikardt,113,122,2007,2007,m
+ref12,Generalized schema-mappings: From termination to tractability,PODS,B Marnette,13,22,2009,2009,m
+ref13,On chase termination beyond stratification,PVLDB,M Meier,M Schmidt,G Lausen,2,1,970,981,2009,2009,j</t>
+  </si>
+  <si>
+    <t>ref1,Chase termination for guarded existential rules,In: PODS,M. Calautti,G. Gottlob,A. Pieris,2015
+ref2,Taming the infinite chase: Query answering under expressive relational constraints,J. Artif. Intell. Res,A. Gottlob,G. Kifer,M.,48,115,174,2013
+ref3,A general Datalog-based framework for tractable query answering over ontologies,J. Web Sem,A. Gottlob,G. Lukasiewicz,T.,14,57,83,2012
+ref4,The chase revisisted,In: PODS,A. Deutsch,A. Nash,J.B. Remmel,149,158,2008
+ref5,Data exchange: Semantics and query answering,Theor. Comput. Sci,R. Fagin,P.G. Kolaitis,R.J. Miller,L. Popa,336,1,89,124,2005
+ref6,All-instances termination of chase is undecidable,In: ICALP,T. Gogacz,Marcinkowski,293,304,2014
+ref7,Anatomy of the chase,CoRR abs/1303,G. Grahne,A. Onet,2013
+ref8,Acyclicity conditions and their application to query answering in description logics,In: KR,B.C. Grau,I. Horrocks,M. Kupke,C. Magka,D. Motik,B. Wang,Z.,2012
+ref9,Incomplete Data and Data Dependencies in Relational Databases,S. Greco,C. Molinaro,F. Spezzano,2012
+ref10,Stratification criteria and rewriting techniques for checking chase termination,PVLDB,S. Greco,F. Spezzano,I. Trubitsyna,4,11,1158,1168,2011
+ref11,CWA-solutions for data exchange settings with target dependencies,In: PODS,A. Hernich,Schweikardt,113,122,2007
+ref12,Generalized schema-mappings: From termination to tractability,B. Marnette,13,22,2009
+ref13,On chase termination beyond stratification,PVLDB,M. Meier,M. Schmidt,Lausen,2,1,970,981,2009</t>
   </si>
   <si>
     <t>TUW-245336</t>
   </si>
   <si>
-    <t>j
-m
-m
-j
-j
-j
-j
-m
-m
-m
-j
-m
-m
-m
-j
-m
-m
-m
-m
-j
-j
-j
-m</t>
+    <t>ref1,The Reality of Homes Fit for Heroes: Design Challenges for Rehabilitation Technology at Home,Journal of Assistive Technologies,L Axelrod,G Fitzpatrick,J Burridge,S Mawson,P Smith,T Rodden,I Ricketts,3,2,35,43,2009,2009,j
+ref2,Negotiating Boundaries: Managing Disease at Home,CHI 2010: Proceedings of the 28th International Conference on Human Factors in Computing Systems,R Aarhus,S Ballegaard,New York,1223,1232,2010,2010,m
+ref3,Motivating mobility: designing for lived motivation in stroke rehabilitation,CHI 2011: Proceedings of the SIGCHI Conference on Human Factors in Computing Systems,M Balaam,S Rennick Egglestone,G Fitzpatrick,T Rodden,A M Hughes,A Wilkinson,T Nind,L Axelrod,E Harris,I Ricketts,S Mawson,J Burridge,New York,3073,3082,2011,2011,m
+ref4,Socially Dependable Design: The Challenge of Ageing Populations for HCI,Interacting with Computers,M Blythe,A Monk,K Doughty,17,6,672,689,2005,2005,j
+ref5,A Systematic Review of Lifestyle Monitoring Technologies,Journal of Telemedicine and Telecare,S Brownsell,D Bradley,S Blackburn,F Cardinaux,M Hawley,17,4,185,189,2011,2011,j
+ref6,Building a National Health IT System from the Middle Out,Journal of the American Medical Informatics Association,E Coiera,16,271,273,2009,2009,j
+ref7,Preventative Telehealth Supported Services for Early Stage Chronic Obstructive Pulmonary Disease: a Protocol for a Pragmatic Randomized Controlled Trial Pilot,Trials,D A Fitzsimmons,J Thompson,M Hawley,G A Mountain,12,6,2011,2011,j
+ref8,Telecare, Remote Monitoring and Care,Bioethics 9702,H Draper,T Sorell,195,200,2012,2012,m
+ref9,Design for Agency, Adaptivity and Reciprocity: Re-imagining AAL and Telecare Agendas,Designing Socially Embedded Technologies in the Real-World,G Fitzpatrick,A Huldtgren,L Malmborg,D Harely,W Ijsselsteijn,London,305,340,2015,2015,m
+ref10,From Gardens to Fridges: Technology Design Considerations for Less Food Waste,PhD Thesis,Vienna University of Technology,E Ganglbauer,Vienna,2014,2014,m
+ref11,Negotiating Food Waste: Using a Practice Lens to Inform Design,ACM Transactions on Computer-Human Interaction,E Ganglbauer,G Fitzpatrick,R Comber,20,2,Article 11,2013,2013,j
+ref12,Think Globally, Act Locally: a Case Study of a Free Food Sharing Community and Social Networking,CSCW 2014: Proceedings of the 17th ACM Conference on Computer Supported Cooperative Work &amp; Social Computing,E Ganglbauer,G Fitzpatrick,Ö Subasi,F Güldenpfennig,New York,911,921,2014,2014,m
+ref13,Towards a Closer Dialogue Between Policy and Practice: Responsible Design in HCI,CHI 2014: Proceedings of the SIGCHI Conference on Human Factors in Computing Systems,G Grimpe,M Hartswood,M Jirotka,2965,2974,2014,2014,m
+ref14,Cutting Food Waste to Feed the World Global Food Losses and Food Waste,United Nations Food and Agriculture Organisation,J Gustavsson,C Cederberg,U Sonesson,Rome,2011,2011,m
+ref15,Cost Effectiveness of Telehealth for Patients with Long Term Conditions (Whole Systems Demonstrator Telehealth Questionnaire Study): Nested Economic Evaluation in a Pragmatic, Cluster Randomised Controlled Trial,BMJ,C Henderson,M Knapp,J.-L. Fernández,J Beecham,S P Hirani,M Cartwright,L Rixon,M Beynon,A Rogers,P Bower,H Doll,R Fitzpatrick,A Steventon,M Bardsley,J Hendy,S P Newman,346,f1035,2013,2013,j
+ref16,Self, Society and the “New Gerontology”,The Gerontologist,M Holstein,M Minkler,43,6,787,796,2003,2003,m
+ref17,Designing for Elders: Exploring the Complexity of Relationships in Later Life,BCS: Proceedings of the 22nd British HCI Group Annual Conference on People and Computers: Culture, Creativity, Interaction,S Lindley,R Harper,A Sellen,Liverpool,1,77,86,2008,2008,m
+ref18,Realistic Evaluation,R Pawson,N Tilley,London,1997,1997,m
+ref19,The Day-to-Day Co-Production of Ageing in Place,Computer Supported Cooperative Work (CSCW),R Procter,T Greenhalgh,J Wherton,P Sugarhood,M Rouncefield,S Hinder,23,3,245,267,2014,2014,m
+ref20,Exploring Barriers to Participation and Adoption of Telehealth and Telecare within the Whole System Demonstrator Trial: a Qualitative Study,BMC Health Services Research,C Sanders,A Rogers,R Bowen,P Bower,S P Hirani,M Cartwright,R Fitzpatrick,M Knapp,J Barlow,J Hendy,T Chrysanthaki,M Bardsley,S P Newman,12,220,2012,2012,j
+ref21,Reflecting Human Values in the Digital Age,Communications of the ACM,A Sellen,Y Rogers,R Harper,R Rodden,52,3,58,66,2009,2009,j
+ref22,Nurses' and Community Support Workers' Experience of Telehealth: a Longitudinal Case Study,BMC Health Services Research,U Sharma,M Clarke,14,164,2014,2014,j
+ref23,Gerotranscendence. A Developmental Theory of Positive Aging,L Tornstam,New York,2005,2005,m</t>
+  </si>
+  <si>
+    <t>ref1,The Reality of Homes Fit for Heroes: Design Challenges for Rehabilitation Technology at Home,In: Journal of Assistive Technologies,L. Axelrod,G. Fitzpatrick,J. Burridge,S. Smith,P.,T. Ricketts,I.,3,2,35,43,2009
+ref2,: Negotiating Boundaries: Managing Disease at Home,In: CHI 2010: Proceedings of the 28th International Conference on Human Factors in Computing Systems,S. Aarhus R.; Ballegaard,1223,1232,2010
+ref3,Motivating mobility: designing for lived motivation in stroke rehabilitation,In: CHI 2011: Proceedings of the SIGCHI Conference on Human Factors in Computing Systems,M. Balaam,Rennick Egglestone,S.,G.,T. Hughes,A.M. Wilkinson,A. Nind,T. Axelrod,L. Harris,E. Ricketts,I.,S. Burridge,J.,3073,3082,2011
+ref4,: Socially Dependable Design: The Challenge of Ageing Populations for HCI,In: Interacting with Computers,M. Blythe,A. Monk,K. Doughty,17,6,672,689,2005
+ref5,: A Systematic Review of Lifestyle Monitoring Technologies,In: Journal of Telemedicine and Telecare,S. Brownsell,D. Bradley,S. Blackburn,F. Cardinaux,M. Hawley,17,4,185,189,2011
+ref6,Building a National Health IT System from the Middle Out,In: Journal of the American Medical Informatics Association 16,E. Coiera,271,273,2009
+ref7,: Preventative Telehealth Supported Services for Early Stage Chronic Obstructive Pulmonary Disease: a Protocol for a Pragmatic Randomized Controlled Trial Pilot,In: Trials,D.A. Fitzsimmons,J. Thompson,M. Mountain,G.A.,12,6,2011
+ref8,: Telecare, Remote Monitoring and Care,In: Bioethics 9702,H. Draper,T.,195,200,2012
+ref9,: Design for Agency, Adaptivity and Reciprocity: Re-imagining AAL and Telecare Agendas,In: Designing Socially Embedded Technologies in the Real-World. London,G. Fitzpatrick,A. Huldtgren,L. Malmborg,D. Harely,W. Ijsselsteijn,305,340,2015
+ref10,: From Gardens to Fridges: Technology Design Considerations for Less Food Waste,PhD Thesis,E. Ganglbauer,2014
+ref11,: Negotiating Food Waste: Using a Practice Lens to Inform Design,In: ACM Transactions on Computer-Human Interaction,E. Ganglbauer,G. Fitzpatrick,R.,20,2,2013
+ref12,: Think Globally, Act Locally: a Case Study of a Free Food Sharing Community and Social Networking,In: CSCW 2014: Proceedings of the 17th ACM Conference on Computer Supported Cooperative Work &amp; Social Computing,E. Ganglbauer,G. Fitzpatrick,F. Güldenpfennig,911,921,2014
+ref13,Towards a Closer Dialogue Between Policy and Practice: Responsible Design in HCI,In: CHI 2014: Proceedings of the SIGCHI Conference on Human Factors in Computing Systems,G. Grimpe,M. Jirotka,M.,2965,2974,2014
+ref14,: Cutting Food Waste to Feed the World Global Food Losses,United Nations Food and Agriculture Organisation,J. Gustavsson,C. Sonesson,U.,Food Waste,2011
+ref15,: Cost Effectiveness of Telehealth for Patients with Long Term Conditions (Whole Systems Demonstrator Telehealth,C. Henderson,M. Knapp,J.-L. Fernández,J. Beecham,S.P. Cartwright,M. Rixon,L. Beynon,M. Rogers,A. Bower,P. Doll,H.,R. Steventon,A. Bardsley,M. Hendy,J.,S.P.,2013
+ref16,: Self, Society and the “New Gerontology”,In: The Gerontologist,M. Holstein,M. Minkler,43,6,787,796,2003
+ref17,: Designing for Elders: Exploring the Complexity of Relationships in Later Life,In: BCS: Proceedings of the 22nd British HCI Group Annual Conference on People and Computers: Culture,S. Lindley,R. Sellen,A.,1,Liverpool,77,86,2008
+ref18,: Realistic Evaluation,R. Pawson,N.,1997
+ref19,The Day-to-Day Co-Production of Ageing in Place,R. Procter,T. Wherton,J.,P. Rouncefield,M. Hinder,S.,23,3,245,267,2014
+ref20,: Exploring Barriers to Participation and Adoption of Telehealth and Telecare within the Whole System Demonstrator Trial: a Qualitative Study,In: BMC Health Services Research,C. Sanders,A. Rogers,R. Bowen,P. Hirani,S.P. Cartwright,M. Fitzpatrick,R.,M. Barlow,J. Hendy,J.,T. Bardsley,M. Newman,S.P.,12,220,2012
+ref21,: Reflecting Human Values in the Digital Age,In: Communications of the ACM,A. Sellen,Y. Rogers,R. Harper,R.,52,3,58,66,2009
+ref22,Nurses' and Community Support Workers' Experience of Telehealth: a Longitudinal Case Study,In: BMC Health Services Research,U. Sharma,M. Clarke,14,164,2014
+ref23,: Gerotranscendence. A Developmental Theory of Positive Aging,L. Tornstam,2005</t>
   </si>
   <si>
     <t>TUW-245799</t>
   </si>
   <si>
-    <t>m
-j
-m
-m
-m
-m
-m</t>
+    <t>ref1,Application of model based diagnosis for steady state power systems operation. Theory and basic concepts,Proceedings of the Fifth International Power Conference,B Luştrea,I Borlea,Timişoara,2003,2003,m
+ref2,A theory of diagnosis from first principles,Journal Artificial Intelligence,Elsevier BV,R Reiter,32,1,57,95,1987,1987,j
+ref3,Electrodynamic centralization and automatic line block,A I Stan,S David,1,1983,1983,m
+ref4,Development of an Expert System to fault diagnosis of three phase induction motor drive system,Power System Conference, 2008. MEPCON 2008,A M Elasaadawi,12th International Middle-East,2008,2008,m
+ref5,Diagnostic Expert Systems: From Expert's Knowledge to Real-Time Systems,TMRF e-Book Advanced Knowledge Based Systems: Model, Applications &amp; Research,Sajja &amp; Akerkar,C Angeli,1,50,73,2010,2010,m
+ref6,Fuzzy systems and neural,Publishing house Polytechnica,C Voloşencu,Timişoara,2007,2007,m
+ref7,Diagnosis Charts for Regular Inversion Failures of an Automatic Block Signal Installation,International Conference on Applied and Theoretical Electricity ICATE,E Spunei,a o.,Craiova,2014-10,2014,10,23-25,m</t>
+  </si>
+  <si>
+    <t>ref1,Application of model based diagnosis for steady state power systems operation,Proceedings of the Fifth International Power Conference,B. Luştrea,I. Borlea,2003
+ref2,A theory of diagnosis from first principles,Journal Artificial Inteligence,R. Reiter,1 Issue,32,57,95,1987
+ref3,Electrodynamic centralization and automatic line block,A.I. Stan,E.D.P București,1983
+ref4,Development of an Expert System to fault diagnosis of three phase induction motor drive system,MEPCON,A.M. Elasaadawi,a.o.,2008
+ref5,Diagnostic Expert Systems: From Expert's Knowledge to Real-Time Systems,Sajja &amp; Akerkar),C. Angeli,1,50,73,2010
+ref6,Fuzzy systems and neural,Publishing house Polytechnica,C. Voloşencu,Timişoara 2007
+ref7,October,E. Spunei,23,2014</t>
   </si>
   <si>
     <t>TUW-247301</t>
   </si>
   <si>
-    <t>j
-j
-m
-j
-m
-j
-j</t>
+    <t>ref1,A general Datalog-based framework for tractable query answering over ontologies,J. Web Sem,A Calì,G Gottlob,T Lukasiewicz,14,57,83,2012,2012,j
+ref2,The price of query rewriting in ontology-based data access,Artif. Intell,G Gottlob,S Kikot,R Kontchakov,V V Podolskii,T Schwentick,M Zakharyaschev,213,42,59,2014,2014,j
+ref3,Polynomial combined rewritings for existential rules,KR,G Gottlob,M Manna,A Pieris,2014,2014,m
+ref4,Polynomial rewritings for linear existential rules,IJCAI,G Gottlob,M Manna,A Pieris,2015,2015,j
+ref5,The combined approach to query answering in DL-Lite,KR,KR,R Kontchakov,C Lutz,D Toman,F Wolter,M Zakharyaschev,2010,2010,m
+ref6,The combined approach to ontology-based data access,IJCAI,R Kontchakov,C Lutz,D Toman,F Wolter,M Zakharyaschev,2656,2661,2011,2011,j
+ref7,Conjunctive query answering in the description logic EL using a relational database system,IJCAI,C Lutz,D Toman,F Wolter,2070,2075,2009,2009,j</t>
+  </si>
+  <si>
+    <t>ref1,A general Datalog-based framework for tractable query answering over ontologies,J. Web Sem,A. Gottlob,G. Lukasiewicz,T.,14,57,83,2012
+ref2,The price of query rewriting in ontology-based data access,Artif. Intell,G. Gottlob,S. Kikot,R. Kontchakov,V.V. Podolskii,T. Schwentick,M.: Zakharyaschev,213,42,59,2014
+ref3,Polynomial combined rewritings for existential rules,In: KR,G. Gottlob,M. Manna,A. Pieris,2014
+ref4,Polynomial rewritings for linear existential rules,In: IJCAI,G. Gottlob,M. Manna,A. Pieris,2015
+ref5,The combined approach to query answering in DL-Lite,R. Kontchakov,C. Lutz,D. Toman,F. Wolter,M.: Zakharyaschev,2010
+ref6,The combined approach to ontology-based data access,In: IJCAI,R. Kontchakov,C. Lutz,D. Toman,F. Wolter,M.: Zakharyaschev,2656,2661,2011
+ref7,Conjunctive query answering in the description logic EL using a relational database system,In: IJCAI,C. Lutz,D. Toman,F. Wolter,2070,2075,2009</t>
   </si>
   <si>
     <t>TUW-247741</t>
   </si>
   <si>
-    <t>m
-m
-m
-m
-j
-j
-m
-m
-m
-m
-m
-j
-j
-j
-m
-j
-m
-m
-m
-j</t>
+    <t>ref1,Analysis of distance/similarity measures for diffusion tensor imaging,Visualization and Processing of Tensor Fields: Advances and Perspectives,Springer,T H J M Peeters,P R Rodrigues,A Vilanova,B M ter Haar Romeny,Berlin,2008,2008,m
+ref2,Comparison of evaluation metrics in classification applications with imbalanced datasets,ICMLA,Mehrdad Fatourechi,Rabab K Ward,Steven G Mason,Jane Huggins,Alois Schloegl,Gary E Birch,777,782,2009,2009,m
+ref3,Valmet: A new validation tool for assessing and improving 3D object segmentation,Proceedings of the 4th International Conference on Medical Image Computing and Computer-Assisted Intervention,Guido Gerig,Matthieu Jomier,Miranda Chakos,516,523,2001,2001,m
+ref4,Image similarity using mutual information of regions,8th European Conference on Computer Vision, ECCV,Daniel B Russakoff,Carlo Tomasi,Torsten Rohlfing,Calvin R Maurer,Jr. ,596,607,2004,2004,m
+ref5,Information theoretic measures for clusterings comparison: is a correction for chance necessary?,Proceedings of the 26th Annual International Conference on Machine Learning,ACM,Nguyen Xuan Vinh,Julien Epps,James Bailey,1073,1080,2009,2009,j
+ref6,Evaluation: From precision, recall and F-factor to ROC, informedness, markedness correlation,Journal of Machine Learning Technologies,David M W Powers,2,37,63,2011,2011,j
+ref7,Evaluating evaluation measure stability,Proceedings of the 23rd annual international ACM SIGIR conference on Research and development in information retrieval,ACM,Chris Buckley,Ellen M Voorhees,33,40,2000,2000,m
+ref8,A subjective experiment for 3d-mesh segmentation evaluation,IEEE International Workshop on Multimedia Signal Processing (MMSP),Halim Benhabiles,Guillaume Lavoue,Jean Phillipe Vandeborre,Mohamed Daoudi,2010,2010,m
+ref9,Comparing the sensitivity of information retrieval metrics,Proceedings of the 33rd international ACM SIGIR conference on Research and development in information retrieval,Filip Radlinski,Nick Craswell,2010,2010,m
+ref10,Beware of relatively large but meaningless improvements,Tech. Rep.,Yahoo! Research,R Blanco,H Zaragoza,2011-001,2011,2011,m
+ref11,Evaluating evaluation metrics based on the bootstrap,Proceedings of the 29th annual international ACM SIGIR conference on Research and development in information retrieval,ACM,Tetsuya Sakai,525,532,2006,2006,m
+ref12,Using AUC and accuracy in evaluating learning algorithms,IEEE Transactions on Knowledge and Data Engineering,Jin Huang,Charles X Ling,17,299,310,2005,2005,j
+ref13,A comparison of extrinsic clustering evaluation metrics based on formal constraints,Inf. Retr,Enrique Amigo,Julio Gonzalo,Javier Artiles,Felisa Verdejo,12,4,461,486,2009-08,2009,8,j
+ref14,Information theoretic measures for clusterings comparison: Variants, properties, normalization and correction for chance,J. Mach. Learn. Res,Nguyen Xuan Vinh,Julien Epps,James Bailey,9999,2837,2854,2010-12,2010,12,j
+ref15,Axiometrics: An axiomatic approach to information retrieval effectiveness metrics,Proceedings of the 2013 Conference on the Theory of Information Retrieval,Luca Busin,Stefano Mizzaro,New York, NY, USA,8:22,8:29,2013,2013,m
+ref16,On the reliability of information retrieval metrics based on graded relevance,Information Processing Management,Tetsuya Sakai,2007,2007,j
+ref17,The effect of topic set size on retrieval experiment error,Proceedings of the 25th annual international ACM SIGIR conference on Research and development in information retrieval,Ellen M Voorhees,Chris Buckley,316,323,2002,2002,m
+ref18,On a test of whether one of two random variables is stochastically larger than the other,The Annals of Mathematical sStatistics,ACM,H B Mann,D R Whitney,18,1,50,60,1947,1947,m
+ref19,Statistical comparisons of classifiers over multiple data sets,J. Mach. Learn. Res.,ACM,Janez Demsar,17,30,2006,2006,m
+ref17,Test data and results of the automatic metric selection method,Tech. Rep.,Vienna University of Technology,Abdel Aziz Taha,Allan Hanbury,Oscar Jimenez,2014,2014,http://publik.tuwien.ac.at/files/PubDat 229008.pdf,,j</t>
+  </si>
+  <si>
+    <t>ref1,M ter Haar Romeny, “Analysis of distance/similarity measures for diffusion tensor imaging,” in Visualization and Processing of Tensor Fields: Advances and Perspectives,P.R. T.H.J.M. Peeters,A. Rodrigues,B. Vilanova,2008
+ref2,Comparison of evaluation metrics in classification applications with imbalanced datasets,Mehrdad Fatourechi,Rabab K. Ward,777,782,2009
+ref3,Valmet: A new validation tool for assessing and improving 3D object segmentation,in Proceedings of the 4th International Conference on Medical Image Computing,Guido Gerig,Computer-Assisted Intervention,516,523,2001
+ref4,Image similarity using mutual information of regions,”,in 8th European Conference on Computer Vision,B. Daniel,Russakoff,Calvin R. Maurer,596,607,2004
+ref5,Information theoretic measures for clusterings comparison: is a correction for chance necessary?,”,in Proceedings of the 26th Annual International Conference on Machine Learning,Nguyen Xuan,Vinh,1073,1080,2009
+ref6,Evaluation: From precision, recall and F-factor to ROC, informedness,” Journal of Machine Learning Technologies,M. W. David,Powers,2,37,63,2011
+ref7,Evaluating evaluation measure stability,2000,Chris Buckley and Ellen M. Voorhees,33,40
+ref8,A subjective experiment for 3d-mesh segmentation evaluation,”,in IEEE International Workshop on Multimedia Signal Processing (MMSP),Halim Benhabiles,2010
+ref9,Comparing the sensitivity of information retrieval metrics,in Proceedings of the 33rd international ACM SIGIR conference on Research and development in information retrieval,Filip Radlinski,2010
+ref10,Beware of relatively large but meaningless improvements,” Tech. Rep., Yahoo! Research,R. Blanco,H. Zaragoza,001,2011
+ref11,Evaluating evaluation metrics based on the bootstrap,2006,Sakai Tetsuya,525,532
+ref12,Using AUC and accuracy in evaluating learning algorithms,” IEEE Transactions on Knowledge and Data Engineering,Jin Huang and Charles X. Ling,17,299,310,2005
+ref13,A comparison of extrinsic clustering evaluation metrics based on formal constraints,” Inf,Amigo Enrique,12,4,461,486,August 2009
+ref14,Information theoretic measures for clusterings comparison: Variants, properties, normalization and correction for chance,”,Learn. Res.,Nguyen Xuan,Vinh,J. Mach,9999,2837,2854,December 2010
+ref15,Axiometrics: An axiomatic approach to information retrieval effectiveness metrics,in Proceedings of the 2013 Conference on the Theory of Information Retrieval,Luca Busin,8,29,8,2013
+ref16,On the reliability of information retrieval metrics based on graded relevance,” Information Processing Management,Sakai Tetsuya,2007
+ref17,The effect of topic set size on retrieval experiment error,in Proceedings of the 25th annual international ACM SIGIR conference on Research and development in information retrieval,M. Ellen,Voorhees,316,323,2002
+ref18,On a test of whether one of two random variables is stochastically larger than the other,”,The Annals of Mathematical Statistics,H. B. Mann,D. R. Whitney,18,1,50,60,1947
+ref19,Statistical comparisons of classifiers over multiple data sets,”,Learn. Res.,Demsar Janez,J. Mach,17,30,2006
+ref20,Test data and results of the automatic metric selection method,”,Abdel Aziz,Taha,Tech. Rep.,2014</t>
   </si>
   <si>
     <t>TUW-247743</t>
   </si>
   <si>
-    <t>[AJ99]
-[AS92]
-[Aup03]
-[Dev98]
-[For86]
-[For97]
-[Kas97]
-[Koh97]
-[LR06]
-[PDR]
-[PRM02]
-[RPM03]
-[Sam69]
-[SC02]
-[Sof]
-[Ult03a]
-[Ult03b]
-[Ult05]
-[VA00]
-[Ves99]
-[Yin03]</t>
+    <t>ref1,[AJ99],Data clustering: a review,ACM Computing Surveys,P J Flynn Anil Jain,M N Murty,31,3,264,323,1999-09,1999,09
+ref2,[AS92],A simple on-line randomized incremental algorithm for computing higher order voronoi diagrams,Annual Symposium on Computational Geometry, Proceedings of the seventh annual symposium on Computational geometry,ACM Press,Franz Aurenhammer,Otfried Schwarzkopf,New York, NY, USA,363,381,1992,1992
+ref3,[Aup03],High-dimensional labeled data analysis with gabriel graphs,Proceedings Intl. European Symp. on Articial Neural Networks (ESANN'03),Dside publications,Michael Aupetit,Bruges, Belgium,2003,2003
+ref4,[Dev98],Improved incremental randomized delaunay triangulation,Proceedings 14th Annu. ACM Sympos. Computer Geometry,Olivier Devillers,106,115,1998,1998
+ref5,[For86],A sweepline algorithm for voronoi diagrams,SCG 86: Proceedings of the second annual symposium on Computational geometry,ACM Press,Steven Fortune,New York, NY, USA,313,322,1986,1986
+ref6,[For97],Voronoi diagrams and delaunay triangulations,Steven Fortune,377,388,1997,1997
+ref7,[Kas97],Data exploration using self-organizing maps,Acta Polytechnica Scandinavica, Mathematics, Computing and Management in Engineering Series,Samuel Kaski,82,1997-03,1997,03
+ref8,[Koh97],Exploration of very large databases by self-organizing maps,Proceedings of ICNN'97, International Conference on Neural Networks,IEEE Service Center,Teuvo Kohonen,Piscataway, NJ,PL1,PL6,1997,1997
+ref9,[LR06],Visually proling radio stations,Proceedings of the 7th International Conference on Music Information Retrieval (ISMIR 2006),Thomas Lidy,Andreas Rauber,10,2006,2006
+ref10,[PDR],Advanced visualization of self-organizingmaps with vector fields,Georg Pölzlbauer,Michael Dittenbach,Andreas Rauber
+ref11,[PRM02],Using smoothed data histograms for cluster visualization in self-organizing maps,Proceedings of the International Conference on Artical Neural Networks (ICANN'02),Elias Pampalk,Andreas Rauber,Dieter Merkl,Madrid, Spain,Springer Lecture Notes in Computer Science,2002,2002
+ref12,[RPM03],The som-enhanced jukebox organization and visualization of music collections based on perceptual models,New Music Research,Andreas Rauber,Elias Pampalk,Dieter Merkl,32,2,193,210,2003-06,2003,06
+ref13,[Sam69],A nonlinear mapping for data structure analysis,In IEEE Trans. Computer,John Sammon,18,401,409,1969-05,1969,05
+ref14,[SC02],A large benchmark dataset for web document clustering,Soft Computing Systems: Design, Management and Applications, Volume 87 of Frontiers in Artificial Intelligence and Applications,Mark Sinka,David Corne,881,890,2002,2002
+ref15,[Sof],Geometry algorithms. about lines and distance of a point to a line (2d 3d),Softsurfer.com,http://softsurfer.com/Archive/algorithm_0102/algorithm_0102.htm
+ref16,[Ult03a],Maps for the visualization of high dimensional data spaces,Proceedings Workshop on Self organizing Maps(WSOM'03),Alfred Ultsch,Kyushu, Japan,2003,2003
+ref17,[Ult03b],Pareto density estimation: Probability density estimation for knowledge discovery,Proceedings Conf. Soc. for Information and Classication,Alfred Ultsch,Cottbus, Germany,2003,2003
+ref18,[Ult05],Esom-maps: tools for clustering, visualization, and classication with emergent som,Technical Report 46, Dept. of Mathematics and Computer Science,Alfred Ultsch,D-35032 Marburg, Germany,46,2005-03,2005,03
+ref19,[VA00],Clustering of the self-organizing map,IEEE-NN,Juha Vesanto,E Alhoniemi,11,3,586,2000-05,2000,05
+ref20,[Ves99],SOM-based data visualization methods,IntelligentData-Analysis,Juha Vesanto,3,111,26,1999,1999
+ref21,[Yin03],Nonlinear multidimensional data projection and visualisation,Lecture Notes in Computer Science 2690,Hujun Yin,Manchester, M60 1QD, UK,60,2003,2003</t>
+  </si>
+  <si>
+    <t>ref1,14 2.4.2 Visualization of SOM with Labeled data,2 Related Work 4 2,map . . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . . . . 8,algorithms . . . . . . . . . . . . . . . . . . . . 9,algorithms . . . . . . . . . . . . . . . . . . . . . .,Projection . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,Mapping . . . . . . . . . . . . . . . . . . . . . . 13,Visualizations . . . . . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . .,. . . . . . . . . . 20,Summary . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 21,11,2,2
+ref2,36 3.4.3 Angular segmentation of Voronoi cells,Delaunay triangulations . . . . . . . 32 3,Toolbox . . . . . . . . . . . . . . . . . . . . . . . . . . . . . 26,formulation . . . . . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . . . . . . . .,coloring . . . . . . . . . . . . . . . . . . . . .,. . . . . . . . . . . . 38,2 Voronoi cell,3</t>
   </si>
   <si>
     <t>TUW-251544</t>
   </si>
   <si>
-    <t>[BLS11]|m
-[CSU15]|j
-[CTO16]
-[DF08]|m
-[Eu16]
-[FM10]|m
-[Ga16a]|m
-[Ga16b]|m
-[IV15]
-[OCG13]
-[SPR14]|m</t>
+    <t>ref1,[BLS11],Zauberschule Informatik- Einblick in die Welt der Informatik für Kinder im Grundschulalter,Informatik mit Kopf, Herz und Hand - Praxisbeiträge zur INFOS 2011,ZfL-Verlag,N Bergner,T Leonhardt,U Schroeder,Berlin,132,141,2011,2011,m
+ref2,[CSU15],Computer Science Unplugged,,2015,2015,http://csunplugged.org/books/,j
+ref3,[CTO16],Cryptool-Online,http://www.cryptool-online.org
+ref4,[DF08],Bebras international contest on informatics and computer literacy: Criteria for good tasks,Informatics Education-Supporting Computational Thinking,Springer Berlin Heidelberg,V Dagiene,G Futschek,19,30,2008,2008,m
+ref5,[Eu16],Schlüsselkompetenzen,Europäische Kommission,http://ec.europa.eu/education/policy/school/competences_de.htm
+ref6,[FM10],Developing algorithmic thinking by inventing and playing algorithms,Constructionist Approaches to Creative Learning, Thinking and Education: Lessons for the 21st Century (Constructionism 2010),G Futschek,J Moschitz,2010,2010,m
+ref7,[Ga16a],Was ist binär? Zahlendarstellung im Binärsystem einfach erklärt,c’t,J Gallenbacher,7,2016,2016,m
+ref8,[Ga16b],Malnehmen leichtgemacht. Multiplikation im Binärsystem mit Kindern ausprobieren,c’t,J Gallenbacher,10,158,2016,2016,m
+ref9,[IV15],Informatiktag: Volksschultanz,https://www.youtube.com/watch?v=WHdHq0aoqXU
+ref10,[OCG13],Projekt-Homepage ITAKE,2013,2013,http://www.ocg.at/de/itake
+ref11,[SPR14],Informatics-A Child's Play?!, Informatics-A Child's Play,Proceedings of the 6th International Conference on Education and New Learning Technologies (EDULEARN),B Sabitzer,S Pasterk,E Reçi,2014,2014,m</t>
   </si>
   <si>
     <t>TUW-252847</t>
   </si>
   <si>
-    <t>j
-j
-m
-m
-m
-j
-j
-m
-m
-m
-m
-j
-j
-j
-m
-m
-j
-m</t>
+    <t>ref1,Content-based Image Retrieval at the End of the Early Years,IEEE Transactions on Pattern Analysis and Machine Intelligence,A W M Smeulders,M Worring,S Santini,A Gupta,R Jain,22,12,1349,1380,2000,2000,j
+ref2,Image Retrieval: Ideas, Influences, and Trends of the New Age,ACM Computing Surveys,R Datta,D Joshi,J Li,J Z Wang,40,2,1,60,2008,2008,j
+ref3,Association Based Image Retrieval: A Survey,Mobile Communication and Power Engineering, Springer Communications in Computer and Information Science,R Priyatharshini,S Chitrakala,296,17,26,2013,2013,m
+ref4,Visual Diversification of Image Search Results",ACM World Wide Web,R H van Leuken,L Garcia,X Olivares,R van Zwol,341,350,2009,2009,m
+ref5,Diversity in Photo Retrieval: Overview of the ImageCLEF Photo Task 2009,ImageCLEF,M L Paramita,M Sanderson,P Clough,2009,2009,m
+ref6,Gathering and Ranking Photos of Named Entities with High Precision, High Recall, and Diversity,ACM Web Search and Data Mining,B Taneva,M Kacimi,G Weikum,431,440,2010,2010,j
+ref7,Generating Visual Summaries of Geographic Areas Using Community-Contributed Images,IEEE Transactions on Multimedia,S Rudinac,A Hanjalic,M A Larson,15,4,921,932,2013,2013,j
+ref8,Diversifying Search Results,ACM International Conference on Web Search and Data Mining,R Agrawal,S Gollapudi,A Halverson,S Ieong,5,14,2009,2009,m
+ref9,Learning for Search Result Diversification,ACM SIGIR Conference on Research and Development in Information Retrieval,Y Zhu,Y Lan,J Guo,X Cheng,S Niu,293,302,2014,2014,m
+ref10,Search Result Diversification via Filling up Multiple Knapsacks,ACM International Conference on Conference on Information and Knowledge Management,H.-T. Yu,F Ren,609,618,2014,2014,m
+ref11,A Hybrid Approach for Retrieving Diverse Social Images of Landmarks,IEEE International Conference on Multimedia and Expo,D.-T. Dang-Nguyen,L Piras,G Giacinto,G Boato,F G B De Natale,1,6,2015,2015,m
+ref12,Div400: A Social Image Retrieval Result Diversification Dataset,ACM MMSys,B Ionescu,A.-L. Radu,M Menéndez,H Müller,A Popescu,B Loni,Singapore,2014,2014,j
+ref13,Div150Cred: A Social Image Retrieval Result Diversification with User Tagging Credibility Dataset,ACM MMSys,B Ionescu,A Popescu,M Lupu,A L Gînscăa,B Boteanu,H Müller,Portland, Oregon, USA,2015,2015,j
+ref14,Div150Multi: A Social Image Retrieval Result Diversification Dataset with Multi-topic Queries,ACM MMSys,B Ionescu,A L Gînscăa,B Boteanu,M Lupu,A Popescu,H Müller,Klagenfurt, Austria,2016,2016,j
+ref15,Result Diversification in Social Image Retrieval: A Benchmarking Framework,Multimedia Tools and Applications,B Ionescu,A Popescu,A.-L. Radu,H Müller,2014,2014,m
+ref16,Improving Diversity in Image Search via Supervised Relevance Scoring,ACM International Conference on Multimedia Retrieval,ACM,E Spyromitros-Xioufis,S Papadopoulos,A L Gînscăa,A Popescu,I Kompatsiaris,I Vlahavas,Shanghai, China,2015,2015,m
+ref17,Retrieving Diverse Social Images at MediaEval 2014: Challenge, Dataset and Evaluation,CEUR-WS,B Ionescu,A Popescu,M Lupu,A L Gînscăa,H Müller,Spain,1263,2014,2014,http://ceur-ws.org/Vol-1263/mediaeval2014_submission_1.pdf,j
+ref18,Image Tag Clarity: in Search of Visual-Representative Tags for Social Images,SIGMM workshop on Social media,A Sun,S S Bhowmick,2009,2009,m</t>
+  </si>
+  <si>
+    <t>ref1,Content-based Image Retrieval at the End of the Early Years",IEEE Transactions on Pattern Analysis and Machine Intelligence,A.W.M. Smeulders,M. Worring,S. Santini,A. Gupta,22,12,1349,1380,2000
+ref2,Image Retrieval: Ideas, In uences, and Trends of the New Age",ACM Computing Surveys,R. Datta,D. Joshi,J. Li,J.Z. Wang,40,2,1,60,2008
+ref3,Association Based Image Retrieval: A Survey",Mobile Communication and Power Engineering,R. Priyatharshini,296,17,26,2013
+ref4,Visual Diversi cation of Image Search Results",R.H. van Leuken,L. Garcia,X. Olivares,341,350,2009
+ref5,Diversity in Photo Retrieval: Overview of the ImageCLEF Photo Task 2009",M.L. Paramita,M. Sanderson,ImageCLEF,2009
+ref6,Gathering and Ranking Photos of Named Entities with High Precision, High Recall, and Diversity",ACM Web Search and Data Mining,B. Taneva,M. Kacimi,431,440,2010
+ref7,Generating Visual Summaries of Geographic Areas Using Community-Contributed Images",IEEE Transactions on Multimedia,S. Rudinac,A. Hanjalic,M.A. Larson,15,4,921,932,2013
+ref8,Diversifying Search Results",ACM International Conference on Web Search and Data Mining,R. Agrawal,S. Gollapudi,A. Halverson,5,14,2009
+ref9,Learning for Search Result Diversi cation",ACM SIGIR Conference on Research and Development in Information Retrieval,Y. Zhu,Y. Lan,J. Guo,293,302,2014
+ref10,Search Result Diversi cation via Filling up Multiple Knapsacks",ACM International Conference on Conference on Information and Knowledge Management,F. H.-T. Yu,Ren,609,618,2014
+ref11,A Hybrid Approach for Retrieving Diverse Social Images of Landmarks",IEEE International Conference on Multimedia and Expo,L. D.-T.,G. Piras,F. Boato,G.B. De Natale,1,6,2015
+ref12,Div400: A Social Image Retrieval Result Diversi cation Dataset",B. Ionescu,A.-L. Radu,M. Menendez,A. Popescu,B. Loni,2014
+ref13,Div150Cred: A Social Image Retrieval Result Diversi cation with User Tagging Credibility Dataset",B. Ionescu,A. Popescu,M. Lupu,A.L. G,B. Boteanu,2015
+ref14,Div150Multi: A Social Image Retrieval Result Diversi cation Dataset with Multi-topic Queries",B. Ionescu,A.L. G,B. Boteanu,M. Lupu,A. Popescu,2016
+ref15,Result Diversi cation in Social Image Retrieval: A Benchmarking Framework",Multimedia Tools and Applications,B. Ionescu,A. Popescu,A.-L. Radu,2014
+ref16,Improving Diversity in Image Search via Supervised Relevance Scoring",ACM International Conference on Multimedia Retrieval,E. Spyromitros-Xiou s,A. Popescu,I. Kompatsiaris,ACM,2015
+ref17,Challenge, Dataset and Evaluation",org/,B. Ionescu,A. Popescu,M. Lupu,A.L. G,1263,2014
+ref18,Image Tag Clarity: in Search of Visual-Representative Tags for Social Images",A. Sun,S.S. Bhowmick,2009</t>
   </si>
   <si>
     <t>TUW-255712</t>
   </si>
   <si>
-    <t>(Amgoud and Vesic 2011)|j
-(Atkinson, Bench-Capon, and McBurney 2006)|j
-(Baroni et al. 2011)|j
-(Bench-Capon, Prakken, and Sartor 2009)|j
-(Bench-Capon 2003)|j
-(Brewka and Woltran 2010)|m
-(Brewka et al. 2013)|m
-(Brewka, Polberg, and Woltran 2014)|m
-(Cayrol and Lagasquie-Schiex 2009)|m
-(Cayrol and Lagasquie-Schiex 2013)|j
-(Dung 1995)|j
-(Dunne et al. 2015)|j
-(Dyrkolbotn 2014)|m
-(Egly, Gaggl, and Woltran 2010)|m
-(Ellmauthaler and Strass 2014)|m
-(Fox et al. 2010)|j
-(Hunter and Williams 2012)|j
-(McBurney and Parsons 2009)|m
-(Modgil and Bench-Capon 2011)|j
-(Modgil 2009)|j
-(Nielsen and Parsons 2007)|m
-(Nouioua 2013)|m
-(Oren, Reed, and Luck 2010)|m
-(Polberg and Oren 2014)|m
-(Prakken 2009)|m</t>
+    <t>ref1,(Amgoud and Vesic 2011),A new approach for preference-based argumentation frameworks,Annals of Mathematics and Artificial Intelligence,L Amgoud,S Vesic,63,149,183,2011,2011,j
+ref2,(Atkinson, Bench-Capon, and McBurney 2006),PARMENIDES: Facilitating deliberation in democracies,Artificial Intelligence and Law,K Atkinson,T J M Bench-Capon,P McBurney,14,4,261,275,2006,2006,j
+ref3,(Baroni et al. 2011),AFRA: Argumentation framework with recursive attacks,International Journal of Approximate Reasoning,P Baroni,F Cerutti,M Giacomin,G Guida,52,1,19,37,2011,2011,j
+ref4,(Bench-Capon, Prakken, and Sartor 2009),Argumentation in legal reasoning,Argumentation in Artificial Intelligence,Springer,Simari, G., and Rahwan, I.,T J M Bench-Capon,H Prakken,G Sartor,363,382,2009,2009,j
+ref5,(Bench-Capon 2003),Persuasion in practical argument using value-based argumentation frameworks,Journal of Logic and Computation,T J M Bench-Capon,13,3,429,448,2003,2003,j
+ref6,(Brewka and Woltran 2010),Abstract Dialectical Frameworks,Proceedings of the Twelfth International Conference on Principles of Knowledge Representation and Reasoning, KR,AAAI Press,Lin, F.; Sattler, U.; and Truszczynski, M.,G Brewka,S Woltran,Toronto, Ontario, Canada,2010,2010,m
+ref7,(Brewka et al. 2013),Abstract Dialectical Frameworks Revisited,Proceedings of the 23rd International Joint Conference on Artificial Intelligence, IJCAI 2013,AAAI Press / IJCAI,Rossi, F.,G Brewka,S Ellmauthaler,H Strass,J P Wallner,S Woltran,Beijing, China,803,809,2013,2013,m
+ref8,(Brewka, Polberg, and Woltran 2014),Generalizations of Dung frameworks and their role in formal argumentation,Intelligent Systems, IEEE,G Brewka,S Polberg,S Woltran,29,1,30,38,2014,2014,m
+ref9,(Cayrol and Lagasquie-Schiex 2009),Bipolar abstract argumentation systems,Argumentation in Artificial Intelligence,Springer,Simari, G., and Rahwan, I.,C Cayrol,M.-C. Lagasquie-Schiex,65,84,2009,2009,m
+ref10,(Cayrol and Lagasquie-Schiex 2013),Bipolarity in argumentation graphs: Towards a better understanding,International Journal of Approximate Reasoning,C Cayrol,M.-C. Lagasquie-Schiex,54,7,876,899,2013,2013,j
+ref11,(Dung 1995),On the acceptability of arguments and its fundamental role in nonmonotonic reasoning, logic programming and n-person games,Artificial Intelligence,P M Dung,77,321,357,1995,1995,j
+ref12,(Dunne et al. 2015),Characteristics of multiple viewpoints in abstract argumentation,Artificial Intelligence,P E Dunne,W Dvok,T Linsbichler,S Woltran,228,153,178,2015,2015,j
+ref13,(Dyrkolbotn 2014),How to argue for anything: Enforcing arbitrary sets of labellings using afs,Principles of Knowledge Representation and Reasoning: Proceedings of the Fourteenth International Conference, KR 2014,S K Dyrkolbotn,Vienna, Austria,2014,07,20-24,m
+ref14,(Egly, Gaggl, and Woltran 2010),Answer-set programming encodings for argumentation frameworks,Argument and Computation,U Egly,S A Gaggl,S Woltran,1,2,147,177,2010,2010,m
+ref15,(Ellmauthaler and Strass 2014),The DIAMOND system for computing with abstract dialectical frameworks,International Conference on Computational Models of Argument (COMMA 2014), volume 266 of Frontiers in Artificial Intelligence and Applications,IOS Press,Parsons, S.; Oren, N.; Reed, C.; and Cerutti, F.,S Ellmauthaler,H Strass,233,240,2014,2014,m
+ref16,(Fox et al. 2010),Delivering clinical decision support services: There is nothing as practical as a good theory,Journal of Biomedical Informatics,J Fox,D Glasspool,V Patkar,M Austin,L Black,M South,D Robertson,C Vincent,43,5,831,843,2010,2010,j
+ref17,(Hunter and Williams 2012),Aggregating evidence about the positive and negative effects of treatments,Artificial Intelligence in Medicine,A Hunter,M Williams,56,3,173,190,2012,2012,j
+ref18,(McBurney and Parsons 2009),Dialogue games for agent argumentation,Argumentation in Artificial Intelligence,Springer,Simari, G., and Rahwan, I.,P McBurney,S Parsons,261,280,2009,2009,m
+ref19,(Modgil and Bench-Capon 2011),Metalevel argumentation,Journal of Logic and Computation,S Modgil,T J M Bench-Capon,21,6,959,1003,2011,2011,j
+ref20,(Modgil 2009),Reasoning about preferences in argumentation frameworks,Artificial Intelligence,S Modgil,173,9-10,901,934,2009,2009,j
+ref21,(Nielsen and Parsons 2007),Argumentation in Multi-Agent Systems: Third International Workshop, ArgMAS 2006 Hakodate, Japan, May 8, 2006 Revised Selected and Invited Papers,Springer Berlin Heidelberg,S H Nielsen,S Parsons,Berlin, Heidelberg,A Generalization of Dung’s Abstract Framework for Argumentation: Arguing with Sets of Attacking Arguments,54,73,2007,m
+ref22,(Nouioua 2013),Scalable uncertainty management: 7th international conference, sum 2013, washington, dc, usa, september 16-18, 2013. proceedings,LNCS,Springer Berlin Heidelberg,F Nouioua,Berlin, Heidelberg,8078,AFs with Necessities: Further Semantics and Labelling Characterization,120,133,2013,m
+ref23,(Oren, Reed, and Luck 2010),Moving between argumentation frameworks,Proceedings of the 2010 conference on Computational Models of Argument: Proceedings of COMMA 2010,IOS Press,N Oren,C Reed,M Luck,Amsterdam, The Netherlands,379,390,2010,2010,m
+ref24,(Polberg and Oren 2014),Revisiting support in abstract argumentation systems,Computational Models of Argument-Proceedings of COMMA 2014, volume 266 of Frontiers in Artificial Intelligence and Applications,IOS Press,Parsons, S.; Oren, N.; Reed, C.; and Cerutti, F.,S Polberg,N Oren,369,376,2014,2014,m
+ref25,(Prakken 2009),Models of persuasion dialogue,Argumentation in Artificial Intelligence,Springer,Simari, G., and Rahwan, I.,H Prakken,281,301,2009,2009,m</t>
+  </si>
+  <si>
+    <t>ref1,A new approach for preference-based argumentation frameworks,Annals of Mathematics and Artificial Intelligence,L. Amgoud,S. Vesic,63,149,183,2011
+ref2,PARMENIDES: Facilitating deliberation in democracies,Artificial Intelligence and Law,,14,4,261,275
+ref3,P. Baroni,F. Cerutti,M. Giacomin,G.,2011
+ref4,International Journal of Approximate Reasoning,,52,1,19,37
+ref5,T. J. M. Bench-Capon,G. Prakken,2009
+ref6,,363,382
+ref7,Persuasion in practical argument using value-based argumentation frameworks,Journal of Logic and Computation,T. J. M. Bench-Capon,13,3,429,448,2003
+ref8,Abstract Dialectical Frameworks,Proceedings of the Twelfth International Conference on Principles of Knowledge Representation and Reasoning,G. Brewka,S. Woltran,Lin,U. Sattler,KR,2010
+ref9,Abstract Dialectical Frameworks Revisited,Proceedings of the 23rd International Joint Conference on Artificial Intelligence, IJCAI,G. Brewka,S.,H. Wallner,J. P. Woltran,S.,Rossi,803,809,2013
+ref10,Generalizations of Dung frameworks and their role in formal argumentation,Intelligent Systems, IEEE,G. Brewka,S. Woltran,S.,29,1,30,38,2014
+ref11,Bipolar abstract argumentation systems,Argumentation in Artificial Intelligence,C. Cayrol,C. Lagasquie-Schiex,Rahwan,65,84,2009
+ref12,Bipolarity in argumentation graphs: Towards a better understanding,International Journal of Approximate Reasoning,C. Cayrol,C. Lagasquie-Schiex,54,7,876,899,2013
+ref13,On the acceptability of arguments and its fundamental role in nonmonotonic reasoning, logic programming and n-person games,Artificial Intelligence,P. M. Dung,77,321,357,1995
+ref14,Characteristics of multiple viewpoints in abstract argumentation,Artificial Intelligence,,228,153,178
+ref15,How to argue for anything: Enforcing arbitrary sets of labellings using afs,July 20-24,S. K. Dyrkolbotn,2014
+ref16,Answer-set programming encodings for argumentation frameworks,Argument and Computation,U. Egly,S. A. Gaggl,S. Woltran,1,2,147,177,2010
+ref17,The DIAMOND system for computing with abstract dialectical frameworks,of Frontiers in Artificial Intelligence and Applications,S. Ellmauthaler,H. Strass,N. Reed,C. Cerutti,233,240,2014
+ref18,Delivering clinical decision support services: There is nothing as practical as a good theory,Journal of Biomedical Informatics,J. Fox,D. Glasspool,V. Patkar,M. Black,L. South,M. Robertson,D. Vincent,C.,43,5,831,843,2010
+ref19,Aggregating evidence about the positive and negative effects of treatments,Artificial Intelligence in Medicine,A. Hunter,M. Williams,56,3,173,190,2012
+ref20,Dialogue games for agent argumentation,Argumentation in Artificial Intelligence,P. McBurney,S. Parsons,Rahwan,261,280,2009
+ref21,Metalevel argumentation,Journal of Logic and Computation,S. Modgil,T. J. M. Bench-Capon,21,6,959,1003,2011
+ref22,Reasoning about preferences in argumentation frameworks,Artificial Intelligence,S. Modgil,173,901,934,2009
+ref23,chapter A Generalization of Dung's Abstract Framework for Argumentation: Arguing with Sets of Attacking Arguments,2006 Revised Selected and Invited Papers,S. H. Nielsen,S. Parsons,54,73,2007
+ref24,Scalable uncertainty management: 7th international conference,of LNCS.,F. Nouioua,8078,18,2013
+ref25,Further Semantics and Labelling Characterization,Berlin,120,133
+ref26,Moving between argumentation frameworks,In Proceedings of the 2010 conference on Computational Models of Argument: Proceedings of COMMA,N. Oren,C. Reed,M.,379,390,2010
+ref27,Revisiting support in abstract argumentation systems,of Frontiers in Artificial Intelligence and Applications,S. Polberg,N. Oren,N. Reed,C. Cerutti,369,376,2014
+ref28,Models of persuasion dialogue,Argumentation in Artificial Intelligence,H. Prakken,Rahwan,281,301,2009</t>
   </si>
   <si>
     <t>TUW-256654</t>
   </si>
   <si>
-    <t>[Ert16]
-[Lev00]</t>
+    <t>ref1,[Ert16],Recognizers: Arguments and design decisions,32nd EuroForth Conference,M Anton Ertl,2016
+ref2,[Lev00],Linkers and Loaders,Morgan Kaufmann,Levine,San Francisco,2000</t>
+  </si>
+  <si>
+    <t>ref1,Arguments nary), and start the next session with just the and design decisions. In 32nd EuroForth dictionary, and with empty named sections,Conference,M. Anton Ertl,2016</t>
   </si>
   <si>
     <t>TUW-257397</t>
   </si>
   <si>
-    <t>j
-m
-j
-m
-m
-m
-j
-j
-m
-m
-m
-j
-m
-m
-m
-m
-j
-m
-m
-m
-m
-m
-m
-j
-j
-m
-m
-m
-m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>ref1,A survey on context-aware systems,International Journal of Ad Hoc and Ubiquitous Computing,M Baldauf,S Dustdar,F Rosenberg,2,4,263,277,2007,2007,j
+ref2,What is a feature?: a qualitative study of features in industrial software product lines,Proceedings of the 19th International Conference on Software Product Line,ACM,T Berger,D Lettner,J Rubin,P Grünbacher,A Silva,M Becker,M Chechik,K Czarnecki,16,25,2015,2015,m
+ref3,Efficient control flow quantification,ACM SIGPLAN Notices,ACM,C Bockisch,S Kanthak,M Haupt,M Arnold,M Mezini,41,125,138,2006,2006,j
+ref4,Efficient layer activation for switching contextdependent behavior,Modular Programming Languages, Lecture Notes in Computer Science,Springer,D. Lightfoot, C. Szyperski,P Costanza,R Hirschfeld,W De Meuter,4228,84,103,2006,2006,http://dx.doi.org/10.1007/11860990_7,m
+ref5,The what, who, where, when, why and how of context-awareness,CHI '00 Extended Abstracts on Human Factors in Computing Systems, CHI EA '00,ACM,A K Dey,G D Abowd,NY,2000,2000,ftp://ftp.cc.gatech.edu/pub/gvu/tr/1999/99-22.pdf,m
+ref6,Selecting empirical methods for software engineering research,Guide to Advanced Empirical Software Engineering,Springer,F. Shull, J. Singer, D. Sjøberg,S Easterbrook,J Singer,M A Storey,D Damian,285,311,2008,2008,http://dx.doi.org/10.1007/978-1-84800-044-5_11,m
+ref7,Theory building from cases: opportunities and challenges,Academy of management journal,K M Eisenhardt,M E Graebner,50,1,25,32,2007,2007,j
+ref8,A comprehensive solution for application-level adaptation,Software: Practice and Experience,K Geihs,P Barone,F Eliassen,J Floch,R Fricke,E Gjorven,S Hallsteinsen,G Horn,M U Khan,A Mamelli,G A Papadopoulos,N Paspallis,R Reichle,E Stav,39,4,385,422,2009,2009,http://dx.doi.org/10.1002/spe.900,j
+ref9,A middleware for building context-aware mobile services,Vehicular Technology Conference,IEEE,T Gu,H K Pung,D Q Zhang,5,VTC 2004-Spring. 2004 IEEE 59th,2656,2660,2004,2004,m
+ref10,Software variability: the design space of configuration languages,Proceedings of the 6th Workshop on Variability Modeling of SoftwareIntensive Systems,ACM,S Günther,T Cleenewerck,V Jonckers,157,164,2012,2012,m
+ref11,A declarative approach to automated configuration,LISA,J A Hewson,P Anderson,A D Gordon,12,51,66,2012,2012,m
+ref12,Context-aware systems: A literature review and classification,Expert Systems with Applications,H Jong-Yi,S Eui-Ho,K Sung-Jin,36,4,8509,8522,2009,2009,http://dx.doi.org/10.1016/j.eswa.2008.10.071,j
+ref13,Context-oriented software engineering: A modularity vision,Proceedings of the 13th International Conference on Modularity, MODULARITY’14,ACM,T Kamina,T Aotani,H Masuhara,T Tamai,New York, NY, USA,85,98,2014,2014,m
+ref14,Context-oriented programming: Beyond layers,Proceedings of the 2007 International Conference on Dynamic Languages, ICDL '07,ACM,M von Löwis,M Denker,O Nierstrasz,NY, USA,143,156,2007,2007,http://dx.doi.org/10.1145/1352678.1352688,m
+ref15,Primitive component architecture description language,Informatics and Systems (INFOS), 2010 The 7th International Conference on,B Magableh,S Barrett,1,7,2010,2010,m
+ref16,Mining configuration constraints: Static analyses and empirical results,Proceedings of the 36th International Conference on Software Engineering, ICSE 2014,ACM,S Nadi,T Berger,C Kästner,K Czarnecki,New York, NY, USA,140,151,2014,2014,10.1145/2568225.2568283,http://dx.doi.org/10.1145/2568225.2568283,m
+ref17,Wif4inl: Web-based integration framework for indoor location,International Journal of Pervasive Computing and Communications,L Niu,S Saiki,S Matsumoto,M Nakamura,2016,2016,j
+ref18,A modular approach to configuration storage,Master’s thesis,Vienna University of Technology,M Raab,2010,2010,m
+ref19,Global and thread-local activation of contextual program execution environments,Proceedings of the IEEE 18th International Symposium on Real-Time Distributed Computing Workshops (ISORCW/SEUS),M Raab,34,41,2015,2015,10.1109/ISORCW.2015.52,m
+ref20,Sharing software configuration via specified links and transformation rules,Technical Report from KPS 2015,Vienna University of Technology, Complang Group,M Raab,18,2015,2015,m
+ref21,Program execution environments as contextual values,Proceedings of 6th International Workshop on Context-Oriented Programming,ACM,M Raab,F Puntigam,NY, USA,8:1,8:2,2014,2014,http://dx.doi.org/10.1145/2637066.2637074,m
+ref22,Static extraction of program configuration options,Software Engineering (ICSE), 2011 33rd International Conference on,IEEE,A Rabkin,R Katz,131,140,2011,2011,m
+ref23,Unearthing design patterns to support context-awareness,Pervasive Computing and CommunicationsWorkshops, 2006. PerCom Workshops 2006. Fourth Annual IEEE International Conference on,O Riva,C di Flora,S Russo,K Raatikainen,5,387,2006,2006,http://dx.doi.org/10.1109/PERCOMW.2006.138,m
+ref24,Context-oriented programming: A software engineering perspective,Journal of Systems and Software,G Salvaneschi,C Ghezzi,M Pradella,85,8,1801,1817,2012,2012,http://dx.doi.org/10.1016/j.jss.2012.03.024,j
+ref25,Formal methods in software product line engineering,IEEE Computer,I Schaefer,R Hähnle,44,2,82,85,2011,2011,j
+ref26,A graph-based operational semantics for contextoriented programming,Proceedings of the 2Nd International Workshop on ContextOriented Programming, COP '10,ACM,H Schippers,T Molderez,D Janssens,NY, USA,2010,2010,10.1145/1930021.1930027,http://dx.doi.org/10.1145/1930021.1930027,m
+ref27,Contextual values,Proceedings of the 2008 Symposium on Dynamic Languages, DLS '08,ACM,E Tanter,NY, USA,3:1,3:1,2008,2008,10.1145/1408681.1408684,http://dx.doi.org/10.1145/1408681.1408684,m
+ref28,An empirical study on configuration errors in commercial and open source systems,Proceedings of the Twenty-Third ACM Symposium on Operating Systems Principles, SOSP '11,ACM,Z Yin,X Ma,J Zheng,Y Zhou,L N Bairavasundaram,S Pasupathy,New York, NY, USA,159,172,2011,2011,10.1145/2043556.2043572,m
+ref29,Characterizing logging practices in open-source software,Proceedings of the 34th International Conference on Software Engineering, ICSE '12,IEEE Press,D Yuan,S Park,Y Zhou,Piscataway, NJ, USA,102,112,2012,2012,http://dl.acm.org/citation.cfm?id=2337223.2337236,m</t>
+  </si>
+  <si>
+    <t>ref1,A survey on context-aware systems,International Journal of Ad Hoc and Ubiquitous Computing,M. Baldauf,S. Dustdar,F. Rosenberg,2,4,263,277,2007
+ref2,What is a feature?: a qualitative study of features in industrial software product lines,In: Proceedings of the 19th International Conference on Software Product Line,T. Berger,D. Lettner,J. Rubin,P. Silva,A. Becker,M. Chechik,M. Czarnecki,K.,16,25,2015
+ref3,Efficient control flow quantification,In: ACM SIGPLAN Notices,C. Bockisch,S. Kanthak,M. Haupt,M. Arnold,M. Mezini,41,125,138,2006
+ref4,Efficient layer activation for switching contextdependent behavior,Modular Programming Languages, Lecture Notes in Computer Science,P. Costanza,R. Hirschfeld,De Meuter,C. Lightfoot,4228,7,103,2006
+ref5,The what, who, where, when, why and how of context-awareness,In: CHI '00 Extended Abstracts on Human Factors in Computing Systems, CHI EA '00,A.K. Dey,G.D.: Abowd,NY,22,2000
+ref6,Selecting empirical methods for software engineering research,S. Easterbrook,J. Singer,M.A. Storey,D. Damian,F. Shull,J. Singer,11,311,2008
+ref7,Theory building from cases: opportunities and challenges,Academy of management journal 50(1),K.M. Eisenhardt,M.E. Graebner,25,32,2007
+ref8,A comprehensive solution for application-level adaptation,Software: Practice and Experience,K. Geihs,P. Barone,F. Eliassen,J. Floch,R. Fricke,E. Gjorven,S. Hallsteinsen,G. Horn,M.U. Khan,A. Mamelli,G.A. Papadopoulos,N. Paspallis,R. Reichle,Stav,39,4,385,422,2009
+ref9,A middleware for building context-aware mobile services,2004 IEEE 59th,T. Gu,H.K. Pung,D.Q.: Zhang,5,2656,2660,2004
+ref10,Software variability: the design space of configuration languages,In: Proceedings of the 6th Workshop on Variability Modeling of SoftwareIntensive Systems,S. Cleenewerck,T. Jonckers,V.,157,164,2012
+ref11,A declarative approach to automated configuration,In: LISA,J.A. Hewson,P. Anderson,A.D.: Gordon,12,51,66,2012
+ref12,Context-aware systems: A literature review and classification,Expert Systems with Applications,K. Sung-Jin,10,4,8509,8522,2008
+ref13,Context-oriented software engineering: A modularity vision,In: Proceedings of the 13th International Conference on Modularity, MODULARITY '14,T. Kamina,T. Aotani,H. Masuhara,T. Tamai,85,98,2014
+ref14,Context-oriented programming: Beyond layers,In: Proceedings of the 2007 International Conference on Dynamic Languages, ICDL '07,M. Denker,M. Nierstrasz,O.,143,156,2007
+ref15,Primitive component architecture description language,In: Informatics and Systems (INFOS),B. Magableh,S. Barrett,1,7,2010
+ref16,Mining configuration constraints: Static analyses and empirical results,DOI 10,S. Nadi,T. Berger,C. Czarnecki,K.,140,151,2014
+ref17,Wif4inl: Web-based integration framework for indoor location,International Journal of Pervasive Computing and Communications,L. Niu,S. Saiki,S. Matsumoto,M.: Nakamura,2016
+ref18,A modular approach to configuration storage,Master's thesis,M.: Raab,2010
+ref19,Global and thread-local activation of contextual program execution environments,DOI 10,M. Raab,34,41,2015
+ref20,Sharing software configuration via specified links and transformation rules,In: Technical Report from KPS,M. Raab,18,2015
+ref21,Program execution environments as contextual values,In: Proceedings of 6th International Workshop on Context-Oriented Programming,M. Raab,F. Puntigam,8,8,6,2014
+ref22,Static extraction of program configuration options,In: Software Engineering (ICSE),A. Rabkin,Katz,131,140,2011
+ref23,PerCom Workshops 2006,In: Pervasive Computing and Communications Workshops,O. Riva,C. di Flora,S. Russo,K. Raatikainen,387,2006
+ref24,Context-oriented programming: A software engineering perspective,Journal of Systems and Software,G. Salvaneschi,C. Ghezzi,M. Pradella,03,8,1801,1817,2012
+ref25,Formal methods in software product line engineering,IEEE Computer 44(2),I. Schaefer,82,85,2011
+ref26,A graph-based operational semantics for contextoriented programming,DOI 10,H. Schippers,T. Molderez,D.: Janssens,2010
+ref27,Contextual values,DOI 10,Tanter,3,10,3,2008
+ref28,An empirical study on configuration errors in commercial and open source systems,DOI 10,Z. Yin,X. Ma,J. Zheng,Y. Zhou,L.N. Bairavasundaram,S.: Pasupathy,159,172,2011
+ref29,Characterizing logging practices in open-source software,In: Proceedings of the 34th International Conference on Software Engineering, ICSE '12,D. Yuan,S. Park,Y. Zhou,2337223,2337236,112,2012</t>
   </si>
   <si>
     <t>TUW-257870</t>
   </si>
   <si>
-    <t>j
-j</t>
+    <t>ref1,Why do few assistive technology systems make it to market? The case of the HandyHelper project,UAIS,Jean D Hallewell Haslwanter,Geraldine Fitzpatrick,in press,2016,2016,j
+ref2,What matters to older people with assisted living needs? A phenomenological analysis of the use and non-use of telehealth and telecare,Soc Sci Med,Trisha Greenhalgh,Joe Wherton,Paul Sugarhood,Sue Hinder,Rob Procter,Rob Stones,93,86,94,2013,2013,http://dx.doi.org/10.1016/j.socscimed.2013.05.036
+ref3,"Grandma, You Should Do It - It's Cool" - Older Adults and the Role of Family Members in Their Acceptance of Technology,IJERPH,Katrien Luijkx,Sebastiaan Peek,Eveline Wouters,12,12,15470,15485,2015,2015,http://dx.doi.org/10.3390/ijerph121214999,j</t>
+  </si>
+  <si>
+    <t>ref1,Why do few assistive technology systems make it to market? The case of the HandyHelper project,UAIS (in press).,D. Hallewell Jean,Geraldine Haslwanter,Fitzpatrick,2016
+ref2,Trisha Greenhalgh,Rob Stones,2013
+ref3,What matters to older people with assisted living needs? A phenomenological analysis of the use and non-use of telehealth and telecare,Soc Sci Med,,93,86,94
+ref4,,05,2013
+ref5,"Grandma, You Should Do It - It's Cool" - Older Adults and the Role of Family Members in Their Acceptance of Technology,Katrien Luijkx,Eveline Wouters,2015
+ref6,IJERPH,,12,12,15470,15485
+ref7,</t>
   </si>
 </sst>
 </file>
@@ -4164,8 +6151,8 @@
     <col min="2" max="2" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="237.34765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="1.03515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="255.0" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.31640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="4.9296875" customWidth="true" bestFit="true"/>
@@ -4188,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="n" s="7">
         <v>1.0</v>
@@ -4202,7 +6189,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="11">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138011.pdf")</f>
@@ -4214,10 +6201,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138011-xstream.xml")</f>
       </c>
       <c r="E2" t="s" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n" s="16">
         <v>1.0</v>
@@ -4231,7 +6218,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="20">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138447.pdf")</f>
@@ -4243,13 +6230,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138447-xstream.xml")</f>
       </c>
       <c r="E3" t="s" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s" s="25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n" s="26">
         <v>0.0</v>
@@ -4260,7 +6247,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="29">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138544.pdf")</f>
@@ -4272,24 +6259,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138544-xstream.xml")</f>
       </c>
       <c r="E4" t="s" s="32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n" s="34">
-        <v>1.0</v>
+        <v>0.71</v>
       </c>
       <c r="H4" t="n" s="35">
-        <v>1.0</v>
+        <v>0.71</v>
       </c>
       <c r="I4" t="n" s="36">
-        <v>1.0</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-138547.pdf")</f>
@@ -4301,24 +6288,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-138547-xstream.xml")</f>
       </c>
       <c r="E5" t="s" s="41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="42">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n" s="43">
-        <v>1.0</v>
+        <v>0.86</v>
       </c>
       <c r="H5" t="n" s="44">
-        <v>1.0</v>
+        <v>0.86</v>
       </c>
       <c r="I5" t="n" s="45">
-        <v>1.0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="46">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="47">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139299.pdf")</f>
@@ -4330,24 +6317,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139299-xstream.xml")</f>
       </c>
       <c r="E6" t="s" s="50">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s" s="51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n" s="52">
-        <v>1.0</v>
+        <v>0.91</v>
       </c>
       <c r="H6" t="n" s="53">
-        <v>1.0</v>
+        <v>0.91</v>
       </c>
       <c r="I6" t="n" s="54">
-        <v>1.0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="55">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="56">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139761.pdf")</f>
@@ -4359,10 +6346,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139761-xstream.xml")</f>
       </c>
       <c r="E7" t="s" s="59">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="60">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n" s="61">
         <v>0.0</v>
@@ -4376,7 +6363,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="65">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139769.pdf")</f>
@@ -4388,10 +6375,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139769-xstream.xml")</f>
       </c>
       <c r="E8" t="s" s="68">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s" s="69">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n" s="70">
         <v>1.0</v>
@@ -4405,7 +6392,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="73">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="74">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139781.pdf")</f>
@@ -4417,10 +6404,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139781-xstream.xml")</f>
       </c>
       <c r="E9" t="s" s="77">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s" s="78">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n" s="79">
         <v>1.0</v>
@@ -4434,7 +6421,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="82">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10" s="83">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-139785.pdf")</f>
@@ -4446,24 +6433,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-139785-xstream.xml")</f>
       </c>
       <c r="E10" t="s" s="86">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s" s="87">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n" s="88">
-        <v>1.0</v>
+        <v>0.82</v>
       </c>
       <c r="H10" t="n" s="89">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I10" t="n" s="90">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="91">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" s="92">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140047.pdf")</f>
@@ -4475,24 +6462,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140047-xstream.xml")</f>
       </c>
       <c r="E11" t="s" s="95">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="96">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G11" t="n" s="97">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n" s="98">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n" s="99">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="100">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" s="101">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140048.pdf")</f>
@@ -4504,24 +6491,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140048-xstream.xml")</f>
       </c>
       <c r="E12" t="s" s="104">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s" s="105">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n" s="106">
-        <v>0.0</v>
+        <v>0.73</v>
       </c>
       <c r="H12" t="n" s="107">
-        <v>0.0</v>
+        <v>0.85</v>
       </c>
       <c r="I12" t="n" s="108">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="109">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B13" s="110">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140229.pdf")</f>
@@ -4533,24 +6520,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140229-xstream.xml")</f>
       </c>
       <c r="E13" t="s" s="113">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="114">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n" s="115">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n" s="116">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="I13" t="n" s="117">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="118">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B14" s="119">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140253.pdf")</f>
@@ -4562,10 +6549,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140253-xstream.xml")</f>
       </c>
       <c r="E14" t="s" s="122">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="123">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G14" t="n" s="124">
         <v>1.0</v>
@@ -4579,7 +6566,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="127">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B15" s="128">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140308.pdf")</f>
@@ -4591,24 +6578,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140308-xstream.xml")</f>
       </c>
       <c r="E15" t="s" s="131">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="132">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n" s="133">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="H15" t="n" s="134">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="I15" t="n" s="135">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="136">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B16" s="137">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140533.pdf")</f>
@@ -4620,10 +6607,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140533-xstream.xml")</f>
       </c>
       <c r="E16" t="s" s="140">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="141">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G16" t="n" s="142">
         <v>1.0</v>
@@ -4637,7 +6624,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="145">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B17" s="146">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140867.pdf")</f>
@@ -4649,10 +6636,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140867-xstream.xml")</f>
       </c>
       <c r="E17" t="s" s="149">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="150">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n" s="151">
         <v>1.0</v>
@@ -4666,7 +6653,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="154">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B18" s="155">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140895.pdf")</f>
@@ -4678,24 +6665,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140895-xstream.xml")</f>
       </c>
       <c r="E18" t="s" s="158">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s" s="159">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G18" t="n" s="160">
-        <v>1.0</v>
+        <v>0.38</v>
       </c>
       <c r="H18" t="n" s="161">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n" s="162">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="163">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B19" s="164">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140983.pdf")</f>
@@ -4707,10 +6694,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140983-xstream.xml")</f>
       </c>
       <c r="E19" t="s" s="167">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="168">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G19" t="n" s="169">
         <v>1.0</v>
@@ -4724,7 +6711,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="172">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B20" s="173">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141024.pdf")</f>
@@ -4736,10 +6723,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141024-xstream.xml")</f>
       </c>
       <c r="E20" t="s" s="176">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s" s="177">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G20" t="n" s="178">
         <v>1.0</v>
@@ -4753,7 +6740,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="181">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B21" s="182">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141065.pdf")</f>
@@ -4765,24 +6752,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141065-xstream.xml")</f>
       </c>
       <c r="E21" t="s" s="185">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s" s="186">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G21" t="n" s="187">
-        <v>1.0</v>
+        <v>0.93</v>
       </c>
       <c r="H21" t="n" s="188">
-        <v>1.0</v>
+        <v>0.93</v>
       </c>
       <c r="I21" t="n" s="189">
-        <v>1.0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="190">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B22" s="191">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141121.pdf")</f>
@@ -4794,10 +6781,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141121-xstream.xml")</f>
       </c>
       <c r="E22" t="s" s="194">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s" s="195">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="G22" t="n" s="196">
         <v>1.0</v>
@@ -4811,7 +6798,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="199">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B23" s="200">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141140.pdf")</f>
@@ -4823,10 +6810,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141140-xstream.xml")</f>
       </c>
       <c r="E23" t="s" s="203">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s" s="204">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G23" t="n" s="205">
         <v>1.0</v>
@@ -4840,7 +6827,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="208">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B24" s="209">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141336.pdf")</f>
@@ -4852,24 +6839,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141336-xstream.xml")</f>
       </c>
       <c r="E24" t="s" s="212">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="213">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G24" t="n" s="214">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n" s="215">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n" s="216">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="217">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B25" s="218">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141618.pdf")</f>
@@ -4881,10 +6868,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141618-xstream.xml")</f>
       </c>
       <c r="E25" t="s" s="221">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="222">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G25" t="n" s="223">
         <v>1.0</v>
@@ -4898,7 +6885,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="226">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B26" s="227">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141758.pdf")</f>
@@ -4910,24 +6897,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141758-xstream.xml")</f>
       </c>
       <c r="E26" t="s" s="230">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="231">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G26" t="n" s="232">
-        <v>0.0</v>
+        <v>0.68</v>
       </c>
       <c r="H26" t="n" s="233">
-        <v>0.0</v>
+        <v>0.61</v>
       </c>
       <c r="I26" t="n" s="234">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="235">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B27" s="236">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168222.pdf")</f>
@@ -4939,10 +6926,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168222-xstream.xml")</f>
       </c>
       <c r="E27" t="s" s="239">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="240">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G27" t="n" s="241">
         <v>1.0</v>
@@ -4956,7 +6943,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="244">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B28" s="245">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168482.pdf")</f>
@@ -4968,13 +6955,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168482-xstream.xml")</f>
       </c>
       <c r="E28" t="s" s="248">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s" s="249">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s" s="250">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n" s="251">
         <v>0.0</v>
@@ -4985,7 +6972,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="253">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B29" s="254">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-169511.pdf")</f>
@@ -4997,10 +6984,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-169511-xstream.xml")</f>
       </c>
       <c r="E29" t="s" s="257">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="258">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G29" t="n" s="259">
         <v>1.0</v>
@@ -5014,7 +7001,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="262">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B30" s="263">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-172697.pdf")</f>
@@ -5026,13 +7013,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-172697-xstream.xml")</f>
       </c>
       <c r="E30" t="s" s="266">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s" s="267">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s" s="268">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n" s="269">
         <v>0.0</v>
@@ -5043,7 +7030,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="271">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B31" s="272">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-174216.pdf")</f>
@@ -5055,24 +7042,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-174216-xstream.xml")</f>
       </c>
       <c r="E31" t="s" s="275">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s" s="276">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G31" t="n" s="277">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="H31" t="n" s="278">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="I31" t="n" s="279">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="280">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B32" s="281">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-175428.pdf")</f>
@@ -5084,24 +7071,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-175428-xstream.xml")</f>
       </c>
       <c r="E32" t="s" s="284">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s" s="285">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G32" t="n" s="286">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="H32" t="n" s="287">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
       <c r="I32" t="n" s="288">
-        <v>0.0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="289">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B33" s="290">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-176087.pdf")</f>
@@ -5113,24 +7100,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-176087-xstream.xml")</f>
       </c>
       <c r="E33" t="s" s="293">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s" s="294">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G33" t="n" s="295">
-        <v>0.08</v>
+        <v>1.0</v>
       </c>
       <c r="H33" t="n" s="296">
-        <v>0.07</v>
+        <v>0.87</v>
       </c>
       <c r="I33" t="n" s="297">
-        <v>0.07</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="298">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B34" s="299">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-177140.pdf")</f>
@@ -5142,24 +7129,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-177140-xstream.xml")</f>
       </c>
       <c r="E34" t="s" s="302">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s" s="303">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n" s="304">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="H34" t="n" s="305">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="I34" t="n" s="306">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="307">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B35" s="308">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-179146.pdf")</f>
@@ -5171,10 +7158,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-179146-xstream.xml")</f>
       </c>
       <c r="E35" t="s" s="311">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s" s="312">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G35" t="n" s="313">
         <v>1.0</v>
@@ -5188,7 +7175,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="316">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B36" s="317">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-180162.pdf")</f>
@@ -5200,24 +7187,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-180162-xstream.xml")</f>
       </c>
       <c r="E36" t="s" s="320">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s" s="321">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="G36" t="n" s="322">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
       <c r="H36" t="n" s="323">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
       <c r="I36" t="n" s="324">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="325">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B37" s="326">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
@@ -5229,10 +7216,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s" s="329">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s" s="330">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="G37" t="n" s="331">
         <v>1.0</v>
@@ -5246,7 +7233,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="334">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B38" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
@@ -5258,24 +7245,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s" s="338">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s" s="339">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="G38" t="n" s="340">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H38" t="n" s="341">
-        <v>0.0</v>
+        <v>0.82</v>
       </c>
       <c r="I38" t="n" s="342">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="343">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B39" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
@@ -5287,24 +7274,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s" s="347">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s" s="348">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="G39" t="n" s="349">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" t="n" s="350">
-        <v>0.0</v>
+        <v>0.42</v>
       </c>
       <c r="I39" t="n" s="351">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="352">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B40" s="353">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
@@ -5316,10 +7303,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-185321-xstream.xml")</f>
       </c>
       <c r="E40" t="s" s="356">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s" s="357">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="G40" t="n" s="358">
         <v>1.0</v>
@@ -5333,7 +7320,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="361">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B41" s="362">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
@@ -5345,24 +7332,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-185441-xstream.xml")</f>
       </c>
       <c r="E41" t="s" s="365">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s" s="366">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G41" t="n" s="367">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n" s="368">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="n" s="369">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="370">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B42" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
@@ -5374,10 +7361,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-186227-xstream.xml")</f>
       </c>
       <c r="E42" t="s" s="374">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s" s="375">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="G42" t="n" s="376">
         <v>1.0</v>
@@ -5391,7 +7378,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="379">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B43" s="380">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
@@ -5403,24 +7390,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s" s="383">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s" s="384">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="G43" t="n" s="385">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n" s="386">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n" s="387">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="388">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B44" s="389">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
@@ -5432,24 +7419,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191715-xstream.xml")</f>
       </c>
       <c r="E44" t="s" s="392">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s" s="393">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="G44" t="n" s="394">
-        <v>1.0</v>
+        <v>0.97</v>
       </c>
       <c r="H44" t="n" s="395">
-        <v>1.0</v>
+        <v>0.97</v>
       </c>
       <c r="I44" t="n" s="396">
-        <v>1.0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="397">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B45" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
@@ -5461,10 +7448,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s" s="401">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s" s="402">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="G45" t="n" s="403">
         <v>1.0</v>
@@ -5478,7 +7465,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="406">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B46" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
@@ -5490,24 +7477,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s" s="410">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s" s="411">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="G46" t="n" s="412">
-        <v>0.0</v>
+        <v>0.94</v>
       </c>
       <c r="H46" t="n" s="413">
-        <v>0.0</v>
+        <v>0.94</v>
       </c>
       <c r="I46" t="n" s="414">
-        <v>0.0</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="415">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B47" s="416">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
@@ -5519,24 +7506,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194085-xstream.xml")</f>
       </c>
       <c r="E47" t="s" s="419">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s" s="420">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="G47" t="n" s="421">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H47" t="n" s="422">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="I47" t="n" s="423">
-        <v>0.0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="424">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B48" s="425">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
@@ -5548,24 +7535,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194561-xstream.xml")</f>
       </c>
       <c r="E48" t="s" s="428">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s" s="429">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="G48" t="n" s="430">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
       <c r="H48" t="n" s="431">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
       <c r="I48" t="n" s="432">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="433">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B49" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
@@ -5577,10 +7564,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194660-xstream.xml")</f>
       </c>
       <c r="E49" t="s" s="437">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="F49" t="s" s="438">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="G49" t="n" s="439">
         <v>1.0</v>
@@ -5594,7 +7581,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="442">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B50" s="443">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
@@ -5606,24 +7593,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-197422-xstream.xml")</f>
       </c>
       <c r="E50" t="s" s="446">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s" s="447">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="G50" t="n" s="448">
-        <v>0.0</v>
+        <v>0.96</v>
       </c>
       <c r="H50" t="n" s="449">
-        <v>0.0</v>
+        <v>0.96</v>
       </c>
       <c r="I50" t="n" s="450">
-        <v>0.0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="451">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B51" s="452">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
@@ -5635,24 +7622,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-197852-xstream.xml")</f>
       </c>
       <c r="E51" t="s" s="455">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s" s="456">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="G51" t="n" s="457">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H51" t="n" s="458">
-        <v>0.0</v>
+        <v>0.29</v>
       </c>
       <c r="I51" t="n" s="459">
-        <v>0.0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="460">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B52" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
@@ -5664,24 +7651,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s" s="464">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s" s="465">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="G52" t="n" s="466">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" t="n" s="467">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="I52" t="n" s="468">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="469">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B53" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
@@ -5693,24 +7680,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s" s="473">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="F53" t="s" s="474">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="G53" t="n" s="475">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n" s="476">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I53" t="n" s="477">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="478">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B54" s="479">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
@@ -5722,10 +7709,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s" s="482">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s" s="483">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G54" t="n" s="484">
         <v>1.0</v>
@@ -5739,7 +7726,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="487">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="B55" s="488">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
@@ -5751,13 +7738,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s" s="491">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s" s="492">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s" s="493">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H55" t="n" s="494">
         <v>0.0</v>
@@ -5768,7 +7755,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="496">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="B56" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
@@ -5780,24 +7767,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200745-xstream.xml")</f>
       </c>
       <c r="E56" t="s" s="500">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s" s="501">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="G56" t="n" s="502">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n" s="503">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I56" t="n" s="504">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="505">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B57" s="506">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
@@ -5809,24 +7796,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200748-xstream.xml")</f>
       </c>
       <c r="E57" t="s" s="509">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s" s="510">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="G57" t="n" s="511">
-        <v>1.0</v>
+        <v>0.57</v>
       </c>
       <c r="H57" t="n" s="512">
+        <v>0.1</v>
+      </c>
+      <c r="I57" t="n" s="513">
         <v>0.17</v>
-      </c>
-      <c r="I57" t="n" s="513">
-        <v>0.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="514">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="B58" s="515">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
@@ -5838,24 +7825,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s" s="518">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s" s="519">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="G58" t="n" s="520">
-        <v>1.0</v>
+        <v>0.76</v>
       </c>
       <c r="H58" t="n" s="521">
-        <v>1.0</v>
+        <v>0.76</v>
       </c>
       <c r="I58" t="n" s="522">
-        <v>1.0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="523">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="B59" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
@@ -5867,24 +7854,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s" s="527">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="F59" t="s" s="528">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G59" t="n" s="529">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H59" t="n" s="530">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I59" t="n" s="531">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="532">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="B60" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
@@ -5896,24 +7883,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200959-xstream.xml")</f>
       </c>
       <c r="E60" t="s" s="536">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="F60" t="s" s="537">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="G60" t="n" s="538">
-        <v>1.0</v>
+        <v>0.85</v>
       </c>
       <c r="H60" t="n" s="539">
-        <v>1.0</v>
+        <v>0.85</v>
       </c>
       <c r="I60" t="n" s="540">
-        <v>1.0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="541">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="B61" s="542">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
@@ -5925,10 +7912,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201066-xstream.xml")</f>
       </c>
       <c r="E61" t="s" s="545">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="F61" t="s" s="546">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="G61" t="n" s="547">
         <v>1.0</v>
@@ -5942,7 +7929,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="550">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B62" s="551">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
@@ -5954,24 +7941,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201160-xstream.xml")</f>
       </c>
       <c r="E62" t="s" s="554">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="F62" t="s" s="555">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="G62" t="n" s="556">
-        <v>1.0</v>
+        <v>0.86</v>
       </c>
       <c r="H62" t="n" s="557">
-        <v>1.0</v>
+        <v>0.86</v>
       </c>
       <c r="I62" t="n" s="558">
-        <v>1.0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="559">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="B63" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
@@ -5983,24 +7970,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201167-xstream.xml")</f>
       </c>
       <c r="E63" t="s" s="563">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="F63" t="s" s="564">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="G63" t="n" s="565">
-        <v>1.0</v>
+        <v>0.83</v>
       </c>
       <c r="H63" t="n" s="566">
-        <v>1.0</v>
+        <v>0.83</v>
       </c>
       <c r="I63" t="n" s="567">
-        <v>1.0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="568">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B64" s="569">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
@@ -6012,24 +7999,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s" s="572">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="F64" t="s" s="573">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="G64" t="n" s="574">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="n" s="575">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" t="n" s="576">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="577">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="B65" s="578">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
@@ -6041,24 +8028,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202034-xstream.xml")</f>
       </c>
       <c r="E65" t="s" s="581">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="F65" t="s" s="582">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="G65" t="n" s="583">
-        <v>1.0</v>
+        <v>0.78</v>
       </c>
       <c r="H65" t="n" s="584">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="I65" t="n" s="585">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="586">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="B66" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
@@ -6070,13 +8057,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s" s="590">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s" s="592">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n" s="593">
         <v>0.0</v>
@@ -6087,7 +8074,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -6099,24 +8086,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-203409-xstream.xml")</f>
       </c>
       <c r="E67" t="s" s="599">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s" s="600">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s" s="601">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H67" t="s" s="602">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="I67" t="s" s="603">
-        <v>121</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -6128,24 +8115,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-203924-xstream.xml")</f>
       </c>
       <c r="E68" t="s" s="608">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="F68" t="s" s="609">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="G68" t="n" s="610">
-        <v>1.0</v>
+        <v>0.64</v>
       </c>
       <c r="H68" t="n" s="611">
-        <v>1.0</v>
+        <v>0.64</v>
       </c>
       <c r="I68" t="n" s="612">
-        <v>1.0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -6157,24 +8144,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s" s="618">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="G69" t="n" s="619">
-        <v>0.0</v>
+        <v>0.92</v>
       </c>
       <c r="H69" t="n" s="620">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I69" t="n" s="621">
-        <v>0.0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -6186,24 +8173,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-205557-xstream.xml")</f>
       </c>
       <c r="E70" t="s" s="626">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s" s="627">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="G70" t="n" s="628">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H70" t="n" s="629">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I70" t="n" s="630">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -6215,24 +8202,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-205933-xstream.xml")</f>
       </c>
       <c r="E71" t="s" s="635">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="F71" t="s" s="636">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="G71" t="n" s="637">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
       <c r="H71" t="n" s="638">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
       <c r="I71" t="n" s="639">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -6244,24 +8231,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="G72" t="n" s="646">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H72" t="n" s="647">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I72" t="n" s="648">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -6273,24 +8260,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-216744-xstream.xml")</f>
       </c>
       <c r="E73" t="s" s="653">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s" s="654">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="G73" t="n" s="655">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H73" t="n" s="656">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73" t="n" s="657">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -6302,24 +8289,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-217690-xstream.xml")</f>
       </c>
       <c r="E74" t="s" s="662">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="F74" t="s" s="663">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="G74" t="n" s="664">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="n" s="665">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I74" t="n" s="666">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -6331,24 +8318,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-217971-xstream.xml")</f>
       </c>
       <c r="E75" t="s" s="671">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s" s="672">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="G75" t="n" s="673">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="n" s="674">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I75" t="n" s="675">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -6360,24 +8347,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-221215-xstream.xml")</f>
       </c>
       <c r="E76" t="s" s="680">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="F76" t="s" s="681">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="G76" t="n" s="682">
-        <v>0.14</v>
+        <v>0.57</v>
       </c>
       <c r="H76" t="n" s="683">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I76" t="n" s="684">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -6389,24 +8376,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="G77" t="n" s="691">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H77" t="n" s="692">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I77" t="n" s="693">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -6418,24 +8405,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223973-xstream.xml")</f>
       </c>
       <c r="E78" t="s" s="698">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s" s="699">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="G78" t="n" s="700">
-        <v>0.04</v>
+        <v>1.0</v>
       </c>
       <c r="H78" t="n" s="701">
-        <v>0.04</v>
+        <v>1.0</v>
       </c>
       <c r="I78" t="n" s="702">
-        <v>0.04</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -6447,24 +8434,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-225252-xstream.xml")</f>
       </c>
       <c r="E79" t="s" s="707">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="F79" t="s" s="708">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="G79" t="n" s="709">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H79" t="n" s="710">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I79" t="n" s="711">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -6476,24 +8463,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-226000-xstream.xml")</f>
       </c>
       <c r="E80" t="s" s="716">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="F80" t="s" s="717">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="G80" t="n" s="718">
-        <v>0.07</v>
+        <v>0.93</v>
       </c>
       <c r="H80" t="n" s="719">
-        <v>0.07</v>
+        <v>0.93</v>
       </c>
       <c r="I80" t="n" s="720">
-        <v>0.07</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -6505,10 +8492,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-226016-xstream.xml")</f>
       </c>
       <c r="E81" t="s" s="725">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="F81" t="s" s="726">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="G81" t="n" s="727">
         <v>0.0</v>
@@ -6522,7 +8509,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -6534,24 +8521,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s" s="735">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="G82" t="n" s="736">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="H82" t="n" s="737">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="I82" t="n" s="738">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -6563,13 +8550,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-231707-xstream.xml")</f>
       </c>
       <c r="E83" t="s" s="743">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="F83" t="s" s="744">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G83" t="s" s="745">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n" s="746">
         <v>0.0</v>
@@ -6580,7 +8567,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -6592,24 +8579,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="F84" t="s" s="753">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="G84" t="n" s="754">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H84" t="n" s="755">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I84" t="n" s="756">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -6621,24 +8608,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="F85" t="s" s="762">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="G85" t="n" s="763">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="n" s="764">
-        <v>0.0</v>
+        <v>0.92</v>
       </c>
       <c r="I85" t="n" s="765">
-        <v>0.0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -6650,24 +8637,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236063-xstream.xml")</f>
       </c>
       <c r="E86" t="s" s="770">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="F86" t="s" s="771">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="G86" t="n" s="772">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H86" t="n" s="773">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I86" t="n" s="774">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -6679,10 +8666,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -6696,7 +8683,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -6708,24 +8695,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-237297-xstream.xml")</f>
       </c>
       <c r="E88" t="s" s="788">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="F88" t="s" s="789">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="G88" t="n" s="790">
-        <v>0.11</v>
+        <v>0.89</v>
       </c>
       <c r="H88" t="n" s="791">
-        <v>0.11</v>
+        <v>0.89</v>
       </c>
       <c r="I88" t="n" s="792">
-        <v>0.11</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -6737,24 +8724,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="G89" t="n" s="799">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H89" t="n" s="800">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I89" t="n" s="801">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -6766,24 +8753,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245336-xstream.xml")</f>
       </c>
       <c r="E90" t="s" s="806">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="F90" t="s" s="807">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="G90" t="n" s="808">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H90" t="n" s="809">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I90" t="n" s="810">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -6795,24 +8782,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="F91" t="s" s="816">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="G91" t="n" s="817">
-        <v>0.0</v>
+        <v>0.86</v>
       </c>
       <c r="H91" t="n" s="818">
-        <v>0.0</v>
+        <v>0.86</v>
       </c>
       <c r="I91" t="n" s="819">
-        <v>0.0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -6824,24 +8811,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="G92" t="n" s="826">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H92" t="n" s="827">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I92" t="n" s="828">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -6853,24 +8840,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247741-xstream.xml")</f>
       </c>
       <c r="E93" t="s" s="833">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="F93" t="s" s="834">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="G93" t="n" s="835">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H93" t="n" s="836">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I93" t="n" s="837">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -6882,10 +8869,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247743-xstream.xml")</f>
       </c>
       <c r="E94" t="s" s="842">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="F94" t="s" s="843">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="G94" t="n" s="844">
         <v>0.0</v>
@@ -6899,7 +8886,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -6911,13 +8898,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="F95" t="s" s="852">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s" s="853">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H95" t="n" s="854">
         <v>0.0</v>
@@ -6928,7 +8915,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -6940,24 +8927,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="F96" t="s" s="861">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="G96" t="n" s="862">
-        <v>0.0</v>
+        <v>0.94</v>
       </c>
       <c r="H96" t="n" s="863">
-        <v>0.0</v>
+        <v>0.94</v>
       </c>
       <c r="I96" t="n" s="864">
-        <v>0.0</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -6969,24 +8956,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-255712-xstream.xml")</f>
       </c>
       <c r="E97" t="s" s="869">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="F97" t="s" s="870">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="G97" t="n" s="871">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="H97" t="n" s="872">
-        <v>0.0</v>
+        <v>0.84</v>
       </c>
       <c r="I97" t="n" s="873">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -6998,10 +8985,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="F98" t="s" s="879">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="G98" t="n" s="880">
         <v>0.0</v>
@@ -7015,7 +9002,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -7027,24 +9014,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="F99" t="s" s="888">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="G99" t="n" s="889">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n" s="890">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="I99" t="n" s="891">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -7056,19 +9043,19 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s" s="897">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="G100" t="n" s="898">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="H100" t="n" s="899">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="I100" t="n" s="900">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
